--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6667</v>
+        <v>1999</v>
       </c>
       <c r="D4" t="n">
-        <v>3495</v>
+        <v>1086</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.48437, -0.386  , -0.55479]), TrackedArray([0.48423, 0.41667, 1.     ]))</t>
+          <t>(TrackedArray([-0.47977, -0.37978, -0.55037]), TrackedArray([0.48001, 0.41065, 0.99418]))</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>8216</v>
+        <v>1999</v>
       </c>
       <c r="D6" t="n">
-        <v>4346</v>
+        <v>1221</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.05689,  0.43324,  0.06667]), TrackedArray([0.26034, 1.     , 0.24996]))</t>
+          <t>(TrackedArray([-0.05669,  0.43324,  0.06685]), TrackedArray([0.26011, 0.99988, 0.2491 ]))</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8773</v>
+        <v>2000</v>
       </c>
       <c r="D7" t="n">
-        <v>4710</v>
+        <v>1204</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.50807, -0.46246, -0.67735]), TrackedArray([0.54479, 0.28949, 1.     ]))</t>
+          <t>(TrackedArray([-0.50807, -0.42704, -0.67716]), TrackedArray([0.52403, 0.28899, 0.82159]))</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>17998</v>
+        <v>1999</v>
       </c>
       <c r="D8" t="n">
-        <v>9184</v>
+        <v>1129</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.6047 , -0.84255, -0.78655]), TrackedArray([0.60478, 0.43103, 1.     ]))</t>
+          <t>(TrackedArray([-0.59729, -0.76788, -0.78242]), TrackedArray([0.59737, 0.42674, 0.99242]))</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -884,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>2204</v>
+        <v>2000</v>
       </c>
       <c r="D13" t="n">
-        <v>1143</v>
+        <v>1081</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -956,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>31432</v>
+        <v>2000</v>
       </c>
       <c r="D15" t="n">
-        <v>15752</v>
+        <v>1047</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -969,7 +969,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21952, -1.12634, -0.77325]), TrackedArray([0.19797, 0.19003, 1.     ]))</t>
+          <t>(TrackedArray([-0.21952, -1.1262 , -0.77325]), TrackedArray([0.19438, 0.18233, 0.99894]))</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1100,10 +1100,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6052</v>
+        <v>2000</v>
       </c>
       <c r="D19" t="n">
-        <v>3051</v>
+        <v>1008</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.22826, -0.94679, -0.81551]), TrackedArray([0.22825, 0.70258, 1.     ]))</t>
+          <t>(TrackedArray([-0.22826, -0.94679, -0.81551]), TrackedArray([0.22825, 0.70023, 0.99895]))</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1136,10 +1136,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>22258</v>
+        <v>2000</v>
       </c>
       <c r="D20" t="n">
-        <v>11105</v>
+        <v>1003</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.35452, -1.22658, -0.32695]), TrackedArray([1.     , 0.95969, 0.31138]))</t>
+          <t>(TrackedArray([-1.35302, -1.22602, -0.32695]), TrackedArray([0.99634, 0.95536, 0.30617]))</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1172,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2568</v>
+        <v>2000</v>
       </c>
       <c r="D21" t="n">
-        <v>1288</v>
+        <v>1061</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -1244,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2442</v>
+        <v>1999</v>
       </c>
       <c r="D23" t="n">
-        <v>1238</v>
+        <v>1012</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1280,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>15294</v>
+        <v>1999</v>
       </c>
       <c r="D24" t="n">
-        <v>7691</v>
+        <v>1006</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.89883, -1.2766 , -0.58423]), TrackedArray([1.     , 0.70123, 0.72898]))</t>
+          <t>(TrackedArray([-0.89268, -1.27274, -0.58278]), TrackedArray([0.99629, 0.69858, 0.72687]))</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1316,10 +1316,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>26032</v>
+        <v>1999</v>
       </c>
       <c r="D25" t="n">
-        <v>19105</v>
+        <v>2228</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30674,  0.39881, -0.29194]), TrackedArray([0.23417, 1.     , 0.20657]))</t>
+          <t>(TrackedArray([-0.30536,  0.39881, -0.2899 ]), TrackedArray([0.23147, 0.99761, 0.20407]))</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1352,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>16584</v>
+        <v>1999</v>
       </c>
       <c r="D26" t="n">
-        <v>11431</v>
+        <v>1683</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1388,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>10184</v>
+        <v>2000</v>
       </c>
       <c r="D27" t="n">
-        <v>8260</v>
+        <v>2144</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.02419,  0.98015, -0.06189]), TrackedArray([ 0.00118,  1.     , -0.03658]))</t>
+          <t>(TrackedArray([-0.02401,  0.98015, -0.06189]), TrackedArray([ 0.00118,  1.     , -0.03658]))</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1424,10 +1424,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>10544</v>
+        <v>1999</v>
       </c>
       <c r="D28" t="n">
-        <v>8453</v>
+        <v>2519</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.74295, -4.7828 , -0.63714]), TrackedArray([ 0.89102, -3.12489,  1.     ]))</t>
+          <t>(TrackedArray([-0.71133, -4.7828 , -0.56644]), TrackedArray([ 0.81255, -3.14475,  0.93342]))</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="n">
-        <v>17357</v>
+        <v>2000</v>
       </c>
       <c r="D29" t="n">
-        <v>13240</v>
+        <v>1965</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.46804, -1.99289, -0.1205 ]), TrackedArray([ 0.77391, -1.05188,  1.     ]))</t>
+          <t>(TrackedArray([-0.46804, -1.99289, -0.12021]), TrackedArray([ 0.77391, -1.05513,  1.     ]))</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1496,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>19610</v>
+        <v>1997</v>
       </c>
       <c r="D30" t="n">
-        <v>17830</v>
+        <v>2063</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1532,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>25760</v>
+        <v>2000</v>
       </c>
       <c r="D31" t="n">
-        <v>16333</v>
+        <v>2007</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1568,10 +1568,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>8864</v>
+        <v>2000</v>
       </c>
       <c r="D32" t="n">
-        <v>7930</v>
+        <v>2309</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.03914,  0.94013,  0.06768]), TrackedArray([0.00707, 1.     , 0.11306]))</t>
+          <t>(TrackedArray([-0.03914,  0.94013,  0.06768]), TrackedArray([0.00707, 0.99883, 0.11306]))</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1604,10 +1604,10 @@
         <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>7952</v>
+        <v>2000</v>
       </c>
       <c r="D33" t="n">
-        <v>5383</v>
+        <v>1713</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1640,10 +1640,10 @@
         <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>6764</v>
+        <v>2000</v>
       </c>
       <c r="D34" t="n">
-        <v>5331</v>
+        <v>2034</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.1019 ,  0.70567, -0.11137]), TrackedArray([0.08881, 1.     , 0.07948]))</t>
+          <t>(TrackedArray([-0.09056,  0.70567, -0.11065]), TrackedArray([0.08652, 1.     , 0.07948]))</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1676,10 +1676,10 @@
         <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>7196</v>
+        <v>2000</v>
       </c>
       <c r="D35" t="n">
-        <v>6257</v>
+        <v>1980</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1712,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>10680</v>
+        <v>1999</v>
       </c>
       <c r="D36" t="n">
-        <v>7529</v>
+        <v>1678</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1748,10 +1748,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>4292</v>
+        <v>1999</v>
       </c>
       <c r="D37" t="n">
-        <v>2950</v>
+        <v>1503</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1964,10 +1964,10 @@
         <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>3092</v>
+        <v>2000</v>
       </c>
       <c r="D43" t="n">
-        <v>1550</v>
+        <v>1004</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -2000,10 +2000,10 @@
         <v>11</v>
       </c>
       <c r="C44" t="n">
-        <v>4076</v>
+        <v>2000</v>
       </c>
       <c r="D44" t="n">
-        <v>1899</v>
+        <v>936</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>2199</v>
+        <v>1999</v>
       </c>
       <c r="D45" t="n">
-        <v>1116</v>
+        <v>1016</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -2072,10 +2072,10 @@
         <v>11</v>
       </c>
       <c r="C46" t="n">
-        <v>3756</v>
+        <v>2000</v>
       </c>
       <c r="D46" t="n">
-        <v>2186</v>
+        <v>1099</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -2108,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>2891</v>
+        <v>2000</v>
       </c>
       <c r="D47" t="n">
-        <v>1490</v>
+        <v>1017</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -2288,10 +2288,10 @@
         <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>11310</v>
+        <v>2000</v>
       </c>
       <c r="D52" t="n">
-        <v>6739</v>
+        <v>1180</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.41825,  0.14777,  0.07737]), TrackedArray([0.82205, 1.     , 0.46521]))</t>
+          <t>(TrackedArray([-0.41825,  0.14777,  0.08498]), TrackedArray([0.82205, 1.     , 0.46486]))</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2684,10 +2684,10 @@
         <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>2513</v>
+        <v>2000</v>
       </c>
       <c r="D63" t="n">
-        <v>1173</v>
+        <v>919</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -9.14393,  -4.18387, -31.95971]), TrackedArray([  1.     ,   0.76844, -15.9139 ]))</t>
+          <t>(TrackedArray([ -8.99631,  -4.18387, -31.95971]), TrackedArray([  0.9195 ,   0.76844, -15.9139 ]))</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2864,10 +2864,10 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>2094</v>
+        <v>2000</v>
       </c>
       <c r="D68" t="n">
-        <v>1066</v>
+        <v>1019</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2900,10 +2900,10 @@
         <v>13</v>
       </c>
       <c r="C69" t="n">
-        <v>14168</v>
+        <v>2000</v>
       </c>
       <c r="D69" t="n">
-        <v>7105</v>
+        <v>1020</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.54926, -0.25949, -0.19065]), TrackedArray([1.     , 0.4009 , 0.18955]))</t>
+          <t>(TrackedArray([-1.54923, -0.25949, -0.19065]), TrackedArray([1.     , 0.4009 , 0.18955]))</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2936,10 +2936,10 @@
         <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>17806</v>
+        <v>1999</v>
       </c>
       <c r="D70" t="n">
-        <v>8547</v>
+        <v>878</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.04014, -0.37787, -4.36387]), TrackedArray([ 1.    ,  0.4243, -1.6978]))</t>
+          <t>(TrackedArray([-1.03799, -0.37662, -4.35215]), TrackedArray([ 0.99784,  0.4243 , -1.7022 ]))</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -2958,10 +2958,10 @@
         </is>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2972,10 +2972,10 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>34708</v>
+        <v>1999</v>
       </c>
       <c r="D71" t="n">
-        <v>17766</v>
+        <v>1100</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.92803, -0.32886, -1.96752]), TrackedArray([1.     , 0.49619, 0.54516]))</t>
+          <t>(TrackedArray([-0.92803, -0.3255 , -1.96752]), TrackedArray([1.     , 0.49619, 0.44077]))</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3008,10 +3008,10 @@
         <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>116777</v>
+        <v>2000</v>
       </c>
       <c r="D72" t="n">
-        <v>58380</v>
+        <v>997</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.77508, -0.17131, -0.81564]), TrackedArray([0.92653, 0.26115, 1.     ]))</t>
+          <t>(TrackedArray([-0.77374, -0.17131, -0.81564]), TrackedArray([0.92653, 0.26099, 1.     ]))</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3044,10 +3044,10 @@
         <v>13</v>
       </c>
       <c r="C73" t="n">
-        <v>3460</v>
+        <v>1999</v>
       </c>
       <c r="D73" t="n">
-        <v>2046</v>
+        <v>1210</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.70235,  0.09724, -0.16871]), TrackedArray([1.     , 0.52287, 0.95571]))</t>
+          <t>(TrackedArray([-0.70235,  0.09724, -0.16848]), TrackedArray([1.     , 0.52285, 0.95548]))</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3080,10 +3080,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>2668</v>
+        <v>2000</v>
       </c>
       <c r="D74" t="n">
-        <v>1362</v>
+        <v>1028</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -3116,10 +3116,10 @@
         <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D75" t="n">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         <v>14</v>
       </c>
       <c r="C77" t="n">
-        <v>5323</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="n">
-        <v>3574</v>
+        <v>1341</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.00021, -3.60927, -0.30201]), TrackedArray([ 1.     , -0.46903,  0.88352]))</t>
+          <t>(TrackedArray([-1.00021, -3.60927, -0.30181]), TrackedArray([ 0.99986, -0.46903,  0.88352]))</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3224,10 +3224,10 @@
         <v>14</v>
       </c>
       <c r="C78" t="n">
-        <v>27535</v>
+        <v>2000</v>
       </c>
       <c r="D78" t="n">
-        <v>13609</v>
+        <v>1030</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.62422, -0.59061, -0.5116 ]), TrackedArray([0.62611, 1.     , 0.87069]))</t>
+          <t>(TrackedArray([-0.61364, -0.59061, -0.5116 ]), TrackedArray([0.61921, 1.     , 0.87069]))</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3332,10 +3332,10 @@
         <v>14</v>
       </c>
       <c r="C81" t="n">
-        <v>62933</v>
+        <v>2000</v>
       </c>
       <c r="D81" t="n">
-        <v>33128</v>
+        <v>1300</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65663, -0.46949, -1.10675]), TrackedArray([0.65203, 0.45189, 1.     ]))</t>
+          <t>(TrackedArray([-0.65562, -0.46782, -1.10675]), TrackedArray([0.64719, 0.45022, 1.     ]))</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3440,10 +3440,10 @@
         <v>14</v>
       </c>
       <c r="C84" t="n">
-        <v>6073</v>
+        <v>2000</v>
       </c>
       <c r="D84" t="n">
-        <v>3099</v>
+        <v>1040</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99775, -1.73796, -0.29283]), TrackedArray([1.     , 0.66532, 0.28107]))</t>
+          <t>(TrackedArray([-0.99775, -1.73796, -0.28906]), TrackedArray([1.     , 0.66532, 0.27729]))</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3476,10 +3476,10 @@
         <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>2496</v>
+        <v>2000</v>
       </c>
       <c r="D85" t="n">
-        <v>1293</v>
+        <v>1036</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -3548,10 +3548,10 @@
         <v>14</v>
       </c>
       <c r="C87" t="n">
-        <v>9528</v>
+        <v>2000</v>
       </c>
       <c r="D87" t="n">
-        <v>5986</v>
+        <v>1378</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.25664, 0.63262, 0.22425]), TrackedArray([0.69092, 1.     , 0.33364]))</t>
+          <t>(TrackedArray([0.25664, 0.63281, 0.22438]), TrackedArray([0.69092, 0.99957, 0.33269]))</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3620,10 +3620,10 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>6962</v>
+        <v>2000</v>
       </c>
       <c r="D89" t="n">
-        <v>4459</v>
+        <v>1365</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(TrackedArray([-2.2805 , -0.64398, -0.91659]), TrackedArray([1.     , 0.31296, 0.19046]))</t>
+          <t>(TrackedArray([-2.2805 , -0.64398, -0.91211]), TrackedArray([0.99855, 0.23174, 0.19086]))</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3656,10 +3656,10 @@
         <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>3260</v>
+        <v>2000</v>
       </c>
       <c r="D90" t="n">
-        <v>1644</v>
+        <v>1014</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -3692,10 +3692,10 @@
         <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>47613</v>
+        <v>1999</v>
       </c>
       <c r="D91" t="n">
-        <v>23803</v>
+        <v>1071</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.73027, -0.73625, -1.74508]), TrackedArray([0.74629, 0.42903, 1.     ]))</t>
+          <t>(TrackedArray([-0.72436, -0.7347 , -1.74553]), TrackedArray([0.73492, 0.42903, 0.99968]))</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3728,10 +3728,10 @@
         <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>7120</v>
+        <v>1999</v>
       </c>
       <c r="D92" t="n">
-        <v>4970</v>
+        <v>1277</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.72304, -0.03049, -0.24514]), TrackedArray([1.     , 0.29853, 0.62515]))</t>
+          <t>(TrackedArray([-0.72304, -0.03049, -0.24514]), TrackedArray([0.99834, 0.29643, 0.62515]))</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3764,10 +3764,10 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>50685</v>
+        <v>2000</v>
       </c>
       <c r="D93" t="n">
-        <v>24786</v>
+        <v>1115</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.50279, -0.11607, -0.16307]), TrackedArray([1.     , 0.18654, 0.11688]))</t>
+          <t>(TrackedArray([-0.44096, -0.1158 , -0.16307]), TrackedArray([1.     , 0.18654, 0.11688]))</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3800,10 +3800,10 @@
         <v>15</v>
       </c>
       <c r="C94" t="n">
-        <v>3269</v>
+        <v>1997</v>
       </c>
       <c r="D94" t="n">
-        <v>1621</v>
+        <v>1003</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -3836,10 +3836,10 @@
         <v>15</v>
       </c>
       <c r="C95" t="n">
-        <v>21007</v>
+        <v>1999</v>
       </c>
       <c r="D95" t="n">
-        <v>10969</v>
+        <v>1109</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.32383, -0.08616, -0.67978]), TrackedArray([0.32388, 0.24179, 1.     ]))</t>
+          <t>(TrackedArray([-0.32315, -0.08468, -0.67978]), TrackedArray([0.3232 , 0.24168, 1.     ]))</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -3872,10 +3872,10 @@
         <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>7879</v>
+        <v>1999</v>
       </c>
       <c r="D96" t="n">
-        <v>4284</v>
+        <v>1155</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.50618, -6.58178, -2.20529]), TrackedArray([ 1.     , -2.15557, -1.03008]))</t>
+          <t>(TrackedArray([-1.50618, -6.58178, -2.20529]), TrackedArray([ 1.     , -2.15557, -1.03283]))</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -3908,10 +3908,10 @@
         <v>15</v>
       </c>
       <c r="C97" t="n">
-        <v>12769</v>
+        <v>2000</v>
       </c>
       <c r="D97" t="n">
-        <v>6514</v>
+        <v>1079</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.39699, -0.12343, -0.82527]), TrackedArray([0.39603, 0.23794, 1.     ]))</t>
+          <t>(TrackedArray([-0.39699, -0.1212 , -0.82527]), TrackedArray([0.39603, 0.23794, 1.     ]))</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -3944,10 +3944,10 @@
         <v>15</v>
       </c>
       <c r="C98" t="n">
-        <v>10492</v>
+        <v>1998</v>
       </c>
       <c r="D98" t="n">
-        <v>4332</v>
+        <v>554</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.98808, -0.04003, -0.61654]), TrackedArray([1.     , 0.35263, 0.20993]))</t>
+          <t>(TrackedArray([-0.98601, -0.04003, -0.6158 ]), TrackedArray([0.84523, 0.35106, 0.2092 ]))</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3980,10 +3980,10 @@
         <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>95045</v>
+        <v>2000</v>
       </c>
       <c r="D99" t="n">
-        <v>47474</v>
+        <v>1046</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.62152, -0.3298 , -1.21918]), TrackedArray([0.61087, 0.5145 , 1.     ]))</t>
+          <t>(TrackedArray([-0.62152, -0.32683, -1.21918]), TrackedArray([0.61087, 0.5145 , 0.99841]))</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4016,10 +4016,10 @@
         <v>15</v>
       </c>
       <c r="C100" t="n">
-        <v>109357</v>
+        <v>2000</v>
       </c>
       <c r="D100" t="n">
-        <v>54710</v>
+        <v>1048</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.45707, -0.13262, -0.86615]), TrackedArray([0.45251, 0.30019, 1.     ]))</t>
+          <t>(TrackedArray([-0.45707, -0.1318 , -0.86615]), TrackedArray([0.45251, 0.29995, 1.     ]))</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4052,10 +4052,10 @@
         <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>20577</v>
+        <v>2000</v>
       </c>
       <c r="D101" t="n">
-        <v>10604</v>
+        <v>1038</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.7296 , -0.16279, -1.48031]), TrackedArray([0.7218 , 0.42704, 1.     ]))</t>
+          <t>(TrackedArray([-0.7296 , -0.16169, -1.47266]), TrackedArray([0.7218 , 0.42704, 1.     ]))</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4088,10 +4088,10 @@
         <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>11468</v>
+        <v>2000</v>
       </c>
       <c r="D102" t="n">
-        <v>6808</v>
+        <v>1294</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.16709, -0.31634, -0.09279]), TrackedArray([1.     , 0.49258, 0.41537]))</t>
+          <t>(TrackedArray([-1.16558, -0.3162 , -0.0927 ]), TrackedArray([1.     , 0.49232, 0.41241]))</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4160,10 +4160,10 @@
         <v>16</v>
       </c>
       <c r="C104" t="n">
-        <v>13450</v>
+        <v>2000</v>
       </c>
       <c r="D104" t="n">
-        <v>6727</v>
+        <v>1002</v>
       </c>
       <c r="E104" t="b">
         <v>1</v>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.39758, -0.42226, -0.39744]), TrackedArray([0.39758, 1.     , 0.39574]))</t>
+          <t>(TrackedArray([-0.39736, -0.42226, -0.39674]), TrackedArray([0.39504, 1.     , 0.39552]))</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4196,10 +4196,10 @@
         <v>16</v>
       </c>
       <c r="C105" t="n">
-        <v>3080</v>
+        <v>2000</v>
       </c>
       <c r="D105" t="n">
-        <v>1542</v>
+        <v>1002</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -4340,10 +4340,10 @@
         <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>4750</v>
+        <v>1999</v>
       </c>
       <c r="D109" t="n">
-        <v>2386</v>
+        <v>1008</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -4484,10 +4484,10 @@
         <v>16</v>
       </c>
       <c r="C113" t="n">
-        <v>12192</v>
+        <v>1999</v>
       </c>
       <c r="D113" t="n">
-        <v>6094</v>
+        <v>1004</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.50224, -0.53629, -0.50199]), TrackedArray([0.50223, 1.     , 0.50197]))</t>
+          <t>(TrackedArray([-0.49801, -0.53629, -0.50059]), TrackedArray([0.50011, 0.99802, 0.5004 ]))</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4520,10 +4520,10 @@
         <v>16</v>
       </c>
       <c r="C114" t="n">
-        <v>2944</v>
+        <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>1474</v>
+        <v>1002</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
@@ -4556,10 +4556,10 @@
         <v>16</v>
       </c>
       <c r="C115" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="D115" t="n">
-        <v>1282</v>
+        <v>994</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -4592,10 +4592,10 @@
         <v>17</v>
       </c>
       <c r="C116" t="n">
-        <v>3318</v>
+        <v>2000</v>
       </c>
       <c r="D116" t="n">
-        <v>1740</v>
+        <v>1082</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
@@ -4736,10 +4736,10 @@
         <v>17</v>
       </c>
       <c r="C120" t="n">
-        <v>7638</v>
+        <v>2000</v>
       </c>
       <c r="D120" t="n">
-        <v>3884</v>
+        <v>1134</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -5024,10 +5024,10 @@
         <v>17</v>
       </c>
       <c r="C128" t="n">
-        <v>3468</v>
+        <v>2000</v>
       </c>
       <c r="D128" t="n">
-        <v>1724</v>
+        <v>990</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
@@ -5096,10 +5096,10 @@
         <v>18</v>
       </c>
       <c r="C130" t="n">
-        <v>2046</v>
+        <v>2000</v>
       </c>
       <c r="D130" t="n">
-        <v>1146</v>
+        <v>1123</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -5240,10 +5240,10 @@
         <v>18</v>
       </c>
       <c r="C134" t="n">
-        <v>2450</v>
+        <v>1999</v>
       </c>
       <c r="D134" t="n">
-        <v>1336</v>
+        <v>1110</v>
       </c>
       <c r="E134" t="b">
         <v>1</v>
@@ -5312,10 +5312,10 @@
         <v>18</v>
       </c>
       <c r="C136" t="n">
-        <v>11832</v>
+        <v>2000</v>
       </c>
       <c r="D136" t="n">
-        <v>5930</v>
+        <v>1014</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.21139, -0.2426 , -0.78241]), TrackedArray([1.     , 0.3879 , 0.97508]))</t>
+          <t>(TrackedArray([-1.21139, -0.2426 , -0.78227]), TrackedArray([0.99999, 0.38694, 0.97508]))</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5348,10 +5348,10 @@
         <v>18</v>
       </c>
       <c r="C137" t="n">
-        <v>7250</v>
+        <v>1999</v>
       </c>
       <c r="D137" t="n">
-        <v>3823</v>
+        <v>1012</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.66031, -0.70769, -0.70634]), TrackedArray([0.66028, 1.     , 0.85486]))</t>
+          <t>(TrackedArray([-0.65977, -0.70769, -0.7038 ]), TrackedArray([0.66028, 0.99941, 0.85486]))</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5384,10 +5384,10 @@
         <v>18</v>
       </c>
       <c r="C138" t="n">
-        <v>26946</v>
+        <v>2000</v>
       </c>
       <c r="D138" t="n">
-        <v>15277</v>
+        <v>1014</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99926, -0.28604, -0.54402]), TrackedArray([1.     , 0.59156, 0.96566]))</t>
+          <t>(TrackedArray([-0.99926, -0.28604, -0.54402]), TrackedArray([1.     , 0.58705, 0.96566]))</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5600,10 +5600,10 @@
         <v>2</v>
       </c>
       <c r="C144" t="n">
-        <v>2547</v>
+        <v>2000</v>
       </c>
       <c r="D144" t="n">
-        <v>1350</v>
+        <v>1046</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -5636,10 +5636,10 @@
         <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>32574</v>
+        <v>2000</v>
       </c>
       <c r="D145" t="n">
-        <v>16287</v>
+        <v>1001</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.48746, -0.17671, -0.51986]), TrackedArray([0.49313, 0.19055, 1.     ]))</t>
+          <t>(TrackedArray([-0.48541, -0.17342, -0.5191 ]), TrackedArray([0.49129, 0.18957, 0.998  ]))</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5744,10 +5744,10 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>2338</v>
+        <v>1997</v>
       </c>
       <c r="D148" t="n">
-        <v>1224</v>
+        <v>1027</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.34203, -1.0526 , -0.18666]), TrackedArray([0.3402 , 1.     , 0.52362]))</t>
+          <t>(TrackedArray([-0.34203, -1.0521 , -0.18666]), TrackedArray([0.3402 , 1.     , 0.52362]))</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -5816,10 +5816,10 @@
         <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>6102</v>
+        <v>2000</v>
       </c>
       <c r="D150" t="n">
-        <v>3071</v>
+        <v>1105</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65736, -0.72886, -3.54295]), TrackedArray([0.58018, 0.39835, 1.     ]))</t>
+          <t>(TrackedArray([-0.65672, -0.72563, -3.54295]), TrackedArray([0.57825, 0.39835, 1.     ]))</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -5852,10 +5852,10 @@
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>5926</v>
+        <v>2000</v>
       </c>
       <c r="D151" t="n">
-        <v>3238</v>
+        <v>1150</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.86807, -3.51277, -0.34422]), TrackedArray([0.69948, 1.     , 0.99379]))</t>
+          <t>(TrackedArray([-0.86807, -3.51277, -0.34422]), TrackedArray([0.69502, 1.     , 0.99379]))</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -5996,10 +5996,10 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>5476</v>
+        <v>1999</v>
       </c>
       <c r="D155" t="n">
-        <v>2640</v>
+        <v>973</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.36688, -1.20126, -0.22027]), TrackedArray([0.36294, 1.     , 0.25027]))</t>
+          <t>(TrackedArray([-0.36463, -1.20047, -0.22027]), TrackedArray([0.36294, 1.     , 0.24727]))</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6032,10 +6032,10 @@
         <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>2576</v>
+        <v>2000</v>
       </c>
       <c r="D156" t="n">
-        <v>1290</v>
+        <v>1002</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.58109, -1.10662, -0.17335]), TrackedArray([0.59728, 1.     , 0.17741]))</t>
+          <t>(TrackedArray([-0.58054, -1.10662, -0.17335]), TrackedArray([0.59612, 1.     , 0.17741]))</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6104,10 +6104,10 @@
         <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>34333</v>
+        <v>1999</v>
       </c>
       <c r="D158" t="n">
-        <v>17526</v>
+        <v>1100</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.04194, -0.05098,  0.56213]), TrackedArray([0.48298, 0.63257, 1.     ]))</t>
+          <t>(TrackedArray([-0.04177, -0.04693,  0.56357]), TrackedArray([0.48246, 0.62985, 0.9982 ]))</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6140,10 +6140,10 @@
         <v>3</v>
       </c>
       <c r="C159" t="n">
-        <v>3972</v>
+        <v>2000</v>
       </c>
       <c r="D159" t="n">
-        <v>2081</v>
+        <v>1086</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51496, -0.28595, -0.6533 ]), TrackedArray([0.54143, 1.     , 0.16583]))</t>
+          <t>(TrackedArray([-0.51496, -0.28378, -0.6533 ]), TrackedArray([0.54143, 1.     , 0.16521]))</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6176,10 +6176,10 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>316498</v>
+        <v>2000</v>
       </c>
       <c r="D160" t="n">
-        <v>160940</v>
+        <v>1104</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30672,  0.08012, -0.42847]), TrackedArray([0.30581, 1.     , 0.34489]))</t>
+          <t>(TrackedArray([-0.29575,  0.08963, -0.42586]), TrackedArray([0.30322, 0.98437, 0.34246]))</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6212,10 +6212,10 @@
         <v>3</v>
       </c>
       <c r="C161" t="n">
-        <v>37922</v>
+        <v>2000</v>
       </c>
       <c r="D161" t="n">
-        <v>19324</v>
+        <v>1104</v>
       </c>
       <c r="E161" t="b">
         <v>1</v>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.35312,  0.20356, -0.58154]), TrackedArray([ 0.33537,  1.     , -0.01775]))</t>
+          <t>(TrackedArray([-0.35312,  0.20374, -0.58154]), TrackedArray([ 0.33517,  1.     , -0.01938]))</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6248,10 +6248,10 @@
         <v>3</v>
       </c>
       <c r="C162" t="n">
-        <v>2158</v>
+        <v>1999</v>
       </c>
       <c r="D162" t="n">
-        <v>1174</v>
+        <v>1054</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.71158, -1.23527, -0.35808]), TrackedArray([0.6846 , 1.     , 0.51485]))</t>
+          <t>(TrackedArray([-0.71158, -1.23527, -0.35808]), TrackedArray([0.68395, 1.     , 0.51485]))</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6284,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>6226</v>
+        <v>2000</v>
       </c>
       <c r="D163" t="n">
-        <v>3390</v>
+        <v>1126</v>
       </c>
       <c r="E163" t="b">
         <v>1</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.5343, -0.3976, -1.087 ]), TrackedArray([0.48649, 1.     , 0.03362]))</t>
+          <t>(TrackedArray([-0.53135, -0.3976 , -1.07459]), TrackedArray([0.48649, 1.     , 0.03362]))</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6320,10 +6320,10 @@
         <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>2955</v>
+        <v>2000</v>
       </c>
       <c r="D164" t="n">
-        <v>1581</v>
+        <v>1076</v>
       </c>
       <c r="E164" t="b">
         <v>1</v>
@@ -6356,10 +6356,10 @@
         <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>4452</v>
+        <v>2000</v>
       </c>
       <c r="D165" t="n">
-        <v>2307</v>
+        <v>1078</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.00875,  0.2346 ,  0.24769]), TrackedArray([0.63309, 1.     , 0.74191]))</t>
+          <t>(TrackedArray([-0.00393,  0.2346 ,  0.2526 ]), TrackedArray([0.63309, 1.     , 0.74191]))</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6392,10 +6392,10 @@
         <v>3</v>
       </c>
       <c r="C166" t="n">
-        <v>3961</v>
+        <v>2000</v>
       </c>
       <c r="D166" t="n">
-        <v>2017</v>
+        <v>1034</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.20355, 0.34103, 0.44087]), TrackedArray([0.63256, 1.     , 0.73031]))</t>
+          <t>(TrackedArray([0.20355, 0.34103, 0.44087]), TrackedArray([0.63256, 1.     , 0.73016]))</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6428,10 +6428,10 @@
         <v>3</v>
       </c>
       <c r="C167" t="n">
-        <v>3984</v>
+        <v>2000</v>
       </c>
       <c r="D167" t="n">
-        <v>2045</v>
+        <v>1050</v>
       </c>
       <c r="E167" t="b">
         <v>1</v>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.07734,  0.08201,  0.41253]), TrackedArray([0.57209, 1.     , 0.87339]))</t>
+          <t>(TrackedArray([-0.0674 ,  0.08201,  0.42294]), TrackedArray([0.57209, 1.     , 0.87338]))</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6464,10 +6464,10 @@
         <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>6468</v>
+        <v>1999</v>
       </c>
       <c r="D168" t="n">
-        <v>3300</v>
+        <v>1059</v>
       </c>
       <c r="E168" t="b">
         <v>1</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.1753 ,  0.02568,  0.50922]), TrackedArray([0.51023, 1.     , 0.8926 ]))</t>
+          <t>(TrackedArray([-0.1753 ,  0.02568,  0.50922]), TrackedArray([0.51023, 1.     , 0.89234]))</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6500,10 +6500,10 @@
         <v>3</v>
       </c>
       <c r="C169" t="n">
-        <v>4052</v>
+        <v>1999</v>
       </c>
       <c r="D169" t="n">
-        <v>2085</v>
+        <v>1056</v>
       </c>
       <c r="E169" t="b">
         <v>1</v>
@@ -6572,10 +6572,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>13373</v>
+        <v>1999</v>
       </c>
       <c r="D171" t="n">
-        <v>6918</v>
+        <v>1162</v>
       </c>
       <c r="E171" t="b">
         <v>1</v>
@@ -6608,10 +6608,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="n">
-        <v>41681</v>
+        <v>2000</v>
       </c>
       <c r="D172" t="n">
-        <v>21085</v>
+        <v>1099</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.43079, -0.3684 , -0.43979]), TrackedArray([0.46952, 1.     , 0.48284]))</t>
+          <t>(TrackedArray([-0.43079, -0.3684 , -0.43979]), TrackedArray([0.46952, 0.96629, 0.48284]))</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -6644,10 +6644,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>89968</v>
+        <v>2000</v>
       </c>
       <c r="D173" t="n">
-        <v>44010</v>
+        <v>1075</v>
       </c>
       <c r="E173" t="b">
         <v>1</v>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99975, -0.37823, -0.99973]), TrackedArray([0.99998, 0.72357, 1.     ]))</t>
+          <t>(TrackedArray([-0.99975, -0.37823, -0.99973]), TrackedArray([0.99998, 0.70757, 1.     ]))</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -6680,10 +6680,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>2752</v>
+        <v>2000</v>
       </c>
       <c r="D174" t="n">
-        <v>1051</v>
+        <v>737</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -6702,10 +6702,10 @@
         </is>
       </c>
       <c r="I174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -6716,10 +6716,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="n">
-        <v>41835</v>
+        <v>1999</v>
       </c>
       <c r="D175" t="n">
-        <v>20981</v>
+        <v>1076</v>
       </c>
       <c r="E175" t="b">
         <v>1</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.89676, -0.60261, -0.84489]), TrackedArray([0.9057 , 1.     , 0.89885]))</t>
+          <t>(TrackedArray([-0.89713, -0.60261, -0.84489]), TrackedArray([0.90637, 0.98045, 0.89885]))</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -6752,10 +6752,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="n">
-        <v>13978</v>
+        <v>2000</v>
       </c>
       <c r="D176" t="n">
-        <v>7223</v>
+        <v>1300</v>
       </c>
       <c r="E176" t="b">
         <v>1</v>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47944, -0.33999, -0.46156]), TrackedArray([0.47798, 1.     , 0.46021]))</t>
+          <t>(TrackedArray([-0.47453, -0.33999, -0.45649]), TrackedArray([0.47306, 0.79664, 0.45514]))</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -6824,10 +6824,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="n">
-        <v>2405</v>
+        <v>2000</v>
       </c>
       <c r="D178" t="n">
-        <v>1252</v>
+        <v>1091</v>
       </c>
       <c r="E178" t="b">
         <v>1</v>
@@ -6860,10 +6860,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>2027</v>
+        <v>1998</v>
       </c>
       <c r="D179" t="n">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E179" t="b">
         <v>1</v>
@@ -6896,10 +6896,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="n">
-        <v>2076</v>
+        <v>2000</v>
       </c>
       <c r="D180" t="n">
-        <v>1217</v>
+        <v>1179</v>
       </c>
       <c r="E180" t="b">
         <v>1</v>
@@ -6932,10 +6932,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>3922</v>
+        <v>2000</v>
       </c>
       <c r="D181" t="n">
-        <v>1952</v>
+        <v>1005</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -6968,10 +6968,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="n">
-        <v>2820</v>
+        <v>2000</v>
       </c>
       <c r="D182" t="n">
-        <v>1990</v>
+        <v>1471</v>
       </c>
       <c r="E182" t="b">
         <v>1</v>
@@ -7148,10 +7148,10 @@
         <v>5</v>
       </c>
       <c r="C187" t="n">
-        <v>3450</v>
+        <v>2000</v>
       </c>
       <c r="D187" t="n">
-        <v>1725</v>
+        <v>1000</v>
       </c>
       <c r="E187" t="b">
         <v>1</v>
@@ -7184,10 +7184,10 @@
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>10370</v>
+        <v>2000</v>
       </c>
       <c r="D188" t="n">
-        <v>5183</v>
+        <v>1006</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.83564, -0.61178, -0.95124]), TrackedArray([1.     , 0.6075 , 0.79626]))</t>
+          <t>(TrackedArray([-0.83524, -0.61094, -0.95124]), TrackedArray([0.99611, 0.60666, 0.79395]))</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7220,10 +7220,10 @@
         <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>17597</v>
+        <v>2000</v>
       </c>
       <c r="D189" t="n">
-        <v>8692</v>
+        <v>1008</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.5889 , -0.23957, -0.54998]), TrackedArray([1.     , 0.37073, 0.55002]))</t>
+          <t>(TrackedArray([-0.5889 , -0.23957, -0.54998]), TrackedArray([0.99915, 0.37066, 0.55002]))</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7256,10 +7256,10 @@
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>6656</v>
+        <v>2000</v>
       </c>
       <c r="D190" t="n">
-        <v>3330</v>
+        <v>1003</v>
       </c>
       <c r="E190" t="b">
         <v>1</v>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65683, -0.36894, -0.46426]), TrackedArray([1.     , 0.79963, 0.67327]))</t>
+          <t>(TrackedArray([-0.65683, -0.36887, -0.46426]), TrackedArray([1.     , 0.79963, 0.67327]))</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7328,10 +7328,10 @@
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>11812</v>
+        <v>1999</v>
       </c>
       <c r="D192" t="n">
-        <v>5874</v>
+        <v>1002</v>
       </c>
       <c r="E192" t="b">
         <v>1</v>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.63394, -0.69443, -0.59245]), TrackedArray([1.     , 0.79206, 0.59318]))</t>
+          <t>(TrackedArray([-0.63325, -0.69443, -0.59245]), TrackedArray([0.99662, 0.79206, 0.59249]))</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7364,10 +7364,10 @@
         <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>5252</v>
+        <v>1999</v>
       </c>
       <c r="D193" t="n">
-        <v>2653</v>
+        <v>1029</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21532,  0.29812, -0.18367]), TrackedArray([0.2166 , 1.     , 0.18353]))</t>
+          <t>(TrackedArray([-0.21532,  0.29812, -0.18367]), TrackedArray([0.2166 , 0.99984, 0.18353]))</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7472,10 +7472,10 @@
         <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>59640</v>
+        <v>2000</v>
       </c>
       <c r="D196" t="n">
-        <v>30530</v>
+        <v>1046</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.45499, -1.60366, -0.8583 ]), TrackedArray([ 0.45826, -0.1528 ,  1.     ]))</t>
+          <t>(TrackedArray([-0.45121, -1.60197, -0.85601]), TrackedArray([ 0.45319, -0.1545 ,  0.99779]))</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7508,10 +7508,10 @@
         <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>16036</v>
+        <v>1999</v>
       </c>
       <c r="D197" t="n">
-        <v>9570</v>
+        <v>1179</v>
       </c>
       <c r="E197" t="b">
         <v>1</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.46591, -0.77449, -0.51799]), TrackedArray([1.     , 0.62957, 0.91896]))</t>
+          <t>(TrackedArray([-0.46134, -0.77448, -0.51785]), TrackedArray([1.     , 0.62896, 0.91894]))</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="C198" t="n">
-        <v>10766</v>
+        <v>2000</v>
       </c>
       <c r="D198" t="n">
-        <v>5391</v>
+        <v>1008</v>
       </c>
       <c r="E198" t="b">
         <v>1</v>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.40246, -0.99439, -0.90838]), TrackedArray([0.44276, 1.     , 0.28458]))</t>
+          <t>(TrackedArray([-0.40226, -0.99439, -0.90838]), TrackedArray([0.44275, 1.     , 0.28458]))</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7616,10 +7616,10 @@
         <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>2333</v>
+        <v>1999</v>
       </c>
       <c r="D200" t="n">
-        <v>1316</v>
+        <v>1149</v>
       </c>
       <c r="E200" t="b">
         <v>1</v>
@@ -7796,10 +7796,10 @@
         <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>2234</v>
+        <v>2000</v>
       </c>
       <c r="D205" t="n">
-        <v>1137</v>
+        <v>1020</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -7832,10 +7832,10 @@
         <v>6</v>
       </c>
       <c r="C206" t="n">
-        <v>8478</v>
+        <v>2000</v>
       </c>
       <c r="D206" t="n">
-        <v>4151</v>
+        <v>1011</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.95956, -0.70677, -0.73536]), TrackedArray([1.     , 0.55719, 0.35128]))</t>
+          <t>(TrackedArray([-0.95956, -0.70677, -0.73536]), TrackedArray([1.     , 0.55518, 0.35125]))</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8120,10 +8120,10 @@
         <v>7</v>
       </c>
       <c r="C214" t="n">
-        <v>15768</v>
+        <v>2000</v>
       </c>
       <c r="D214" t="n">
-        <v>7910</v>
+        <v>1028</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30294, -0.30266, -0.04749]), TrackedArray([0.30186, 1.     , 0.04795]))</t>
+          <t>(TrackedArray([-0.30081, -0.30266, -0.04715]), TrackedArray([0.29974, 1.     , 0.04784]))</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8156,10 +8156,10 @@
         <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>9347</v>
+        <v>1994</v>
       </c>
       <c r="D215" t="n">
-        <v>3162</v>
+        <v>790</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.02869,  0.63445,  0.12253]), TrackedArray([0.07113, 1.     , 0.14599]))</t>
+          <t>(TrackedArray([-0.02869,  0.63445,  0.1226 ]), TrackedArray([0.07113, 1.     , 0.14599]))</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8178,10 +8178,10 @@
         </is>
       </c>
       <c r="I215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -8192,10 +8192,10 @@
         <v>7</v>
       </c>
       <c r="C216" t="n">
-        <v>8628</v>
+        <v>2000</v>
       </c>
       <c r="D216" t="n">
-        <v>4325</v>
+        <v>1006</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.19407, -0.47153, -0.03183]), TrackedArray([0.18515, 1.     , 0.031  ]))</t>
+          <t>(TrackedArray([-0.19398, -0.47153, -0.03178]), TrackedArray([0.18504, 1.     , 0.03089]))</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8228,10 +8228,10 @@
         <v>7</v>
       </c>
       <c r="C217" t="n">
-        <v>3668</v>
+        <v>2000</v>
       </c>
       <c r="D217" t="n">
-        <v>1866</v>
+        <v>1032</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.70608, -2.20481, -0.06603]), TrackedArray([0.70833, 1.     , 0.06617]))</t>
+          <t>(TrackedArray([-0.70566, -2.20481, -0.06603]), TrackedArray([0.70791, 1.     , 0.06617]))</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8264,10 +8264,10 @@
         <v>7</v>
       </c>
       <c r="C218" t="n">
-        <v>13168</v>
+        <v>2000</v>
       </c>
       <c r="D218" t="n">
-        <v>6595</v>
+        <v>1014</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.42888, -0.10768, -2.97758]), TrackedArray([0.42857, 0.10766, 1.     ]))</t>
+          <t>(TrackedArray([-0.42888, -0.10605, -2.97758]), TrackedArray([0.42857, 0.10603, 0.99756]))</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -8300,10 +8300,10 @@
         <v>7</v>
       </c>
       <c r="C219" t="n">
-        <v>21764</v>
+        <v>2000</v>
       </c>
       <c r="D219" t="n">
-        <v>10936</v>
+        <v>1048</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.24657, -0.06202, -1.2822 ]), TrackedArray([0.22438, 0.06744, 1.     ]))</t>
+          <t>(TrackedArray([-0.24537, -0.05448, -1.2822 ]), TrackedArray([0.22409, 0.06509, 0.99625]))</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -8336,10 +8336,10 @@
         <v>7</v>
       </c>
       <c r="C220" t="n">
-        <v>17701</v>
+        <v>1999</v>
       </c>
       <c r="D220" t="n">
-        <v>9445</v>
+        <v>1144</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.18064, -0.03433, -0.69698]), TrackedArray([0.18327, 0.02033, 1.     ]))</t>
+          <t>(TrackedArray([-0.18064, -0.03433, -0.69697]), TrackedArray([0.18327, 0.02033, 0.993  ]))</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8372,10 +8372,10 @@
         <v>7</v>
       </c>
       <c r="C221" t="n">
-        <v>9314</v>
+        <v>1999</v>
       </c>
       <c r="D221" t="n">
-        <v>4876</v>
+        <v>1098</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(TrackedArray([-2.21052, -0.07375, -0.31418]), TrackedArray([1.     , 0.0327 , 0.30768]))</t>
+          <t>(TrackedArray([-2.21052, -0.07375, -0.3138 ]), TrackedArray([0.99991, 0.0327 , 0.3073 ]))</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -8444,10 +8444,10 @@
         <v>8</v>
       </c>
       <c r="C223" t="n">
-        <v>16268</v>
+        <v>2000</v>
       </c>
       <c r="D223" t="n">
-        <v>8188</v>
+        <v>1054</v>
       </c>
       <c r="E223" t="b">
         <v>1</v>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51756, -1.15069, -0.4365 ]), TrackedArray([0.48842, 1.     , 0.74077]))</t>
+          <t>(TrackedArray([-0.51344, -1.14932, -0.4365 ]), TrackedArray([0.48306, 1.     , 0.73917]))</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -8516,10 +8516,10 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>2481</v>
+        <v>1999</v>
       </c>
       <c r="D225" t="n">
-        <v>1318</v>
+        <v>1057</v>
       </c>
       <c r="E225" t="b">
         <v>1</v>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -0.92905, -24.80653,  -2.53683]), TrackedArray([  1.     , -21.4446 ,  -0.47788]))</t>
+          <t>(TrackedArray([ -0.92905, -24.80653,  -2.53319]), TrackedArray([  1.     , -21.4446 ,  -0.47788]))</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9200,10 +9200,10 @@
         <v>9</v>
       </c>
       <c r="C244" t="n">
-        <v>3048</v>
+        <v>2000</v>
       </c>
       <c r="D244" t="n">
-        <v>1586</v>
+        <v>1010</v>
       </c>
       <c r="E244" t="b">
         <v>1</v>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.71428, -0.78685, -1.     ]), TrackedArray([0.71429, 0.09479, 1.     ]))</t>
+          <t>(TrackedArray([-0.71428, -0.78426, -1.     ]), TrackedArray([0.71429, 0.09479, 1.     ]))</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">

--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:K247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,17 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>distance_barycentre</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>subsampled_outlier</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>supersampled_outlier</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>subsampled_outlier</t>
         </is>
       </c>
     </row>
@@ -510,9 +515,12 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>6.42368019270551e-12</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,10 +553,13 @@
           <t>testModels/refined_db/0/m1/m1.off</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
+      <c r="I3" t="n">
+        <v>0.00501756801924554</v>
       </c>
       <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -581,10 +592,13 @@
           <t>testModels/refined_db/0/m2/m2.off</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
+      <c r="I4" t="n">
+        <v>0.009058616602907047</v>
       </c>
       <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -617,10 +631,13 @@
           <t>testModels/refined_db/0/m3/m3.off</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
+      <c r="I5" t="n">
+        <v>6.186665276912884e-11</v>
       </c>
       <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -653,11 +670,14 @@
           <t>testModels/refined_db/0/m4/m4.off</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
+      <c r="I6" t="n">
+        <v>1.027888110259638</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -689,11 +709,14 @@
           <t>testModels/refined_db/0/m5/m5.off</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
+      <c r="I7" t="n">
+        <v>0.01446468186748903</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -725,11 +748,14 @@
           <t>testModels/refined_db/0/m6/m6.off</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
+      <c r="I8" t="n">
+        <v>0.006665560295806335</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -761,10 +787,13 @@
           <t>testModels/refined_db/0/m7/m7.off</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
+      <c r="I9" t="n">
+        <v>0.01217098082723011</v>
       </c>
       <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -797,10 +826,13 @@
           <t>testModels/refined_db/0/m8/m8.off</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
+      <c r="I10" t="n">
+        <v>0.1173620910137573</v>
       </c>
       <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -833,10 +865,13 @@
           <t>testModels/refined_db/0/m9/m9.off</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
+      <c r="I11" t="n">
+        <v>6587.644371151677</v>
       </c>
       <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -869,10 +904,13 @@
           <t>testModels/refined_db/1/m100/m100.off</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
+      <c r="I12" t="n">
+        <v>3.252365613465833e-12</v>
       </c>
       <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -905,10 +943,13 @@
           <t>testModels/refined_db/1/m101/m101.off</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
+      <c r="I13" t="n">
+        <v>0.1389790512606554</v>
       </c>
       <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -941,10 +982,13 @@
           <t>testModels/refined_db/1/m102/m102.off</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
+      <c r="I14" t="n">
+        <v>0.02559352364995432</v>
       </c>
       <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -977,10 +1021,13 @@
           <t>testModels/refined_db/1/m103/m103.off</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
+      <c r="I15" t="n">
+        <v>0.3231037696824753</v>
       </c>
       <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1060,13 @@
           <t>testModels/refined_db/1/m104/m104.off</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
+      <c r="I16" t="n">
+        <v>1.379080462315664e-11</v>
       </c>
       <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1049,10 +1099,13 @@
           <t>testModels/refined_db/1/m105/m105.off</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
+      <c r="I17" t="n">
+        <v>0.0838227631823335</v>
       </c>
       <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1085,10 +1138,13 @@
           <t>testModels/refined_db/1/m106/m106.off</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
+      <c r="I18" t="n">
+        <v>7.997235511655059e-12</v>
       </c>
       <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1121,10 +1177,13 @@
           <t>testModels/refined_db/1/m107/m107.off</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
+      <c r="I19" t="n">
+        <v>0.008345277103867062</v>
       </c>
       <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1157,10 +1216,13 @@
           <t>testModels/refined_db/1/m108/m108.off</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
+      <c r="I20" t="n">
+        <v>0.00213585877176066</v>
       </c>
       <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1193,10 +1255,13 @@
           <t>testModels/refined_db/1/m109/m109.off</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
+      <c r="I21" t="n">
+        <v>0.006091116973117195</v>
       </c>
       <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1229,10 +1294,13 @@
           <t>testModels/refined_db/1/m110/m110.off</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
+      <c r="I22" t="n">
+        <v>9.004891340451983e-12</v>
       </c>
       <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1265,10 +1333,13 @@
           <t>testModels/refined_db/1/m111/m111.off</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
+      <c r="I23" t="n">
+        <v>0.01298413216702756</v>
       </c>
       <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1301,10 +1372,13 @@
           <t>testModels/refined_db/1/m112/m112.off</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
+      <c r="I24" t="n">
+        <v>0.00589682427658975</v>
       </c>
       <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1337,11 +1411,14 @@
           <t>testModels/refined_db/10/m1000/m1000.off</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
+      <c r="I25" t="n">
+        <v>1.455320994789988</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1373,11 +1450,14 @@
           <t>testModels/refined_db/10/m1001/m1001.off</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
+      <c r="I26" t="n">
+        <v>0.1325099938257858</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1409,11 +1489,14 @@
           <t>testModels/refined_db/10/m1002/m1002.off</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
+      <c r="I27" t="n">
+        <v>532.0001259834055</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1445,11 +1528,14 @@
           <t>testModels/refined_db/10/m1003/m1003.off</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
+      <c r="I28" t="n">
+        <v>2072.8774855186</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1481,11 +1567,14 @@
           <t>testModels/refined_db/10/m1004/m1004.off</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
+      <c r="I29" t="n">
+        <v>122.902905262765</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1517,11 +1606,14 @@
           <t>testModels/refined_db/10/m1005/m1005.off</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
+      <c r="I30" t="n">
+        <v>29.38497605738384</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1553,11 +1645,14 @@
           <t>testModels/refined_db/10/m1006/m1006.off</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
+      <c r="I31" t="n">
+        <v>13.32420267182001</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1589,11 +1684,14 @@
           <t>testModels/refined_db/10/m1007/m1007.off</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
+      <c r="I32" t="n">
+        <v>183.2580368718666</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1625,11 +1723,14 @@
           <t>testModels/refined_db/10/m1008/m1008.off</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
+      <c r="I33" t="n">
+        <v>0.3569057543060847</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1661,11 +1762,14 @@
           <t>testModels/refined_db/10/m1009/m1009.off</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
+      <c r="I34" t="n">
+        <v>17.83800761423448</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1697,11 +1801,14 @@
           <t>testModels/refined_db/10/m1010/m1010.off</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
+      <c r="I35" t="n">
+        <v>69.15848271824994</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1733,11 +1840,14 @@
           <t>testModels/refined_db/10/m1011/m1011.off</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
+      <c r="I36" t="n">
+        <v>5.417411382661081</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1769,11 +1879,14 @@
           <t>testModels/refined_db/10/m1012/m1012.off</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
+      <c r="I37" t="n">
+        <v>277.1607455409513</v>
       </c>
       <c r="J37" t="b">
         <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1805,10 +1918,13 @@
           <t>testModels/refined_db/11/m1100/m1100.off</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
+      <c r="I38" t="n">
+        <v>7.10636406385241e-11</v>
       </c>
       <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1841,10 +1957,13 @@
           <t>testModels/refined_db/11/m1101/m1101.off</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
+      <c r="I39" t="n">
+        <v>1.81232719659986e-11</v>
       </c>
       <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1877,11 +1996,14 @@
           <t>testModels/refined_db/11/m1102/m1102.off</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="I40" t="n">
+        <v>0.2225860418428716</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1913,10 +2035,13 @@
           <t>testModels/refined_db/11/m1103/m1103.off</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
+      <c r="I41" t="n">
+        <v>0.4926314511674916</v>
       </c>
       <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1949,10 +2074,13 @@
           <t>testModels/refined_db/11/m1104/m1104.off</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
+      <c r="I42" t="n">
+        <v>3.008804444112111e-10</v>
       </c>
       <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1985,10 +2113,13 @@
           <t>testModels/refined_db/11/m1105/m1105.off</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
+      <c r="I43" t="n">
+        <v>0.0003959135689194743</v>
       </c>
       <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2021,10 +2152,13 @@
           <t>testModels/refined_db/11/m1106/m1106.off</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
+      <c r="I44" t="n">
+        <v>0.0009216320409663063</v>
       </c>
       <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2057,10 +2191,13 @@
           <t>testModels/refined_db/11/m1107/m1107.off</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
+      <c r="I45" t="n">
+        <v>32.49710866835853</v>
       </c>
       <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2093,10 +2230,13 @@
           <t>testModels/refined_db/11/m1108/m1108.off</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
+      <c r="I46" t="n">
+        <v>143.6930420967281</v>
       </c>
       <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2129,10 +2269,13 @@
           <t>testModels/refined_db/11/m1109/m1109.off</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
+      <c r="I47" t="n">
+        <v>1112295.707395644</v>
       </c>
       <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2165,10 +2308,13 @@
           <t>testModels/refined_db/11/m1110/m1110.off</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
+      <c r="I48" t="n">
+        <v>5.026962274833129e-11</v>
       </c>
       <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2201,10 +2347,13 @@
           <t>testModels/refined_db/11/m1111/m1111.off</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
+      <c r="I49" t="n">
+        <v>1.730712447319561e-11</v>
       </c>
       <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2237,10 +2386,13 @@
           <t>testModels/refined_db/11/m1112/m1112.off</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
+      <c r="I50" t="n">
+        <v>11.393734683005</v>
       </c>
       <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2273,11 +2425,14 @@
           <t>testModels/refined_db/12/m1200/m1200.off</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="I51" t="n">
+        <v>7.282618872479424e-12</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2309,11 +2464,14 @@
           <t>testModels/refined_db/12/m1201/m1201.off</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
+      <c r="I52" t="n">
+        <v>0.5561287094772075</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2345,10 +2503,13 @@
           <t>testModels/refined_db/12/m1202/m1202.off</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
+      <c r="I53" t="n">
+        <v>9.464040996687352e-11</v>
       </c>
       <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2381,10 +2542,13 @@
           <t>testModels/refined_db/12/m1203/m1203.off</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
+      <c r="I54" t="n">
+        <v>0.0004125721919318342</v>
       </c>
       <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2417,10 +2581,13 @@
           <t>testModels/refined_db/12/m1204/m1204.off</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
+      <c r="I55" t="n">
+        <v>2.073042813580126e-11</v>
       </c>
       <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2453,10 +2620,13 @@
           <t>testModels/refined_db/12/m1205/m1205.off</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
+      <c r="I56" t="n">
+        <v>98.0963809906261</v>
       </c>
       <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2489,10 +2659,13 @@
           <t>testModels/refined_db/12/m1206/m1206.off</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
+      <c r="I57" t="n">
+        <v>0.02688281668798757</v>
       </c>
       <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2525,10 +2698,13 @@
           <t>testModels/refined_db/12/m1207/m1207.off</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
+      <c r="I58" t="n">
+        <v>0.6702554050470263</v>
       </c>
       <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2561,10 +2737,13 @@
           <t>testModels/refined_db/12/m1208/m1208.off</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
+      <c r="I59" t="n">
+        <v>0.8958497379112135</v>
       </c>
       <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2597,10 +2776,13 @@
           <t>testModels/refined_db/12/m1209/m1209.off</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
+      <c r="I60" t="n">
+        <v>3.078852894688539e-07</v>
       </c>
       <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2633,10 +2815,13 @@
           <t>testModels/refined_db/12/m1210/m1210.off</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
+      <c r="I61" t="n">
+        <v>0.1831469396548207</v>
       </c>
       <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2669,10 +2854,13 @@
           <t>testModels/refined_db/12/m1211/m1211.off</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
+      <c r="I62" t="n">
+        <v>18.1792720564108</v>
       </c>
       <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2705,10 +2893,13 @@
           <t>testModels/refined_db/12/m1212/m1212.off</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
+      <c r="I63" t="n">
+        <v>35.88127658142944</v>
       </c>
       <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2741,11 +2932,14 @@
           <t>testModels/refined_db/13/m1300/m1300.off</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="I64" t="n">
+        <v>0.1445730567316785</v>
       </c>
       <c r="J64" t="b">
         <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2777,10 +2971,13 @@
           <t>testModels/refined_db/13/m1301/m1301.off</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
+      <c r="I65" t="n">
+        <v>1.674490204206562e-11</v>
       </c>
       <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2813,10 +3010,13 @@
           <t>testModels/refined_db/13/m1302/m1302.off</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
+      <c r="I66" t="n">
+        <v>0.3481034817522956</v>
       </c>
       <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2849,10 +3049,13 @@
           <t>testModels/refined_db/13/m1303/m1303.off</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
+      <c r="I67" t="n">
+        <v>13.32236960920189</v>
       </c>
       <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2885,10 +3088,13 @@
           <t>testModels/refined_db/13/m1304/m1304.off</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
+      <c r="I68" t="n">
+        <v>0.03261609313570626</v>
       </c>
       <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2921,10 +3127,13 @@
           <t>testModels/refined_db/13/m1305/m1305.off</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
+      <c r="I69" t="n">
+        <v>0.002749700708202746</v>
       </c>
       <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2957,11 +3166,14 @@
           <t>testModels/refined_db/13/m1306/m1306.off</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="I70" t="n">
+        <v>0.4326327022147982</v>
       </c>
       <c r="J70" t="b">
         <v>1</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2993,10 +3205,13 @@
           <t>testModels/refined_db/13/m1307/m1307.off</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
+      <c r="I71" t="n">
+        <v>0.4894051211897327</v>
       </c>
       <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3029,10 +3244,13 @@
           <t>testModels/refined_db/13/m1308/m1308.off</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
+      <c r="I72" t="n">
+        <v>0.00887835115147557</v>
       </c>
       <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3065,11 +3283,14 @@
           <t>testModels/refined_db/13/m1309/m1309.off</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
+      <c r="I73" t="n">
+        <v>0.3873455828345476</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3101,10 +3322,13 @@
           <t>testModels/refined_db/13/m1310/m1310.off</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
+      <c r="I74" t="n">
+        <v>0.0001100846433725572</v>
       </c>
       <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3137,10 +3361,13 @@
           <t>testModels/refined_db/13/m1311/m1311.off</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
+      <c r="I75" t="n">
+        <v>4.204424524394398e-11</v>
       </c>
       <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3173,10 +3400,13 @@
           <t>testModels/refined_db/13/m1312/m1312.off</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
+      <c r="I76" t="n">
+        <v>0.004496474203714044</v>
       </c>
       <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3209,11 +3439,14 @@
           <t>testModels/refined_db/14/m1400/m1400.off</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
+      <c r="I77" t="n">
+        <v>4.392233791698981</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3245,10 +3478,13 @@
           <t>testModels/refined_db/14/m1401/m1401.off</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
+      <c r="I78" t="n">
+        <v>0.1991268100310251</v>
       </c>
       <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3281,10 +3517,13 @@
           <t>testModels/refined_db/14/m1402/m1402.off</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
+      <c r="I79" t="n">
+        <v>20.33644891907266</v>
       </c>
       <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3317,10 +3556,13 @@
           <t>testModels/refined_db/14/m1403/m1403.off</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
+      <c r="I80" t="n">
+        <v>0.9680626650967853</v>
       </c>
       <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3353,11 +3595,14 @@
           <t>testModels/refined_db/14/m1404/m1404.off</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
+      <c r="I81" t="n">
+        <v>0.01194409354083513</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3389,10 +3634,13 @@
           <t>testModels/refined_db/14/m1405/m1405.off</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
+      <c r="I82" t="n">
+        <v>0.815778011685657</v>
       </c>
       <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3425,10 +3673,13 @@
           <t>testModels/refined_db/14/m1406/m1406.off</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
+      <c r="I83" t="n">
+        <v>0.2748225958853756</v>
       </c>
       <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3461,10 +3712,13 @@
           <t>testModels/refined_db/14/m1407/m1407.off</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
+      <c r="I84" t="n">
+        <v>0.01003074294867284</v>
       </c>
       <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3497,10 +3751,13 @@
           <t>testModels/refined_db/14/m1408/m1408.off</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
+      <c r="I85" t="n">
+        <v>0.0117169064540489</v>
       </c>
       <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3533,10 +3790,13 @@
           <t>testModels/refined_db/14/m1409/m1409.off</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
+      <c r="I86" t="n">
+        <v>10.26426416104184</v>
       </c>
       <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3569,11 +3829,14 @@
           <t>testModels/refined_db/14/m1410/m1410.off</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
+      <c r="I87" t="n">
+        <v>0.8414929108156591</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3605,10 +3868,13 @@
           <t>testModels/refined_db/14/m1411/m1411.off</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
+      <c r="I88" t="n">
+        <v>0.1246876073091927</v>
       </c>
       <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3641,11 +3907,14 @@
           <t>testModels/refined_db/14/m1412/m1412.off</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
+      <c r="I89" t="n">
+        <v>0.5708455413424252</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3677,10 +3946,13 @@
           <t>testModels/refined_db/15/m1500/m1500.off</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
+      <c r="I90" t="n">
+        <v>0.0001601138692665851</v>
       </c>
       <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3713,10 +3985,13 @@
           <t>testModels/refined_db/15/m1501/m1501.off</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
+      <c r="I91" t="n">
+        <v>0.1150383050786876</v>
       </c>
       <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3749,11 +4024,14 @@
           <t>testModels/refined_db/15/m1502/m1502.off</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>1</v>
+      <c r="I92" t="n">
+        <v>0.324478652196189</v>
       </c>
       <c r="J92" t="b">
         <v>0</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3785,11 +4063,14 @@
           <t>testModels/refined_db/15/m1503/m1503.off</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>1</v>
+      <c r="I93" t="n">
+        <v>0.03966103519066289</v>
       </c>
       <c r="J93" t="b">
         <v>0</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3821,10 +4102,13 @@
           <t>testModels/refined_db/15/m1504/m1504.off</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>1</v>
+      <c r="I94" t="n">
+        <v>0.1061030545498483</v>
       </c>
       <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3857,11 +4141,14 @@
           <t>testModels/refined_db/15/m1505/m1505.off</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>1</v>
+      <c r="I95" t="n">
+        <v>0.07576329887385913</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3893,11 +4180,14 @@
           <t>testModels/refined_db/15/m1506/m1506.off</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>1</v>
+      <c r="I96" t="n">
+        <v>4.462826405724972</v>
       </c>
       <c r="J96" t="b">
         <v>0</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3929,10 +4219,13 @@
           <t>testModels/refined_db/15/m1507/m1507.off</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>1</v>
+      <c r="I97" t="n">
+        <v>0.01309384056103359</v>
       </c>
       <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3965,11 +4258,14 @@
           <t>testModels/refined_db/15/m1508/m1508.off</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="I98" t="n">
+        <v>0.1961771554044218</v>
       </c>
       <c r="J98" t="b">
         <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4001,10 +4297,13 @@
           <t>testModels/refined_db/15/m1509/m1509.off</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
+      <c r="I99" t="n">
+        <v>0.08074166315627522</v>
       </c>
       <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4037,10 +4336,13 @@
           <t>testModels/refined_db/15/m1510/m1510.off</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>1</v>
+      <c r="I100" t="n">
+        <v>0.004663123650197178</v>
       </c>
       <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4073,10 +4375,13 @@
           <t>testModels/refined_db/15/m1511/m1511.off</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
+      <c r="I101" t="n">
+        <v>0.01299530797875391</v>
       </c>
       <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4109,11 +4414,14 @@
           <t>testModels/refined_db/15/m1512/m1512.off</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
+      <c r="I102" t="n">
+        <v>0.1284216042194491</v>
       </c>
       <c r="J102" t="b">
         <v>0</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4145,10 +4453,13 @@
           <t>testModels/refined_db/16/m1600/m1600.off</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
+      <c r="I103" t="n">
+        <v>5.555083706974991e-11</v>
       </c>
       <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4181,10 +4492,13 @@
           <t>testModels/refined_db/16/m1601/m1601.off</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>1</v>
+      <c r="I104" t="n">
+        <v>0.001272838531599622</v>
       </c>
       <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4217,10 +4531,13 @@
           <t>testModels/refined_db/16/m1602/m1602.off</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
+      <c r="I105" t="n">
+        <v>31713.12584531875</v>
       </c>
       <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4253,10 +4570,13 @@
           <t>testModels/refined_db/16/m1603/m1603.off</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
+      <c r="I106" t="n">
+        <v>8.821362534576683e-05</v>
       </c>
       <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4289,10 +4609,13 @@
           <t>testModels/refined_db/16/m1604/m1604.off</t>
         </is>
       </c>
-      <c r="I107" t="b">
-        <v>1</v>
+      <c r="I107" t="n">
+        <v>8.387209573154196e-06</v>
       </c>
       <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4325,10 +4648,13 @@
           <t>testModels/refined_db/16/m1605/m1605.off</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>1</v>
+      <c r="I108" t="n">
+        <v>0.1662974862166074</v>
       </c>
       <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4361,10 +4687,13 @@
           <t>testModels/refined_db/16/m1606/m1606.off</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>1</v>
+      <c r="I109" t="n">
+        <v>0.006617485714300628</v>
       </c>
       <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4397,10 +4726,13 @@
           <t>testModels/refined_db/16/m1607/m1607.off</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>1</v>
+      <c r="I110" t="n">
+        <v>18011.00689233719</v>
       </c>
       <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4433,10 +4765,13 @@
           <t>testModels/refined_db/16/m1608/m1608.off</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
+      <c r="I111" t="n">
+        <v>1.78664283789381e-11</v>
       </c>
       <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4469,10 +4804,13 @@
           <t>testModels/refined_db/16/m1609/m1609.off</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
+      <c r="I112" t="n">
+        <v>3.729987138531526e-12</v>
       </c>
       <c r="J112" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4505,10 +4843,13 @@
           <t>testModels/refined_db/16/m1610/m1610.off</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>1</v>
+      <c r="I113" t="n">
+        <v>0.003122382270483629</v>
       </c>
       <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4541,10 +4882,13 @@
           <t>testModels/refined_db/16/m1611/m1611.off</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>1</v>
+      <c r="I114" t="n">
+        <v>0.0008055151610994139</v>
       </c>
       <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4577,10 +4921,13 @@
           <t>testModels/refined_db/16/m1612/m1612.off</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>1</v>
+      <c r="I115" t="n">
+        <v>2477.107933684657</v>
       </c>
       <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4613,10 +4960,13 @@
           <t>testModels/refined_db/17/m1700/m1700.off</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>1</v>
+      <c r="I116" t="n">
+        <v>0.000352687258781255</v>
       </c>
       <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4649,10 +4999,13 @@
           <t>testModels/refined_db/17/m1701/m1701.off</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
+      <c r="I117" t="n">
+        <v>0.4709405966564074</v>
       </c>
       <c r="J117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4685,10 +5038,13 @@
           <t>testModels/refined_db/17/m1702/m1702.off</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
+      <c r="I118" t="n">
+        <v>0.01990833193278979</v>
       </c>
       <c r="J118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4721,10 +5077,13 @@
           <t>testModels/refined_db/17/m1703/m1703.off</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
+      <c r="I119" t="n">
+        <v>1.345629511023226e-10</v>
       </c>
       <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4757,11 +5116,14 @@
           <t>testModels/refined_db/17/m1704/m1704.off</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>1</v>
+      <c r="I120" t="n">
+        <v>0.03051963776296266</v>
       </c>
       <c r="J120" t="b">
         <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4793,10 +5155,13 @@
           <t>testModels/refined_db/17/m1705/m1705.off</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>1</v>
+      <c r="I121" t="n">
+        <v>3.45034931414389e-11</v>
       </c>
       <c r="J121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4829,10 +5194,13 @@
           <t>testModels/refined_db/17/m1706/m1706.off</t>
         </is>
       </c>
-      <c r="I122" t="b">
-        <v>1</v>
+      <c r="I122" t="n">
+        <v>6998.859974428265</v>
       </c>
       <c r="J122" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4865,10 +5233,13 @@
           <t>testModels/refined_db/17/m1707/m1707.off</t>
         </is>
       </c>
-      <c r="I123" t="b">
-        <v>1</v>
+      <c r="I123" t="n">
+        <v>849.6322966997764</v>
       </c>
       <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4901,10 +5272,13 @@
           <t>testModels/refined_db/17/m1708/m1708.off</t>
         </is>
       </c>
-      <c r="I124" t="b">
-        <v>1</v>
+      <c r="I124" t="n">
+        <v>15.76770583610739</v>
       </c>
       <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4937,10 +5311,13 @@
           <t>testModels/refined_db/17/m1709/m1709.off</t>
         </is>
       </c>
-      <c r="I125" t="b">
-        <v>1</v>
+      <c r="I125" t="n">
+        <v>0.03774846851668721</v>
       </c>
       <c r="J125" t="b">
+        <v>0</v>
+      </c>
+      <c r="K125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4973,10 +5350,13 @@
           <t>testModels/refined_db/17/m1710/m1710.off</t>
         </is>
       </c>
-      <c r="I126" t="b">
-        <v>1</v>
+      <c r="I126" t="n">
+        <v>1.165481274281778e-10</v>
       </c>
       <c r="J126" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5009,10 +5389,13 @@
           <t>testModels/refined_db/17/m1711/m1711.off</t>
         </is>
       </c>
-      <c r="I127" t="b">
-        <v>1</v>
+      <c r="I127" t="n">
+        <v>9.367622453876907e-11</v>
       </c>
       <c r="J127" t="b">
+        <v>0</v>
+      </c>
+      <c r="K127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5045,10 +5428,13 @@
           <t>testModels/refined_db/17/m1712/m1712.off</t>
         </is>
       </c>
-      <c r="I128" t="b">
-        <v>1</v>
+      <c r="I128" t="n">
+        <v>1.327807946036177e-07</v>
       </c>
       <c r="J128" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5081,10 +5467,13 @@
           <t>testModels/refined_db/18/m1800/m1800.off</t>
         </is>
       </c>
-      <c r="I129" t="b">
-        <v>1</v>
+      <c r="I129" t="n">
+        <v>3.140044639255474e-10</v>
       </c>
       <c r="J129" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5117,11 +5506,14 @@
           <t>testModels/refined_db/18/m1801/m1801.off</t>
         </is>
       </c>
-      <c r="I130" t="b">
-        <v>1</v>
+      <c r="I130" t="n">
+        <v>0.8519915193896778</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -5153,10 +5545,13 @@
           <t>testModels/refined_db/18/m1802/m1802.off</t>
         </is>
       </c>
-      <c r="I131" t="b">
-        <v>1</v>
+      <c r="I131" t="n">
+        <v>0.1828500989661385</v>
       </c>
       <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5189,10 +5584,13 @@
           <t>testModels/refined_db/18/m1803/m1803.off</t>
         </is>
       </c>
-      <c r="I132" t="b">
-        <v>1</v>
+      <c r="I132" t="n">
+        <v>284.3539077996795</v>
       </c>
       <c r="J132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5225,10 +5623,13 @@
           <t>testModels/refined_db/18/m1804/m1804.off</t>
         </is>
       </c>
-      <c r="I133" t="b">
-        <v>1</v>
+      <c r="I133" t="n">
+        <v>0.01973001011205744</v>
       </c>
       <c r="J133" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5261,11 +5662,14 @@
           <t>testModels/refined_db/18/m1805/m1805.off</t>
         </is>
       </c>
-      <c r="I134" t="b">
-        <v>1</v>
+      <c r="I134" t="n">
+        <v>0.07057429420942679</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5297,10 +5701,13 @@
           <t>testModels/refined_db/18/m1806/m1806.off</t>
         </is>
       </c>
-      <c r="I135" t="b">
-        <v>1</v>
+      <c r="I135" t="n">
+        <v>3.253759110133531</v>
       </c>
       <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5333,10 +5740,13 @@
           <t>testModels/refined_db/18/m1807/m1807.off</t>
         </is>
       </c>
-      <c r="I136" t="b">
-        <v>1</v>
+      <c r="I136" t="n">
+        <v>0.0007917619868076598</v>
       </c>
       <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5369,10 +5779,13 @@
           <t>testModels/refined_db/18/m1808/m1808.off</t>
         </is>
       </c>
-      <c r="I137" t="b">
-        <v>1</v>
+      <c r="I137" t="n">
+        <v>0.0004703952873779004</v>
       </c>
       <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5405,10 +5818,13 @@
           <t>testModels/refined_db/18/m1809/m1809.off</t>
         </is>
       </c>
-      <c r="I138" t="b">
-        <v>1</v>
+      <c r="I138" t="n">
+        <v>0.002589687772491334</v>
       </c>
       <c r="J138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5441,10 +5857,13 @@
           <t>testModels/refined_db/18/m1810/m1810.off</t>
         </is>
       </c>
-      <c r="I139" t="b">
-        <v>1</v>
+      <c r="I139" t="n">
+        <v>1.676267268938318</v>
       </c>
       <c r="J139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5477,11 +5896,14 @@
           <t>testModels/refined_db/18/m1811/m1811.off</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
+      <c r="I140" t="n">
+        <v>1.881775416429933</v>
       </c>
       <c r="J140" t="b">
         <v>1</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5513,10 +5935,13 @@
           <t>testModels/refined_db/18/m1812/m1812.off</t>
         </is>
       </c>
-      <c r="I141" t="b">
-        <v>1</v>
+      <c r="I141" t="n">
+        <v>10.7414491866766</v>
       </c>
       <c r="J141" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5549,10 +5974,13 @@
           <t>testModels/refined_db/18/m1813/m1813.off</t>
         </is>
       </c>
-      <c r="I142" t="b">
-        <v>1</v>
+      <c r="I142" t="n">
+        <v>2.481062892405505</v>
       </c>
       <c r="J142" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5585,10 +6013,13 @@
           <t>testModels/refined_db/18/m1814/m1814.off</t>
         </is>
       </c>
-      <c r="I143" t="b">
-        <v>1</v>
+      <c r="I143" t="n">
+        <v>0.04808067437264492</v>
       </c>
       <c r="J143" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5621,10 +6052,13 @@
           <t>testModels/refined_db/2/m200/m200.off</t>
         </is>
       </c>
-      <c r="I144" t="b">
-        <v>1</v>
+      <c r="I144" t="n">
+        <v>0.01724875603368832</v>
       </c>
       <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5657,10 +6091,13 @@
           <t>testModels/refined_db/2/m201/m201.off</t>
         </is>
       </c>
-      <c r="I145" t="b">
-        <v>1</v>
+      <c r="I145" t="n">
+        <v>0.003682337503360668</v>
       </c>
       <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5693,10 +6130,13 @@
           <t>testModels/refined_db/2/m202/m202.off</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
+      <c r="I146" t="n">
+        <v>8.374998515193879e-11</v>
       </c>
       <c r="J146" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5729,10 +6169,13 @@
           <t>testModels/refined_db/2/m203/m203.off</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
+      <c r="I147" t="n">
+        <v>1.721689919095733e-11</v>
       </c>
       <c r="J147" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5765,10 +6208,13 @@
           <t>testModels/refined_db/2/m204/m204.off</t>
         </is>
       </c>
-      <c r="I148" t="b">
-        <v>1</v>
+      <c r="I148" t="n">
+        <v>3.399039843690321e-05</v>
       </c>
       <c r="J148" t="b">
+        <v>0</v>
+      </c>
+      <c r="K148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5801,10 +6247,13 @@
           <t>testModels/refined_db/2/m205/m205.off</t>
         </is>
       </c>
-      <c r="I149" t="b">
-        <v>1</v>
+      <c r="I149" t="n">
+        <v>4.644144344941358e-11</v>
       </c>
       <c r="J149" t="b">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5837,11 +6286,14 @@
           <t>testModels/refined_db/2/m206/m206.off</t>
         </is>
       </c>
-      <c r="I150" t="b">
-        <v>1</v>
+      <c r="I150" t="n">
+        <v>0.6882526872049451</v>
       </c>
       <c r="J150" t="b">
         <v>0</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5873,11 +6325,14 @@
           <t>testModels/refined_db/2/m207/m207.off</t>
         </is>
       </c>
-      <c r="I151" t="b">
-        <v>1</v>
+      <c r="I151" t="n">
+        <v>0.8017285966053207</v>
       </c>
       <c r="J151" t="b">
         <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5909,10 +6364,13 @@
           <t>testModels/refined_db/2/m208/m208.off</t>
         </is>
       </c>
-      <c r="I152" t="b">
-        <v>1</v>
+      <c r="I152" t="n">
+        <v>2.256794856545459e-11</v>
       </c>
       <c r="J152" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5945,10 +6403,13 @@
           <t>testModels/refined_db/2/m209/m209.off</t>
         </is>
       </c>
-      <c r="I153" t="b">
-        <v>1</v>
+      <c r="I153" t="n">
+        <v>1.213194838343404e-10</v>
       </c>
       <c r="J153" t="b">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5981,10 +6442,13 @@
           <t>testModels/refined_db/2/m210/m210.off</t>
         </is>
       </c>
-      <c r="I154" t="b">
-        <v>1</v>
+      <c r="I154" t="n">
+        <v>1.713524876278013e-11</v>
       </c>
       <c r="J154" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6017,10 +6481,13 @@
           <t>testModels/refined_db/2/m211/m211.off</t>
         </is>
       </c>
-      <c r="I155" t="b">
-        <v>1</v>
+      <c r="I155" t="n">
+        <v>0.03701297429058532</v>
       </c>
       <c r="J155" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6053,10 +6520,13 @@
           <t>testModels/refined_db/2/m212/m212.off</t>
         </is>
       </c>
-      <c r="I156" t="b">
-        <v>1</v>
+      <c r="I156" t="n">
+        <v>2.375901933814572e-05</v>
       </c>
       <c r="J156" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6089,10 +6559,13 @@
           <t>testModels/refined_db/3/m300/m300.off</t>
         </is>
       </c>
-      <c r="I157" t="b">
-        <v>1</v>
+      <c r="I157" t="n">
+        <v>0.6225928340435811</v>
       </c>
       <c r="J157" t="b">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6125,10 +6598,13 @@
           <t>testModels/refined_db/3/m301/m301.off</t>
         </is>
       </c>
-      <c r="I158" t="b">
-        <v>1</v>
+      <c r="I158" t="n">
+        <v>3.901618425476664</v>
       </c>
       <c r="J158" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6161,10 +6637,13 @@
           <t>testModels/refined_db/3/m302/m302.off</t>
         </is>
       </c>
-      <c r="I159" t="b">
-        <v>1</v>
+      <c r="I159" t="n">
+        <v>0.1754788940877089</v>
       </c>
       <c r="J159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6197,11 +6676,14 @@
           <t>testModels/refined_db/3/m303/m303.off</t>
         </is>
       </c>
-      <c r="I160" t="b">
-        <v>1</v>
+      <c r="I160" t="n">
+        <v>0.08625002290585164</v>
       </c>
       <c r="J160" t="b">
         <v>0</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -6233,11 +6715,14 @@
           <t>testModels/refined_db/3/m304/m304.off</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
+      <c r="I161" t="n">
+        <v>0.4871278899620482</v>
       </c>
       <c r="J161" t="b">
         <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -6269,10 +6754,13 @@
           <t>testModels/refined_db/3/m305/m305.off</t>
         </is>
       </c>
-      <c r="I162" t="b">
-        <v>1</v>
+      <c r="I162" t="n">
+        <v>0.06626918927347948</v>
       </c>
       <c r="J162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6305,11 +6793,14 @@
           <t>testModels/refined_db/3/m306/m306.off</t>
         </is>
       </c>
-      <c r="I163" t="b">
-        <v>1</v>
+      <c r="I163" t="n">
+        <v>0.535442473407151</v>
       </c>
       <c r="J163" t="b">
         <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6341,10 +6832,13 @@
           <t>testModels/refined_db/3/m307/m307.off</t>
         </is>
       </c>
-      <c r="I164" t="b">
-        <v>1</v>
+      <c r="I164" t="n">
+        <v>0.1055200319391629</v>
       </c>
       <c r="J164" t="b">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6377,10 +6871,13 @@
           <t>testModels/refined_db/3/m308/m308.off</t>
         </is>
       </c>
-      <c r="I165" t="b">
-        <v>1</v>
+      <c r="I165" t="n">
+        <v>4.878771826915503</v>
       </c>
       <c r="J165" t="b">
+        <v>0</v>
+      </c>
+      <c r="K165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6413,10 +6910,13 @@
           <t>testModels/refined_db/3/m309/m309.off</t>
         </is>
       </c>
-      <c r="I166" t="b">
-        <v>1</v>
+      <c r="I166" t="n">
+        <v>0.4298749370842283</v>
       </c>
       <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6449,10 +6949,13 @@
           <t>testModels/refined_db/3/m310/m310.off</t>
         </is>
       </c>
-      <c r="I167" t="b">
-        <v>1</v>
+      <c r="I167" t="n">
+        <v>0.3152090447098904</v>
       </c>
       <c r="J167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6485,10 +6988,13 @@
           <t>testModels/refined_db/3/m311/m311.off</t>
         </is>
       </c>
-      <c r="I168" t="b">
-        <v>1</v>
+      <c r="I168" t="n">
+        <v>1.561903785834051</v>
       </c>
       <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6521,10 +7027,13 @@
           <t>testModels/refined_db/3/m312/m312.off</t>
         </is>
       </c>
-      <c r="I169" t="b">
-        <v>1</v>
+      <c r="I169" t="n">
+        <v>0.7407995858768722</v>
       </c>
       <c r="J169" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6557,10 +7066,13 @@
           <t>testModels/refined_db/4/m400/m400.off</t>
         </is>
       </c>
-      <c r="I170" t="b">
-        <v>1</v>
+      <c r="I170" t="n">
+        <v>4.095156494823547e-11</v>
       </c>
       <c r="J170" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6593,11 +7105,14 @@
           <t>testModels/refined_db/4/m401/m401.off</t>
         </is>
       </c>
-      <c r="I171" t="b">
-        <v>1</v>
+      <c r="I171" t="n">
+        <v>0.2900215045121107</v>
       </c>
       <c r="J171" t="b">
         <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -6629,10 +7144,13 @@
           <t>testModels/refined_db/4/m402/m402.off</t>
         </is>
       </c>
-      <c r="I172" t="b">
-        <v>1</v>
+      <c r="I172" t="n">
+        <v>0.04578126090383135</v>
       </c>
       <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6665,10 +7183,13 @@
           <t>testModels/refined_db/4/m403/m403.off</t>
         </is>
       </c>
-      <c r="I173" t="b">
-        <v>1</v>
+      <c r="I173" t="n">
+        <v>0.006905987555991612</v>
       </c>
       <c r="J173" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6701,11 +7222,14 @@
           <t>testModels/refined_db/4/m404/m404.off</t>
         </is>
       </c>
-      <c r="I174" t="b">
-        <v>0</v>
+      <c r="I174" t="n">
+        <v>0.0006474875130241528</v>
       </c>
       <c r="J174" t="b">
         <v>1</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6737,10 +7261,13 @@
           <t>testModels/refined_db/4/m405/m405.off</t>
         </is>
       </c>
-      <c r="I175" t="b">
-        <v>1</v>
+      <c r="I175" t="n">
+        <v>0.1280334417512415</v>
       </c>
       <c r="J175" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6773,11 +7300,14 @@
           <t>testModels/refined_db/4/m406/m406.off</t>
         </is>
       </c>
-      <c r="I176" t="b">
-        <v>1</v>
+      <c r="I176" t="n">
+        <v>0.01783902365045297</v>
       </c>
       <c r="J176" t="b">
         <v>0</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6809,10 +7339,13 @@
           <t>testModels/refined_db/4/m407/m407.off</t>
         </is>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
+      <c r="I177" t="n">
+        <v>2.260493181545627</v>
       </c>
       <c r="J177" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6845,10 +7378,13 @@
           <t>testModels/refined_db/4/m408/m408.off</t>
         </is>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
+      <c r="I178" t="n">
+        <v>0.1461981433223654</v>
       </c>
       <c r="J178" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6881,11 +7417,14 @@
           <t>testModels/refined_db/4/m409/m409.off</t>
         </is>
       </c>
-      <c r="I179" t="b">
-        <v>1</v>
+      <c r="I179" t="n">
+        <v>0.1142457224324751</v>
       </c>
       <c r="J179" t="b">
         <v>0</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6917,11 +7456,14 @@
           <t>testModels/refined_db/4/m410/m410.off</t>
         </is>
       </c>
-      <c r="I180" t="b">
-        <v>1</v>
+      <c r="I180" t="n">
+        <v>1.699333082170065</v>
       </c>
       <c r="J180" t="b">
         <v>0</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -6953,10 +7495,13 @@
           <t>testModels/refined_db/4/m411/m411.off</t>
         </is>
       </c>
-      <c r="I181" t="b">
-        <v>1</v>
+      <c r="I181" t="n">
+        <v>0.1602092741636844</v>
       </c>
       <c r="J181" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6989,11 +7534,14 @@
           <t>testModels/refined_db/4/m412/m412.off</t>
         </is>
       </c>
-      <c r="I182" t="b">
-        <v>1</v>
+      <c r="I182" t="n">
+        <v>0.005624612374215172</v>
       </c>
       <c r="J182" t="b">
         <v>0</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -7025,10 +7573,13 @@
           <t>testModels/refined_db/5/m500/m500.off</t>
         </is>
       </c>
-      <c r="I183" t="b">
-        <v>1</v>
+      <c r="I183" t="n">
+        <v>1.210407657281184e-11</v>
       </c>
       <c r="J183" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7061,10 +7612,13 @@
           <t>testModels/refined_db/5/m501/m501.off</t>
         </is>
       </c>
-      <c r="I184" t="b">
-        <v>1</v>
+      <c r="I184" t="n">
+        <v>0.006775093890272819</v>
       </c>
       <c r="J184" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7097,10 +7651,13 @@
           <t>testModels/refined_db/5/m502/m502.off</t>
         </is>
       </c>
-      <c r="I185" t="b">
-        <v>1</v>
+      <c r="I185" t="n">
+        <v>8.596429759685062e-12</v>
       </c>
       <c r="J185" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7133,10 +7690,13 @@
           <t>testModels/refined_db/5/m503/m503.off</t>
         </is>
       </c>
-      <c r="I186" t="b">
-        <v>1</v>
+      <c r="I186" t="n">
+        <v>2.917802581817423e-07</v>
       </c>
       <c r="J186" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7169,10 +7729,13 @@
           <t>testModels/refined_db/5/m504/m504.off</t>
         </is>
       </c>
-      <c r="I187" t="b">
-        <v>1</v>
+      <c r="I187" t="n">
+        <v>0.00110707261019021</v>
       </c>
       <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7205,10 +7768,13 @@
           <t>testModels/refined_db/5/m505/m505.off</t>
         </is>
       </c>
-      <c r="I188" t="b">
-        <v>1</v>
+      <c r="I188" t="n">
+        <v>0.7306839309366435</v>
       </c>
       <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7241,10 +7807,13 @@
           <t>testModels/refined_db/5/m506/m506.off</t>
         </is>
       </c>
-      <c r="I189" t="b">
-        <v>1</v>
+      <c r="I189" t="n">
+        <v>0.002381121397001475</v>
       </c>
       <c r="J189" t="b">
+        <v>0</v>
+      </c>
+      <c r="K189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7277,10 +7846,13 @@
           <t>testModels/refined_db/5/m507/m507.off</t>
         </is>
       </c>
-      <c r="I190" t="b">
-        <v>1</v>
+      <c r="I190" t="n">
+        <v>0.4311561555292199</v>
       </c>
       <c r="J190" t="b">
+        <v>0</v>
+      </c>
+      <c r="K190" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7313,10 +7885,13 @@
           <t>testModels/refined_db/5/m508/m508.off</t>
         </is>
       </c>
-      <c r="I191" t="b">
-        <v>1</v>
+      <c r="I191" t="n">
+        <v>8.043663471507146e-11</v>
       </c>
       <c r="J191" t="b">
+        <v>0</v>
+      </c>
+      <c r="K191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7349,10 +7924,13 @@
           <t>testModels/refined_db/5/m509/m509.off</t>
         </is>
       </c>
-      <c r="I192" t="b">
-        <v>1</v>
+      <c r="I192" t="n">
+        <v>0.01013740599142847</v>
       </c>
       <c r="J192" t="b">
+        <v>0</v>
+      </c>
+      <c r="K192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7385,10 +7963,13 @@
           <t>testModels/refined_db/5/m510/m510.off</t>
         </is>
       </c>
-      <c r="I193" t="b">
-        <v>1</v>
+      <c r="I193" t="n">
+        <v>1.049895353056091</v>
       </c>
       <c r="J193" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7421,10 +8002,13 @@
           <t>testModels/refined_db/5/m511/m511.off</t>
         </is>
       </c>
-      <c r="I194" t="b">
-        <v>1</v>
+      <c r="I194" t="n">
+        <v>0.384504280145336</v>
       </c>
       <c r="J194" t="b">
+        <v>0</v>
+      </c>
+      <c r="K194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7457,10 +8041,13 @@
           <t>testModels/refined_db/5/m512/m512.off</t>
         </is>
       </c>
-      <c r="I195" t="b">
-        <v>1</v>
+      <c r="I195" t="n">
+        <v>0.002485382643052797</v>
       </c>
       <c r="J195" t="b">
+        <v>0</v>
+      </c>
+      <c r="K195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7493,10 +8080,13 @@
           <t>testModels/refined_db/6/m600/m600.off</t>
         </is>
       </c>
-      <c r="I196" t="b">
-        <v>1</v>
+      <c r="I196" t="n">
+        <v>0.5086277728078649</v>
       </c>
       <c r="J196" t="b">
+        <v>0</v>
+      </c>
+      <c r="K196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7529,11 +8119,14 @@
           <t>testModels/refined_db/6/m601/m601.off</t>
         </is>
       </c>
-      <c r="I197" t="b">
-        <v>1</v>
+      <c r="I197" t="n">
+        <v>0.05428167833550838</v>
       </c>
       <c r="J197" t="b">
         <v>0</v>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -7565,10 +8158,13 @@
           <t>testModels/refined_db/6/m602/m602.off</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
+      <c r="I198" t="n">
+        <v>0.0009686025404811339</v>
       </c>
       <c r="J198" t="b">
+        <v>0</v>
+      </c>
+      <c r="K198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7601,10 +8197,13 @@
           <t>testModels/refined_db/6/m603/m603.off</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
+      <c r="I199" t="n">
+        <v>9.880669561400956e-11</v>
       </c>
       <c r="J199" t="b">
+        <v>0</v>
+      </c>
+      <c r="K199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7637,11 +8236,14 @@
           <t>testModels/refined_db/6/m604/m604.off</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
+      <c r="I200" t="n">
+        <v>0.01777836443935735</v>
       </c>
       <c r="J200" t="b">
         <v>0</v>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -7673,11 +8275,14 @@
           <t>testModels/refined_db/6/m605/m605.off</t>
         </is>
       </c>
-      <c r="I201" t="b">
-        <v>0</v>
+      <c r="I201" t="n">
+        <v>0.0375036756961406</v>
       </c>
       <c r="J201" t="b">
         <v>1</v>
+      </c>
+      <c r="K201" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -7709,10 +8314,13 @@
           <t>testModels/refined_db/6/m606/m606.off</t>
         </is>
       </c>
-      <c r="I202" t="b">
-        <v>1</v>
+      <c r="I202" t="n">
+        <v>0.2651232658113843</v>
       </c>
       <c r="J202" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7745,10 +8353,13 @@
           <t>testModels/refined_db/6/m607/m607.off</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
+      <c r="I203" t="n">
+        <v>478.663758286441</v>
       </c>
       <c r="J203" t="b">
+        <v>0</v>
+      </c>
+      <c r="K203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7781,10 +8392,13 @@
           <t>testModels/refined_db/6/m608/m608.off</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
+      <c r="I204" t="n">
+        <v>0.2579527999669422</v>
       </c>
       <c r="J204" t="b">
+        <v>0</v>
+      </c>
+      <c r="K204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7817,10 +8431,13 @@
           <t>testModels/refined_db/6/m609/m609.off</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
+      <c r="I205" t="n">
+        <v>4.087464300305368e-11</v>
       </c>
       <c r="J205" t="b">
+        <v>0</v>
+      </c>
+      <c r="K205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7853,10 +8470,13 @@
           <t>testModels/refined_db/6/m610/m610.off</t>
         </is>
       </c>
-      <c r="I206" t="b">
-        <v>1</v>
+      <c r="I206" t="n">
+        <v>0.0005728298399328012</v>
       </c>
       <c r="J206" t="b">
+        <v>0</v>
+      </c>
+      <c r="K206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7889,11 +8509,14 @@
           <t>testModels/refined_db/6/m611/m611.off</t>
         </is>
       </c>
-      <c r="I207" t="b">
-        <v>0</v>
+      <c r="I207" t="n">
+        <v>0.02289583641710795</v>
       </c>
       <c r="J207" t="b">
         <v>1</v>
+      </c>
+      <c r="K207" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -7925,10 +8548,13 @@
           <t>testModels/refined_db/6/m612/m612.off</t>
         </is>
       </c>
-      <c r="I208" t="b">
-        <v>1</v>
+      <c r="I208" t="n">
+        <v>1.580387692026526e-10</v>
       </c>
       <c r="J208" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7961,10 +8587,13 @@
           <t>testModels/refined_db/7/m700/m700.off</t>
         </is>
       </c>
-      <c r="I209" t="b">
-        <v>1</v>
+      <c r="I209" t="n">
+        <v>0.3177634340905783</v>
       </c>
       <c r="J209" t="b">
+        <v>0</v>
+      </c>
+      <c r="K209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7997,10 +8626,13 @@
           <t>testModels/refined_db/7/m701/m701.off</t>
         </is>
       </c>
-      <c r="I210" t="b">
-        <v>1</v>
+      <c r="I210" t="n">
+        <v>3.44940611404073e-05</v>
       </c>
       <c r="J210" t="b">
+        <v>0</v>
+      </c>
+      <c r="K210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8033,10 +8665,13 @@
           <t>testModels/refined_db/7/m702/m702.off</t>
         </is>
       </c>
-      <c r="I211" t="b">
-        <v>1</v>
+      <c r="I211" t="n">
+        <v>0.02386305395778754</v>
       </c>
       <c r="J211" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8069,10 +8704,13 @@
           <t>testModels/refined_db/7/m703/m703.off</t>
         </is>
       </c>
-      <c r="I212" t="b">
-        <v>1</v>
+      <c r="I212" t="n">
+        <v>0.0001728102349402254</v>
       </c>
       <c r="J212" t="b">
+        <v>0</v>
+      </c>
+      <c r="K212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8105,10 +8743,13 @@
           <t>testModels/refined_db/7/m704/m704.off</t>
         </is>
       </c>
-      <c r="I213" t="b">
-        <v>1</v>
+      <c r="I213" t="n">
+        <v>2.219062873168803e-10</v>
       </c>
       <c r="J213" t="b">
+        <v>0</v>
+      </c>
+      <c r="K213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8141,10 +8782,13 @@
           <t>testModels/refined_db/7/m705/m705.off</t>
         </is>
       </c>
-      <c r="I214" t="b">
-        <v>1</v>
+      <c r="I214" t="n">
+        <v>0.004058685088497006</v>
       </c>
       <c r="J214" t="b">
+        <v>0</v>
+      </c>
+      <c r="K214" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8177,11 +8821,14 @@
           <t>testModels/refined_db/7/m706/m706.off</t>
         </is>
       </c>
-      <c r="I215" t="b">
-        <v>0</v>
+      <c r="I215" t="n">
+        <v>27.38067620618214</v>
       </c>
       <c r="J215" t="b">
         <v>1</v>
+      </c>
+      <c r="K215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -8213,10 +8860,13 @@
           <t>testModels/refined_db/7/m707/m707.off</t>
         </is>
       </c>
-      <c r="I216" t="b">
-        <v>1</v>
+      <c r="I216" t="n">
+        <v>0.1317511834751945</v>
       </c>
       <c r="J216" t="b">
+        <v>0</v>
+      </c>
+      <c r="K216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8249,10 +8899,13 @@
           <t>testModels/refined_db/7/m708/m708.off</t>
         </is>
       </c>
-      <c r="I217" t="b">
-        <v>1</v>
+      <c r="I217" t="n">
+        <v>0.002754271380992243</v>
       </c>
       <c r="J217" t="b">
+        <v>0</v>
+      </c>
+      <c r="K217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8285,10 +8938,13 @@
           <t>testModels/refined_db/7/m709/m709.off</t>
         </is>
       </c>
-      <c r="I218" t="b">
-        <v>1</v>
+      <c r="I218" t="n">
+        <v>0.0110432965661174</v>
       </c>
       <c r="J218" t="b">
+        <v>0</v>
+      </c>
+      <c r="K218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8321,10 +8977,13 @@
           <t>testModels/refined_db/7/m710/m710.off</t>
         </is>
       </c>
-      <c r="I219" t="b">
-        <v>1</v>
+      <c r="I219" t="n">
+        <v>0.04269777408031687</v>
       </c>
       <c r="J219" t="b">
+        <v>0</v>
+      </c>
+      <c r="K219" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8357,11 +9016,14 @@
           <t>testModels/refined_db/7/m711/m711.off</t>
         </is>
       </c>
-      <c r="I220" t="b">
-        <v>1</v>
+      <c r="I220" t="n">
+        <v>0.04903689242919958</v>
       </c>
       <c r="J220" t="b">
         <v>0</v>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -8393,10 +9055,13 @@
           <t>testModels/refined_db/7/m712/m712.off</t>
         </is>
       </c>
-      <c r="I221" t="b">
-        <v>1</v>
+      <c r="I221" t="n">
+        <v>0.02061575473070821</v>
       </c>
       <c r="J221" t="b">
+        <v>0</v>
+      </c>
+      <c r="K221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8429,10 +9094,13 @@
           <t>testModels/refined_db/8/m800/m800.off</t>
         </is>
       </c>
-      <c r="I222" t="b">
-        <v>1</v>
+      <c r="I222" t="n">
+        <v>0.1913600095248651</v>
       </c>
       <c r="J222" t="b">
+        <v>0</v>
+      </c>
+      <c r="K222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8465,10 +9133,13 @@
           <t>testModels/refined_db/8/m801/m801.off</t>
         </is>
       </c>
-      <c r="I223" t="b">
-        <v>1</v>
+      <c r="I223" t="n">
+        <v>0.004545025303810258</v>
       </c>
       <c r="J223" t="b">
+        <v>0</v>
+      </c>
+      <c r="K223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8501,10 +9172,13 @@
           <t>testModels/refined_db/8/m802/m802.off</t>
         </is>
       </c>
-      <c r="I224" t="b">
-        <v>1</v>
+      <c r="I224" t="n">
+        <v>18.19130239583952</v>
       </c>
       <c r="J224" t="b">
+        <v>0</v>
+      </c>
+      <c r="K224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8537,10 +9211,13 @@
           <t>testModels/refined_db/8/m803/m803.off</t>
         </is>
       </c>
-      <c r="I225" t="b">
-        <v>1</v>
+      <c r="I225" t="n">
+        <v>4090.909741394437</v>
       </c>
       <c r="J225" t="b">
+        <v>0</v>
+      </c>
+      <c r="K225" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8573,10 +9250,13 @@
           <t>testModels/refined_db/8/m804/m804.off</t>
         </is>
       </c>
-      <c r="I226" t="b">
-        <v>1</v>
+      <c r="I226" t="n">
+        <v>0.1656547343269143</v>
       </c>
       <c r="J226" t="b">
+        <v>0</v>
+      </c>
+      <c r="K226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8609,10 +9289,13 @@
           <t>testModels/refined_db/8/m805/m805.off</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
+      <c r="I227" t="n">
+        <v>0.04346752808605561</v>
       </c>
       <c r="J227" t="b">
+        <v>0</v>
+      </c>
+      <c r="K227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8645,10 +9328,13 @@
           <t>testModels/refined_db/8/m806/m806.off</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
+      <c r="I228" t="n">
+        <v>6.076406690149934e-11</v>
       </c>
       <c r="J228" t="b">
+        <v>0</v>
+      </c>
+      <c r="K228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8681,10 +9367,13 @@
           <t>testModels/refined_db/8/m807/m807.off</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
+      <c r="I229" t="n">
+        <v>1.45563363444826e-10</v>
       </c>
       <c r="J229" t="b">
+        <v>0</v>
+      </c>
+      <c r="K229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8717,10 +9406,13 @@
           <t>testModels/refined_db/8/m808/m808.off</t>
         </is>
       </c>
-      <c r="I230" t="b">
-        <v>1</v>
+      <c r="I230" t="n">
+        <v>176414.1173567425</v>
       </c>
       <c r="J230" t="b">
+        <v>0</v>
+      </c>
+      <c r="K230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8753,10 +9445,13 @@
           <t>testModels/refined_db/8/m809/m809.off</t>
         </is>
       </c>
-      <c r="I231" t="b">
-        <v>1</v>
+      <c r="I231" t="n">
+        <v>2.365760717600551e-10</v>
       </c>
       <c r="J231" t="b">
+        <v>0</v>
+      </c>
+      <c r="K231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8789,10 +9484,13 @@
           <t>testModels/refined_db/8/m810/m810.off</t>
         </is>
       </c>
-      <c r="I232" t="b">
-        <v>1</v>
+      <c r="I232" t="n">
+        <v>3.505643258862145e-11</v>
       </c>
       <c r="J232" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8825,10 +9523,13 @@
           <t>testModels/refined_db/8/m811/m811.off</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
+      <c r="I233" t="n">
+        <v>2.018868685551215</v>
       </c>
       <c r="J233" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8861,10 +9562,13 @@
           <t>testModels/refined_db/8/m812/m812.off</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
+      <c r="I234" t="n">
+        <v>2.313690791817875</v>
       </c>
       <c r="J234" t="b">
+        <v>0</v>
+      </c>
+      <c r="K234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8897,10 +9601,13 @@
           <t>testModels/refined_db/9/m900/m900.off</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
+      <c r="I235" t="n">
+        <v>0.01899362106789846</v>
       </c>
       <c r="J235" t="b">
+        <v>0</v>
+      </c>
+      <c r="K235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8933,10 +9640,13 @@
           <t>testModels/refined_db/9/m901/m901.off</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
+      <c r="I236" t="n">
+        <v>3.327119664535302e-11</v>
       </c>
       <c r="J236" t="b">
+        <v>0</v>
+      </c>
+      <c r="K236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8969,10 +9679,13 @@
           <t>testModels/refined_db/9/m902/m902.off</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
+      <c r="I237" t="n">
+        <v>1.059105177907915e-10</v>
       </c>
       <c r="J237" t="b">
+        <v>0</v>
+      </c>
+      <c r="K237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9005,10 +9718,13 @@
           <t>testModels/refined_db/9/m903/m903.off</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
+      <c r="I238" t="n">
+        <v>0.0542481373846425</v>
       </c>
       <c r="J238" t="b">
+        <v>0</v>
+      </c>
+      <c r="K238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9041,10 +9757,13 @@
           <t>testModels/refined_db/9/m904/m904.off</t>
         </is>
       </c>
-      <c r="I239" t="b">
-        <v>1</v>
+      <c r="I239" t="n">
+        <v>0.4309492657862186</v>
       </c>
       <c r="J239" t="b">
+        <v>0</v>
+      </c>
+      <c r="K239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9077,10 +9796,13 @@
           <t>testModels/refined_db/9/m905/m905.off</t>
         </is>
       </c>
-      <c r="I240" t="b">
-        <v>1</v>
+      <c r="I240" t="n">
+        <v>1.969518218958351</v>
       </c>
       <c r="J240" t="b">
+        <v>0</v>
+      </c>
+      <c r="K240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9113,10 +9835,13 @@
           <t>testModels/refined_db/9/m906/m906.off</t>
         </is>
       </c>
-      <c r="I241" t="b">
-        <v>1</v>
+      <c r="I241" t="n">
+        <v>2.993455522987102e-11</v>
       </c>
       <c r="J241" t="b">
+        <v>0</v>
+      </c>
+      <c r="K241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9149,10 +9874,13 @@
           <t>testModels/refined_db/9/m907/m907.off</t>
         </is>
       </c>
-      <c r="I242" t="b">
-        <v>1</v>
+      <c r="I242" t="n">
+        <v>909719.5324682461</v>
       </c>
       <c r="J242" t="b">
+        <v>0</v>
+      </c>
+      <c r="K242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9185,10 +9913,13 @@
           <t>testModels/refined_db/9/m908/m908.off</t>
         </is>
       </c>
-      <c r="I243" t="b">
-        <v>1</v>
+      <c r="I243" t="n">
+        <v>0.02120182921822445</v>
       </c>
       <c r="J243" t="b">
+        <v>0</v>
+      </c>
+      <c r="K243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9221,10 +9952,13 @@
           <t>testModels/refined_db/9/m909/m909.off</t>
         </is>
       </c>
-      <c r="I244" t="b">
-        <v>1</v>
+      <c r="I244" t="n">
+        <v>0.0009356444237630381</v>
       </c>
       <c r="J244" t="b">
+        <v>0</v>
+      </c>
+      <c r="K244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9257,10 +9991,13 @@
           <t>testModels/refined_db/9/m910/m910.off</t>
         </is>
       </c>
-      <c r="I245" t="b">
-        <v>1</v>
+      <c r="I245" t="n">
+        <v>0.008453275854059781</v>
       </c>
       <c r="J245" t="b">
+        <v>0</v>
+      </c>
+      <c r="K245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9293,10 +10030,13 @@
           <t>testModels/refined_db/9/m911/m911.off</t>
         </is>
       </c>
-      <c r="I246" t="b">
-        <v>1</v>
+      <c r="I246" t="n">
+        <v>2265.282202084351</v>
       </c>
       <c r="J246" t="b">
+        <v>0</v>
+      </c>
+      <c r="K246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9329,10 +10069,13 @@
           <t>testModels/refined_db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I247" t="b">
-        <v>1</v>
+      <c r="I247" t="n">
+        <v>1.990667974677138e-11</v>
       </c>
       <c r="J247" t="b">
+        <v>0</v>
+      </c>
+      <c r="K247" t="b">
         <v>0</v>
       </c>
     </row>

--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K247"/>
+  <dimension ref="A1:L247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,15 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>distance_barycentre</t>
+          <t>center_mass</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>subsampled_outlier</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>supersampled_outlier</t>
         </is>
@@ -514,13 +519,18 @@
           <t>testModels/refined_db/0/m0/m0.off</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>6.42368019270551e-12</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[ 0. -0.  0.]</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.54180178726444</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,13 +563,18 @@
           <t>testModels/refined_db/0/m1/m1.off</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>0.00501756801924554</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[-0.00017 -0.00283 -0.00414]</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5080431665382328</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -592,13 +607,18 @@
           <t>testModels/refined_db/0/m2/m2.off</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>0.009058616602907047</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[-0.00001 -0.00034 -0.00905]</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>1.171745726572299</v>
       </c>
       <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -631,13 +651,18 @@
           <t>testModels/refined_db/0/m3/m3.off</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>6.186665276912884e-11</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[-0.  0.  0.]</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2.758110230595284</v>
       </c>
       <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -670,13 +695,18 @@
           <t>testModels/refined_db/0/m4/m4.off</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>1.027888110259638</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[ 0.05138 -1.01519 -0.15267]</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.03271652012559027</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -709,13 +739,18 @@
           <t>testModels/refined_db/0/m5/m5.off</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>0.01446468186748903</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[ 0.00006 -0.00158 -0.01438]</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1.107599772509929</v>
       </c>
       <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -748,13 +783,18 @@
           <t>testModels/refined_db/0/m6/m6.off</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>0.006665560295806335</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-0.00026  0.00648 -0.00153]</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2.533007726348208</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -787,13 +827,18 @@
           <t>testModels/refined_db/0/m7/m7.off</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>0.01217098082723011</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[-0.00164 -0.0065  -0.01016]</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2.272328856386615</v>
       </c>
       <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -826,13 +871,18 @@
           <t>testModels/refined_db/0/m8/m8.off</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v>0.1173620910137573</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[ 0.00048 -0.11711 -0.00767]</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3.672522755488999</v>
       </c>
       <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -865,13 +915,18 @@
           <t>testModels/refined_db/0/m9/m9.off</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>6587.644371151677</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[  -0.2974  6587.64434   -0.60443]</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>9.877730838107428</v>
       </c>
       <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -904,13 +959,18 @@
           <t>testModels/refined_db/1/m100/m100.off</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>3.252365613465833e-12</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[ 0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1.994433116743413</v>
       </c>
       <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -943,13 +1003,18 @@
           <t>testModels/refined_db/1/m101/m101.off</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>0.1389790512606554</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[ 0.       0.13833 -0.01342]</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>11.64085859253579</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -982,13 +1047,18 @@
           <t>testModels/refined_db/1/m102/m102.off</t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v>0.02559352364995432</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.00507 -0.01234 -0.02184]</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1.171076233922933</v>
       </c>
       <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1021,13 +1091,18 @@
           <t>testModels/refined_db/1/m103/m103.off</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>0.3231037696824753</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[-0.00006 -0.29039  0.14166]</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9598027277619923</v>
       </c>
       <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1060,13 +1135,18 @@
           <t>testModels/refined_db/1/m104/m104.off</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>1.379080462315664e-11</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1.676187667114725</v>
       </c>
       <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1099,13 +1179,18 @@
           <t>testModels/refined_db/1/m105/m105.off</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>0.0838227631823335</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[-0.00528 -0.07391 -0.03918]</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>1.766838664430644</v>
       </c>
       <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1138,13 +1223,18 @@
           <t>testModels/refined_db/1/m106/m106.off</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>7.997235511655059e-12</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2.052764835934736</v>
       </c>
       <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1177,13 +1267,18 @@
           <t>testModels/refined_db/1/m107/m107.off</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0.008345277103867062</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-0.00001  0.00306 -0.00776]</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1.364251939096921</v>
       </c>
       <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1216,13 +1311,18 @@
           <t>testModels/refined_db/1/m108/m108.off</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>0.00213585877176066</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-0.00016  0.00212 -0.00022]</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3.244631440466255</v>
       </c>
       <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1255,13 +1355,18 @@
           <t>testModels/refined_db/1/m109/m109.off</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>0.006091116973117195</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[0.002   0.00575 0.00003]</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1.189647178168971</v>
       </c>
       <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1294,13 +1399,18 @@
           <t>testModels/refined_db/1/m110/m110.off</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>9.004891340451983e-12</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1.930009171372275</v>
       </c>
       <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1333,13 +1443,18 @@
           <t>testModels/refined_db/1/m111/m111.off</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>0.01298413216702756</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-0.       0.00113 -0.01293]</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>1.478942596043082</v>
       </c>
       <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1372,13 +1487,18 @@
           <t>testModels/refined_db/1/m112/m112.off</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>0.00589682427658975</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[0.00165 0.00563 0.00058]</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>4.876855514945756</v>
       </c>
       <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1411,13 +1531,18 @@
           <t>testModels/refined_db/10/m1000/m1000.off</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>1.455320994789988</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[-0.00004 -1.45532  0.00118]</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1587908224157681</v>
       </c>
       <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1450,13 +1575,18 @@
           <t>testModels/refined_db/10/m1001/m1001.off</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>0.1325099938257858</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[ 0.00118  0.12731 -0.03672]</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1.016953203100506</v>
       </c>
       <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1489,13 +1619,18 @@
           <t>testModels/refined_db/10/m1002/m1002.off</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>532.0001259834055</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[  -0.01038 -532.00013   -0.01933]</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1.265233350141544e-05</v>
       </c>
       <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1528,13 +1663,18 @@
           <t>testModels/refined_db/10/m1003/m1003.off</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>2072.8774855186</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[  -0.10138 2072.87748   -0.06319]</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>3.743935843683506</v>
       </c>
       <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1567,13 +1707,18 @@
           <t>testModels/refined_db/10/m1004/m1004.off</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>122.902905262765</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[  0.21147 122.87577  -2.57384]</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1.304649298216556</v>
       </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1606,13 +1751,18 @@
           <t>testModels/refined_db/10/m1005/m1005.off</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>29.38497605738384</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[  0.00014 -29.38498   0.00066]</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.003181731566488926</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1645,13 +1795,18 @@
           <t>testModels/refined_db/10/m1006/m1006.off</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>13.32420267182001</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[-0.58491 13.21617 -1.58908]</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>21.71830762171258</v>
       </c>
       <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1684,13 +1839,18 @@
           <t>testModels/refined_db/10/m1007/m1007.off</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>183.2580368718666</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[  -0.0133  -183.25784   -0.2713 ]</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0001230906290192238</v>
       </c>
       <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1723,13 +1883,18 @@
           <t>testModels/refined_db/10/m1008/m1008.off</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>0.3569057543060847</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[ 0.0726  -0.28819  0.19762]</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9374087537741624</v>
       </c>
       <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1762,13 +1927,18 @@
           <t>testModels/refined_db/10/m1009/m1009.off</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>17.83800761423448</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[ -0.00784 -17.83799  -0.02066]</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.009909776401318049</v>
       </c>
       <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1801,13 +1971,18 @@
           <t>testModels/refined_db/10/m1010/m1010.off</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>69.15848271824994</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[-0.05089 69.15845  0.04974]</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>4.64228776420492</v>
       </c>
       <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1840,13 +2015,18 @@
           <t>testModels/refined_db/10/m1011/m1011.off</t>
         </is>
       </c>
-      <c r="I36" t="n">
-        <v>5.417411382661081</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[ 0.00366 -5.41741  0.00345]</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0.06058220592807511</v>
       </c>
       <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1879,13 +2059,18 @@
           <t>testModels/refined_db/10/m1012/m1012.off</t>
         </is>
       </c>
-      <c r="I37" t="n">
-        <v>277.1607455409513</v>
-      </c>
-      <c r="J37" t="b">
-        <v>0</v>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[   0.00604 -277.16074    0.05228]</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0.001274165385056539</v>
       </c>
       <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1918,13 +2103,18 @@
           <t>testModels/refined_db/11/m1100/m1100.off</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>7.10636406385241e-11</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[ 0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3272601770119237</v>
       </c>
       <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1957,13 +2147,18 @@
           <t>testModels/refined_db/11/m1101/m1101.off</t>
         </is>
       </c>
-      <c r="I39" t="n">
-        <v>1.81232719659986e-11</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0.08825927164662188</v>
       </c>
       <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1996,13 +2191,18 @@
           <t>testModels/refined_db/11/m1102/m1102.off</t>
         </is>
       </c>
-      <c r="I40" t="n">
-        <v>0.2225860418428716</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[ 0.       0.22259 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0.165489650680151</v>
       </c>
       <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2035,13 +2235,18 @@
           <t>testModels/refined_db/11/m1103/m1103.off</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>0.4926314511674916</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[ 0.      -0.49181 -0.02839]</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3452445459055065</v>
       </c>
       <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2074,13 +2279,18 @@
           <t>testModels/refined_db/11/m1104/m1104.off</t>
         </is>
       </c>
-      <c r="I42" t="n">
-        <v>3.008804444112111e-10</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[ 0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1265974483188364</v>
       </c>
       <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2113,13 +2323,18 @@
           <t>testModels/refined_db/11/m1105/m1105.off</t>
         </is>
       </c>
-      <c r="I43" t="n">
-        <v>0.0003959135689194743</v>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[-0.00039  0.00004 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0.3799769723842163</v>
       </c>
       <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2152,13 +2367,18 @@
           <t>testModels/refined_db/11/m1106/m1106.off</t>
         </is>
       </c>
-      <c r="I44" t="n">
-        <v>0.0009216320409663063</v>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[0.00091 0.00012 0.     ]</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0.0813771774430733</v>
       </c>
       <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2191,13 +2411,18 @@
           <t>testModels/refined_db/11/m1107/m1107.off</t>
         </is>
       </c>
-      <c r="I45" t="n">
-        <v>32.49710866835853</v>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[ 0.13097 -0.39616 32.49443]</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0.05599552733228992</v>
       </c>
       <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2230,13 +2455,18 @@
           <t>testModels/refined_db/11/m1108/m1108.off</t>
         </is>
       </c>
-      <c r="I46" t="n">
-        <v>143.6930420967281</v>
-      </c>
-      <c r="J46" t="b">
-        <v>0</v>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[ -0.00948 143.69304  -0.03293]</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0.001210732671474684</v>
       </c>
       <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2269,13 +2499,18 @@
           <t>testModels/refined_db/11/m1109/m1109.off</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>1112295.707395644</v>
-      </c>
-      <c r="J47" t="b">
-        <v>0</v>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[      0.04546 1112295.70424     -83.80816]</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0001279048319218899</v>
       </c>
       <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2308,13 +2543,18 @@
           <t>testModels/refined_db/11/m1110/m1110.off</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>5.026962274833129e-11</v>
-      </c>
-      <c r="J48" t="b">
-        <v>0</v>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[-0.  0.  0.]</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0.345358303598502</v>
       </c>
       <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2347,13 +2587,18 @@
           <t>testModels/refined_db/11/m1111/m1111.off</t>
         </is>
       </c>
-      <c r="I49" t="n">
-        <v>1.730712447319561e-11</v>
-      </c>
-      <c r="J49" t="b">
-        <v>0</v>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>0.756493767041663</v>
       </c>
       <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2386,13 +2631,18 @@
           <t>testModels/refined_db/11/m1112/m1112.off</t>
         </is>
       </c>
-      <c r="I50" t="n">
-        <v>11.393734683005</v>
-      </c>
-      <c r="J50" t="b">
-        <v>0</v>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[  0.00564 -11.39365  -0.04324]</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0004102075644463312</v>
       </c>
       <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2425,13 +2675,18 @@
           <t>testModels/refined_db/12/m1200/m1200.off</t>
         </is>
       </c>
-      <c r="I51" t="n">
-        <v>7.282618872479424e-12</v>
-      </c>
-      <c r="J51" t="b">
-        <v>1</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1.081636362116313</v>
       </c>
       <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2464,13 +2719,18 @@
           <t>testModels/refined_db/12/m1201/m1201.off</t>
         </is>
       </c>
-      <c r="I52" t="n">
-        <v>0.5561287094772075</v>
-      </c>
-      <c r="J52" t="b">
-        <v>0</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[ 0.35762 -0.4151  -0.09529]</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>0.4015434721253283</v>
       </c>
       <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2503,13 +2763,18 @@
           <t>testModels/refined_db/12/m1202/m1202.off</t>
         </is>
       </c>
-      <c r="I53" t="n">
-        <v>9.464040996687352e-11</v>
-      </c>
-      <c r="J53" t="b">
-        <v>0</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7728699090886082</v>
       </c>
       <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2542,13 +2807,18 @@
           <t>testModels/refined_db/12/m1203/m1203.off</t>
         </is>
       </c>
-      <c r="I54" t="n">
-        <v>0.0004125721919318342</v>
-      </c>
-      <c r="J54" t="b">
-        <v>0</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-0.      -0.00041  0.00003]</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1.586483251276246</v>
       </c>
       <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2581,13 +2851,18 @@
           <t>testModels/refined_db/12/m1204/m1204.off</t>
         </is>
       </c>
-      <c r="I55" t="n">
-        <v>2.073042813580126e-11</v>
-      </c>
-      <c r="J55" t="b">
-        <v>0</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[ 0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>2.479218610063131</v>
       </c>
       <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2620,13 +2895,18 @@
           <t>testModels/refined_db/12/m1205/m1205.off</t>
         </is>
       </c>
-      <c r="I56" t="n">
-        <v>98.0963809906261</v>
-      </c>
-      <c r="J56" t="b">
-        <v>0</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-0.08731 98.09607 -0.22925]</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1.173632872154284</v>
       </c>
       <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2659,13 +2939,18 @@
           <t>testModels/refined_db/12/m1206/m1206.off</t>
         </is>
       </c>
-      <c r="I57" t="n">
-        <v>0.02688281668798757</v>
-      </c>
-      <c r="J57" t="b">
-        <v>0</v>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[ 0.00201 -0.00875  0.02534]</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1.289017756651356</v>
       </c>
       <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2698,13 +2983,18 @@
           <t>testModels/refined_db/12/m1207/m1207.off</t>
         </is>
       </c>
-      <c r="I58" t="n">
-        <v>0.6702554050470263</v>
-      </c>
-      <c r="J58" t="b">
-        <v>0</v>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[-0.11164 -0.06287 -0.65789]</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2.354757164090654</v>
       </c>
       <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2737,13 +3027,18 @@
           <t>testModels/refined_db/12/m1208/m1208.off</t>
         </is>
       </c>
-      <c r="I59" t="n">
-        <v>0.8958497379112135</v>
-      </c>
-      <c r="J59" t="b">
-        <v>0</v>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[-0.07559 -0.1371  -0.88206]</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>2.530272081995995</v>
       </c>
       <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +3071,18 @@
           <t>testModels/refined_db/12/m1209/m1209.off</t>
         </is>
       </c>
-      <c r="I60" t="n">
-        <v>3.078852894688539e-07</v>
-      </c>
-      <c r="J60" t="b">
-        <v>0</v>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1.997595658936787</v>
       </c>
       <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2815,13 +3115,18 @@
           <t>testModels/refined_db/12/m1210/m1210.off</t>
         </is>
       </c>
-      <c r="I61" t="n">
-        <v>0.1831469396548207</v>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[0.12915 0.02622 0.12718]</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1660687627470626</v>
       </c>
       <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2854,13 +3159,18 @@
           <t>testModels/refined_db/12/m1211/m1211.off</t>
         </is>
       </c>
-      <c r="I62" t="n">
-        <v>18.1792720564108</v>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[ -0.02473   0.52077 -18.17179]</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>0.004974011578418645</v>
       </c>
       <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2893,13 +3203,18 @@
           <t>testModels/refined_db/12/m1212/m1212.off</t>
         </is>
       </c>
-      <c r="I63" t="n">
-        <v>35.88127658142944</v>
-      </c>
-      <c r="J63" t="b">
-        <v>0</v>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[-3.53928 -2.09948 35.64452]</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>787.9488993600014</v>
       </c>
       <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2932,13 +3247,18 @@
           <t>testModels/refined_db/13/m1300/m1300.off</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>0.1445730567316785</v>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[0.      0.02869 0.1417 ]</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0.6954735534627958</v>
       </c>
       <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2971,13 +3291,18 @@
           <t>testModels/refined_db/13/m1301/m1301.off</t>
         </is>
       </c>
-      <c r="I65" t="n">
-        <v>1.674490204206562e-11</v>
-      </c>
-      <c r="J65" t="b">
-        <v>0</v>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4255508892116234</v>
       </c>
       <c r="K65" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3010,13 +3335,18 @@
           <t>testModels/refined_db/13/m1302/m1302.off</t>
         </is>
       </c>
-      <c r="I66" t="n">
-        <v>0.3481034817522956</v>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[0.03846 0.03873 0.3438 ]</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0.1490645364315948</v>
       </c>
       <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3049,13 +3379,18 @@
           <t>testModels/refined_db/13/m1303/m1303.off</t>
         </is>
       </c>
-      <c r="I67" t="n">
-        <v>13.32236960920189</v>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[  0.      -13.32206   0.09103]</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0930950192551986</v>
       </c>
       <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3088,13 +3423,18 @@
           <t>testModels/refined_db/13/m1304/m1304.off</t>
         </is>
       </c>
-      <c r="I68" t="n">
-        <v>0.03261609313570626</v>
-      </c>
-      <c r="J68" t="b">
-        <v>0</v>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[0.00362 0.01059 0.03064]</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>1.435492100503427</v>
       </c>
       <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3127,13 +3467,18 @@
           <t>testModels/refined_db/13/m1305/m1305.off</t>
         </is>
       </c>
-      <c r="I69" t="n">
-        <v>0.002749700708202746</v>
-      </c>
-      <c r="J69" t="b">
-        <v>0</v>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[-0.00267  0.00003 -0.00064]</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>0.6400542501522117</v>
       </c>
       <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3166,13 +3511,18 @@
           <t>testModels/refined_db/13/m1306/m1306.off</t>
         </is>
       </c>
-      <c r="I70" t="n">
-        <v>0.4326327022147982</v>
-      </c>
-      <c r="J70" t="b">
-        <v>1</v>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[-0.01929 -0.02412  0.43153]</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>4.320851909693641</v>
       </c>
       <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3205,13 +3555,18 @@
           <t>testModels/refined_db/13/m1307/m1307.off</t>
         </is>
       </c>
-      <c r="I71" t="n">
-        <v>0.4894051211897327</v>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[-0.00028 -0.03351 -0.48826]</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>3.815333141648222</v>
       </c>
       <c r="K71" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3244,13 +3599,18 @@
           <t>testModels/refined_db/13/m1308/m1308.off</t>
         </is>
       </c>
-      <c r="I72" t="n">
-        <v>0.00887835115147557</v>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[0.00176 0.00062 0.00868]</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1.334538512930885</v>
       </c>
       <c r="K72" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3283,13 +3643,18 @@
           <t>testModels/refined_db/13/m1309/m1309.off</t>
         </is>
       </c>
-      <c r="I73" t="n">
-        <v>0.3873455828345476</v>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[ 0.28855 -0.14881  0.21126]</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>0.8143472880607064</v>
       </c>
       <c r="K73" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3322,13 +3687,18 @@
           <t>testModels/refined_db/13/m1310/m1310.off</t>
         </is>
       </c>
-      <c r="I74" t="n">
-        <v>0.0001100846433725572</v>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[-0.      -0.00002 -0.00011]</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>3.749506469513421</v>
       </c>
       <c r="K74" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3361,13 +3731,18 @@
           <t>testModels/refined_db/13/m1311/m1311.off</t>
         </is>
       </c>
-      <c r="I75" t="n">
-        <v>4.204424524394398e-11</v>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>1.443578755381185</v>
       </c>
       <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3400,13 +3775,18 @@
           <t>testModels/refined_db/13/m1312/m1312.off</t>
         </is>
       </c>
-      <c r="I76" t="n">
-        <v>0.004496474203714044</v>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[0.      0.00361 0.00268]</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>1.257278898087117</v>
       </c>
       <c r="K76" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3439,13 +3819,18 @@
           <t>testModels/refined_db/14/m1400/m1400.off</t>
         </is>
       </c>
-      <c r="I77" t="n">
-        <v>4.392233791698981</v>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[-0.0007  -4.38973 -0.14814]</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>7.444668226564244</v>
       </c>
       <c r="K77" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3478,13 +3863,18 @@
           <t>testModels/refined_db/14/m1401/m1401.off</t>
         </is>
       </c>
-      <c r="I78" t="n">
-        <v>0.1991268100310251</v>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[0.00142 0.14986 0.13111]</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>2.710671551916585</v>
       </c>
       <c r="K78" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3517,13 +3907,18 @@
           <t>testModels/refined_db/14/m1402/m1402.off</t>
         </is>
       </c>
-      <c r="I79" t="n">
-        <v>20.33644891907266</v>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[  0.03805  -3.73349 -19.99077]</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>0.007808490932125987</v>
       </c>
       <c r="K79" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3556,13 +3951,18 @@
           <t>testModels/refined_db/14/m1403/m1403.off</t>
         </is>
       </c>
-      <c r="I80" t="n">
-        <v>0.9680626650967853</v>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[-0.      -0.21675 -0.94349]</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>0.1443653006264701</v>
       </c>
       <c r="K80" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3595,13 +3995,18 @@
           <t>testModels/refined_db/14/m1404/m1404.off</t>
         </is>
       </c>
-      <c r="I81" t="n">
-        <v>0.01194409354083513</v>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[-0.0007  -0.00262  0.01163]</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>2.519745832908126</v>
       </c>
       <c r="K81" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3634,13 +4039,18 @@
           <t>testModels/refined_db/14/m1405/m1405.off</t>
         </is>
       </c>
-      <c r="I82" t="n">
-        <v>0.815778011685657</v>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[ 0.79494 -0.17904 -0.03894]</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5762033814165287</v>
       </c>
       <c r="K82" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3673,13 +4083,18 @@
           <t>testModels/refined_db/14/m1406/m1406.off</t>
         </is>
       </c>
-      <c r="I83" t="n">
-        <v>0.2748225958853756</v>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[ 0.15823 -0.00143 -0.2247 ]</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01893771976782695</v>
       </c>
       <c r="K83" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3712,13 +4127,18 @@
           <t>testModels/refined_db/14/m1407/m1407.off</t>
         </is>
       </c>
-      <c r="I84" t="n">
-        <v>0.01003074294867284</v>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[-0.00003  0.00989  0.00166]</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>2.719129414731457</v>
       </c>
       <c r="K84" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3751,13 +4171,18 @@
           <t>testModels/refined_db/14/m1408/m1408.off</t>
         </is>
       </c>
-      <c r="I85" t="n">
-        <v>0.0117169064540489</v>
-      </c>
-      <c r="J85" t="b">
-        <v>0</v>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[0.00001 0.01171 0.00029]</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>0.8241773434355937</v>
       </c>
       <c r="K85" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3790,13 +4215,18 @@
           <t>testModels/refined_db/14/m1409/m1409.off</t>
         </is>
       </c>
-      <c r="I86" t="n">
-        <v>10.26426416104184</v>
-      </c>
-      <c r="J86" t="b">
-        <v>0</v>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[ 0.00811 10.22846 -0.85655]</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1407453610661661</v>
       </c>
       <c r="K86" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3829,13 +4259,18 @@
           <t>testModels/refined_db/14/m1410/m1410.off</t>
         </is>
       </c>
-      <c r="I87" t="n">
-        <v>0.8414929108156591</v>
-      </c>
-      <c r="J87" t="b">
-        <v>0</v>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[ 0.00382 -0.72387 -0.42908]</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01725140037312688</v>
       </c>
       <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3868,13 +4303,18 @@
           <t>testModels/refined_db/14/m1411/m1411.off</t>
         </is>
       </c>
-      <c r="I88" t="n">
-        <v>0.1246876073091927</v>
-      </c>
-      <c r="J88" t="b">
-        <v>0</v>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[ 0.05838 -0.02174  0.10801]</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1.801048800524765</v>
       </c>
       <c r="K88" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3907,13 +4347,18 @@
           <t>testModels/refined_db/14/m1412/m1412.off</t>
         </is>
       </c>
-      <c r="I89" t="n">
-        <v>0.5708455413424252</v>
-      </c>
-      <c r="J89" t="b">
-        <v>0</v>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[-0.2232  -0.22135 -0.4765 ]</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>3.167204380404589</v>
       </c>
       <c r="K89" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3946,13 +4391,18 @@
           <t>testModels/refined_db/15/m1500/m1500.off</t>
         </is>
       </c>
-      <c r="I90" t="n">
-        <v>0.0001601138692665851</v>
-      </c>
-      <c r="J90" t="b">
-        <v>0</v>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[-0.00001  0.00008 -0.00014]</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>2.232577985287633</v>
       </c>
       <c r="K90" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3985,13 +4435,18 @@
           <t>testModels/refined_db/15/m1501/m1501.off</t>
         </is>
       </c>
-      <c r="I91" t="n">
-        <v>0.1150383050786876</v>
-      </c>
-      <c r="J91" t="b">
-        <v>0</v>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[-0.00022 -0.10559 -0.04566]</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>4.661942364499862</v>
       </c>
       <c r="K91" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4024,13 +4479,18 @@
           <t>testModels/refined_db/15/m1502/m1502.off</t>
         </is>
       </c>
-      <c r="I92" t="n">
-        <v>0.324478652196189</v>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[0.25433 0.06128 0.19195]</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4897578313527576</v>
       </c>
       <c r="K92" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4063,13 +4523,18 @@
           <t>testModels/refined_db/15/m1503/m1503.off</t>
         </is>
       </c>
-      <c r="I93" t="n">
-        <v>0.03966103519066289</v>
-      </c>
-      <c r="J93" t="b">
-        <v>0</v>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[-0.02932 -0.01477 -0.02225]</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1219650657749922</v>
       </c>
       <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4102,13 +4567,18 @@
           <t>testModels/refined_db/15/m1504/m1504.off</t>
         </is>
       </c>
-      <c r="I94" t="n">
-        <v>0.1061030545498483</v>
-      </c>
-      <c r="J94" t="b">
-        <v>0</v>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[-0.00006  0.0486   0.09432]</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>0.664255459156043</v>
       </c>
       <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4141,13 +4611,18 @@
           <t>testModels/refined_db/15/m1505/m1505.off</t>
         </is>
       </c>
-      <c r="I95" t="n">
-        <v>0.07576329887385913</v>
-      </c>
-      <c r="J95" t="b">
-        <v>0</v>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[-0.00003  0.01208  0.07479]</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>0.3543348207509114</v>
       </c>
       <c r="K95" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4180,13 +4655,18 @@
           <t>testModels/refined_db/15/m1506/m1506.off</t>
         </is>
       </c>
-      <c r="I96" t="n">
-        <v>4.462826405724972</v>
-      </c>
-      <c r="J96" t="b">
-        <v>0</v>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[-0.24779  4.45537  0.07142]</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>13.00591934408392</v>
       </c>
       <c r="K96" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4219,13 +4699,18 @@
           <t>testModels/refined_db/15/m1507/m1507.off</t>
         </is>
       </c>
-      <c r="I97" t="n">
-        <v>0.01309384056103359</v>
-      </c>
-      <c r="J97" t="b">
-        <v>0</v>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[-0.00011 -0.00062  0.01308]</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>0.519841040786056</v>
       </c>
       <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4258,13 +4743,18 @@
           <t>testModels/refined_db/15/m1508/m1508.off</t>
         </is>
       </c>
-      <c r="I98" t="n">
-        <v>0.1961771554044218</v>
-      </c>
-      <c r="J98" t="b">
-        <v>1</v>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[-0.01383  0.11309 -0.1597 ]</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5908633695805606</v>
       </c>
       <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4297,13 +4787,18 @@
           <t>testModels/refined_db/15/m1509/m1509.off</t>
         </is>
       </c>
-      <c r="I99" t="n">
-        <v>0.08074166315627522</v>
-      </c>
-      <c r="J99" t="b">
-        <v>0</v>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[-0.00041 -0.02604  0.07643]</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2.299295914796277</v>
       </c>
       <c r="K99" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4336,13 +4831,18 @@
           <t>testModels/refined_db/15/m1510/m1510.off</t>
         </is>
       </c>
-      <c r="I100" t="n">
-        <v>0.004663123650197178</v>
-      </c>
-      <c r="J100" t="b">
-        <v>0</v>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[-0.00013 -0.00459 -0.00081]</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7328515637819432</v>
       </c>
       <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4375,13 +4875,18 @@
           <t>testModels/refined_db/15/m1511/m1511.off</t>
         </is>
       </c>
-      <c r="I101" t="n">
-        <v>0.01299530797875391</v>
-      </c>
-      <c r="J101" t="b">
-        <v>0</v>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[0.01038 0.00755 0.00201]</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>2.112863031299252</v>
       </c>
       <c r="K101" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4414,13 +4919,18 @@
           <t>testModels/refined_db/15/m1512/m1512.off</t>
         </is>
       </c>
-      <c r="I102" t="n">
-        <v>0.1284216042194491</v>
-      </c>
-      <c r="J102" t="b">
-        <v>0</v>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>[0.08145 0.08473 0.05175]</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>0.8844093190644509</v>
       </c>
       <c r="K102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4453,13 +4963,18 @@
           <t>testModels/refined_db/16/m1600/m1600.off</t>
         </is>
       </c>
-      <c r="I103" t="n">
-        <v>5.555083706974991e-11</v>
-      </c>
-      <c r="J103" t="b">
-        <v>0</v>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7387317620472658</v>
       </c>
       <c r="K103" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4492,13 +5007,18 @@
           <t>testModels/refined_db/16/m1601/m1601.off</t>
         </is>
       </c>
-      <c r="I104" t="n">
-        <v>0.001272838531599622</v>
-      </c>
-      <c r="J104" t="b">
-        <v>0</v>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>[ 0.00003 -0.00127 -0.00002]</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>0.8928738812942658</v>
       </c>
       <c r="K104" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4531,13 +5051,18 @@
           <t>testModels/refined_db/16/m1602/m1602.off</t>
         </is>
       </c>
-      <c r="I105" t="n">
-        <v>31713.12584531875</v>
-      </c>
-      <c r="J105" t="b">
-        <v>0</v>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>[    0.00902 31713.12585    -0.01042]</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>20.04380462926672</v>
       </c>
       <c r="K105" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4570,13 +5095,18 @@
           <t>testModels/refined_db/16/m1603/m1603.off</t>
         </is>
       </c>
-      <c r="I106" t="n">
-        <v>8.821362534576683e-05</v>
-      </c>
-      <c r="J106" t="b">
-        <v>0</v>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>[-0.       0.00009 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>0.5679196817602624</v>
       </c>
       <c r="K106" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4609,13 +5139,18 @@
           <t>testModels/refined_db/16/m1604/m1604.off</t>
         </is>
       </c>
-      <c r="I107" t="n">
-        <v>8.387209573154196e-06</v>
-      </c>
-      <c r="J107" t="b">
-        <v>0</v>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>[-0.      -0.00001 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>0.6426843909022848</v>
       </c>
       <c r="K107" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4648,13 +5183,18 @@
           <t>testModels/refined_db/16/m1605/m1605.off</t>
         </is>
       </c>
-      <c r="I108" t="n">
-        <v>0.1662974862166074</v>
-      </c>
-      <c r="J108" t="b">
-        <v>0</v>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>[0.     0.1663 0.    ]</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1.378064445523765</v>
       </c>
       <c r="K108" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4687,13 +5227,18 @@
           <t>testModels/refined_db/16/m1606/m1606.off</t>
         </is>
       </c>
-      <c r="I109" t="n">
-        <v>0.006617485714300628</v>
-      </c>
-      <c r="J109" t="b">
-        <v>0</v>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>[-0.00051 -0.00639 -0.00165]</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>1.268406154537663</v>
       </c>
       <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4726,13 +5271,18 @@
           <t>testModels/refined_db/16/m1607/m1607.off</t>
         </is>
       </c>
-      <c r="I110" t="n">
-        <v>18011.00689233719</v>
-      </c>
-      <c r="J110" t="b">
-        <v>0</v>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>[   -0.00787 18011.00689    -0.01671]</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>15.75553388408365</v>
       </c>
       <c r="K110" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4765,13 +5315,18 @@
           <t>testModels/refined_db/16/m1608/m1608.off</t>
         </is>
       </c>
-      <c r="I111" t="n">
-        <v>1.78664283789381e-11</v>
-      </c>
-      <c r="J111" t="b">
-        <v>0</v>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>4.182391772902756</v>
       </c>
       <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4804,13 +5359,18 @@
           <t>testModels/refined_db/16/m1609/m1609.off</t>
         </is>
       </c>
-      <c r="I112" t="n">
-        <v>3.729987138531526e-12</v>
-      </c>
-      <c r="J112" t="b">
-        <v>0</v>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>1.017204519830082</v>
       </c>
       <c r="K112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4843,13 +5403,18 @@
           <t>testModels/refined_db/16/m1610/m1610.off</t>
         </is>
       </c>
-      <c r="I113" t="n">
-        <v>0.003122382270483629</v>
-      </c>
-      <c r="J113" t="b">
-        <v>0</v>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>[ 0.00268 -0.0016   0.00009]</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>1.532940115968419</v>
       </c>
       <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4882,13 +5447,18 @@
           <t>testModels/refined_db/16/m1611/m1611.off</t>
         </is>
       </c>
-      <c r="I114" t="n">
-        <v>0.0008055151610994139</v>
-      </c>
-      <c r="J114" t="b">
-        <v>0</v>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>[ 0.00081 -0.      -0.00001]</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>4.69411018515475</v>
       </c>
       <c r="K114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4921,13 +5491,18 @@
           <t>testModels/refined_db/16/m1612/m1612.off</t>
         </is>
       </c>
-      <c r="I115" t="n">
-        <v>2477.107933684657</v>
-      </c>
-      <c r="J115" t="b">
-        <v>0</v>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>[  -0.00039 2477.10793   -0.00004]</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>19.04078560914489</v>
       </c>
       <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4960,13 +5535,18 @@
           <t>testModels/refined_db/17/m1700/m1700.off</t>
         </is>
       </c>
-      <c r="I116" t="n">
-        <v>0.000352687258781255</v>
-      </c>
-      <c r="J116" t="b">
-        <v>0</v>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>[0.00014 0.00032 0.     ]</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>1.048592044636912</v>
       </c>
       <c r="K116" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4999,13 +5579,18 @@
           <t>testModels/refined_db/17/m1701/m1701.off</t>
         </is>
       </c>
-      <c r="I117" t="n">
-        <v>0.4709405966564074</v>
-      </c>
-      <c r="J117" t="b">
-        <v>0</v>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>[-0.      -0.47094 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>2.796644208781574</v>
       </c>
       <c r="K117" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5038,13 +5623,18 @@
           <t>testModels/refined_db/17/m1702/m1702.off</t>
         </is>
       </c>
-      <c r="I118" t="n">
-        <v>0.01990833193278979</v>
-      </c>
-      <c r="J118" t="b">
-        <v>0</v>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>[ 0.      -0.01976  0.0024 ]</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>2.601141352109059</v>
       </c>
       <c r="K118" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5077,13 +5667,18 @@
           <t>testModels/refined_db/17/m1703/m1703.off</t>
         </is>
       </c>
-      <c r="I119" t="n">
-        <v>1.345629511023226e-10</v>
-      </c>
-      <c r="J119" t="b">
-        <v>0</v>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>[ 0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>4.638380991628401</v>
       </c>
       <c r="K119" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5116,13 +5711,18 @@
           <t>testModels/refined_db/17/m1704/m1704.off</t>
         </is>
       </c>
-      <c r="I120" t="n">
-        <v>0.03051963776296266</v>
-      </c>
-      <c r="J120" t="b">
-        <v>0</v>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>[ 0.00105 -0.02086 -0.02225]</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>2.132121965926196</v>
       </c>
       <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5155,13 +5755,18 @@
           <t>testModels/refined_db/17/m1705/m1705.off</t>
         </is>
       </c>
-      <c r="I121" t="n">
-        <v>3.45034931414389e-11</v>
-      </c>
-      <c r="J121" t="b">
-        <v>0</v>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>0.2484958310541458</v>
       </c>
       <c r="K121" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5194,13 +5799,18 @@
           <t>testModels/refined_db/17/m1706/m1706.off</t>
         </is>
       </c>
-      <c r="I122" t="n">
-        <v>6998.859974428265</v>
-      </c>
-      <c r="J122" t="b">
-        <v>0</v>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>[    0.00305    -0.00259 -6998.85997]</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>0.00183801146697846</v>
       </c>
       <c r="K122" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5233,13 +5843,18 @@
           <t>testModels/refined_db/17/m1707/m1707.off</t>
         </is>
       </c>
-      <c r="I123" t="n">
-        <v>849.6322966997764</v>
-      </c>
-      <c r="J123" t="b">
-        <v>0</v>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>[   0.20516   -5.92282 -849.61163]</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>0.004637265311898609</v>
       </c>
       <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5272,13 +5887,18 @@
           <t>testModels/refined_db/17/m1708/m1708.off</t>
         </is>
       </c>
-      <c r="I124" t="n">
-        <v>15.76770583610739</v>
-      </c>
-      <c r="J124" t="b">
-        <v>0</v>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>[ 3.00119  5.25142 14.56146]</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>0.1015516880946896</v>
       </c>
       <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5311,13 +5931,18 @@
           <t>testModels/refined_db/17/m1709/m1709.off</t>
         </is>
       </c>
-      <c r="I125" t="n">
-        <v>0.03774846851668721</v>
-      </c>
-      <c r="J125" t="b">
-        <v>0</v>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>[ 0.00858 -0.0002  -0.03676]</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>0.006352363148023584</v>
       </c>
       <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5350,13 +5975,18 @@
           <t>testModels/refined_db/17/m1710/m1710.off</t>
         </is>
       </c>
-      <c r="I126" t="n">
-        <v>1.165481274281778e-10</v>
-      </c>
-      <c r="J126" t="b">
-        <v>0</v>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4220007196009958</v>
       </c>
       <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5389,13 +6019,18 @@
           <t>testModels/refined_db/17/m1711/m1711.off</t>
         </is>
       </c>
-      <c r="I127" t="n">
-        <v>9.367622453876907e-11</v>
-      </c>
-      <c r="J127" t="b">
-        <v>0</v>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>0.2287047460641021</v>
       </c>
       <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5428,13 +6063,18 @@
           <t>testModels/refined_db/17/m1712/m1712.off</t>
         </is>
       </c>
-      <c r="I128" t="n">
-        <v>1.327807946036177e-07</v>
-      </c>
-      <c r="J128" t="b">
-        <v>0</v>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>0.2585839864427651</v>
       </c>
       <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5467,13 +6107,18 @@
           <t>testModels/refined_db/18/m1800/m1800.off</t>
         </is>
       </c>
-      <c r="I129" t="n">
-        <v>3.140044639255474e-10</v>
-      </c>
-      <c r="J129" t="b">
-        <v>0</v>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>3.001352215659553</v>
       </c>
       <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5506,13 +6151,18 @@
           <t>testModels/refined_db/18/m1801/m1801.off</t>
         </is>
       </c>
-      <c r="I130" t="n">
-        <v>0.8519915193896778</v>
-      </c>
-      <c r="J130" t="b">
-        <v>0</v>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>[ 0.06798 -0.84651  0.06852]</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>4.040886897764464</v>
       </c>
       <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5545,13 +6195,18 @@
           <t>testModels/refined_db/18/m1802/m1802.off</t>
         </is>
       </c>
-      <c r="I131" t="n">
-        <v>0.1828500989661385</v>
-      </c>
-      <c r="J131" t="b">
-        <v>0</v>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>[-0.       0.16988  0.06765]</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>0.8720867421164759</v>
       </c>
       <c r="K131" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5584,13 +6239,18 @@
           <t>testModels/refined_db/18/m1803/m1803.off</t>
         </is>
       </c>
-      <c r="I132" t="n">
-        <v>284.3539077996795</v>
-      </c>
-      <c r="J132" t="b">
-        <v>0</v>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>[  0.00001 282.58904 -31.63189]</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>10.8955539776153</v>
       </c>
       <c r="K132" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5623,13 +6283,18 @@
           <t>testModels/refined_db/18/m1804/m1804.off</t>
         </is>
       </c>
-      <c r="I133" t="n">
-        <v>0.01973001011205744</v>
-      </c>
-      <c r="J133" t="b">
-        <v>0</v>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>[-0.      -0.      -0.01973]</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>1.845329499468252</v>
       </c>
       <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5662,13 +6327,18 @@
           <t>testModels/refined_db/18/m1805/m1805.off</t>
         </is>
       </c>
-      <c r="I134" t="n">
-        <v>0.07057429420942679</v>
-      </c>
-      <c r="J134" t="b">
-        <v>0</v>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>[0.00005 0.03634 0.0605 ]</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>0.3137506741324627</v>
       </c>
       <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5701,13 +6371,18 @@
           <t>testModels/refined_db/18/m1806/m1806.off</t>
         </is>
       </c>
-      <c r="I135" t="n">
-        <v>3.253759110133531</v>
-      </c>
-      <c r="J135" t="b">
-        <v>0</v>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>[3.19255 0.32109 0.53988]</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>2.618049991033226</v>
       </c>
       <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5740,13 +6415,18 @@
           <t>testModels/refined_db/18/m1807/m1807.off</t>
         </is>
       </c>
-      <c r="I136" t="n">
-        <v>0.0007917619868076598</v>
-      </c>
-      <c r="J136" t="b">
-        <v>0</v>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>[ 0.00061 -0.00037  0.00035]</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>2.44652941756977</v>
       </c>
       <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5779,13 +6459,18 @@
           <t>testModels/refined_db/18/m1808/m1808.off</t>
         </is>
       </c>
-      <c r="I137" t="n">
-        <v>0.0004703952873779004</v>
-      </c>
-      <c r="J137" t="b">
-        <v>0</v>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>[-0.      -0.00034  0.00033]</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>3.512360504971698</v>
       </c>
       <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5818,13 +6503,18 @@
           <t>testModels/refined_db/18/m1809/m1809.off</t>
         </is>
       </c>
-      <c r="I138" t="n">
-        <v>0.002589687772491334</v>
-      </c>
-      <c r="J138" t="b">
-        <v>0</v>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>[ 0.00007 -0.00243  0.0009 ]</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>2.635214799805866</v>
       </c>
       <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5857,13 +6547,18 @@
           <t>testModels/refined_db/18/m1810/m1810.off</t>
         </is>
       </c>
-      <c r="I139" t="n">
-        <v>1.676267268938318</v>
-      </c>
-      <c r="J139" t="b">
-        <v>0</v>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>[-0.00259 -1.67626 -0.00464]</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>0.9356723876207576</v>
       </c>
       <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5896,13 +6591,18 @@
           <t>testModels/refined_db/18/m1811/m1811.off</t>
         </is>
       </c>
-      <c r="I140" t="n">
-        <v>1.881775416429933</v>
-      </c>
-      <c r="J140" t="b">
-        <v>1</v>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>[ 0.       0.34709 -1.84949]</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>8.93349735056135</v>
       </c>
       <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5935,13 +6635,18 @@
           <t>testModels/refined_db/18/m1812/m1812.off</t>
         </is>
       </c>
-      <c r="I141" t="n">
-        <v>10.7414491866766</v>
-      </c>
-      <c r="J141" t="b">
-        <v>0</v>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>[ -0.01707  -0.02084 -10.74142]</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>0.2742661825850731</v>
       </c>
       <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5974,13 +6679,18 @@
           <t>testModels/refined_db/18/m1813/m1813.off</t>
         </is>
       </c>
-      <c r="I142" t="n">
-        <v>2.481062892405505</v>
-      </c>
-      <c r="J142" t="b">
-        <v>0</v>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>[-0.       0.14599 -2.47676]</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>0.1354714538271364</v>
       </c>
       <c r="K142" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6013,13 +6723,18 @@
           <t>testModels/refined_db/18/m1814/m1814.off</t>
         </is>
       </c>
-      <c r="I143" t="n">
-        <v>0.04808067437264492</v>
-      </c>
-      <c r="J143" t="b">
-        <v>0</v>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>[-0.00741 -0.03129 -0.03575]</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>3.547783286870807</v>
       </c>
       <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6052,13 +6767,18 @@
           <t>testModels/refined_db/2/m200/m200.off</t>
         </is>
       </c>
-      <c r="I144" t="n">
-        <v>0.01724875603368832</v>
-      </c>
-      <c r="J144" t="b">
-        <v>0</v>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>[0.00077 0.00189 0.01713]</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>0.09348135453546927</v>
       </c>
       <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6091,13 +6811,18 @@
           <t>testModels/refined_db/2/m201/m201.off</t>
         </is>
       </c>
-      <c r="I145" t="n">
-        <v>0.003682337503360668</v>
-      </c>
-      <c r="J145" t="b">
-        <v>0</v>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>[ 0.00022  0.00005 -0.00368]</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>0.5378560159939945</v>
       </c>
       <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6130,13 +6855,18 @@
           <t>testModels/refined_db/2/m202/m202.off</t>
         </is>
       </c>
-      <c r="I146" t="n">
-        <v>8.374998515193879e-11</v>
-      </c>
-      <c r="J146" t="b">
-        <v>0</v>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>[-0.  0.  0.]</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>0.601451463627709</v>
       </c>
       <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6169,13 +6899,18 @@
           <t>testModels/refined_db/2/m203/m203.off</t>
         </is>
       </c>
-      <c r="I147" t="n">
-        <v>1.721689919095733e-11</v>
-      </c>
-      <c r="J147" t="b">
-        <v>0</v>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>0.3593812351092659</v>
       </c>
       <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6208,13 +6943,18 @@
           <t>testModels/refined_db/2/m204/m204.off</t>
         </is>
       </c>
-      <c r="I148" t="n">
-        <v>3.399039843690321e-05</v>
-      </c>
-      <c r="J148" t="b">
-        <v>0</v>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>[-0.       0.00003 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>0.9944083190272276</v>
       </c>
       <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6247,13 +6987,18 @@
           <t>testModels/refined_db/2/m205/m205.off</t>
         </is>
       </c>
-      <c r="I149" t="n">
-        <v>4.644144344941358e-11</v>
-      </c>
-      <c r="J149" t="b">
-        <v>0</v>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>[0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>0.9446186700973176</v>
       </c>
       <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6286,13 +7031,18 @@
           <t>testModels/refined_db/2/m206/m206.off</t>
         </is>
       </c>
-      <c r="I150" t="n">
-        <v>0.6882526872049451</v>
-      </c>
-      <c r="J150" t="b">
-        <v>0</v>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>[-0.00424 -0.07697 -0.68392]</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>6.306022763586982</v>
       </c>
       <c r="K150" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6325,13 +7075,18 @@
           <t>testModels/refined_db/2/m207/m207.off</t>
         </is>
       </c>
-      <c r="I151" t="n">
-        <v>0.8017285966053207</v>
-      </c>
-      <c r="J151" t="b">
-        <v>0</v>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>[ 0.04949 -0.76738  0.22681]</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>9.438205770423384</v>
       </c>
       <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6364,13 +7119,18 @@
           <t>testModels/refined_db/2/m208/m208.off</t>
         </is>
       </c>
-      <c r="I152" t="n">
-        <v>2.256794856545459e-11</v>
-      </c>
-      <c r="J152" t="b">
-        <v>0</v>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>0.771277955453208</v>
       </c>
       <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6403,13 +7163,18 @@
           <t>testModels/refined_db/2/m209/m209.off</t>
         </is>
       </c>
-      <c r="I153" t="n">
-        <v>1.213194838343404e-10</v>
-      </c>
-      <c r="J153" t="b">
-        <v>0</v>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>[-0.  0.  0.]</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>3.087356824273795</v>
       </c>
       <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6442,13 +7207,18 @@
           <t>testModels/refined_db/2/m210/m210.off</t>
         </is>
       </c>
-      <c r="I154" t="n">
-        <v>1.713524876278013e-11</v>
-      </c>
-      <c r="J154" t="b">
-        <v>0</v>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>4.467958419841209</v>
       </c>
       <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6481,13 +7251,18 @@
           <t>testModels/refined_db/2/m211/m211.off</t>
         </is>
       </c>
-      <c r="I155" t="n">
-        <v>0.03701297429058532</v>
-      </c>
-      <c r="J155" t="b">
-        <v>0</v>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>[-0.00079  0.037    0.00037]</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>0.748527917579661</v>
       </c>
       <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6520,13 +7295,18 @@
           <t>testModels/refined_db/2/m212/m212.off</t>
         </is>
       </c>
-      <c r="I156" t="n">
-        <v>2.375901933814572e-05</v>
-      </c>
-      <c r="J156" t="b">
-        <v>0</v>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>[-0.00001 -0.00002 -0.00001]</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>0.8694474039717499</v>
       </c>
       <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6559,13 +7339,18 @@
           <t>testModels/refined_db/3/m300/m300.off</t>
         </is>
       </c>
-      <c r="I157" t="n">
-        <v>0.6225928340435811</v>
-      </c>
-      <c r="J157" t="b">
-        <v>0</v>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>[-0.00849  0.10004  0.61444]</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>0.8644045670428804</v>
       </c>
       <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6598,13 +7383,18 @@
           <t>testModels/refined_db/3/m301/m301.off</t>
         </is>
       </c>
-      <c r="I158" t="n">
-        <v>3.901618425476664</v>
-      </c>
-      <c r="J158" t="b">
-        <v>0</v>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>[ 0.02514  0.0492  -3.90123]</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>0.15420087405965</v>
       </c>
       <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6637,13 +7427,18 @@
           <t>testModels/refined_db/3/m302/m302.off</t>
         </is>
       </c>
-      <c r="I159" t="n">
-        <v>0.1754788940877089</v>
-      </c>
-      <c r="J159" t="b">
-        <v>0</v>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>[0.0192  0.16798 0.04696]</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>1.110041271569327</v>
       </c>
       <c r="K159" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6676,13 +7471,18 @@
           <t>testModels/refined_db/3/m303/m303.off</t>
         </is>
       </c>
-      <c r="I160" t="n">
-        <v>0.08625002290585164</v>
-      </c>
-      <c r="J160" t="b">
-        <v>0</v>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>[-0.00952 -0.06366 -0.05741]</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>0.4117621226408161</v>
       </c>
       <c r="K160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6715,13 +7515,18 @@
           <t>testModels/refined_db/3/m304/m304.off</t>
         </is>
       </c>
-      <c r="I161" t="n">
-        <v>0.4871278899620482</v>
-      </c>
-      <c r="J161" t="b">
-        <v>0</v>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>[-0.01142 -0.44132  0.20592]</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>0.3081002902285484</v>
       </c>
       <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6754,13 +7559,18 @@
           <t>testModels/refined_db/3/m305/m305.off</t>
         </is>
       </c>
-      <c r="I162" t="n">
-        <v>0.06626918927347948</v>
-      </c>
-      <c r="J162" t="b">
-        <v>0</v>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>[ 0.00279 -0.01055  0.06536]</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>2.722974042471983</v>
       </c>
       <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6793,13 +7603,18 @@
           <t>testModels/refined_db/3/m306/m306.off</t>
         </is>
       </c>
-      <c r="I163" t="n">
-        <v>0.535442473407151</v>
-      </c>
-      <c r="J163" t="b">
-        <v>0</v>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>[-0.02542  0.12177  0.52079]</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1.576454628538385</v>
       </c>
       <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6832,13 +7647,18 @@
           <t>testModels/refined_db/3/m307/m307.off</t>
         </is>
       </c>
-      <c r="I164" t="n">
-        <v>0.1055200319391629</v>
-      </c>
-      <c r="J164" t="b">
-        <v>0</v>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>[0.00233 0.06883 0.07995]</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>1.922352699334119</v>
       </c>
       <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6871,13 +7691,18 @@
           <t>testModels/refined_db/3/m308/m308.off</t>
         </is>
       </c>
-      <c r="I165" t="n">
-        <v>4.878771826915503</v>
-      </c>
-      <c r="J165" t="b">
-        <v>0</v>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>[ 0.0247  -3.94072 -2.8762 ]</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>0.2385725689695646</v>
       </c>
       <c r="K165" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6910,13 +7735,18 @@
           <t>testModels/refined_db/3/m309/m309.off</t>
         </is>
       </c>
-      <c r="I166" t="n">
-        <v>0.4298749370842283</v>
-      </c>
-      <c r="J166" t="b">
-        <v>0</v>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>[ 0.19996 -0.37552 -0.06162]</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>0.08178172339102052</v>
       </c>
       <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6949,13 +7779,18 @@
           <t>testModels/refined_db/3/m310/m310.off</t>
         </is>
       </c>
-      <c r="I167" t="n">
-        <v>0.3152090447098904</v>
-      </c>
-      <c r="J167" t="b">
-        <v>0</v>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>[ 0.23612 -0.09801  0.18438]</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>0.2644283750325815</v>
       </c>
       <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6988,13 +7823,18 @@
           <t>testModels/refined_db/3/m311/m311.off</t>
         </is>
       </c>
-      <c r="I168" t="n">
-        <v>1.561903785834051</v>
-      </c>
-      <c r="J168" t="b">
-        <v>0</v>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>[ 0.33527 -1.51972  0.13263]</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>0.2558908646578745</v>
       </c>
       <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7027,13 +7867,18 @@
           <t>testModels/refined_db/3/m312/m312.off</t>
         </is>
       </c>
-      <c r="I169" t="n">
-        <v>0.7407995858768722</v>
-      </c>
-      <c r="J169" t="b">
-        <v>0</v>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>[ 0.21463  0.02998 -0.70839]</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>0.3376040868456802</v>
       </c>
       <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7066,13 +7911,18 @@
           <t>testModels/refined_db/4/m400/m400.off</t>
         </is>
       </c>
-      <c r="I170" t="n">
-        <v>4.095156494823547e-11</v>
-      </c>
-      <c r="J170" t="b">
-        <v>0</v>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>3.191864370802235</v>
       </c>
       <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7105,13 +7955,18 @@
           <t>testModels/refined_db/4/m401/m401.off</t>
         </is>
       </c>
-      <c r="I171" t="n">
-        <v>0.2900215045121107</v>
-      </c>
-      <c r="J171" t="b">
-        <v>0</v>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>[ 0.01245  0.0222  -0.2889 ]</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1.908495779957746</v>
       </c>
       <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7144,13 +7999,18 @@
           <t>testModels/refined_db/4/m402/m402.off</t>
         </is>
       </c>
-      <c r="I172" t="n">
-        <v>0.04578126090383135</v>
-      </c>
-      <c r="J172" t="b">
-        <v>0</v>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>[-0.01347 -0.02917  0.03261]</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1.108658784164825</v>
       </c>
       <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7183,13 +8043,18 @@
           <t>testModels/refined_db/4/m403/m403.off</t>
         </is>
       </c>
-      <c r="I173" t="n">
-        <v>0.006905987555991612</v>
-      </c>
-      <c r="J173" t="b">
-        <v>0</v>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>[ 0.00007 -0.0069  -0.00038]</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>4.342061472673111</v>
       </c>
       <c r="K173" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7222,13 +8087,18 @@
           <t>testModels/refined_db/4/m404/m404.off</t>
         </is>
       </c>
-      <c r="I174" t="n">
-        <v>0.0006474875130241528</v>
-      </c>
-      <c r="J174" t="b">
-        <v>1</v>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>[ 0.0003  -0.00057 -0.00003]</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>1.462481686333033</v>
       </c>
       <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7261,13 +8131,18 @@
           <t>testModels/refined_db/4/m405/m405.off</t>
         </is>
       </c>
-      <c r="I175" t="n">
-        <v>0.1280334417512415</v>
-      </c>
-      <c r="J175" t="b">
-        <v>0</v>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>[ 0.00638 -0.12763  0.00784]</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>4.978450480428153</v>
       </c>
       <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7300,13 +8175,18 @@
           <t>testModels/refined_db/4/m406/m406.off</t>
         </is>
       </c>
-      <c r="I176" t="n">
-        <v>0.01783902365045297</v>
-      </c>
-      <c r="J176" t="b">
-        <v>0</v>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>[-0.00209 -0.01769  0.00094]</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>0.981875120541256</v>
       </c>
       <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7339,13 +8219,18 @@
           <t>testModels/refined_db/4/m407/m407.off</t>
         </is>
       </c>
-      <c r="I177" t="n">
-        <v>2.260493181545627</v>
-      </c>
-      <c r="J177" t="b">
-        <v>0</v>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>[0.00008 2.26036 0.02467]</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>4.908067194578842</v>
       </c>
       <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7378,13 +8263,18 @@
           <t>testModels/refined_db/4/m408/m408.off</t>
         </is>
       </c>
-      <c r="I178" t="n">
-        <v>0.1461981433223654</v>
-      </c>
-      <c r="J178" t="b">
-        <v>0</v>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>[ 0.0088   0.00619 -0.1458 ]</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>3.714281171746529</v>
       </c>
       <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7417,13 +8307,18 @@
           <t>testModels/refined_db/4/m409/m409.off</t>
         </is>
       </c>
-      <c r="I179" t="n">
-        <v>0.1142457224324751</v>
-      </c>
-      <c r="J179" t="b">
-        <v>0</v>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>[ 0.09894 -0.0053   0.05688]</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>1.661043406681563</v>
       </c>
       <c r="K179" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7456,13 +8351,18 @@
           <t>testModels/refined_db/4/m410/m410.off</t>
         </is>
       </c>
-      <c r="I180" t="n">
-        <v>1.699333082170065</v>
-      </c>
-      <c r="J180" t="b">
-        <v>0</v>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>[-0.      -1.69933  0.     ]</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>0.6297927411252462</v>
       </c>
       <c r="K180" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7495,13 +8395,18 @@
           <t>testModels/refined_db/4/m411/m411.off</t>
         </is>
       </c>
-      <c r="I181" t="n">
-        <v>0.1602092741636844</v>
-      </c>
-      <c r="J181" t="b">
-        <v>0</v>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>[0.07186 0.13224 0.05491]</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>2.143911621930266</v>
       </c>
       <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7534,13 +8439,18 @@
           <t>testModels/refined_db/4/m412/m412.off</t>
         </is>
       </c>
-      <c r="I182" t="n">
-        <v>0.005624612374215172</v>
-      </c>
-      <c r="J182" t="b">
-        <v>0</v>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>[-0.00021  0.0056   0.00044]</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>0.5092926904113874</v>
       </c>
       <c r="K182" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7573,13 +8483,18 @@
           <t>testModels/refined_db/5/m500/m500.off</t>
         </is>
       </c>
-      <c r="I183" t="n">
-        <v>1.210407657281184e-11</v>
-      </c>
-      <c r="J183" t="b">
-        <v>0</v>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>2.591209518521179</v>
       </c>
       <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7612,13 +8527,18 @@
           <t>testModels/refined_db/5/m501/m501.off</t>
         </is>
       </c>
-      <c r="I184" t="n">
-        <v>0.006775093890272819</v>
-      </c>
-      <c r="J184" t="b">
-        <v>0</v>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>[-0.       0.00678 -0.00001]</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>2.538034225117392</v>
       </c>
       <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7651,13 +8571,18 @@
           <t>testModels/refined_db/5/m502/m502.off</t>
         </is>
       </c>
-      <c r="I185" t="n">
-        <v>8.596429759685062e-12</v>
-      </c>
-      <c r="J185" t="b">
-        <v>0</v>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>4.529752444887156</v>
       </c>
       <c r="K185" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7690,13 +8615,18 @@
           <t>testModels/refined_db/5/m503/m503.off</t>
         </is>
       </c>
-      <c r="I186" t="n">
-        <v>2.917802581817423e-07</v>
-      </c>
-      <c r="J186" t="b">
-        <v>0</v>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>[-0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>5.472228306058456</v>
       </c>
       <c r="K186" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7729,13 +8659,18 @@
           <t>testModels/refined_db/5/m504/m504.off</t>
         </is>
       </c>
-      <c r="I187" t="n">
-        <v>0.00110707261019021</v>
-      </c>
-      <c r="J187" t="b">
-        <v>0</v>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>[-0.00078 -0.00079 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>2.899965125629815</v>
       </c>
       <c r="K187" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7768,13 +8703,18 @@
           <t>testModels/refined_db/5/m505/m505.off</t>
         </is>
       </c>
-      <c r="I188" t="n">
-        <v>0.7306839309366435</v>
-      </c>
-      <c r="J188" t="b">
-        <v>0</v>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>[-0.01299 -0.00273 -0.73056]</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>3.891517333722106</v>
       </c>
       <c r="K188" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7807,13 +8747,18 @@
           <t>testModels/refined_db/5/m506/m506.off</t>
         </is>
       </c>
-      <c r="I189" t="n">
-        <v>0.002381121397001475</v>
-      </c>
-      <c r="J189" t="b">
-        <v>0</v>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>[-0.00213 -0.00107 -0.00009]</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>1.06597593848667</v>
       </c>
       <c r="K189" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7846,13 +8791,18 @@
           <t>testModels/refined_db/5/m507/m507.off</t>
         </is>
       </c>
-      <c r="I190" t="n">
-        <v>0.4311561555292199</v>
-      </c>
-      <c r="J190" t="b">
-        <v>0</v>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>[0.04544 0.41729 0.09848]</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>2.202268761646622</v>
       </c>
       <c r="K190" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7885,13 +8835,18 @@
           <t>testModels/refined_db/5/m508/m508.off</t>
         </is>
       </c>
-      <c r="I191" t="n">
-        <v>8.043663471507146e-11</v>
-      </c>
-      <c r="J191" t="b">
-        <v>0</v>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>2.086244763303903</v>
       </c>
       <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7924,13 +8879,18 @@
           <t>testModels/refined_db/5/m509/m509.off</t>
         </is>
       </c>
-      <c r="I192" t="n">
-        <v>0.01013740599142847</v>
-      </c>
-      <c r="J192" t="b">
-        <v>0</v>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>[-0.00182  0.00997 -0.00009]</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>2.870833329140929</v>
       </c>
       <c r="K192" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7963,13 +8923,18 @@
           <t>testModels/refined_db/5/m510/m510.off</t>
         </is>
       </c>
-      <c r="I193" t="n">
-        <v>1.049895353056091</v>
-      </c>
-      <c r="J193" t="b">
-        <v>0</v>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>[ 0.00001 -1.0499  -0.     ]</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>0.1112940905844314</v>
       </c>
       <c r="K193" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8002,13 +8967,18 @@
           <t>testModels/refined_db/5/m511/m511.off</t>
         </is>
       </c>
-      <c r="I194" t="n">
-        <v>0.384504280145336</v>
-      </c>
-      <c r="J194" t="b">
-        <v>0</v>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>[-0.00169  0.35895  0.13783]</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>7.761954315734244</v>
       </c>
       <c r="K194" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8041,13 +9011,18 @@
           <t>testModels/refined_db/5/m512/m512.off</t>
         </is>
       </c>
-      <c r="I195" t="n">
-        <v>0.002485382643052797</v>
-      </c>
-      <c r="J195" t="b">
-        <v>0</v>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>[ 0.00001 -0.00241 -0.00061]</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>2.05525880697307</v>
       </c>
       <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8080,13 +9055,18 @@
           <t>testModels/refined_db/6/m600/m600.off</t>
         </is>
       </c>
-      <c r="I196" t="n">
-        <v>0.5086277728078649</v>
-      </c>
-      <c r="J196" t="b">
-        <v>0</v>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>[ 0.00003 -0.50859  0.00658]</t>
+        </is>
+      </c>
+      <c r="J196" t="n">
+        <v>2.426778357502755</v>
       </c>
       <c r="K196" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8119,13 +9099,18 @@
           <t>testModels/refined_db/6/m601/m601.off</t>
         </is>
       </c>
-      <c r="I197" t="n">
-        <v>0.05428167833550838</v>
-      </c>
-      <c r="J197" t="b">
-        <v>0</v>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>[-0.00314  0.02941  0.04552]</t>
+        </is>
+      </c>
+      <c r="J197" t="n">
+        <v>2.946725490004482</v>
       </c>
       <c r="K197" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8158,13 +9143,18 @@
           <t>testModels/refined_db/6/m602/m602.off</t>
         </is>
       </c>
-      <c r="I198" t="n">
-        <v>0.0009686025404811339</v>
-      </c>
-      <c r="J198" t="b">
-        <v>0</v>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>[-0.00003 -0.00096 -0.0001 ]</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>2.010479556344244</v>
       </c>
       <c r="K198" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8197,13 +9187,18 @@
           <t>testModels/refined_db/6/m603/m603.off</t>
         </is>
       </c>
-      <c r="I199" t="n">
-        <v>9.880669561400956e-11</v>
-      </c>
-      <c r="J199" t="b">
-        <v>0</v>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>[ 0. -0. -0.]</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>9.838759142502457</v>
       </c>
       <c r="K199" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8236,13 +9231,18 @@
           <t>testModels/refined_db/6/m604/m604.off</t>
         </is>
       </c>
-      <c r="I200" t="n">
-        <v>0.01777836443935735</v>
-      </c>
-      <c r="J200" t="b">
-        <v>0</v>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>[-0.00007  0.01241 -0.01273]</t>
+        </is>
+      </c>
+      <c r="J200" t="n">
+        <v>0.1961588932306979</v>
       </c>
       <c r="K200" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8275,13 +9275,18 @@
           <t>testModels/refined_db/6/m605/m605.off</t>
         </is>
       </c>
-      <c r="I201" t="n">
-        <v>0.0375036756961406</v>
-      </c>
-      <c r="J201" t="b">
-        <v>1</v>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>[-0.       0.03649 -0.00866]</t>
+        </is>
+      </c>
+      <c r="J201" t="n">
+        <v>0.7631758432393912</v>
       </c>
       <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8314,13 +9319,18 @@
           <t>testModels/refined_db/6/m606/m606.off</t>
         </is>
       </c>
-      <c r="I202" t="n">
-        <v>0.2651232658113843</v>
-      </c>
-      <c r="J202" t="b">
-        <v>0</v>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>[ 0.22298 -0.08729  0.1138 ]</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>0.317723822985137</v>
       </c>
       <c r="K202" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8353,13 +9363,18 @@
           <t>testModels/refined_db/6/m607/m607.off</t>
         </is>
       </c>
-      <c r="I203" t="n">
-        <v>478.663758286441</v>
-      </c>
-      <c r="J203" t="b">
-        <v>0</v>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>[ -0.17912 477.70867  30.22231]</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>99.93491205239566</v>
       </c>
       <c r="K203" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8392,13 +9407,18 @@
           <t>testModels/refined_db/6/m608/m608.off</t>
         </is>
       </c>
-      <c r="I204" t="n">
-        <v>0.2579527999669422</v>
-      </c>
-      <c r="J204" t="b">
-        <v>0</v>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>[0.17403 0.18069 0.06005]</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>0.7331165912022362</v>
       </c>
       <c r="K204" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8431,13 +9451,18 @@
           <t>testModels/refined_db/6/m609/m609.off</t>
         </is>
       </c>
-      <c r="I205" t="n">
-        <v>4.087464300305368e-11</v>
-      </c>
-      <c r="J205" t="b">
-        <v>0</v>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>0.326630932477089</v>
       </c>
       <c r="K205" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8470,13 +9495,18 @@
           <t>testModels/refined_db/6/m610/m610.off</t>
         </is>
       </c>
-      <c r="I206" t="n">
-        <v>0.0005728298399328012</v>
-      </c>
-      <c r="J206" t="b">
-        <v>0</v>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>[-0.00014  0.00005  0.00055]</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>2.687042245399895</v>
       </c>
       <c r="K206" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8509,13 +9539,18 @@
           <t>testModels/refined_db/6/m611/m611.off</t>
         </is>
       </c>
-      <c r="I207" t="n">
-        <v>0.02289583641710795</v>
-      </c>
-      <c r="J207" t="b">
-        <v>1</v>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>[0.01878 0.00694 0.01111]</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>0.4262998983267843</v>
       </c>
       <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8548,13 +9583,18 @@
           <t>testModels/refined_db/6/m612/m612.off</t>
         </is>
       </c>
-      <c r="I208" t="n">
-        <v>1.580387692026526e-10</v>
-      </c>
-      <c r="J208" t="b">
-        <v>0</v>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>[0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>1.714627900821362</v>
       </c>
       <c r="K208" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8587,13 +9627,18 @@
           <t>testModels/refined_db/7/m700/m700.off</t>
         </is>
       </c>
-      <c r="I209" t="n">
-        <v>0.3177634340905783</v>
-      </c>
-      <c r="J209" t="b">
-        <v>0</v>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>[ 0.00398  0.31774 -0.00081]</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>0.102379233874372</v>
       </c>
       <c r="K209" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8626,13 +9671,18 @@
           <t>testModels/refined_db/7/m701/m701.off</t>
         </is>
       </c>
-      <c r="I210" t="n">
-        <v>3.44940611404073e-05</v>
-      </c>
-      <c r="J210" t="b">
-        <v>0</v>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>[-0.      -0.       0.00003]</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02482803463429684</v>
       </c>
       <c r="K210" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8665,13 +9715,18 @@
           <t>testModels/refined_db/7/m702/m702.off</t>
         </is>
       </c>
-      <c r="I211" t="n">
-        <v>0.02386305395778754</v>
-      </c>
-      <c r="J211" t="b">
-        <v>0</v>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>[-0.      -0.       0.02386]</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02318006865532599</v>
       </c>
       <c r="K211" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8704,13 +9759,18 @@
           <t>testModels/refined_db/7/m703/m703.off</t>
         </is>
       </c>
-      <c r="I212" t="n">
-        <v>0.0001728102349402254</v>
-      </c>
-      <c r="J212" t="b">
-        <v>0</v>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>[0.00001 0.00003 0.00017]</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01222638944573207</v>
       </c>
       <c r="K212" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8743,13 +9803,18 @@
           <t>testModels/refined_db/7/m704/m704.off</t>
         </is>
       </c>
-      <c r="I213" t="n">
-        <v>2.219062873168803e-10</v>
-      </c>
-      <c r="J213" t="b">
-        <v>0</v>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>0.006632902013718371</v>
       </c>
       <c r="K213" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8782,13 +9847,18 @@
           <t>testModels/refined_db/7/m705/m705.off</t>
         </is>
       </c>
-      <c r="I214" t="n">
-        <v>0.004058685088497006</v>
-      </c>
-      <c r="J214" t="b">
-        <v>0</v>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>[-0.00085 -0.00397  0.00006]</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>0.07431010178642333</v>
       </c>
       <c r="K214" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8821,13 +9891,18 @@
           <t>testModels/refined_db/7/m706/m706.off</t>
         </is>
       </c>
-      <c r="I215" t="n">
-        <v>27.38067620618214</v>
-      </c>
-      <c r="J215" t="b">
-        <v>1</v>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>[  0.0212  -23.961   -13.25034]</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>0.0008532967688061706</v>
       </c>
       <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8860,13 +9935,18 @@
           <t>testModels/refined_db/7/m707/m707.off</t>
         </is>
       </c>
-      <c r="I216" t="n">
-        <v>0.1317511834751945</v>
-      </c>
-      <c r="J216" t="b">
-        <v>0</v>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>[-0.00277 -0.13172 -0.00096]</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>0.03495693406899619</v>
       </c>
       <c r="K216" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8899,13 +9979,18 @@
           <t>testModels/refined_db/7/m708/m708.off</t>
         </is>
       </c>
-      <c r="I217" t="n">
-        <v>0.002754271380992243</v>
-      </c>
-      <c r="J217" t="b">
-        <v>0</v>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>[ 0.00003 -0.00275 -0.00001]</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>0.5988970237003121</v>
       </c>
       <c r="K217" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8938,13 +10023,18 @@
           <t>testModels/refined_db/7/m709/m709.off</t>
         </is>
       </c>
-      <c r="I218" t="n">
-        <v>0.0110432965661174</v>
-      </c>
-      <c r="J218" t="b">
-        <v>0</v>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>[-0.00024 -0.00002 -0.01104]</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>0.72287106150672</v>
       </c>
       <c r="K218" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8977,13 +10067,18 @@
           <t>testModels/refined_db/7/m710/m710.off</t>
         </is>
       </c>
-      <c r="I219" t="n">
-        <v>0.04269777408031687</v>
-      </c>
-      <c r="J219" t="b">
-        <v>0</v>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>[-0.00028  0.00011 -0.0427 ]</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>0.1278979199170039</v>
       </c>
       <c r="K219" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9016,13 +10111,18 @@
           <t>testModels/refined_db/7/m711/m711.off</t>
         </is>
       </c>
-      <c r="I220" t="n">
-        <v>0.04903689242919958</v>
-      </c>
-      <c r="J220" t="b">
-        <v>0</v>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>[-0.00008 -0.00665 -0.04858]</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
+        <v>0.03361764255862969</v>
       </c>
       <c r="K220" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9055,13 +10155,18 @@
           <t>testModels/refined_db/7/m712/m712.off</t>
         </is>
       </c>
-      <c r="I221" t="n">
-        <v>0.02061575473070821</v>
-      </c>
-      <c r="J221" t="b">
-        <v>0</v>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>[ 0.00233 -0.02025 -0.00309]</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>0.2122706695714186</v>
       </c>
       <c r="K221" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9094,13 +10199,18 @@
           <t>testModels/refined_db/8/m800/m800.off</t>
         </is>
       </c>
-      <c r="I222" t="n">
-        <v>0.1913600095248651</v>
-      </c>
-      <c r="J222" t="b">
-        <v>0</v>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>[-0.0072  -0.19109 -0.00717]</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>8.159541358545257</v>
       </c>
       <c r="K222" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9133,13 +10243,18 @@
           <t>testModels/refined_db/8/m801/m801.off</t>
         </is>
       </c>
-      <c r="I223" t="n">
-        <v>0.004545025303810258</v>
-      </c>
-      <c r="J223" t="b">
-        <v>0</v>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>[-0.00013  0.00437 -0.00124]</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>2.518060108276003</v>
       </c>
       <c r="K223" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9172,13 +10287,18 @@
           <t>testModels/refined_db/8/m802/m802.off</t>
         </is>
       </c>
-      <c r="I224" t="n">
-        <v>18.19130239583952</v>
-      </c>
-      <c r="J224" t="b">
-        <v>0</v>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>[ -0.0017  -18.19129   0.01672]</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>0.009334529872413696</v>
       </c>
       <c r="K224" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9211,13 +10331,18 @@
           <t>testModels/refined_db/8/m803/m803.off</t>
         </is>
       </c>
-      <c r="I225" t="n">
-        <v>4090.909741394437</v>
-      </c>
-      <c r="J225" t="b">
-        <v>0</v>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>[   0.06022 4090.87661   16.46348]</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>13.32936622281365</v>
       </c>
       <c r="K225" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9250,13 +10375,18 @@
           <t>testModels/refined_db/8/m804/m804.off</t>
         </is>
       </c>
-      <c r="I226" t="n">
-        <v>0.1656547343269143</v>
-      </c>
-      <c r="J226" t="b">
-        <v>0</v>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>[ 0.       0.16471 -0.01765]</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>1.933328880902682</v>
       </c>
       <c r="K226" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9289,13 +10419,18 @@
           <t>testModels/refined_db/8/m805/m805.off</t>
         </is>
       </c>
-      <c r="I227" t="n">
-        <v>0.04346752808605561</v>
-      </c>
-      <c r="J227" t="b">
-        <v>0</v>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>[-0.      -0.0425   0.00914]</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>5.70867209233236</v>
       </c>
       <c r="K227" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9328,13 +10463,18 @@
           <t>testModels/refined_db/8/m806/m806.off</t>
         </is>
       </c>
-      <c r="I228" t="n">
-        <v>6.076406690149934e-11</v>
-      </c>
-      <c r="J228" t="b">
-        <v>0</v>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>[-0.  0.  0.]</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>1.562867420604986</v>
       </c>
       <c r="K228" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9367,13 +10507,18 @@
           <t>testModels/refined_db/8/m807/m807.off</t>
         </is>
       </c>
-      <c r="I229" t="n">
-        <v>1.45563363444826e-10</v>
-      </c>
-      <c r="J229" t="b">
-        <v>0</v>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>2.17818182647275</v>
       </c>
       <c r="K229" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9406,13 +10551,18 @@
           <t>testModels/refined_db/8/m808/m808.off</t>
         </is>
       </c>
-      <c r="I230" t="n">
-        <v>176414.1173567425</v>
-      </c>
-      <c r="J230" t="b">
-        <v>0</v>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>[     0.0793  176413.90924    270.97873]</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>14.9115873699726</v>
       </c>
       <c r="K230" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9445,13 +10595,18 @@
           <t>testModels/refined_db/8/m809/m809.off</t>
         </is>
       </c>
-      <c r="I231" t="n">
-        <v>2.365760717600551e-10</v>
-      </c>
-      <c r="J231" t="b">
-        <v>0</v>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J231" t="n">
+        <v>0.2341789150856577</v>
       </c>
       <c r="K231" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9484,13 +10639,18 @@
           <t>testModels/refined_db/8/m810/m810.off</t>
         </is>
       </c>
-      <c r="I232" t="n">
-        <v>3.505643258862145e-11</v>
-      </c>
-      <c r="J232" t="b">
-        <v>0</v>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>[ 0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>1.147497139169389</v>
       </c>
       <c r="K232" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9523,13 +10683,18 @@
           <t>testModels/refined_db/8/m811/m811.off</t>
         </is>
       </c>
-      <c r="I233" t="n">
-        <v>2.018868685551215</v>
-      </c>
-      <c r="J233" t="b">
-        <v>0</v>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>[ 0.      -2.01836 -0.04537]</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>13.94491878014592</v>
       </c>
       <c r="K233" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9562,13 +10727,18 @@
           <t>testModels/refined_db/8/m812/m812.off</t>
         </is>
       </c>
-      <c r="I234" t="n">
-        <v>2.313690791817875</v>
-      </c>
-      <c r="J234" t="b">
-        <v>0</v>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>[-0.      -2.31328 -0.04371]</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>16.55634145870142</v>
       </c>
       <c r="K234" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9601,13 +10771,18 @@
           <t>testModels/refined_db/9/m900/m900.off</t>
         </is>
       </c>
-      <c r="I235" t="n">
-        <v>0.01899362106789846</v>
-      </c>
-      <c r="J235" t="b">
-        <v>0</v>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>[-0.      -0.00458 -0.01843]</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>1.873987754502323</v>
       </c>
       <c r="K235" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9640,13 +10815,18 @@
           <t>testModels/refined_db/9/m901/m901.off</t>
         </is>
       </c>
-      <c r="I236" t="n">
-        <v>3.327119664535302e-11</v>
-      </c>
-      <c r="J236" t="b">
-        <v>0</v>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>[-0. -0.  0.]</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>4.606776009449823</v>
       </c>
       <c r="K236" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9679,13 +10859,18 @@
           <t>testModels/refined_db/9/m902/m902.off</t>
         </is>
       </c>
-      <c r="I237" t="n">
-        <v>1.059105177907915e-10</v>
-      </c>
-      <c r="J237" t="b">
-        <v>0</v>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>2.074094058781482</v>
       </c>
       <c r="K237" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9718,13 +10903,18 @@
           <t>testModels/refined_db/9/m903/m903.off</t>
         </is>
       </c>
-      <c r="I238" t="n">
-        <v>0.0542481373846425</v>
-      </c>
-      <c r="J238" t="b">
-        <v>0</v>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>[ 0.       0.05425 -0.     ]</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>0.7584029355806988</v>
       </c>
       <c r="K238" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9757,13 +10947,18 @@
           <t>testModels/refined_db/9/m904/m904.off</t>
         </is>
       </c>
-      <c r="I239" t="n">
-        <v>0.4309492657862186</v>
-      </c>
-      <c r="J239" t="b">
-        <v>0</v>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>[-0.      -0.43095  0.     ]</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>0.06734035337764804</v>
       </c>
       <c r="K239" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9796,13 +10991,18 @@
           <t>testModels/refined_db/9/m905/m905.off</t>
         </is>
       </c>
-      <c r="I240" t="n">
-        <v>1.969518218958351</v>
-      </c>
-      <c r="J240" t="b">
-        <v>0</v>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>[ 0.10526  1.82889 -0.72325]</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>6.489040393302722</v>
       </c>
       <c r="K240" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9835,13 +11035,18 @@
           <t>testModels/refined_db/9/m906/m906.off</t>
         </is>
       </c>
-      <c r="I241" t="n">
-        <v>2.993455522987102e-11</v>
-      </c>
-      <c r="J241" t="b">
-        <v>0</v>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>[-0.  0. -0.]</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>2.212000573005579</v>
       </c>
       <c r="K241" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9874,13 +11079,18 @@
           <t>testModels/refined_db/9/m907/m907.off</t>
         </is>
       </c>
-      <c r="I242" t="n">
-        <v>909719.5324682461</v>
-      </c>
-      <c r="J242" t="b">
-        <v>0</v>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>[    -0.02184    -80.75592 909719.52888]</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>17.72429332348336</v>
       </c>
       <c r="K242" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9913,13 +11123,18 @@
           <t>testModels/refined_db/9/m908/m908.off</t>
         </is>
       </c>
-      <c r="I243" t="n">
-        <v>0.02120182921822445</v>
-      </c>
-      <c r="J243" t="b">
-        <v>0</v>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>[-0.      -0.01352 -0.01633]</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>1.498648108541488</v>
       </c>
       <c r="K243" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9952,13 +11167,18 @@
           <t>testModels/refined_db/9/m909/m909.off</t>
         </is>
       </c>
-      <c r="I244" t="n">
-        <v>0.0009356444237630381</v>
-      </c>
-      <c r="J244" t="b">
-        <v>0</v>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>[-0.       0.00093 -0.00004]</t>
+        </is>
+      </c>
+      <c r="J244" t="n">
+        <v>2.511573955087962</v>
       </c>
       <c r="K244" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9991,13 +11211,18 @@
           <t>testModels/refined_db/9/m910/m910.off</t>
         </is>
       </c>
-      <c r="I245" t="n">
-        <v>0.008453275854059781</v>
-      </c>
-      <c r="J245" t="b">
-        <v>0</v>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>[0.00025 0.00845 0.00019]</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>52752.46924900672</v>
       </c>
       <c r="K245" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10030,13 +11255,18 @@
           <t>testModels/refined_db/9/m911/m911.off</t>
         </is>
       </c>
-      <c r="I246" t="n">
-        <v>2265.282202084351</v>
-      </c>
-      <c r="J246" t="b">
-        <v>0</v>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>[   0.00434 2265.22942  -15.46328]</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>0.005742380543431702</v>
       </c>
       <c r="K246" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10069,13 +11299,18 @@
           <t>testModels/refined_db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I247" t="n">
-        <v>1.990667974677138e-11</v>
-      </c>
-      <c r="J247" t="b">
-        <v>0</v>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>[0. 0. 0.]</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>2</v>
       </c>
       <c r="K247" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" t="b">
         <v>0</v>
       </c>
     </row>

--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>center_mass</t>
+          <t>barycentre_distance</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -519,10 +519,8 @@
           <t>testModels/refined_db/0/m0/m0.off</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 0. -0.  0.]</t>
-        </is>
+      <c r="I2" t="n">
+        <v>6.42368019270551e-12</v>
       </c>
       <c r="J2" t="n">
         <v>1.54180178726444</v>
@@ -563,10 +561,8 @@
           <t>testModels/refined_db/0/m1/m1.off</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[-0.00017 -0.00283 -0.00414]</t>
-        </is>
+      <c r="I3" t="n">
+        <v>0.00501756801924554</v>
       </c>
       <c r="J3" t="n">
         <v>0.5080431665382328</v>
@@ -607,10 +603,8 @@
           <t>testModels/refined_db/0/m2/m2.off</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[-0.00001 -0.00034 -0.00905]</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0.009058616602907047</v>
       </c>
       <c r="J4" t="n">
         <v>1.171745726572299</v>
@@ -651,10 +645,8 @@
           <t>testModels/refined_db/0/m3/m3.off</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[-0.  0.  0.]</t>
-        </is>
+      <c r="I5" t="n">
+        <v>6.186665276912884e-11</v>
       </c>
       <c r="J5" t="n">
         <v>2.758110230595284</v>
@@ -695,10 +687,8 @@
           <t>testModels/refined_db/0/m4/m4.off</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[ 0.05138 -1.01519 -0.15267]</t>
-        </is>
+      <c r="I6" t="n">
+        <v>1.027888110259638</v>
       </c>
       <c r="J6" t="n">
         <v>0.03271652012559027</v>
@@ -739,10 +729,8 @@
           <t>testModels/refined_db/0/m5/m5.off</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[ 0.00006 -0.00158 -0.01438]</t>
-        </is>
+      <c r="I7" t="n">
+        <v>0.01446468186748903</v>
       </c>
       <c r="J7" t="n">
         <v>1.107599772509929</v>
@@ -783,10 +771,8 @@
           <t>testModels/refined_db/0/m6/m6.off</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[-0.00026  0.00648 -0.00153]</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0.006665560295806335</v>
       </c>
       <c r="J8" t="n">
         <v>2.533007726348208</v>
@@ -827,10 +813,8 @@
           <t>testModels/refined_db/0/m7/m7.off</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[-0.00164 -0.0065  -0.01016]</t>
-        </is>
+      <c r="I9" t="n">
+        <v>0.01217098082723011</v>
       </c>
       <c r="J9" t="n">
         <v>2.272328856386615</v>
@@ -871,10 +855,8 @@
           <t>testModels/refined_db/0/m8/m8.off</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[ 0.00048 -0.11711 -0.00767]</t>
-        </is>
+      <c r="I10" t="n">
+        <v>0.1173620910137573</v>
       </c>
       <c r="J10" t="n">
         <v>3.672522755488999</v>
@@ -915,10 +897,8 @@
           <t>testModels/refined_db/0/m9/m9.off</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[  -0.2974  6587.64434   -0.60443]</t>
-        </is>
+      <c r="I11" t="n">
+        <v>6587.644371151677</v>
       </c>
       <c r="J11" t="n">
         <v>9.877730838107428</v>
@@ -959,10 +939,8 @@
           <t>testModels/refined_db/1/m100/m100.off</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[ 0. -0. -0.]</t>
-        </is>
+      <c r="I12" t="n">
+        <v>3.252365613465833e-12</v>
       </c>
       <c r="J12" t="n">
         <v>1.994433116743413</v>
@@ -1003,10 +981,8 @@
           <t>testModels/refined_db/1/m101/m101.off</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[ 0.       0.13833 -0.01342]</t>
-        </is>
+      <c r="I13" t="n">
+        <v>0.1389790512606554</v>
       </c>
       <c r="J13" t="n">
         <v>11.64085859253579</v>
@@ -1047,10 +1023,8 @@
           <t>testModels/refined_db/1/m102/m102.off</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[-0.00507 -0.01234 -0.02184]</t>
-        </is>
+      <c r="I14" t="n">
+        <v>0.02559352364995432</v>
       </c>
       <c r="J14" t="n">
         <v>1.171076233922933</v>
@@ -1091,10 +1065,8 @@
           <t>testModels/refined_db/1/m103/m103.off</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[-0.00006 -0.29039  0.14166]</t>
-        </is>
+      <c r="I15" t="n">
+        <v>0.3231037696824753</v>
       </c>
       <c r="J15" t="n">
         <v>0.9598027277619923</v>
@@ -1135,10 +1107,8 @@
           <t>testModels/refined_db/1/m104/m104.off</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I16" t="n">
+        <v>1.379080462315664e-11</v>
       </c>
       <c r="J16" t="n">
         <v>1.676187667114725</v>
@@ -1179,10 +1149,8 @@
           <t>testModels/refined_db/1/m105/m105.off</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[-0.00528 -0.07391 -0.03918]</t>
-        </is>
+      <c r="I17" t="n">
+        <v>0.0838227631823335</v>
       </c>
       <c r="J17" t="n">
         <v>1.766838664430644</v>
@@ -1223,10 +1191,8 @@
           <t>testModels/refined_db/1/m106/m106.off</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I18" t="n">
+        <v>7.997235511655059e-12</v>
       </c>
       <c r="J18" t="n">
         <v>2.052764835934736</v>
@@ -1267,10 +1233,8 @@
           <t>testModels/refined_db/1/m107/m107.off</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[-0.00001  0.00306 -0.00776]</t>
-        </is>
+      <c r="I19" t="n">
+        <v>0.008345277103867062</v>
       </c>
       <c r="J19" t="n">
         <v>1.364251939096921</v>
@@ -1311,10 +1275,8 @@
           <t>testModels/refined_db/1/m108/m108.off</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[-0.00016  0.00212 -0.00022]</t>
-        </is>
+      <c r="I20" t="n">
+        <v>0.00213585877176066</v>
       </c>
       <c r="J20" t="n">
         <v>3.244631440466255</v>
@@ -1355,10 +1317,8 @@
           <t>testModels/refined_db/1/m109/m109.off</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[0.002   0.00575 0.00003]</t>
-        </is>
+      <c r="I21" t="n">
+        <v>0.006091116973117195</v>
       </c>
       <c r="J21" t="n">
         <v>1.189647178168971</v>
@@ -1399,10 +1359,8 @@
           <t>testModels/refined_db/1/m110/m110.off</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
+      <c r="I22" t="n">
+        <v>9.004891340451983e-12</v>
       </c>
       <c r="J22" t="n">
         <v>1.930009171372275</v>
@@ -1443,10 +1401,8 @@
           <t>testModels/refined_db/1/m111/m111.off</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>[-0.       0.00113 -0.01293]</t>
-        </is>
+      <c r="I23" t="n">
+        <v>0.01298413216702756</v>
       </c>
       <c r="J23" t="n">
         <v>1.478942596043082</v>
@@ -1487,10 +1443,8 @@
           <t>testModels/refined_db/1/m112/m112.off</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>[0.00165 0.00563 0.00058]</t>
-        </is>
+      <c r="I24" t="n">
+        <v>0.00589682427658975</v>
       </c>
       <c r="J24" t="n">
         <v>4.876855514945756</v>
@@ -1531,10 +1485,8 @@
           <t>testModels/refined_db/10/m1000/m1000.off</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[-0.00004 -1.45532  0.00118]</t>
-        </is>
+      <c r="I25" t="n">
+        <v>1.455320994789988</v>
       </c>
       <c r="J25" t="n">
         <v>0.1587908224157681</v>
@@ -1575,10 +1527,8 @@
           <t>testModels/refined_db/10/m1001/m1001.off</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>[ 0.00118  0.12731 -0.03672]</t>
-        </is>
+      <c r="I26" t="n">
+        <v>0.1325099938257858</v>
       </c>
       <c r="J26" t="n">
         <v>1.016953203100506</v>
@@ -1619,10 +1569,8 @@
           <t>testModels/refined_db/10/m1002/m1002.off</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>[  -0.01038 -532.00013   -0.01933]</t>
-        </is>
+      <c r="I27" t="n">
+        <v>532.0001259834055</v>
       </c>
       <c r="J27" t="n">
         <v>1.265233350141544e-05</v>
@@ -1663,10 +1611,8 @@
           <t>testModels/refined_db/10/m1003/m1003.off</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>[  -0.10138 2072.87748   -0.06319]</t>
-        </is>
+      <c r="I28" t="n">
+        <v>2072.8774855186</v>
       </c>
       <c r="J28" t="n">
         <v>3.743935843683506</v>
@@ -1707,10 +1653,8 @@
           <t>testModels/refined_db/10/m1004/m1004.off</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>[  0.21147 122.87577  -2.57384]</t>
-        </is>
+      <c r="I29" t="n">
+        <v>122.902905262765</v>
       </c>
       <c r="J29" t="n">
         <v>1.304649298216556</v>
@@ -1751,10 +1695,8 @@
           <t>testModels/refined_db/10/m1005/m1005.off</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>[  0.00014 -29.38498   0.00066]</t>
-        </is>
+      <c r="I30" t="n">
+        <v>29.38497605738384</v>
       </c>
       <c r="J30" t="n">
         <v>0.003181731566488926</v>
@@ -1795,10 +1737,8 @@
           <t>testModels/refined_db/10/m1006/m1006.off</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[-0.58491 13.21617 -1.58908]</t>
-        </is>
+      <c r="I31" t="n">
+        <v>13.32420267182001</v>
       </c>
       <c r="J31" t="n">
         <v>21.71830762171258</v>
@@ -1839,10 +1779,8 @@
           <t>testModels/refined_db/10/m1007/m1007.off</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>[  -0.0133  -183.25784   -0.2713 ]</t>
-        </is>
+      <c r="I32" t="n">
+        <v>183.2580368718666</v>
       </c>
       <c r="J32" t="n">
         <v>0.0001230906290192238</v>
@@ -1883,10 +1821,8 @@
           <t>testModels/refined_db/10/m1008/m1008.off</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>[ 0.0726  -0.28819  0.19762]</t>
-        </is>
+      <c r="I33" t="n">
+        <v>0.3569057543060847</v>
       </c>
       <c r="J33" t="n">
         <v>0.9374087537741624</v>
@@ -1927,10 +1863,8 @@
           <t>testModels/refined_db/10/m1009/m1009.off</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>[ -0.00784 -17.83799  -0.02066]</t>
-        </is>
+      <c r="I34" t="n">
+        <v>17.83800761423448</v>
       </c>
       <c r="J34" t="n">
         <v>0.009909776401318049</v>
@@ -1971,10 +1905,8 @@
           <t>testModels/refined_db/10/m1010/m1010.off</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>[-0.05089 69.15845  0.04974]</t>
-        </is>
+      <c r="I35" t="n">
+        <v>69.15848271824994</v>
       </c>
       <c r="J35" t="n">
         <v>4.64228776420492</v>
@@ -2015,10 +1947,8 @@
           <t>testModels/refined_db/10/m1011/m1011.off</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>[ 0.00366 -5.41741  0.00345]</t>
-        </is>
+      <c r="I36" t="n">
+        <v>5.417411382661081</v>
       </c>
       <c r="J36" t="n">
         <v>0.06058220592807511</v>
@@ -2059,10 +1989,8 @@
           <t>testModels/refined_db/10/m1012/m1012.off</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>[   0.00604 -277.16074    0.05228]</t>
-        </is>
+      <c r="I37" t="n">
+        <v>277.1607455409513</v>
       </c>
       <c r="J37" t="n">
         <v>0.001274165385056539</v>
@@ -2103,10 +2031,8 @@
           <t>testModels/refined_db/11/m1100/m1100.off</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>[ 0. -0.  0.]</t>
-        </is>
+      <c r="I38" t="n">
+        <v>7.10636406385241e-11</v>
       </c>
       <c r="J38" t="n">
         <v>0.3272601770119237</v>
@@ -2147,10 +2073,8 @@
           <t>testModels/refined_db/11/m1101/m1101.off</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I39" t="n">
+        <v>1.81232719659986e-11</v>
       </c>
       <c r="J39" t="n">
         <v>0.08825927164662188</v>
@@ -2191,10 +2115,8 @@
           <t>testModels/refined_db/11/m1102/m1102.off</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>[ 0.       0.22259 -0.     ]</t>
-        </is>
+      <c r="I40" t="n">
+        <v>0.2225860418428716</v>
       </c>
       <c r="J40" t="n">
         <v>0.165489650680151</v>
@@ -2235,10 +2157,8 @@
           <t>testModels/refined_db/11/m1103/m1103.off</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>[ 0.      -0.49181 -0.02839]</t>
-        </is>
+      <c r="I41" t="n">
+        <v>0.4926314511674916</v>
       </c>
       <c r="J41" t="n">
         <v>0.3452445459055065</v>
@@ -2279,10 +2199,8 @@
           <t>testModels/refined_db/11/m1104/m1104.off</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>[ 0. -0.  0.]</t>
-        </is>
+      <c r="I42" t="n">
+        <v>3.008804444112111e-10</v>
       </c>
       <c r="J42" t="n">
         <v>0.1265974483188364</v>
@@ -2323,10 +2241,8 @@
           <t>testModels/refined_db/11/m1105/m1105.off</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>[-0.00039  0.00004 -0.     ]</t>
-        </is>
+      <c r="I43" t="n">
+        <v>0.0003959135689194743</v>
       </c>
       <c r="J43" t="n">
         <v>0.3799769723842163</v>
@@ -2367,10 +2283,8 @@
           <t>testModels/refined_db/11/m1106/m1106.off</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>[0.00091 0.00012 0.     ]</t>
-        </is>
+      <c r="I44" t="n">
+        <v>0.0009216320409663063</v>
       </c>
       <c r="J44" t="n">
         <v>0.0813771774430733</v>
@@ -2411,10 +2325,8 @@
           <t>testModels/refined_db/11/m1107/m1107.off</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>[ 0.13097 -0.39616 32.49443]</t>
-        </is>
+      <c r="I45" t="n">
+        <v>32.49710866835853</v>
       </c>
       <c r="J45" t="n">
         <v>0.05599552733228992</v>
@@ -2455,10 +2367,8 @@
           <t>testModels/refined_db/11/m1108/m1108.off</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>[ -0.00948 143.69304  -0.03293]</t>
-        </is>
+      <c r="I46" t="n">
+        <v>143.6930420967281</v>
       </c>
       <c r="J46" t="n">
         <v>0.001210732671474684</v>
@@ -2499,10 +2409,8 @@
           <t>testModels/refined_db/11/m1109/m1109.off</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>[      0.04546 1112295.70424     -83.80816]</t>
-        </is>
+      <c r="I47" t="n">
+        <v>1112295.707395644</v>
       </c>
       <c r="J47" t="n">
         <v>0.0001279048319218899</v>
@@ -2543,10 +2451,8 @@
           <t>testModels/refined_db/11/m1110/m1110.off</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>[-0.  0.  0.]</t>
-        </is>
+      <c r="I48" t="n">
+        <v>5.026962274833129e-11</v>
       </c>
       <c r="J48" t="n">
         <v>0.345358303598502</v>
@@ -2587,10 +2493,8 @@
           <t>testModels/refined_db/11/m1111/m1111.off</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I49" t="n">
+        <v>1.730712447319561e-11</v>
       </c>
       <c r="J49" t="n">
         <v>0.756493767041663</v>
@@ -2631,10 +2535,8 @@
           <t>testModels/refined_db/11/m1112/m1112.off</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>[  0.00564 -11.39365  -0.04324]</t>
-        </is>
+      <c r="I50" t="n">
+        <v>11.393734683005</v>
       </c>
       <c r="J50" t="n">
         <v>0.0004102075644463312</v>
@@ -2675,10 +2577,8 @@
           <t>testModels/refined_db/12/m1200/m1200.off</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I51" t="n">
+        <v>7.282618872479424e-12</v>
       </c>
       <c r="J51" t="n">
         <v>1.081636362116313</v>
@@ -2719,10 +2619,8 @@
           <t>testModels/refined_db/12/m1201/m1201.off</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>[ 0.35762 -0.4151  -0.09529]</t>
-        </is>
+      <c r="I52" t="n">
+        <v>0.5561287094772075</v>
       </c>
       <c r="J52" t="n">
         <v>0.4015434721253283</v>
@@ -2763,10 +2661,8 @@
           <t>testModels/refined_db/12/m1202/m1202.off</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I53" t="n">
+        <v>9.464040996687352e-11</v>
       </c>
       <c r="J53" t="n">
         <v>0.7728699090886082</v>
@@ -2807,10 +2703,8 @@
           <t>testModels/refined_db/12/m1203/m1203.off</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>[-0.      -0.00041  0.00003]</t>
-        </is>
+      <c r="I54" t="n">
+        <v>0.0004125721919318342</v>
       </c>
       <c r="J54" t="n">
         <v>1.586483251276246</v>
@@ -2851,10 +2745,8 @@
           <t>testModels/refined_db/12/m1204/m1204.off</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>[ 0. -0.  0.]</t>
-        </is>
+      <c r="I55" t="n">
+        <v>2.073042813580126e-11</v>
       </c>
       <c r="J55" t="n">
         <v>2.479218610063131</v>
@@ -2895,10 +2787,8 @@
           <t>testModels/refined_db/12/m1205/m1205.off</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>[-0.08731 98.09607 -0.22925]</t>
-        </is>
+      <c r="I56" t="n">
+        <v>98.0963809906261</v>
       </c>
       <c r="J56" t="n">
         <v>1.173632872154284</v>
@@ -2939,10 +2829,8 @@
           <t>testModels/refined_db/12/m1206/m1206.off</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>[ 0.00201 -0.00875  0.02534]</t>
-        </is>
+      <c r="I57" t="n">
+        <v>0.02688281668798757</v>
       </c>
       <c r="J57" t="n">
         <v>1.289017756651356</v>
@@ -2983,10 +2871,8 @@
           <t>testModels/refined_db/12/m1207/m1207.off</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>[-0.11164 -0.06287 -0.65789]</t>
-        </is>
+      <c r="I58" t="n">
+        <v>0.6702554050470263</v>
       </c>
       <c r="J58" t="n">
         <v>2.354757164090654</v>
@@ -3027,10 +2913,8 @@
           <t>testModels/refined_db/12/m1208/m1208.off</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>[-0.07559 -0.1371  -0.88206]</t>
-        </is>
+      <c r="I59" t="n">
+        <v>0.8958497379112135</v>
       </c>
       <c r="J59" t="n">
         <v>2.530272081995995</v>
@@ -3071,10 +2955,8 @@
           <t>testModels/refined_db/12/m1209/m1209.off</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I60" t="n">
+        <v>3.078852894688539e-07</v>
       </c>
       <c r="J60" t="n">
         <v>1.997595658936787</v>
@@ -3115,10 +2997,8 @@
           <t>testModels/refined_db/12/m1210/m1210.off</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>[0.12915 0.02622 0.12718]</t>
-        </is>
+      <c r="I61" t="n">
+        <v>0.1831469396548207</v>
       </c>
       <c r="J61" t="n">
         <v>0.1660687627470626</v>
@@ -3159,10 +3039,8 @@
           <t>testModels/refined_db/12/m1211/m1211.off</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>[ -0.02473   0.52077 -18.17179]</t>
-        </is>
+      <c r="I62" t="n">
+        <v>18.1792720564108</v>
       </c>
       <c r="J62" t="n">
         <v>0.004974011578418645</v>
@@ -3203,10 +3081,8 @@
           <t>testModels/refined_db/12/m1212/m1212.off</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>[-3.53928 -2.09948 35.64452]</t>
-        </is>
+      <c r="I63" t="n">
+        <v>35.88127658142944</v>
       </c>
       <c r="J63" t="n">
         <v>787.9488993600014</v>
@@ -3247,10 +3123,8 @@
           <t>testModels/refined_db/13/m1300/m1300.off</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>[0.      0.02869 0.1417 ]</t>
-        </is>
+      <c r="I64" t="n">
+        <v>0.1445730567316785</v>
       </c>
       <c r="J64" t="n">
         <v>0.6954735534627958</v>
@@ -3291,10 +3165,8 @@
           <t>testModels/refined_db/13/m1301/m1301.off</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I65" t="n">
+        <v>1.674490204206562e-11</v>
       </c>
       <c r="J65" t="n">
         <v>0.4255508892116234</v>
@@ -3335,10 +3207,8 @@
           <t>testModels/refined_db/13/m1302/m1302.off</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>[0.03846 0.03873 0.3438 ]</t>
-        </is>
+      <c r="I66" t="n">
+        <v>0.3481034817522956</v>
       </c>
       <c r="J66" t="n">
         <v>0.1490645364315948</v>
@@ -3379,10 +3249,8 @@
           <t>testModels/refined_db/13/m1303/m1303.off</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>[  0.      -13.32206   0.09103]</t>
-        </is>
+      <c r="I67" t="n">
+        <v>13.32236960920189</v>
       </c>
       <c r="J67" t="n">
         <v>0.0930950192551986</v>
@@ -3423,10 +3291,8 @@
           <t>testModels/refined_db/13/m1304/m1304.off</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>[0.00362 0.01059 0.03064]</t>
-        </is>
+      <c r="I68" t="n">
+        <v>0.03261609313570626</v>
       </c>
       <c r="J68" t="n">
         <v>1.435492100503427</v>
@@ -3467,10 +3333,8 @@
           <t>testModels/refined_db/13/m1305/m1305.off</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>[-0.00267  0.00003 -0.00064]</t>
-        </is>
+      <c r="I69" t="n">
+        <v>0.002749700708202746</v>
       </c>
       <c r="J69" t="n">
         <v>0.6400542501522117</v>
@@ -3511,10 +3375,8 @@
           <t>testModels/refined_db/13/m1306/m1306.off</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>[-0.01929 -0.02412  0.43153]</t>
-        </is>
+      <c r="I70" t="n">
+        <v>0.4326327022147982</v>
       </c>
       <c r="J70" t="n">
         <v>4.320851909693641</v>
@@ -3555,10 +3417,8 @@
           <t>testModels/refined_db/13/m1307/m1307.off</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>[-0.00028 -0.03351 -0.48826]</t>
-        </is>
+      <c r="I71" t="n">
+        <v>0.4894051211897327</v>
       </c>
       <c r="J71" t="n">
         <v>3.815333141648222</v>
@@ -3599,10 +3459,8 @@
           <t>testModels/refined_db/13/m1308/m1308.off</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>[0.00176 0.00062 0.00868]</t>
-        </is>
+      <c r="I72" t="n">
+        <v>0.00887835115147557</v>
       </c>
       <c r="J72" t="n">
         <v>1.334538512930885</v>
@@ -3643,10 +3501,8 @@
           <t>testModels/refined_db/13/m1309/m1309.off</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>[ 0.28855 -0.14881  0.21126]</t>
-        </is>
+      <c r="I73" t="n">
+        <v>0.3873455828345476</v>
       </c>
       <c r="J73" t="n">
         <v>0.8143472880607064</v>
@@ -3687,10 +3543,8 @@
           <t>testModels/refined_db/13/m1310/m1310.off</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>[-0.      -0.00002 -0.00011]</t>
-        </is>
+      <c r="I74" t="n">
+        <v>0.0001100846433725572</v>
       </c>
       <c r="J74" t="n">
         <v>3.749506469513421</v>
@@ -3731,10 +3585,8 @@
           <t>testModels/refined_db/13/m1311/m1311.off</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I75" t="n">
+        <v>4.204424524394398e-11</v>
       </c>
       <c r="J75" t="n">
         <v>1.443578755381185</v>
@@ -3775,10 +3627,8 @@
           <t>testModels/refined_db/13/m1312/m1312.off</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>[0.      0.00361 0.00268]</t>
-        </is>
+      <c r="I76" t="n">
+        <v>0.004496474203714044</v>
       </c>
       <c r="J76" t="n">
         <v>1.257278898087117</v>
@@ -3819,10 +3669,8 @@
           <t>testModels/refined_db/14/m1400/m1400.off</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>[-0.0007  -4.38973 -0.14814]</t>
-        </is>
+      <c r="I77" t="n">
+        <v>4.392233791698981</v>
       </c>
       <c r="J77" t="n">
         <v>7.444668226564244</v>
@@ -3863,10 +3711,8 @@
           <t>testModels/refined_db/14/m1401/m1401.off</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>[0.00142 0.14986 0.13111]</t>
-        </is>
+      <c r="I78" t="n">
+        <v>0.1991268100310251</v>
       </c>
       <c r="J78" t="n">
         <v>2.710671551916585</v>
@@ -3907,10 +3753,8 @@
           <t>testModels/refined_db/14/m1402/m1402.off</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>[  0.03805  -3.73349 -19.99077]</t>
-        </is>
+      <c r="I79" t="n">
+        <v>20.33644891907266</v>
       </c>
       <c r="J79" t="n">
         <v>0.007808490932125987</v>
@@ -3951,10 +3795,8 @@
           <t>testModels/refined_db/14/m1403/m1403.off</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>[-0.      -0.21675 -0.94349]</t>
-        </is>
+      <c r="I80" t="n">
+        <v>0.9680626650967853</v>
       </c>
       <c r="J80" t="n">
         <v>0.1443653006264701</v>
@@ -3995,10 +3837,8 @@
           <t>testModels/refined_db/14/m1404/m1404.off</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>[-0.0007  -0.00262  0.01163]</t>
-        </is>
+      <c r="I81" t="n">
+        <v>0.01194409354083513</v>
       </c>
       <c r="J81" t="n">
         <v>2.519745832908126</v>
@@ -4039,10 +3879,8 @@
           <t>testModels/refined_db/14/m1405/m1405.off</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>[ 0.79494 -0.17904 -0.03894]</t>
-        </is>
+      <c r="I82" t="n">
+        <v>0.815778011685657</v>
       </c>
       <c r="J82" t="n">
         <v>0.5762033814165287</v>
@@ -4083,10 +3921,8 @@
           <t>testModels/refined_db/14/m1406/m1406.off</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>[ 0.15823 -0.00143 -0.2247 ]</t>
-        </is>
+      <c r="I83" t="n">
+        <v>0.2748225958853756</v>
       </c>
       <c r="J83" t="n">
         <v>0.01893771976782695</v>
@@ -4127,10 +3963,8 @@
           <t>testModels/refined_db/14/m1407/m1407.off</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>[-0.00003  0.00989  0.00166]</t>
-        </is>
+      <c r="I84" t="n">
+        <v>0.01003074294867284</v>
       </c>
       <c r="J84" t="n">
         <v>2.719129414731457</v>
@@ -4171,10 +4005,8 @@
           <t>testModels/refined_db/14/m1408/m1408.off</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>[0.00001 0.01171 0.00029]</t>
-        </is>
+      <c r="I85" t="n">
+        <v>0.0117169064540489</v>
       </c>
       <c r="J85" t="n">
         <v>0.8241773434355937</v>
@@ -4215,10 +4047,8 @@
           <t>testModels/refined_db/14/m1409/m1409.off</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>[ 0.00811 10.22846 -0.85655]</t>
-        </is>
+      <c r="I86" t="n">
+        <v>10.26426416104184</v>
       </c>
       <c r="J86" t="n">
         <v>0.1407453610661661</v>
@@ -4259,10 +4089,8 @@
           <t>testModels/refined_db/14/m1410/m1410.off</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>[ 0.00382 -0.72387 -0.42908]</t>
-        </is>
+      <c r="I87" t="n">
+        <v>0.8414929108156591</v>
       </c>
       <c r="J87" t="n">
         <v>0.01725140037312688</v>
@@ -4303,10 +4131,8 @@
           <t>testModels/refined_db/14/m1411/m1411.off</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>[ 0.05838 -0.02174  0.10801]</t>
-        </is>
+      <c r="I88" t="n">
+        <v>0.1246876073091927</v>
       </c>
       <c r="J88" t="n">
         <v>1.801048800524765</v>
@@ -4347,10 +4173,8 @@
           <t>testModels/refined_db/14/m1412/m1412.off</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>[-0.2232  -0.22135 -0.4765 ]</t>
-        </is>
+      <c r="I89" t="n">
+        <v>0.5708455413424252</v>
       </c>
       <c r="J89" t="n">
         <v>3.167204380404589</v>
@@ -4391,10 +4215,8 @@
           <t>testModels/refined_db/15/m1500/m1500.off</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>[-0.00001  0.00008 -0.00014]</t>
-        </is>
+      <c r="I90" t="n">
+        <v>0.0001601138692665851</v>
       </c>
       <c r="J90" t="n">
         <v>2.232577985287633</v>
@@ -4435,10 +4257,8 @@
           <t>testModels/refined_db/15/m1501/m1501.off</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>[-0.00022 -0.10559 -0.04566]</t>
-        </is>
+      <c r="I91" t="n">
+        <v>0.1150383050786876</v>
       </c>
       <c r="J91" t="n">
         <v>4.661942364499862</v>
@@ -4479,10 +4299,8 @@
           <t>testModels/refined_db/15/m1502/m1502.off</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>[0.25433 0.06128 0.19195]</t>
-        </is>
+      <c r="I92" t="n">
+        <v>0.324478652196189</v>
       </c>
       <c r="J92" t="n">
         <v>0.4897578313527576</v>
@@ -4523,10 +4341,8 @@
           <t>testModels/refined_db/15/m1503/m1503.off</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>[-0.02932 -0.01477 -0.02225]</t>
-        </is>
+      <c r="I93" t="n">
+        <v>0.03966103519066289</v>
       </c>
       <c r="J93" t="n">
         <v>0.1219650657749922</v>
@@ -4567,10 +4383,8 @@
           <t>testModels/refined_db/15/m1504/m1504.off</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>[-0.00006  0.0486   0.09432]</t>
-        </is>
+      <c r="I94" t="n">
+        <v>0.1061030545498483</v>
       </c>
       <c r="J94" t="n">
         <v>0.664255459156043</v>
@@ -4611,10 +4425,8 @@
           <t>testModels/refined_db/15/m1505/m1505.off</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>[-0.00003  0.01208  0.07479]</t>
-        </is>
+      <c r="I95" t="n">
+        <v>0.07576329887385913</v>
       </c>
       <c r="J95" t="n">
         <v>0.3543348207509114</v>
@@ -4655,10 +4467,8 @@
           <t>testModels/refined_db/15/m1506/m1506.off</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>[-0.24779  4.45537  0.07142]</t>
-        </is>
+      <c r="I96" t="n">
+        <v>4.462826405724972</v>
       </c>
       <c r="J96" t="n">
         <v>13.00591934408392</v>
@@ -4699,10 +4509,8 @@
           <t>testModels/refined_db/15/m1507/m1507.off</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>[-0.00011 -0.00062  0.01308]</t>
-        </is>
+      <c r="I97" t="n">
+        <v>0.01309384056103359</v>
       </c>
       <c r="J97" t="n">
         <v>0.519841040786056</v>
@@ -4743,10 +4551,8 @@
           <t>testModels/refined_db/15/m1508/m1508.off</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>[-0.01383  0.11309 -0.1597 ]</t>
-        </is>
+      <c r="I98" t="n">
+        <v>0.1961771554044218</v>
       </c>
       <c r="J98" t="n">
         <v>0.5908633695805606</v>
@@ -4787,10 +4593,8 @@
           <t>testModels/refined_db/15/m1509/m1509.off</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>[-0.00041 -0.02604  0.07643]</t>
-        </is>
+      <c r="I99" t="n">
+        <v>0.08074166315627522</v>
       </c>
       <c r="J99" t="n">
         <v>2.299295914796277</v>
@@ -4831,10 +4635,8 @@
           <t>testModels/refined_db/15/m1510/m1510.off</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>[-0.00013 -0.00459 -0.00081]</t>
-        </is>
+      <c r="I100" t="n">
+        <v>0.004663123650197178</v>
       </c>
       <c r="J100" t="n">
         <v>0.7328515637819432</v>
@@ -4875,10 +4677,8 @@
           <t>testModels/refined_db/15/m1511/m1511.off</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>[0.01038 0.00755 0.00201]</t>
-        </is>
+      <c r="I101" t="n">
+        <v>0.01299530797875391</v>
       </c>
       <c r="J101" t="n">
         <v>2.112863031299252</v>
@@ -4919,10 +4719,8 @@
           <t>testModels/refined_db/15/m1512/m1512.off</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>[0.08145 0.08473 0.05175]</t>
-        </is>
+      <c r="I102" t="n">
+        <v>0.1284216042194491</v>
       </c>
       <c r="J102" t="n">
         <v>0.8844093190644509</v>
@@ -4963,10 +4761,8 @@
           <t>testModels/refined_db/16/m1600/m1600.off</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I103" t="n">
+        <v>5.555083706974991e-11</v>
       </c>
       <c r="J103" t="n">
         <v>0.7387317620472658</v>
@@ -5007,10 +4803,8 @@
           <t>testModels/refined_db/16/m1601/m1601.off</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>[ 0.00003 -0.00127 -0.00002]</t>
-        </is>
+      <c r="I104" t="n">
+        <v>0.001272838531599622</v>
       </c>
       <c r="J104" t="n">
         <v>0.8928738812942658</v>
@@ -5051,10 +4845,8 @@
           <t>testModels/refined_db/16/m1602/m1602.off</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>[    0.00902 31713.12585    -0.01042]</t>
-        </is>
+      <c r="I105" t="n">
+        <v>31713.12584531875</v>
       </c>
       <c r="J105" t="n">
         <v>20.04380462926672</v>
@@ -5095,10 +4887,8 @@
           <t>testModels/refined_db/16/m1603/m1603.off</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>[-0.       0.00009 -0.     ]</t>
-        </is>
+      <c r="I106" t="n">
+        <v>8.821362534576683e-05</v>
       </c>
       <c r="J106" t="n">
         <v>0.5679196817602624</v>
@@ -5139,10 +4929,8 @@
           <t>testModels/refined_db/16/m1604/m1604.off</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>[-0.      -0.00001 -0.     ]</t>
-        </is>
+      <c r="I107" t="n">
+        <v>8.387209573154196e-06</v>
       </c>
       <c r="J107" t="n">
         <v>0.6426843909022848</v>
@@ -5183,10 +4971,8 @@
           <t>testModels/refined_db/16/m1605/m1605.off</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>[0.     0.1663 0.    ]</t>
-        </is>
+      <c r="I108" t="n">
+        <v>0.1662974862166074</v>
       </c>
       <c r="J108" t="n">
         <v>1.378064445523765</v>
@@ -5227,10 +5013,8 @@
           <t>testModels/refined_db/16/m1606/m1606.off</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>[-0.00051 -0.00639 -0.00165]</t>
-        </is>
+      <c r="I109" t="n">
+        <v>0.006617485714300628</v>
       </c>
       <c r="J109" t="n">
         <v>1.268406154537663</v>
@@ -5271,10 +5055,8 @@
           <t>testModels/refined_db/16/m1607/m1607.off</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>[   -0.00787 18011.00689    -0.01671]</t>
-        </is>
+      <c r="I110" t="n">
+        <v>18011.00689233719</v>
       </c>
       <c r="J110" t="n">
         <v>15.75553388408365</v>
@@ -5315,10 +5097,8 @@
           <t>testModels/refined_db/16/m1608/m1608.off</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I111" t="n">
+        <v>1.78664283789381e-11</v>
       </c>
       <c r="J111" t="n">
         <v>4.182391772902756</v>
@@ -5359,10 +5139,8 @@
           <t>testModels/refined_db/16/m1609/m1609.off</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I112" t="n">
+        <v>3.729987138531526e-12</v>
       </c>
       <c r="J112" t="n">
         <v>1.017204519830082</v>
@@ -5403,10 +5181,8 @@
           <t>testModels/refined_db/16/m1610/m1610.off</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>[ 0.00268 -0.0016   0.00009]</t>
-        </is>
+      <c r="I113" t="n">
+        <v>0.003122382270483629</v>
       </c>
       <c r="J113" t="n">
         <v>1.532940115968419</v>
@@ -5447,10 +5223,8 @@
           <t>testModels/refined_db/16/m1611/m1611.off</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>[ 0.00081 -0.      -0.00001]</t>
-        </is>
+      <c r="I114" t="n">
+        <v>0.0008055151610994139</v>
       </c>
       <c r="J114" t="n">
         <v>4.69411018515475</v>
@@ -5491,10 +5265,8 @@
           <t>testModels/refined_db/16/m1612/m1612.off</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>[  -0.00039 2477.10793   -0.00004]</t>
-        </is>
+      <c r="I115" t="n">
+        <v>2477.107933684657</v>
       </c>
       <c r="J115" t="n">
         <v>19.04078560914489</v>
@@ -5535,10 +5307,8 @@
           <t>testModels/refined_db/17/m1700/m1700.off</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>[0.00014 0.00032 0.     ]</t>
-        </is>
+      <c r="I116" t="n">
+        <v>0.000352687258781255</v>
       </c>
       <c r="J116" t="n">
         <v>1.048592044636912</v>
@@ -5579,10 +5349,8 @@
           <t>testModels/refined_db/17/m1701/m1701.off</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>[-0.      -0.47094 -0.     ]</t>
-        </is>
+      <c r="I117" t="n">
+        <v>0.4709405966564074</v>
       </c>
       <c r="J117" t="n">
         <v>2.796644208781574</v>
@@ -5623,10 +5391,8 @@
           <t>testModels/refined_db/17/m1702/m1702.off</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>[ 0.      -0.01976  0.0024 ]</t>
-        </is>
+      <c r="I118" t="n">
+        <v>0.01990833193278979</v>
       </c>
       <c r="J118" t="n">
         <v>2.601141352109059</v>
@@ -5667,10 +5433,8 @@
           <t>testModels/refined_db/17/m1703/m1703.off</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>[ 0. -0.  0.]</t>
-        </is>
+      <c r="I119" t="n">
+        <v>1.345629511023226e-10</v>
       </c>
       <c r="J119" t="n">
         <v>4.638380991628401</v>
@@ -5711,10 +5475,8 @@
           <t>testModels/refined_db/17/m1704/m1704.off</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>[ 0.00105 -0.02086 -0.02225]</t>
-        </is>
+      <c r="I120" t="n">
+        <v>0.03051963776296266</v>
       </c>
       <c r="J120" t="n">
         <v>2.132121965926196</v>
@@ -5755,10 +5517,8 @@
           <t>testModels/refined_db/17/m1705/m1705.off</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I121" t="n">
+        <v>3.45034931414389e-11</v>
       </c>
       <c r="J121" t="n">
         <v>0.2484958310541458</v>
@@ -5799,10 +5559,8 @@
           <t>testModels/refined_db/17/m1706/m1706.off</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>[    0.00305    -0.00259 -6998.85997]</t>
-        </is>
+      <c r="I122" t="n">
+        <v>6998.859974428265</v>
       </c>
       <c r="J122" t="n">
         <v>0.00183801146697846</v>
@@ -5843,10 +5601,8 @@
           <t>testModels/refined_db/17/m1707/m1707.off</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>[   0.20516   -5.92282 -849.61163]</t>
-        </is>
+      <c r="I123" t="n">
+        <v>849.6322966997764</v>
       </c>
       <c r="J123" t="n">
         <v>0.004637265311898609</v>
@@ -5887,10 +5643,8 @@
           <t>testModels/refined_db/17/m1708/m1708.off</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>[ 3.00119  5.25142 14.56146]</t>
-        </is>
+      <c r="I124" t="n">
+        <v>15.76770583610739</v>
       </c>
       <c r="J124" t="n">
         <v>0.1015516880946896</v>
@@ -5931,10 +5685,8 @@
           <t>testModels/refined_db/17/m1709/m1709.off</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>[ 0.00858 -0.0002  -0.03676]</t>
-        </is>
+      <c r="I125" t="n">
+        <v>0.03774846851668721</v>
       </c>
       <c r="J125" t="n">
         <v>0.006352363148023584</v>
@@ -5975,10 +5727,8 @@
           <t>testModels/refined_db/17/m1710/m1710.off</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I126" t="n">
+        <v>1.165481274281778e-10</v>
       </c>
       <c r="J126" t="n">
         <v>0.4220007196009958</v>
@@ -6019,10 +5769,8 @@
           <t>testModels/refined_db/17/m1711/m1711.off</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I127" t="n">
+        <v>9.367622453876907e-11</v>
       </c>
       <c r="J127" t="n">
         <v>0.2287047460641021</v>
@@ -6063,10 +5811,8 @@
           <t>testModels/refined_db/17/m1712/m1712.off</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I128" t="n">
+        <v>1.327807946036177e-07</v>
       </c>
       <c r="J128" t="n">
         <v>0.2585839864427651</v>
@@ -6107,10 +5853,8 @@
           <t>testModels/refined_db/18/m1800/m1800.off</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I129" t="n">
+        <v>3.140044639255474e-10</v>
       </c>
       <c r="J129" t="n">
         <v>3.001352215659553</v>
@@ -6151,10 +5895,8 @@
           <t>testModels/refined_db/18/m1801/m1801.off</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>[ 0.06798 -0.84651  0.06852]</t>
-        </is>
+      <c r="I130" t="n">
+        <v>0.8519915193896778</v>
       </c>
       <c r="J130" t="n">
         <v>4.040886897764464</v>
@@ -6195,10 +5937,8 @@
           <t>testModels/refined_db/18/m1802/m1802.off</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>[-0.       0.16988  0.06765]</t>
-        </is>
+      <c r="I131" t="n">
+        <v>0.1828500989661385</v>
       </c>
       <c r="J131" t="n">
         <v>0.8720867421164759</v>
@@ -6239,10 +5979,8 @@
           <t>testModels/refined_db/18/m1803/m1803.off</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>[  0.00001 282.58904 -31.63189]</t>
-        </is>
+      <c r="I132" t="n">
+        <v>284.3539077996795</v>
       </c>
       <c r="J132" t="n">
         <v>10.8955539776153</v>
@@ -6283,10 +6021,8 @@
           <t>testModels/refined_db/18/m1804/m1804.off</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>[-0.      -0.      -0.01973]</t>
-        </is>
+      <c r="I133" t="n">
+        <v>0.01973001011205744</v>
       </c>
       <c r="J133" t="n">
         <v>1.845329499468252</v>
@@ -6327,10 +6063,8 @@
           <t>testModels/refined_db/18/m1805/m1805.off</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>[0.00005 0.03634 0.0605 ]</t>
-        </is>
+      <c r="I134" t="n">
+        <v>0.07057429420942679</v>
       </c>
       <c r="J134" t="n">
         <v>0.3137506741324627</v>
@@ -6371,10 +6105,8 @@
           <t>testModels/refined_db/18/m1806/m1806.off</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>[3.19255 0.32109 0.53988]</t>
-        </is>
+      <c r="I135" t="n">
+        <v>3.253759110133531</v>
       </c>
       <c r="J135" t="n">
         <v>2.618049991033226</v>
@@ -6415,10 +6147,8 @@
           <t>testModels/refined_db/18/m1807/m1807.off</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>[ 0.00061 -0.00037  0.00035]</t>
-        </is>
+      <c r="I136" t="n">
+        <v>0.0007917619868076598</v>
       </c>
       <c r="J136" t="n">
         <v>2.44652941756977</v>
@@ -6459,10 +6189,8 @@
           <t>testModels/refined_db/18/m1808/m1808.off</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>[-0.      -0.00034  0.00033]</t>
-        </is>
+      <c r="I137" t="n">
+        <v>0.0004703952873779004</v>
       </c>
       <c r="J137" t="n">
         <v>3.512360504971698</v>
@@ -6503,10 +6231,8 @@
           <t>testModels/refined_db/18/m1809/m1809.off</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>[ 0.00007 -0.00243  0.0009 ]</t>
-        </is>
+      <c r="I138" t="n">
+        <v>0.002589687772491334</v>
       </c>
       <c r="J138" t="n">
         <v>2.635214799805866</v>
@@ -6547,10 +6273,8 @@
           <t>testModels/refined_db/18/m1810/m1810.off</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>[-0.00259 -1.67626 -0.00464]</t>
-        </is>
+      <c r="I139" t="n">
+        <v>1.676267268938318</v>
       </c>
       <c r="J139" t="n">
         <v>0.9356723876207576</v>
@@ -6591,10 +6315,8 @@
           <t>testModels/refined_db/18/m1811/m1811.off</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>[ 0.       0.34709 -1.84949]</t>
-        </is>
+      <c r="I140" t="n">
+        <v>1.881775416429933</v>
       </c>
       <c r="J140" t="n">
         <v>8.93349735056135</v>
@@ -6635,10 +6357,8 @@
           <t>testModels/refined_db/18/m1812/m1812.off</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>[ -0.01707  -0.02084 -10.74142]</t>
-        </is>
+      <c r="I141" t="n">
+        <v>10.7414491866766</v>
       </c>
       <c r="J141" t="n">
         <v>0.2742661825850731</v>
@@ -6679,10 +6399,8 @@
           <t>testModels/refined_db/18/m1813/m1813.off</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>[-0.       0.14599 -2.47676]</t>
-        </is>
+      <c r="I142" t="n">
+        <v>2.481062892405505</v>
       </c>
       <c r="J142" t="n">
         <v>0.1354714538271364</v>
@@ -6723,10 +6441,8 @@
           <t>testModels/refined_db/18/m1814/m1814.off</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>[-0.00741 -0.03129 -0.03575]</t>
-        </is>
+      <c r="I143" t="n">
+        <v>0.04808067437264492</v>
       </c>
       <c r="J143" t="n">
         <v>3.547783286870807</v>
@@ -6767,10 +6483,8 @@
           <t>testModels/refined_db/2/m200/m200.off</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>[0.00077 0.00189 0.01713]</t>
-        </is>
+      <c r="I144" t="n">
+        <v>0.01724875603368832</v>
       </c>
       <c r="J144" t="n">
         <v>0.09348135453546927</v>
@@ -6811,10 +6525,8 @@
           <t>testModels/refined_db/2/m201/m201.off</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>[ 0.00022  0.00005 -0.00368]</t>
-        </is>
+      <c r="I145" t="n">
+        <v>0.003682337503360668</v>
       </c>
       <c r="J145" t="n">
         <v>0.5378560159939945</v>
@@ -6855,10 +6567,8 @@
           <t>testModels/refined_db/2/m202/m202.off</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>[-0.  0.  0.]</t>
-        </is>
+      <c r="I146" t="n">
+        <v>8.374998515193879e-11</v>
       </c>
       <c r="J146" t="n">
         <v>0.601451463627709</v>
@@ -6899,10 +6609,8 @@
           <t>testModels/refined_db/2/m203/m203.off</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I147" t="n">
+        <v>1.721689919095733e-11</v>
       </c>
       <c r="J147" t="n">
         <v>0.3593812351092659</v>
@@ -6943,10 +6651,8 @@
           <t>testModels/refined_db/2/m204/m204.off</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>[-0.       0.00003 -0.     ]</t>
-        </is>
+      <c r="I148" t="n">
+        <v>3.399039843690321e-05</v>
       </c>
       <c r="J148" t="n">
         <v>0.9944083190272276</v>
@@ -6987,10 +6693,8 @@
           <t>testModels/refined_db/2/m205/m205.off</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
+      <c r="I149" t="n">
+        <v>4.644144344941358e-11</v>
       </c>
       <c r="J149" t="n">
         <v>0.9446186700973176</v>
@@ -7031,10 +6735,8 @@
           <t>testModels/refined_db/2/m206/m206.off</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>[-0.00424 -0.07697 -0.68392]</t>
-        </is>
+      <c r="I150" t="n">
+        <v>0.6882526872049451</v>
       </c>
       <c r="J150" t="n">
         <v>6.306022763586982</v>
@@ -7075,10 +6777,8 @@
           <t>testModels/refined_db/2/m207/m207.off</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>[ 0.04949 -0.76738  0.22681]</t>
-        </is>
+      <c r="I151" t="n">
+        <v>0.8017285966053207</v>
       </c>
       <c r="J151" t="n">
         <v>9.438205770423384</v>
@@ -7119,10 +6819,8 @@
           <t>testModels/refined_db/2/m208/m208.off</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I152" t="n">
+        <v>2.256794856545459e-11</v>
       </c>
       <c r="J152" t="n">
         <v>0.771277955453208</v>
@@ -7163,10 +6861,8 @@
           <t>testModels/refined_db/2/m209/m209.off</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>[-0.  0.  0.]</t>
-        </is>
+      <c r="I153" t="n">
+        <v>1.213194838343404e-10</v>
       </c>
       <c r="J153" t="n">
         <v>3.087356824273795</v>
@@ -7207,10 +6903,8 @@
           <t>testModels/refined_db/2/m210/m210.off</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I154" t="n">
+        <v>1.713524876278013e-11</v>
       </c>
       <c r="J154" t="n">
         <v>4.467958419841209</v>
@@ -7251,10 +6945,8 @@
           <t>testModels/refined_db/2/m211/m211.off</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>[-0.00079  0.037    0.00037]</t>
-        </is>
+      <c r="I155" t="n">
+        <v>0.03701297429058532</v>
       </c>
       <c r="J155" t="n">
         <v>0.748527917579661</v>
@@ -7295,10 +6987,8 @@
           <t>testModels/refined_db/2/m212/m212.off</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>[-0.00001 -0.00002 -0.00001]</t>
-        </is>
+      <c r="I156" t="n">
+        <v>2.375901933814572e-05</v>
       </c>
       <c r="J156" t="n">
         <v>0.8694474039717499</v>
@@ -7339,10 +7029,8 @@
           <t>testModels/refined_db/3/m300/m300.off</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>[-0.00849  0.10004  0.61444]</t>
-        </is>
+      <c r="I157" t="n">
+        <v>0.6225928340435811</v>
       </c>
       <c r="J157" t="n">
         <v>0.8644045670428804</v>
@@ -7383,10 +7071,8 @@
           <t>testModels/refined_db/3/m301/m301.off</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>[ 0.02514  0.0492  -3.90123]</t>
-        </is>
+      <c r="I158" t="n">
+        <v>3.901618425476664</v>
       </c>
       <c r="J158" t="n">
         <v>0.15420087405965</v>
@@ -7427,10 +7113,8 @@
           <t>testModels/refined_db/3/m302/m302.off</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>[0.0192  0.16798 0.04696]</t>
-        </is>
+      <c r="I159" t="n">
+        <v>0.1754788940877089</v>
       </c>
       <c r="J159" t="n">
         <v>1.110041271569327</v>
@@ -7471,10 +7155,8 @@
           <t>testModels/refined_db/3/m303/m303.off</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>[-0.00952 -0.06366 -0.05741]</t>
-        </is>
+      <c r="I160" t="n">
+        <v>0.08625002290585164</v>
       </c>
       <c r="J160" t="n">
         <v>0.4117621226408161</v>
@@ -7515,10 +7197,8 @@
           <t>testModels/refined_db/3/m304/m304.off</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>[-0.01142 -0.44132  0.20592]</t>
-        </is>
+      <c r="I161" t="n">
+        <v>0.4871278899620482</v>
       </c>
       <c r="J161" t="n">
         <v>0.3081002902285484</v>
@@ -7559,10 +7239,8 @@
           <t>testModels/refined_db/3/m305/m305.off</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>[ 0.00279 -0.01055  0.06536]</t>
-        </is>
+      <c r="I162" t="n">
+        <v>0.06626918927347948</v>
       </c>
       <c r="J162" t="n">
         <v>2.722974042471983</v>
@@ -7603,10 +7281,8 @@
           <t>testModels/refined_db/3/m306/m306.off</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>[-0.02542  0.12177  0.52079]</t>
-        </is>
+      <c r="I163" t="n">
+        <v>0.535442473407151</v>
       </c>
       <c r="J163" t="n">
         <v>1.576454628538385</v>
@@ -7647,10 +7323,8 @@
           <t>testModels/refined_db/3/m307/m307.off</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>[0.00233 0.06883 0.07995]</t>
-        </is>
+      <c r="I164" t="n">
+        <v>0.1055200319391629</v>
       </c>
       <c r="J164" t="n">
         <v>1.922352699334119</v>
@@ -7691,10 +7365,8 @@
           <t>testModels/refined_db/3/m308/m308.off</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>[ 0.0247  -3.94072 -2.8762 ]</t>
-        </is>
+      <c r="I165" t="n">
+        <v>4.878771826915503</v>
       </c>
       <c r="J165" t="n">
         <v>0.2385725689695646</v>
@@ -7735,10 +7407,8 @@
           <t>testModels/refined_db/3/m309/m309.off</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>[ 0.19996 -0.37552 -0.06162]</t>
-        </is>
+      <c r="I166" t="n">
+        <v>0.4298749370842283</v>
       </c>
       <c r="J166" t="n">
         <v>0.08178172339102052</v>
@@ -7779,10 +7449,8 @@
           <t>testModels/refined_db/3/m310/m310.off</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>[ 0.23612 -0.09801  0.18438]</t>
-        </is>
+      <c r="I167" t="n">
+        <v>0.3152090447098904</v>
       </c>
       <c r="J167" t="n">
         <v>0.2644283750325815</v>
@@ -7823,10 +7491,8 @@
           <t>testModels/refined_db/3/m311/m311.off</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>[ 0.33527 -1.51972  0.13263]</t>
-        </is>
+      <c r="I168" t="n">
+        <v>1.561903785834051</v>
       </c>
       <c r="J168" t="n">
         <v>0.2558908646578745</v>
@@ -7867,10 +7533,8 @@
           <t>testModels/refined_db/3/m312/m312.off</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>[ 0.21463  0.02998 -0.70839]</t>
-        </is>
+      <c r="I169" t="n">
+        <v>0.7407995858768722</v>
       </c>
       <c r="J169" t="n">
         <v>0.3376040868456802</v>
@@ -7911,10 +7575,8 @@
           <t>testModels/refined_db/4/m400/m400.off</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I170" t="n">
+        <v>4.095156494823547e-11</v>
       </c>
       <c r="J170" t="n">
         <v>3.191864370802235</v>
@@ -7955,10 +7617,8 @@
           <t>testModels/refined_db/4/m401/m401.off</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>[ 0.01245  0.0222  -0.2889 ]</t>
-        </is>
+      <c r="I171" t="n">
+        <v>0.2900215045121107</v>
       </c>
       <c r="J171" t="n">
         <v>1.908495779957746</v>
@@ -7999,10 +7659,8 @@
           <t>testModels/refined_db/4/m402/m402.off</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>[-0.01347 -0.02917  0.03261]</t>
-        </is>
+      <c r="I172" t="n">
+        <v>0.04578126090383135</v>
       </c>
       <c r="J172" t="n">
         <v>1.108658784164825</v>
@@ -8043,10 +7701,8 @@
           <t>testModels/refined_db/4/m403/m403.off</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>[ 0.00007 -0.0069  -0.00038]</t>
-        </is>
+      <c r="I173" t="n">
+        <v>0.006905987555991612</v>
       </c>
       <c r="J173" t="n">
         <v>4.342061472673111</v>
@@ -8087,10 +7743,8 @@
           <t>testModels/refined_db/4/m404/m404.off</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>[ 0.0003  -0.00057 -0.00003]</t>
-        </is>
+      <c r="I174" t="n">
+        <v>0.0006474875130241528</v>
       </c>
       <c r="J174" t="n">
         <v>1.462481686333033</v>
@@ -8131,10 +7785,8 @@
           <t>testModels/refined_db/4/m405/m405.off</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>[ 0.00638 -0.12763  0.00784]</t>
-        </is>
+      <c r="I175" t="n">
+        <v>0.1280334417512415</v>
       </c>
       <c r="J175" t="n">
         <v>4.978450480428153</v>
@@ -8175,10 +7827,8 @@
           <t>testModels/refined_db/4/m406/m406.off</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>[-0.00209 -0.01769  0.00094]</t>
-        </is>
+      <c r="I176" t="n">
+        <v>0.01783902365045297</v>
       </c>
       <c r="J176" t="n">
         <v>0.981875120541256</v>
@@ -8219,10 +7869,8 @@
           <t>testModels/refined_db/4/m407/m407.off</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>[0.00008 2.26036 0.02467]</t>
-        </is>
+      <c r="I177" t="n">
+        <v>2.260493181545627</v>
       </c>
       <c r="J177" t="n">
         <v>4.908067194578842</v>
@@ -8263,10 +7911,8 @@
           <t>testModels/refined_db/4/m408/m408.off</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>[ 0.0088   0.00619 -0.1458 ]</t>
-        </is>
+      <c r="I178" t="n">
+        <v>0.1461981433223654</v>
       </c>
       <c r="J178" t="n">
         <v>3.714281171746529</v>
@@ -8307,10 +7953,8 @@
           <t>testModels/refined_db/4/m409/m409.off</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>[ 0.09894 -0.0053   0.05688]</t>
-        </is>
+      <c r="I179" t="n">
+        <v>0.1142457224324751</v>
       </c>
       <c r="J179" t="n">
         <v>1.661043406681563</v>
@@ -8351,10 +7995,8 @@
           <t>testModels/refined_db/4/m410/m410.off</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>[-0.      -1.69933  0.     ]</t>
-        </is>
+      <c r="I180" t="n">
+        <v>1.699333082170065</v>
       </c>
       <c r="J180" t="n">
         <v>0.6297927411252462</v>
@@ -8395,10 +8037,8 @@
           <t>testModels/refined_db/4/m411/m411.off</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>[0.07186 0.13224 0.05491]</t>
-        </is>
+      <c r="I181" t="n">
+        <v>0.1602092741636844</v>
       </c>
       <c r="J181" t="n">
         <v>2.143911621930266</v>
@@ -8439,10 +8079,8 @@
           <t>testModels/refined_db/4/m412/m412.off</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>[-0.00021  0.0056   0.00044]</t>
-        </is>
+      <c r="I182" t="n">
+        <v>0.005624612374215172</v>
       </c>
       <c r="J182" t="n">
         <v>0.5092926904113874</v>
@@ -8483,10 +8121,8 @@
           <t>testModels/refined_db/5/m500/m500.off</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I183" t="n">
+        <v>1.210407657281184e-11</v>
       </c>
       <c r="J183" t="n">
         <v>2.591209518521179</v>
@@ -8527,10 +8163,8 @@
           <t>testModels/refined_db/5/m501/m501.off</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>[-0.       0.00678 -0.00001]</t>
-        </is>
+      <c r="I184" t="n">
+        <v>0.006775093890272819</v>
       </c>
       <c r="J184" t="n">
         <v>2.538034225117392</v>
@@ -8571,10 +8205,8 @@
           <t>testModels/refined_db/5/m502/m502.off</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I185" t="n">
+        <v>8.596429759685062e-12</v>
       </c>
       <c r="J185" t="n">
         <v>4.529752444887156</v>
@@ -8615,10 +8247,8 @@
           <t>testModels/refined_db/5/m503/m503.off</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>[-0. -0. -0.]</t>
-        </is>
+      <c r="I186" t="n">
+        <v>2.917802581817423e-07</v>
       </c>
       <c r="J186" t="n">
         <v>5.472228306058456</v>
@@ -8659,10 +8289,8 @@
           <t>testModels/refined_db/5/m504/m504.off</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>[-0.00078 -0.00079 -0.     ]</t>
-        </is>
+      <c r="I187" t="n">
+        <v>0.00110707261019021</v>
       </c>
       <c r="J187" t="n">
         <v>2.899965125629815</v>
@@ -8703,10 +8331,8 @@
           <t>testModels/refined_db/5/m505/m505.off</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>[-0.01299 -0.00273 -0.73056]</t>
-        </is>
+      <c r="I188" t="n">
+        <v>0.7306839309366435</v>
       </c>
       <c r="J188" t="n">
         <v>3.891517333722106</v>
@@ -8747,10 +8373,8 @@
           <t>testModels/refined_db/5/m506/m506.off</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>[-0.00213 -0.00107 -0.00009]</t>
-        </is>
+      <c r="I189" t="n">
+        <v>0.002381121397001475</v>
       </c>
       <c r="J189" t="n">
         <v>1.06597593848667</v>
@@ -8791,10 +8415,8 @@
           <t>testModels/refined_db/5/m507/m507.off</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>[0.04544 0.41729 0.09848]</t>
-        </is>
+      <c r="I190" t="n">
+        <v>0.4311561555292199</v>
       </c>
       <c r="J190" t="n">
         <v>2.202268761646622</v>
@@ -8835,10 +8457,8 @@
           <t>testModels/refined_db/5/m508/m508.off</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I191" t="n">
+        <v>8.043663471507146e-11</v>
       </c>
       <c r="J191" t="n">
         <v>2.086244763303903</v>
@@ -8879,10 +8499,8 @@
           <t>testModels/refined_db/5/m509/m509.off</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>[-0.00182  0.00997 -0.00009]</t>
-        </is>
+      <c r="I192" t="n">
+        <v>0.01013740599142847</v>
       </c>
       <c r="J192" t="n">
         <v>2.870833329140929</v>
@@ -8923,10 +8541,8 @@
           <t>testModels/refined_db/5/m510/m510.off</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>[ 0.00001 -1.0499  -0.     ]</t>
-        </is>
+      <c r="I193" t="n">
+        <v>1.049895353056091</v>
       </c>
       <c r="J193" t="n">
         <v>0.1112940905844314</v>
@@ -8967,10 +8583,8 @@
           <t>testModels/refined_db/5/m511/m511.off</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>[-0.00169  0.35895  0.13783]</t>
-        </is>
+      <c r="I194" t="n">
+        <v>0.384504280145336</v>
       </c>
       <c r="J194" t="n">
         <v>7.761954315734244</v>
@@ -9011,10 +8625,8 @@
           <t>testModels/refined_db/5/m512/m512.off</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>[ 0.00001 -0.00241 -0.00061]</t>
-        </is>
+      <c r="I195" t="n">
+        <v>0.002485382643052797</v>
       </c>
       <c r="J195" t="n">
         <v>2.05525880697307</v>
@@ -9055,10 +8667,8 @@
           <t>testModels/refined_db/6/m600/m600.off</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>[ 0.00003 -0.50859  0.00658]</t>
-        </is>
+      <c r="I196" t="n">
+        <v>0.5086277728078649</v>
       </c>
       <c r="J196" t="n">
         <v>2.426778357502755</v>
@@ -9099,10 +8709,8 @@
           <t>testModels/refined_db/6/m601/m601.off</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>[-0.00314  0.02941  0.04552]</t>
-        </is>
+      <c r="I197" t="n">
+        <v>0.05428167833550838</v>
       </c>
       <c r="J197" t="n">
         <v>2.946725490004482</v>
@@ -9143,10 +8751,8 @@
           <t>testModels/refined_db/6/m602/m602.off</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>[-0.00003 -0.00096 -0.0001 ]</t>
-        </is>
+      <c r="I198" t="n">
+        <v>0.0009686025404811339</v>
       </c>
       <c r="J198" t="n">
         <v>2.010479556344244</v>
@@ -9187,10 +8793,8 @@
           <t>testModels/refined_db/6/m603/m603.off</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>[ 0. -0. -0.]</t>
-        </is>
+      <c r="I199" t="n">
+        <v>9.880669561400956e-11</v>
       </c>
       <c r="J199" t="n">
         <v>9.838759142502457</v>
@@ -9231,10 +8835,8 @@
           <t>testModels/refined_db/6/m604/m604.off</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>[-0.00007  0.01241 -0.01273]</t>
-        </is>
+      <c r="I200" t="n">
+        <v>0.01777836443935735</v>
       </c>
       <c r="J200" t="n">
         <v>0.1961588932306979</v>
@@ -9275,10 +8877,8 @@
           <t>testModels/refined_db/6/m605/m605.off</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>[-0.       0.03649 -0.00866]</t>
-        </is>
+      <c r="I201" t="n">
+        <v>0.0375036756961406</v>
       </c>
       <c r="J201" t="n">
         <v>0.7631758432393912</v>
@@ -9319,10 +8919,8 @@
           <t>testModels/refined_db/6/m606/m606.off</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>[ 0.22298 -0.08729  0.1138 ]</t>
-        </is>
+      <c r="I202" t="n">
+        <v>0.2651232658113843</v>
       </c>
       <c r="J202" t="n">
         <v>0.317723822985137</v>
@@ -9363,10 +8961,8 @@
           <t>testModels/refined_db/6/m607/m607.off</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>[ -0.17912 477.70867  30.22231]</t>
-        </is>
+      <c r="I203" t="n">
+        <v>478.663758286441</v>
       </c>
       <c r="J203" t="n">
         <v>99.93491205239566</v>
@@ -9407,10 +9003,8 @@
           <t>testModels/refined_db/6/m608/m608.off</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>[0.17403 0.18069 0.06005]</t>
-        </is>
+      <c r="I204" t="n">
+        <v>0.2579527999669422</v>
       </c>
       <c r="J204" t="n">
         <v>0.7331165912022362</v>
@@ -9451,10 +9045,8 @@
           <t>testModels/refined_db/6/m609/m609.off</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I205" t="n">
+        <v>4.087464300305368e-11</v>
       </c>
       <c r="J205" t="n">
         <v>0.326630932477089</v>
@@ -9495,10 +9087,8 @@
           <t>testModels/refined_db/6/m610/m610.off</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>[-0.00014  0.00005  0.00055]</t>
-        </is>
+      <c r="I206" t="n">
+        <v>0.0005728298399328012</v>
       </c>
       <c r="J206" t="n">
         <v>2.687042245399895</v>
@@ -9539,10 +9129,8 @@
           <t>testModels/refined_db/6/m611/m611.off</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>[0.01878 0.00694 0.01111]</t>
-        </is>
+      <c r="I207" t="n">
+        <v>0.02289583641710795</v>
       </c>
       <c r="J207" t="n">
         <v>0.4262998983267843</v>
@@ -9583,10 +9171,8 @@
           <t>testModels/refined_db/6/m612/m612.off</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
+      <c r="I208" t="n">
+        <v>1.580387692026526e-10</v>
       </c>
       <c r="J208" t="n">
         <v>1.714627900821362</v>
@@ -9627,10 +9213,8 @@
           <t>testModels/refined_db/7/m700/m700.off</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>[ 0.00398  0.31774 -0.00081]</t>
-        </is>
+      <c r="I209" t="n">
+        <v>0.3177634340905783</v>
       </c>
       <c r="J209" t="n">
         <v>0.102379233874372</v>
@@ -9671,10 +9255,8 @@
           <t>testModels/refined_db/7/m701/m701.off</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>[-0.      -0.       0.00003]</t>
-        </is>
+      <c r="I210" t="n">
+        <v>3.44940611404073e-05</v>
       </c>
       <c r="J210" t="n">
         <v>0.02482803463429684</v>
@@ -9715,10 +9297,8 @@
           <t>testModels/refined_db/7/m702/m702.off</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>[-0.      -0.       0.02386]</t>
-        </is>
+      <c r="I211" t="n">
+        <v>0.02386305395778754</v>
       </c>
       <c r="J211" t="n">
         <v>0.02318006865532599</v>
@@ -9759,10 +9339,8 @@
           <t>testModels/refined_db/7/m703/m703.off</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>[0.00001 0.00003 0.00017]</t>
-        </is>
+      <c r="I212" t="n">
+        <v>0.0001728102349402254</v>
       </c>
       <c r="J212" t="n">
         <v>0.01222638944573207</v>
@@ -9803,10 +9381,8 @@
           <t>testModels/refined_db/7/m704/m704.off</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I213" t="n">
+        <v>2.219062873168803e-10</v>
       </c>
       <c r="J213" t="n">
         <v>0.006632902013718371</v>
@@ -9847,10 +9423,8 @@
           <t>testModels/refined_db/7/m705/m705.off</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>[-0.00085 -0.00397  0.00006]</t>
-        </is>
+      <c r="I214" t="n">
+        <v>0.004058685088497006</v>
       </c>
       <c r="J214" t="n">
         <v>0.07431010178642333</v>
@@ -9891,10 +9465,8 @@
           <t>testModels/refined_db/7/m706/m706.off</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>[  0.0212  -23.961   -13.25034]</t>
-        </is>
+      <c r="I215" t="n">
+        <v>27.38067620618214</v>
       </c>
       <c r="J215" t="n">
         <v>0.0008532967688061706</v>
@@ -9935,10 +9507,8 @@
           <t>testModels/refined_db/7/m707/m707.off</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>[-0.00277 -0.13172 -0.00096]</t>
-        </is>
+      <c r="I216" t="n">
+        <v>0.1317511834751945</v>
       </c>
       <c r="J216" t="n">
         <v>0.03495693406899619</v>
@@ -9979,10 +9549,8 @@
           <t>testModels/refined_db/7/m708/m708.off</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>[ 0.00003 -0.00275 -0.00001]</t>
-        </is>
+      <c r="I217" t="n">
+        <v>0.002754271380992243</v>
       </c>
       <c r="J217" t="n">
         <v>0.5988970237003121</v>
@@ -10023,10 +9591,8 @@
           <t>testModels/refined_db/7/m709/m709.off</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>[-0.00024 -0.00002 -0.01104]</t>
-        </is>
+      <c r="I218" t="n">
+        <v>0.0110432965661174</v>
       </c>
       <c r="J218" t="n">
         <v>0.72287106150672</v>
@@ -10067,10 +9633,8 @@
           <t>testModels/refined_db/7/m710/m710.off</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>[-0.00028  0.00011 -0.0427 ]</t>
-        </is>
+      <c r="I219" t="n">
+        <v>0.04269777408031687</v>
       </c>
       <c r="J219" t="n">
         <v>0.1278979199170039</v>
@@ -10111,10 +9675,8 @@
           <t>testModels/refined_db/7/m711/m711.off</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>[-0.00008 -0.00665 -0.04858]</t>
-        </is>
+      <c r="I220" t="n">
+        <v>0.04903689242919958</v>
       </c>
       <c r="J220" t="n">
         <v>0.03361764255862969</v>
@@ -10155,10 +9717,8 @@
           <t>testModels/refined_db/7/m712/m712.off</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>[ 0.00233 -0.02025 -0.00309]</t>
-        </is>
+      <c r="I221" t="n">
+        <v>0.02061575473070821</v>
       </c>
       <c r="J221" t="n">
         <v>0.2122706695714186</v>
@@ -10199,10 +9759,8 @@
           <t>testModels/refined_db/8/m800/m800.off</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>[-0.0072  -0.19109 -0.00717]</t>
-        </is>
+      <c r="I222" t="n">
+        <v>0.1913600095248651</v>
       </c>
       <c r="J222" t="n">
         <v>8.159541358545257</v>
@@ -10243,10 +9801,8 @@
           <t>testModels/refined_db/8/m801/m801.off</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>[-0.00013  0.00437 -0.00124]</t>
-        </is>
+      <c r="I223" t="n">
+        <v>0.004545025303810258</v>
       </c>
       <c r="J223" t="n">
         <v>2.518060108276003</v>
@@ -10287,10 +9843,8 @@
           <t>testModels/refined_db/8/m802/m802.off</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>[ -0.0017  -18.19129   0.01672]</t>
-        </is>
+      <c r="I224" t="n">
+        <v>18.19130239583952</v>
       </c>
       <c r="J224" t="n">
         <v>0.009334529872413696</v>
@@ -10331,10 +9885,8 @@
           <t>testModels/refined_db/8/m803/m803.off</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>[   0.06022 4090.87661   16.46348]</t>
-        </is>
+      <c r="I225" t="n">
+        <v>4090.909741394437</v>
       </c>
       <c r="J225" t="n">
         <v>13.32936622281365</v>
@@ -10375,10 +9927,8 @@
           <t>testModels/refined_db/8/m804/m804.off</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>[ 0.       0.16471 -0.01765]</t>
-        </is>
+      <c r="I226" t="n">
+        <v>0.1656547343269143</v>
       </c>
       <c r="J226" t="n">
         <v>1.933328880902682</v>
@@ -10419,10 +9969,8 @@
           <t>testModels/refined_db/8/m805/m805.off</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>[-0.      -0.0425   0.00914]</t>
-        </is>
+      <c r="I227" t="n">
+        <v>0.04346752808605561</v>
       </c>
       <c r="J227" t="n">
         <v>5.70867209233236</v>
@@ -10463,10 +10011,8 @@
           <t>testModels/refined_db/8/m806/m806.off</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>[-0.  0.  0.]</t>
-        </is>
+      <c r="I228" t="n">
+        <v>6.076406690149934e-11</v>
       </c>
       <c r="J228" t="n">
         <v>1.562867420604986</v>
@@ -10507,10 +10053,8 @@
           <t>testModels/refined_db/8/m807/m807.off</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I229" t="n">
+        <v>1.45563363444826e-10</v>
       </c>
       <c r="J229" t="n">
         <v>2.17818182647275</v>
@@ -10551,10 +10095,8 @@
           <t>testModels/refined_db/8/m808/m808.off</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>[     0.0793  176413.90924    270.97873]</t>
-        </is>
+      <c r="I230" t="n">
+        <v>176414.1173567425</v>
       </c>
       <c r="J230" t="n">
         <v>14.9115873699726</v>
@@ -10595,10 +10137,8 @@
           <t>testModels/refined_db/8/m809/m809.off</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I231" t="n">
+        <v>2.365760717600551e-10</v>
       </c>
       <c r="J231" t="n">
         <v>0.2341789150856577</v>
@@ -10639,10 +10179,8 @@
           <t>testModels/refined_db/8/m810/m810.off</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>[ 0.  0. -0.]</t>
-        </is>
+      <c r="I232" t="n">
+        <v>3.505643258862145e-11</v>
       </c>
       <c r="J232" t="n">
         <v>1.147497139169389</v>
@@ -10683,10 +10221,8 @@
           <t>testModels/refined_db/8/m811/m811.off</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>[ 0.      -2.01836 -0.04537]</t>
-        </is>
+      <c r="I233" t="n">
+        <v>2.018868685551215</v>
       </c>
       <c r="J233" t="n">
         <v>13.94491878014592</v>
@@ -10727,10 +10263,8 @@
           <t>testModels/refined_db/8/m812/m812.off</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>[-0.      -2.31328 -0.04371]</t>
-        </is>
+      <c r="I234" t="n">
+        <v>2.313690791817875</v>
       </c>
       <c r="J234" t="n">
         <v>16.55634145870142</v>
@@ -10771,10 +10305,8 @@
           <t>testModels/refined_db/9/m900/m900.off</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>[-0.      -0.00458 -0.01843]</t>
-        </is>
+      <c r="I235" t="n">
+        <v>0.01899362106789846</v>
       </c>
       <c r="J235" t="n">
         <v>1.873987754502323</v>
@@ -10815,10 +10347,8 @@
           <t>testModels/refined_db/9/m901/m901.off</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>[-0. -0.  0.]</t>
-        </is>
+      <c r="I236" t="n">
+        <v>3.327119664535302e-11</v>
       </c>
       <c r="J236" t="n">
         <v>4.606776009449823</v>
@@ -10859,10 +10389,8 @@
           <t>testModels/refined_db/9/m902/m902.off</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I237" t="n">
+        <v>1.059105177907915e-10</v>
       </c>
       <c r="J237" t="n">
         <v>2.074094058781482</v>
@@ -10903,10 +10431,8 @@
           <t>testModels/refined_db/9/m903/m903.off</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>[ 0.       0.05425 -0.     ]</t>
-        </is>
+      <c r="I238" t="n">
+        <v>0.0542481373846425</v>
       </c>
       <c r="J238" t="n">
         <v>0.7584029355806988</v>
@@ -10947,10 +10473,8 @@
           <t>testModels/refined_db/9/m904/m904.off</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>[-0.      -0.43095  0.     ]</t>
-        </is>
+      <c r="I239" t="n">
+        <v>0.4309492657862186</v>
       </c>
       <c r="J239" t="n">
         <v>0.06734035337764804</v>
@@ -10991,10 +10515,8 @@
           <t>testModels/refined_db/9/m905/m905.off</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>[ 0.10526  1.82889 -0.72325]</t>
-        </is>
+      <c r="I240" t="n">
+        <v>1.969518218958351</v>
       </c>
       <c r="J240" t="n">
         <v>6.489040393302722</v>
@@ -11035,10 +10557,8 @@
           <t>testModels/refined_db/9/m906/m906.off</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>[-0.  0. -0.]</t>
-        </is>
+      <c r="I241" t="n">
+        <v>2.993455522987102e-11</v>
       </c>
       <c r="J241" t="n">
         <v>2.212000573005579</v>
@@ -11079,10 +10599,8 @@
           <t>testModels/refined_db/9/m907/m907.off</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>[    -0.02184    -80.75592 909719.52888]</t>
-        </is>
+      <c r="I242" t="n">
+        <v>909719.5324682461</v>
       </c>
       <c r="J242" t="n">
         <v>17.72429332348336</v>
@@ -11123,10 +10641,8 @@
           <t>testModels/refined_db/9/m908/m908.off</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>[-0.      -0.01352 -0.01633]</t>
-        </is>
+      <c r="I243" t="n">
+        <v>0.02120182921822445</v>
       </c>
       <c r="J243" t="n">
         <v>1.498648108541488</v>
@@ -11167,10 +10683,8 @@
           <t>testModels/refined_db/9/m909/m909.off</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>[-0.       0.00093 -0.00004]</t>
-        </is>
+      <c r="I244" t="n">
+        <v>0.0009356444237630381</v>
       </c>
       <c r="J244" t="n">
         <v>2.511573955087962</v>
@@ -11211,10 +10725,8 @@
           <t>testModels/refined_db/9/m910/m910.off</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>[0.00025 0.00845 0.00019]</t>
-        </is>
+      <c r="I245" t="n">
+        <v>0.008453275854059781</v>
       </c>
       <c r="J245" t="n">
         <v>52752.46924900672</v>
@@ -11255,10 +10767,8 @@
           <t>testModels/refined_db/9/m911/m911.off</t>
         </is>
       </c>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>[   0.00434 2265.22942  -15.46328]</t>
-        </is>
+      <c r="I246" t="n">
+        <v>2265.282202084351</v>
       </c>
       <c r="J246" t="n">
         <v>0.005742380543431702</v>
@@ -11299,10 +10809,8 @@
           <t>testModels/refined_db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>[0. 0. 0.]</t>
-        </is>
+      <c r="I247" t="n">
+        <v>1.990667974677138e-11</v>
       </c>
       <c r="J247" t="n">
         <v>2</v>

--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L247"/>
+  <dimension ref="A1:L242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.52907, -0.42873, -0.62765]), TrackedArray([0.52899, 0.46654, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64255, 0.54754, 0.975  ]))</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6.42368019270551e-12</v>
+        <v>0.001128588651243942</v>
       </c>
       <c r="J2" t="n">
-        <v>1.54180178726444</v>
+        <v>0.30655993840855</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.31267, -0.29765, -0.47156]), TrackedArray([0.30671, 0.25975, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42485, 0.38484, 0.975  ]))</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.00501756801924554</v>
+        <v>9.551801129323896e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5080431665382328</v>
+        <v>0.13669153135125</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="n">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47977, -0.37978, -0.55037]), TrackedArray([0.48001, 0.41065, 0.99418]))</t>
+          <t>(TrackedArray([0.02781, 0.0288 , 0.0277 ]), TrackedArray([0.61425, 0.51177, 0.97144]))</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.009058616602907047</v>
+        <v>0.002091011267871346</v>
       </c>
       <c r="J4" t="n">
-        <v>1.171745726572299</v>
+        <v>0.2672931772209104</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -637,7 +637,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.82737, -0.52582, -0.72898]), TrackedArray([0.82227, 0.4412 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93141, 0.55633, 0.975  ]))</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6.186665276912884e-11</v>
+        <v>0.0002181919278635218</v>
       </c>
       <c r="J5" t="n">
-        <v>2.758110230595284</v>
+        <v>0.4575223871524</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>1999</v>
       </c>
       <c r="D6" t="n">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.05669,  0.43324,  0.06685]), TrackedArray([0.26011, 0.99988, 0.2491 ]))</t>
+          <t>(TrackedArray([0.02533, 0.025  , 0.02531]), TrackedArray([0.55636, 0.97479, 0.3308 ]))</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.027888110259638</v>
+        <v>0.04229128673937838</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03271652012559027</v>
+        <v>0.1540810293435106</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>2000</v>
       </c>
       <c r="D7" t="n">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -721,7 +721,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.50807, -0.42704, -0.67716]), TrackedArray([0.52403, 0.28899, 0.82159]))</t>
+          <t>(TrackedArray([0.025  , 0.04506, 0.02511]), TrackedArray([0.60958, 0.4506 , 0.87396]))</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.01446468186748903</v>
+        <v>0.0007080805752065518</v>
       </c>
       <c r="J7" t="n">
-        <v>1.107599772509929</v>
+        <v>0.2012358677761338</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D8" t="n">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.59729, -0.76788, -0.78242]), TrackedArray([0.59737, 0.42674, 0.99242]))</t>
+          <t>(TrackedArray([0.02894, 0.06471, 0.02719]), TrackedArray([0.66421, 0.69995, 0.97097]))</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.006665560295806335</v>
+        <v>0.0003528625996153999</v>
       </c>
       <c r="J8" t="n">
-        <v>2.533007726348208</v>
+        <v>0.380858577350275</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.54764, -0.70761, -0.89462]), TrackedArray([0.54092, 0.39417, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.57083, 0.57745, 0.975  ]))</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0.01217098082723011</v>
+        <v>0.001663017598728905</v>
       </c>
       <c r="J9" t="n">
-        <v>2.272328856386615</v>
+        <v>0.2864681436477</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -847,7 +847,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51631, -1.08254, -0.79276]), TrackedArray([0.4778 , 1.     , 0.98117]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47849, 0.975  , 0.83422]))</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.1173620910137573</v>
+        <v>0.0001695031711757727</v>
       </c>
       <c r="J10" t="n">
-        <v>3.672522755488999</v>
+        <v>0.3486246117801</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -889,7 +889,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -1.45191, -33.53368,  -1.24163]), TrackedArray([  1.     , -30.64168,   0.15138]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83044, 0.975  , 0.48259]))</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -898,10 +898,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>6587.644371151677</v>
+        <v>4.048062000433003e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>9.877730838107428</v>
+        <v>0.35013334705725</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.55589, -0.41568, -0.98237]), TrackedArray([0.55639, 0.48884, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55803, 0.45847, 0.975  ]))</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3.252365613465833e-12</v>
+        <v>0.0005935419250623253</v>
       </c>
       <c r="J12" t="n">
-        <v>1.994433116743413</v>
+        <v>0.21949979381205</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.69894, -1.64852, -2.46124]), TrackedArray([0.69935, 0.75671, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40879, 0.68516, 0.975  ]))</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.1389790512606554</v>
+        <v>6.616314852405375e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>11.64085859253579</v>
+        <v>0.2406917928752999</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.37574, -0.47352, -0.87617]), TrackedArray([0.36684, 0.36705, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.401  , 0.45062, 0.975  ]))</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.02559352364995432</v>
+        <v>1.919625205564521e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.171076233922933</v>
+        <v>0.1520326298799</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D15" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21952, -1.1262 , -0.77325]), TrackedArray([0.19438, 0.18233, 0.99894]))</t>
+          <t>(TrackedArray([0.025  , 0.02507, 0.025  ]), TrackedArray([0.24728, 0.7261 , 0.97443]))</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.3231037696824753</v>
+        <v>5.49901721593121e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9598027277619923</v>
+        <v>0.1479469358830862</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.98078, -0.92907, -0.26903]), TrackedArray([1.     , 0.64845, 0.2674 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.78159, 0.28228]))</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.379080462315664e-11</v>
+        <v>0.001100139451614678</v>
       </c>
       <c r="J16" t="n">
-        <v>1.676187667114725</v>
+        <v>0.1849215228111</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.25261, -1.04237, -0.8622 ]), TrackedArray([0.2416 , 0.87746, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26955, 0.975  , 0.94648]))</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.0838227631823335</v>
+        <v>2.79074049695288e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.766838664430644</v>
+        <v>0.21408164502945</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.25886, -0.93667, -1.49372]), TrackedArray([0.2359 , 0.72714, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21348, 0.65884, 0.975  ]))</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>7.997235511655059e-12</v>
+        <v>7.07455410108259e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.052764835934736</v>
+        <v>0.11349285504</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D19" t="n">
         <v>1008</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.22826, -0.94679, -0.81551]), TrackedArray([0.22825, 0.70023, 0.99895]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26388, 0.88683, 0.97445]))</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,10 +1234,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0.008345277103867062</v>
+        <v>0.0003709931970644116</v>
       </c>
       <c r="J19" t="n">
-        <v>1.364251939096921</v>
+        <v>0.1954658192099429</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.35302, -1.22602, -0.32695]), TrackedArray([0.99634, 0.95536, 0.30617]))</t>
+          <t>(TrackedArray([0.02561, 0.02522, 0.025  ]), TrackedArray([0.97352, 0.90537, 0.28045]))</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0.00213585877176066</v>
+        <v>0.002521077624268249</v>
       </c>
       <c r="J20" t="n">
-        <v>3.244631440466255</v>
+        <v>0.2131232253340034</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.56604, -0.44466, -0.34197]), TrackedArray([0.66302, 1.     , 0.32804]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83322, 0.975  , 0.46559]))</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0.006091116973117195</v>
+        <v>0.0002203437221922108</v>
       </c>
       <c r="J21" t="n">
-        <v>1.189647178168971</v>
+        <v>0.3382912707369999</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.41584, -0.53853, -0.77896]), TrackedArray([0.41849, 0.7618 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47055, 0.7194 , 0.975  ]))</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9.004891340451983e-12</v>
+        <v>8.178039550525055e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>1.930009171372275</v>
+        <v>0.2939200007275</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>1999</v>
       </c>
       <c r="D23" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.35625, -0.53739, -0.73765]), TrackedArray([0.35624, 0.65716, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41453, 0.67808, 0.975  ]))</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0.01298413216702756</v>
+        <v>8.415818058625767e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>1.478942596043082</v>
+        <v>0.24167553026045</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D24" t="n">
         <v>1006</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.89268, -1.27274, -0.58278]), TrackedArray([0.99629, 0.69858, 0.72687]))</t>
+          <t>(TrackedArray([0.02795, 0.02623, 0.0257 ]), TrackedArray([0.93527, 0.97373, 0.65476]))</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0.00589682427658975</v>
+        <v>0.000111238886642469</v>
       </c>
       <c r="J24" t="n">
-        <v>4.876855514945756</v>
+        <v>0.540789022467916</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D25" t="n">
-        <v>2228</v>
+        <v>2233</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30536,  0.39881, -0.2899 ]), TrackedArray([0.23147, 0.99761, 0.20407]))</t>
+          <t>(TrackedArray([0.02771, 0.025  , 0.02563]), TrackedArray([0.87762, 0.97323, 0.80699]))</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.455320994789988</v>
+        <v>0.02001593797725536</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1587908224157681</v>
+        <v>0.6296980511265607</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D26" t="n">
-        <v>1683</v>
+        <v>1615</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.46415, -0.33874, -0.46306]), TrackedArray([0.43427, 1.     , 0.38246]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66253, 0.975  , 0.625  ]))</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1528,10 +1528,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.1325099938257858</v>
+        <v>0.0008356273920594058</v>
       </c>
       <c r="J26" t="n">
-        <v>1.016953203100506</v>
+        <v>0.36339438</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D27" t="n">
-        <v>2144</v>
+        <v>2131</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.02401,  0.98015, -0.06189]), TrackedArray([ 0.00118,  1.     , -0.03658]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.76804, 0.97246]))</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>532.0001259834055</v>
+        <v>9.253109802878766e-05</v>
       </c>
       <c r="J27" t="n">
-        <v>1.265233350141544e-05</v>
+        <v>0.6687993559893</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D28" t="n">
-        <v>2519</v>
+        <v>2556</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.71133, -4.7828 , -0.56644]), TrackedArray([ 0.81255, -3.14475,  0.93342]))</t>
+          <t>(TrackedArray([0.04312, 0.025  , 0.02653]), TrackedArray([0.93314, 0.96441, 0.91737]))</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2072.8774855186</v>
+        <v>6.471914523257583e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>3.743935843683506</v>
+        <v>0.7448243204458793</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>2000</v>
       </c>
       <c r="D29" t="n">
-        <v>1965</v>
+        <v>1995</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.46804, -1.99289, -0.12021]), TrackedArray([ 0.77391, -1.05513,  1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74481, 0.8821 ]))</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,10 +1654,10 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>122.902905262765</v>
+        <v>0.01562737112004103</v>
       </c>
       <c r="J29" t="n">
-        <v>1.304649298216556</v>
+        <v>0.58610156302355</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1674,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="D30" t="n">
-        <v>2063</v>
+        <v>2155</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.05682,  0.76255, -0.05746]), TrackedArray([0.05827, 1.     , 0.05896]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.4855 , 0.975  , 0.49079]))</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>29.38497605738384</v>
+        <v>0.0009607159863721767</v>
       </c>
       <c r="J30" t="n">
-        <v>0.003181731566488926</v>
+        <v>0.20376973537075</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D31" t="n">
-        <v>2007</v>
+        <v>2036</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(TrackedArray([-2.40625, -5.56354, -2.57167]), TrackedArray([ 1.     , -3.5745 ,  0.63389]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.57974, 0.91903]))</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>13.32420267182001</v>
+        <v>0.0003745461207631591</v>
       </c>
       <c r="J31" t="n">
-        <v>21.71830762171258</v>
+        <v>0.4711576637420999</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>2000</v>
       </c>
       <c r="D32" t="n">
-        <v>2309</v>
+        <v>2285</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.03914,  0.94013,  0.06768]), TrackedArray([0.00707, 0.99883, 0.11306]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75817, 0.95678, 0.74077]))</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>183.2580368718666</v>
+        <v>0.0005321389830738203</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0001230906290192238</v>
+        <v>0.4889848948191648</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>2000</v>
       </c>
       <c r="D33" t="n">
-        <v>1713</v>
+        <v>1685</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.38864,  0.12331, -0.25963]), TrackedArray([0.61701, 1.     , 0.80361]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.92355, 0.80832, 0.975  ]))</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0.3569057543060847</v>
+        <v>0.008013361516485885</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9374087537741624</v>
+        <v>0.6686612839449999</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>2000</v>
       </c>
       <c r="D34" t="n">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.09056,  0.70567, -0.11065]), TrackedArray([0.08652, 1.     , 0.07948]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02731]), TrackedArray([0.63316, 0.975  , 0.641  ]))</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>17.83800761423448</v>
+        <v>0.0001519574892347567</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009909776401318049</v>
+        <v>0.3545595691624799</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>2000</v>
       </c>
       <c r="D35" t="n">
-        <v>1980</v>
+        <v>2004</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.00578, -4.43383, -0.78234]), TrackedArray([ 1.     , -3.02601,  0.86166]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.69178, 0.80365]))</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>69.15848271824994</v>
+        <v>0.001140764396477985</v>
       </c>
       <c r="J35" t="n">
-        <v>4.64228776420492</v>
+        <v>0.4932343272991999</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D36" t="n">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.19786,  0.5733 , -0.17984]), TrackedArray([0.18202, 1.     , 0.19392]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.87074, 0.975  , 0.85713]))</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>5.417411382661081</v>
+        <v>0.001168129703428432</v>
       </c>
       <c r="J36" t="n">
-        <v>0.06058220592807511</v>
+        <v>0.66857728021875</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>1999</v>
       </c>
       <c r="D37" t="n">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.0023 ,  0.92328, -0.08359]), TrackedArray([0.12876, 1.     , 0.04313]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.58112, 0.94357]))</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1990,10 +1990,10 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>277.1607455409513</v>
+        <v>0.006149865382329968</v>
       </c>
       <c r="J37" t="n">
-        <v>0.001274165385056539</v>
+        <v>0.4852904050862999</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21935, -0.98617, -0.27985]), TrackedArray([0.22839, 1.     , 0.08815]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.23916, 0.975  , 0.20102]))</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2032,10 +2032,10 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>7.10636406385241e-11</v>
+        <v>0.001001596712580294</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3272601770119237</v>
+        <v>0.0358110831519</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.2513 , -1.37157, -0.03977]), TrackedArray([0.25742, 1.     , 0.03338]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22878, 0.975  , 0.0543 ]))</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1.81232719659986e-11</v>
+        <v>0.0003998407125325295</v>
       </c>
       <c r="J39" t="n">
-        <v>0.08825927164662188</v>
+        <v>0.00567314313805</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.27727, -1.9921 , -0.03761]), TrackedArray([0.27727, 1.     , 0.06213]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.20107, 0.975  , 0.05667]))</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0.2225860418428716</v>
+        <v>0.003661211396463227</v>
       </c>
       <c r="J40" t="n">
-        <v>0.165489650680151</v>
+        <v>0.005296771457279999</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30858, -2.38047, -0.11163]), TrackedArray([0.30891, 1.     , 0.05377]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.19853, 0.975  , 0.07148]))</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0.4926314511674916</v>
+        <v>6.546524668632805e-05</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3452445459055065</v>
+        <v>0.007662401278960001</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.28867, -1.09683, -0.0508 ]), TrackedArray([0.27194, 1.     , 0.0569 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.27899, 0.975  , 0.07379]))</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3.008804444112111e-10</v>
+        <v>4.673943217403463e-05</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1265974483188364</v>
+        <v>0.01177359342705</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.64287, -0.43736, -0.1069 ]), TrackedArray([1.     , 0.27478, 0.09499]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.28098, 0.09757]))</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0.0003959135689194743</v>
+        <v>0.006906446655506672</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3799769723842163</v>
+        <v>0.0176481641208</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.6777 , -0.23878, -0.05031]), TrackedArray([1.     , 0.2399 , 0.05102]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29605, 0.08238]))</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0.0009216320409663063</v>
+        <v>0.00111596716660883</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0813771774430733</v>
+        <v>0.014774983832475</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>1999</v>
       </c>
       <c r="D45" t="n">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.33497,  0.2082 , -0.55142]), TrackedArray([ 1.     ,  0.60061, -0.44453]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.30425, 0.10107]))</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2326,10 +2326,10 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>32.49710866835853</v>
+        <v>1.520767617234729e-05</v>
       </c>
       <c r="J45" t="n">
-        <v>0.05599552733228992</v>
+        <v>0.0201794797352</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>2000</v>
       </c>
       <c r="D46" t="n">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21801,  0.83632, -0.0172 ]), TrackedArray([0.08826, 1.     , 0.00695]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.53273, 0.09992]))</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2368,16 +2368,16 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>143.6930420967281</v>
+        <v>0.001279145112808925</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001210732671474684</v>
+        <v>0.036135303359298</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2391,7 +2391,7 @@
         <v>2000</v>
       </c>
       <c r="D47" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(TrackedArray([  0.09451, -67.74754,   0.98388]), TrackedArray([  0.16298, -67.63167,   1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5864 , 0.975  , 0.15718]))</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1112295.707395644</v>
+        <v>0.0001468203784335353</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0001279048319218899</v>
+        <v>0.07049502607000001</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.12239, -0.90938, -0.37819]), TrackedArray([0.12226, 1.     , 0.36111]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.14673, 0.975  , 0.39283]))</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2452,10 +2452,10 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5.026962274833129e-11</v>
+        <v>9.88377534007533e-05</v>
       </c>
       <c r="J48" t="n">
-        <v>0.345358303598502</v>
+        <v>0.04253667849274999</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.38649, -1.26863, -0.15214]), TrackedArray([0.64102, 1.     , 0.17239]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.45527, 0.975  , 0.1609 ]))</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.730712447319561e-11</v>
+        <v>0.0001456425971987212</v>
       </c>
       <c r="J49" t="n">
-        <v>0.756493767041663</v>
+        <v>0.0555498363525</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02261, 0.78643, 0.02912]), TrackedArray([0.11405, 1.     , 0.05012]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.43172, 0.975  , 0.11844]))</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2536,10 +2536,10 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>11.393734683005</v>
+        <v>0.001143572819615011</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0004102075644463312</v>
+        <v>0.03610291686859999</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47798, -0.10442, -0.97697]), TrackedArray([0.47663, 0.46872, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48372, 0.30041, 0.975  ]))</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2578,10 +2578,10 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>7.282618872479424e-12</v>
+        <v>0.0007692329172279734</v>
       </c>
       <c r="J51" t="n">
-        <v>1.081636362116313</v>
+        <v>0.12001996886445</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>2000</v>
       </c>
       <c r="D52" t="n">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.41825,  0.14777,  0.08498]), TrackedArray([0.82205, 1.     , 0.46486]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.03083]), TrackedArray([0.975  , 0.67776, 0.3218 ]))</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0.5561287094772075</v>
+        <v>0.003409543674008612</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4015434721253283</v>
+        <v>0.18043581049101</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.52266, -0.1013 , -0.83486]), TrackedArray([0.52235, 0.30177, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.56605, 0.23369, 0.975  ]))</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>9.464040996687352e-11</v>
+        <v>0.0003426011658734738</v>
       </c>
       <c r="J53" t="n">
-        <v>0.7728699090886082</v>
+        <v>0.1072671295525</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.56377, -1.29437, -0.22102]), TrackedArray([0.56429, 1.     , 0.39195]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.49208, 0.975  , 0.27881]))</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0.0004125721919318342</v>
+        <v>0.0001001373457971476</v>
       </c>
       <c r="J54" t="n">
-        <v>1.586483251276246</v>
+        <v>0.11261987743</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.7584, -0.2015, -1.2447]), TrackedArray([0.75789, 0.52691, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66672, 0.33328, 0.975  ]))</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2.073042813580126e-11</v>
+        <v>0.003864133223075146</v>
       </c>
       <c r="J55" t="n">
-        <v>2.479218610063131</v>
+        <v>0.1879373359802</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.94557, -5.5148 , -0.34919]), TrackedArray([ 1.     , -3.98027,  0.04391]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.77429, 0.21695]))</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2788,10 +2788,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>98.0963809906261</v>
+        <v>0.0005786718425570698</v>
       </c>
       <c r="J56" t="n">
-        <v>1.173632872154284</v>
+        <v>0.1366358164875</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.8187 , -0.10402, -0.68748]), TrackedArray([0.82223, 0.3615 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83682, 0.2553 , 0.85985]))</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0.02688281668798757</v>
+        <v>0.002062400932598807</v>
       </c>
       <c r="J57" t="n">
-        <v>1.289017756651356</v>
+        <v>0.1560866223667202</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(TrackedArray([-2.63506, -0.17877, -1.15802]), TrackedArray([1.     , 0.29429, 0.21136]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.14863, 0.38288]))</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0.6702554050470263</v>
+        <v>0.0001626198961189347</v>
       </c>
       <c r="J58" t="n">
-        <v>2.354757164090654</v>
+        <v>0.04203211683450001</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.87671, -0.27355, -2.00391]), TrackedArray([1.     , 0.25096, 0.56657]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.7186 , 0.21885, 0.975  ]))</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0.8958497379112135</v>
+        <v>0.004521048326894825</v>
       </c>
       <c r="J59" t="n">
-        <v>2.530272081995995</v>
+        <v>0.12773090537</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99664, -0.15158, -0.99199]), TrackedArray([0.91494, 0.37302, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93665, 0.27519, 0.975  ]))</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3.078852894688539e-07</v>
+        <v>0.0001100594012178347</v>
       </c>
       <c r="J60" t="n">
-        <v>1.997595658936787</v>
+        <v>0.216677963555</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.18471, -0.00535, -0.04534]), TrackedArray([0.53367, 0.21579, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67786, 0.22598, 0.975  ]))</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0.1831469396548207</v>
+        <v>7.147201971254674e-05</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1660687627470626</v>
+        <v>0.124648111575</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.16224, -0.11162,  0.74203]), TrackedArray([ 0.08028, -0.03212,  1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9181 , 0.31777, 0.975  ]))</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3040,10 +3040,10 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>18.1792720564108</v>
+        <v>0.0009817496765913618</v>
       </c>
       <c r="J62" t="n">
-        <v>0.004974011578418645</v>
+        <v>0.2484029286024999</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D63" t="n">
         <v>919</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -8.99631,  -4.18387, -31.95971]), TrackedArray([  0.9195 ,   0.76844, -15.9139 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.61683, 0.3182 , 0.975  ]))</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3082,10 +3082,10 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>35.88127658142944</v>
+        <v>0.003526694728257714</v>
       </c>
       <c r="J63" t="n">
-        <v>787.9488993600014</v>
+        <v>0.1648514127853999</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.66947, -0.02541, -0.82111]), TrackedArray([0.66956, 0.25979, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72352, 0.17378, 0.975  ]))</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3124,10 +3124,10 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0.1445730567316785</v>
+        <v>0.0005597091282378019</v>
       </c>
       <c r="J64" t="n">
-        <v>0.6954735534627958</v>
+        <v>0.09872842770584998</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.57998, -0.06752, -0.76589]), TrackedArray([0.57998, 0.14024, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64902, 0.13676, 0.975  ]))</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.674490204206562e-11</v>
+        <v>0.001175331032504855</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4255508892116234</v>
+        <v>0.066256415535</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.10806, -0.13628, -0.39573]), TrackedArray([0.16651, 0.2527 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21188, 0.28975, 0.975  ]))</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3208,10 +3208,10 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0.3481034817522956</v>
+        <v>0.01892621760267958</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1490645364315948</v>
+        <v>0.0470046237255</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.39688,  0.76076, -0.15644]), TrackedArray([0.34121, 1.     , 0.37077]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.33293, 0.70357]))</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>13.32236960920189</v>
+        <v>0.0008220057171188623</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0930950192551986</v>
+        <v>0.1985021710586999</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -3270,10 +3270,10 @@
         <v>13</v>
       </c>
       <c r="C68" t="n">
-        <v>2000</v>
+        <v>2094</v>
       </c>
       <c r="D68" t="n">
-        <v>1019</v>
+        <v>1066</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30696, -0.4462 , -1.4881 ]), TrackedArray([0.32555, 0.46594, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26651, 0.37327, 0.975  ]))</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3292,10 +3292,10 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.03261609313570626</v>
+        <v>1.150663247492724e-05</v>
       </c>
       <c r="J68" t="n">
-        <v>1.435492100503427</v>
+        <v>0.07990405931970002</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.54923, -0.25949, -0.19065]), TrackedArray([1.     , 0.4009 , 0.18955]))</t>
+          <t>(TrackedArray([0.02501, 0.025  , 0.025  ]), TrackedArray([0.975  , 0.2711 , 0.16668]))</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3334,10 +3334,10 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0.002749700708202746</v>
+        <v>0.0001257143179090445</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6400542501522117</v>
+        <v>0.03312430885913717</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D70" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.03799, -0.37662, -4.35215]), TrackedArray([ 0.99784,  0.4243 , -1.7022 ]))</t>
+          <t>(TrackedArray([0.02577, 0.02544, 0.02918]), TrackedArray([0.75119, 0.31084, 0.97343]))</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.4326327022147982</v>
+        <v>0.0002646830280281575</v>
       </c>
       <c r="J70" t="n">
-        <v>4.320851909693641</v>
+        <v>0.1954899865206184</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
@@ -3396,10 +3396,10 @@
         <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D71" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.92803, -0.3255 , -1.96752]), TrackedArray([1.     , 0.49619, 0.44077]))</t>
+          <t>(TrackedArray([0.025  , 0.02689, 0.025  ]), TrackedArray([0.75396, 0.33694, 0.93553]))</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3418,16 +3418,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0.4894051211897327</v>
+        <v>0.009338225776793019</v>
       </c>
       <c r="J71" t="n">
-        <v>3.815333141648222</v>
+        <v>0.2057923453636968</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
       <c r="L71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.77374, -0.17131, -0.81564]), TrackedArray([0.92653, 0.26099, 1.     ]))</t>
+          <t>(TrackedArray([0.0257, 0.025 , 0.025 ]), TrackedArray([0.91534, 0.25119, 0.975  ]))</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0.00887835115147557</v>
+        <v>0.006622230756970738</v>
       </c>
       <c r="J72" t="n">
-        <v>1.334538512930885</v>
+        <v>0.19116580091301</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>13</v>
       </c>
       <c r="C73" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D73" t="n">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.70235,  0.09724, -0.16848]), TrackedArray([1.     , 0.52285, 0.95548]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02513]), TrackedArray([0.975  , 0.26251, 0.65235]))</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0.3873455828345476</v>
+        <v>0.007984692804028779</v>
       </c>
       <c r="J73" t="n">
-        <v>0.8143472880607064</v>
+        <v>0.14152593758984</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.02818, -0.25177, -1.54382]), TrackedArray([0.97882, 0.48264, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77452, 0.29927, 0.975  ]))</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,10 +3544,10 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0.0001100846433725572</v>
+        <v>0.006794646433714417</v>
       </c>
       <c r="J74" t="n">
-        <v>3.749506469513421</v>
+        <v>0.1952923078799999</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -3564,10 +3564,10 @@
         <v>13</v>
       </c>
       <c r="C75" t="n">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="D75" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.89814, -0.15072, -1.05246]), TrackedArray([0.88832, 0.24299, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.85188, 0.20723, 0.975  ]))</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>4.204424524394398e-11</v>
+        <v>0.0001760522075167385</v>
       </c>
       <c r="J75" t="n">
-        <v>1.443578755381185</v>
+        <v>0.1431480521615</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.84744, -0.27222, -0.45318]), TrackedArray([0.84708, 0.23836, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.31124, 0.83969]))</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0.004496474203714044</v>
+        <v>0.0002925651252501293</v>
       </c>
       <c r="J76" t="n">
-        <v>1.257278898087117</v>
+        <v>0.2215414359629999</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>2000</v>
       </c>
       <c r="D77" t="n">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.00021, -3.60927, -0.30181]), TrackedArray([ 0.99986, -0.46903,  0.88352]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02506]), TrackedArray([0.6301 , 0.975  , 0.38365]))</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3670,10 +3670,10 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4.392233791698981</v>
+        <v>8.059414583901581e-05</v>
       </c>
       <c r="J77" t="n">
-        <v>7.444668226564244</v>
+        <v>0.20613540484372</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>2000</v>
       </c>
       <c r="D78" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.61364, -0.59061, -0.5116 ]), TrackedArray([0.61921, 1.     , 0.87069]))</t>
+          <t>(TrackedArray([0.03131, 0.025  , 0.025  ]), TrackedArray([0.76555, 0.975  , 0.85058]))</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3712,10 +3712,10 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0.1991268100310251</v>
+        <v>0.004712587196871368</v>
       </c>
       <c r="J78" t="n">
-        <v>2.710671551916585</v>
+        <v>0.5758650878099</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.0339 ,  0.25242,  0.81346]), TrackedArray([0.15191, 0.4777 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.80858, 0.975  , 0.81168]))</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3754,10 +3754,10 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>20.33644891907266</v>
+        <v>0.01780033779611463</v>
       </c>
       <c r="J79" t="n">
-        <v>0.007808490932125987</v>
+        <v>0.5856046431026</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.32175,  0.15075,  0.43611]), TrackedArray([0.32175, 0.5486 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61235, 0.85747]))</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3796,10 +3796,10 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0.9680626650967853</v>
+        <v>0.01452029923554244</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1443653006264701</v>
+        <v>0.4645027603037999</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>2000</v>
       </c>
       <c r="D81" t="n">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65562, -0.46782, -1.10675]), TrackedArray([0.64719, 0.45022, 1.     ]))</t>
+          <t>(TrackedArray([0.02743, 0.02575, 0.025  ]), TrackedArray([0.61293, 0.43973, 0.975  ]))</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0.01194409354083513</v>
+        <v>0.0006154185925107334</v>
       </c>
       <c r="J81" t="n">
-        <v>2.519745832908126</v>
+        <v>0.2302622381513685</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.33293,  0.05561,  0.03197]), TrackedArray([0.44818, 1.     , 0.81308]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81075, 0.975  , 0.81075]))</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3880,10 +3880,10 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0.815778011685657</v>
+        <v>0.0003563967258500715</v>
       </c>
       <c r="J82" t="n">
-        <v>0.5762033814165287</v>
+        <v>0.5865306699874999</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>14</v>
       </c>
       <c r="C83" t="n">
-        <v>2376</v>
+        <v>1999</v>
       </c>
       <c r="D83" t="n">
-        <v>978</v>
+        <v>1040</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -3913,19 +3913,19 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.42219, 0.02786, 0.34737]), TrackedArray([1.     , 0.1385 , 0.64361]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02649]), TrackedArray([0.81469, 0.975  , 0.25037]))</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1406/m1406.off</t>
+          <t>testModels/refined_db/14/m1407/m1407.off</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0.2748225958853756</v>
+        <v>0.0002413983401218225</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01893771976782695</v>
+        <v>0.1679525695085</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>2000</v>
       </c>
       <c r="D84" t="n">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -3955,19 +3955,19 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99775, -1.73796, -0.28906]), TrackedArray([1.     , 0.66532, 0.27729]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83165, 0.35093, 0.975  ]))</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1407/m1407.off</t>
+          <t>testModels/refined_db/14/m1408/m1408.off</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.01003074294867284</v>
+        <v>0.0001116295244720499</v>
       </c>
       <c r="J84" t="n">
-        <v>2.719129414731457</v>
+        <v>0.24976478682495</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -3984,10 +3984,10 @@
         <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>2000</v>
+        <v>1739</v>
       </c>
       <c r="D85" t="n">
-        <v>1036</v>
+        <v>1000</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -3997,19 +3997,19 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.60046, -0.22982, -0.41434]), TrackedArray([0.60046, 0.25542, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.23856, 0.83462]))</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1408/m1408.off</t>
+          <t>testModels/refined_db/14/m1409/m1409.off</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0.0117169064540489</v>
+        <v>0.007056182230732914</v>
       </c>
       <c r="J85" t="n">
-        <v>0.8241773434355937</v>
+        <v>0.1642592688858</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>14</v>
       </c>
       <c r="C86" t="n">
-        <v>1739</v>
+        <v>2000</v>
       </c>
       <c r="D86" t="n">
-        <v>1000</v>
+        <v>1379</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -4039,25 +4039,25 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(TrackedArray([ 0.09768, -0.77675, -0.89777]), TrackedArray([ 1.     , -0.57391, -0.12879]))</t>
+          <t>(TrackedArray([0.13148, 0.0261 , 0.02524]), TrackedArray([0.975  , 0.7382 , 0.23681]))</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1409/m1409.off</t>
+          <t>testModels/refined_db/14/m1410/m1410.off</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>10.26426416104184</v>
+        <v>0.0007134162460313905</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1407453610661661</v>
+        <v>0.127087700274078</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
       <c r="L86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4068,10 +4068,10 @@
         <v>14</v>
       </c>
       <c r="C87" t="n">
-        <v>2000</v>
+        <v>1814</v>
       </c>
       <c r="D87" t="n">
-        <v>1378</v>
+        <v>1000</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -4081,25 +4081,25 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.25664, 0.63281, 0.22438]), TrackedArray([0.69092, 0.99957, 0.33269]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29427, 0.39209]))</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1410/m1410.off</t>
+          <t>testModels/refined_db/14/m1411/m1411.off</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0.8414929108156591</v>
+        <v>2.193328297266475e-05</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01725140037312688</v>
+        <v>0.0939039850931</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
       <c r="L87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4110,10 +4110,10 @@
         <v>14</v>
       </c>
       <c r="C88" t="n">
-        <v>1814</v>
+        <v>2000</v>
       </c>
       <c r="D88" t="n">
-        <v>1000</v>
+        <v>1380</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -4123,25 +4123,25 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.54295, -0.36555, -0.35924]), TrackedArray([1.     , 0.35522, 0.62339]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02644]), TrackedArray([0.97458, 0.2786 , 0.34559]))</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1411/m1411.off</t>
+          <t>testModels/refined_db/14/m1412/m1412.off</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.1246876073091927</v>
+        <v>0.000117486890281362</v>
       </c>
       <c r="J88" t="n">
-        <v>1.801048800524765</v>
+        <v>0.07685519992278263</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
       <c r="L88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4149,13 +4149,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
         <v>2000</v>
       </c>
       <c r="D89" t="n">
-        <v>1365</v>
+        <v>1014</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -4165,25 +4165,25 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(TrackedArray([-2.2805 , -0.64398, -0.91211]), TrackedArray([0.99855, 0.23174, 0.19086]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42768, 0.38091, 0.975  ]))</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>testModels/refined_db/14/m1412/m1412.off</t>
+          <t>testModels/refined_db/15/m1500/m1500.off</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0.5708455413424252</v>
+        <v>0.0001362474221328726</v>
       </c>
       <c r="J89" t="n">
-        <v>3.167204380404589</v>
+        <v>0.1361507547867</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
       <c r="L89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4194,10 +4194,10 @@
         <v>15</v>
       </c>
       <c r="C90" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D90" t="n">
-        <v>1014</v>
+        <v>1069</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -4207,19 +4207,19 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51173, -0.44281, -1.41353]), TrackedArray([0.5113 , 0.46139, 1.     ]))</t>
+          <t>(TrackedArray([0.02704, 0.02554, 0.025  ]), TrackedArray([0.53206, 0.42827, 0.97489]))</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1500/m1500.off</t>
+          <t>testModels/refined_db/15/m1501/m1501.off</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0.0001601138692665851</v>
+        <v>0.0001388210274738878</v>
       </c>
       <c r="J90" t="n">
-        <v>2.232577985287633</v>
+        <v>0.1931969934807433</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D91" t="n">
-        <v>1071</v>
+        <v>1276</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -4249,25 +4249,25 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.72436, -0.7347 , -1.74553]), TrackedArray([0.73492, 0.42903, 0.99968]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.97409, 0.20525, 0.50484]))</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1501/m1501.off</t>
+          <t>testModels/refined_db/15/m1502/m1502.off</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.1150383050786876</v>
+        <v>4.437537130614373e-05</v>
       </c>
       <c r="J91" t="n">
-        <v>4.661942364499862</v>
+        <v>0.08208480723102471</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
       <c r="L91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -4281,7 +4281,7 @@
         <v>1999</v>
       </c>
       <c r="D92" t="n">
-        <v>1277</v>
+        <v>1116</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -4291,19 +4291,19 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.72304, -0.03049, -0.24514]), TrackedArray([0.99834, 0.29643, 0.62515]))</t>
+          <t>(TrackedArray([0.06408, 0.02517, 0.025  ]), TrackedArray([0.975  , 0.21629, 0.20197]))</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1502/m1502.off</t>
+          <t>testModels/refined_db/15/m1503/m1503.off</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0.324478652196189</v>
+        <v>0.0002090430137725759</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4897578313527576</v>
+        <v>0.03081156795887543</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -4320,10 +4320,10 @@
         <v>15</v>
       </c>
       <c r="C93" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D93" t="n">
-        <v>1115</v>
+        <v>1002</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -4333,25 +4333,25 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.44096, -0.1158 , -0.16307]), TrackedArray([1.     , 0.18654, 0.11688]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.45047, 0.21271, 0.975  ]))</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1503/m1503.off</t>
+          <t>testModels/refined_db/15/m1504/m1504.off</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>0.03966103519066289</v>
+        <v>0.000763061452643511</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1219650657749922</v>
+        <v>0.0758695732669</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
       <c r="L93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4362,10 +4362,10 @@
         <v>15</v>
       </c>
       <c r="C94" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="D94" t="n">
-        <v>1003</v>
+        <v>1113</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -4375,25 +4375,25 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.43858, -0.0543 , -0.958  ]), TrackedArray([0.43833, 0.33257, 1.     ]))</t>
+          <t>(TrackedArray([0.02538, 0.02584, 0.025  ]), TrackedArray([0.39093, 0.21041, 0.975  ]))</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1504/m1504.off</t>
+          <t>testModels/refined_db/15/m1505/m1505.off</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0.1061030545498483</v>
+        <v>0.002736953561726457</v>
       </c>
       <c r="J94" t="n">
-        <v>0.664255459156043</v>
+        <v>0.064095136089028</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
       <c r="L94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -4407,7 +4407,7 @@
         <v>1999</v>
       </c>
       <c r="D95" t="n">
-        <v>1109</v>
+        <v>1162</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -4417,19 +4417,19 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.32315, -0.08468, -0.67978]), TrackedArray([0.3232 , 0.24168, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5629 , 0.975  , 0.27664]))</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1505/m1505.off</t>
+          <t>testModels/refined_db/15/m1506/m1506.off</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0.07576329887385913</v>
+        <v>0.002602700666877749</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3543348207509114</v>
+        <v>0.1285923313505</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D96" t="n">
-        <v>1155</v>
+        <v>1079</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -4459,25 +4459,25 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.50618, -6.58178, -2.20529]), TrackedArray([ 1.     , -2.15557, -1.03283]))</t>
+          <t>(TrackedArray([0.025  , 0.02616, 0.025  ]), TrackedArray([0.43774, 0.21308, 0.975  ]))</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1506/m1506.off</t>
+          <t>testModels/refined_db/15/m1507/m1507.off</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>4.462826405724972</v>
+        <v>4.777849663171949e-05</v>
       </c>
       <c r="J96" t="n">
-        <v>13.00591934408392</v>
+        <v>0.07329229889968937</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
       <c r="L96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4491,7 +4491,7 @@
         <v>2000</v>
       </c>
       <c r="D97" t="n">
-        <v>1079</v>
+        <v>554</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -4501,22 +4501,22 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.39699, -0.1212 , -0.82527]), TrackedArray([0.39603, 0.23794, 1.     ]))</t>
+          <t>(TrackedArray([0.02599, 0.025  , 0.02535]), TrackedArray([0.90104, 0.21188, 0.41958]))</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1507/m1507.off</t>
+          <t>testModels/refined_db/15/m1508/m1508.off</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0.01309384056103359</v>
+        <v>0.005582416191257463</v>
       </c>
       <c r="J97" t="n">
-        <v>0.519841040786056</v>
+        <v>0.06446981091001285</v>
       </c>
       <c r="K97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="b">
         <v>0</v>
@@ -4530,10 +4530,10 @@
         <v>15</v>
       </c>
       <c r="C98" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D98" t="n">
-        <v>554</v>
+        <v>1049</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -4543,22 +4543,22 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.98601, -0.04003, -0.6158 ]), TrackedArray([0.84523, 0.35106, 0.2092 ]))</t>
+          <t>(TrackedArray([0.025  , 0.02627, 0.02759]), TrackedArray([0.55257, 0.38334, 0.97432]))</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1508/m1508.off</t>
+          <t>testModels/refined_db/15/m1509/m1509.off</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0.1961771554044218</v>
+        <v>0.0008170746412675125</v>
       </c>
       <c r="J98" t="n">
-        <v>0.5908633695805606</v>
+        <v>0.1783419466244083</v>
       </c>
       <c r="K98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="b">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>2000</v>
       </c>
       <c r="D99" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -4585,19 +4585,19 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.62152, -0.32683, -1.21918]), TrackedArray([0.61087, 0.5145 , 0.99841]))</t>
+          <t>(TrackedArray([0.025  , 0.02542, 0.025  ]), TrackedArray([0.48804, 0.24521, 0.975  ]))</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1509/m1509.off</t>
+          <t>testModels/refined_db/15/m1510/m1510.off</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.08074166315627522</v>
+        <v>0.0001981177273161981</v>
       </c>
       <c r="J99" t="n">
-        <v>2.299295914796277</v>
+        <v>0.09668217581076249</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -4614,10 +4614,10 @@
         <v>15</v>
       </c>
       <c r="C100" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D100" t="n">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -4627,19 +4627,19 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.45707, -0.1318 , -0.86615]), TrackedArray([0.45251, 0.29995, 1.     ]))</t>
+          <t>(TrackedArray([0.025  , 0.02542, 0.02793]), TrackedArray([0.58091, 0.25091, 0.975  ]))</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1510/m1510.off</t>
+          <t>testModels/refined_db/15/m1511/m1511.off</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0.004663123650197178</v>
+        <v>0.002206205841515308</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7328515637819432</v>
+        <v>0.1187194640253922</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -4656,10 +4656,10 @@
         <v>15</v>
       </c>
       <c r="C101" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D101" t="n">
-        <v>1038</v>
+        <v>1303</v>
       </c>
       <c r="E101" t="b">
         <v>1</v>
@@ -4669,25 +4669,25 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.7296 , -0.16169, -1.47266]), TrackedArray([0.7218 , 0.42704, 1.     ]))</t>
+          <t>(TrackedArray([0.02566, 0.02506, 0.08616]), TrackedArray([0.975  , 0.37951, 0.30876]))</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1511/m1511.off</t>
+          <t>testModels/refined_db/15/m1512/m1512.off</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0.01299530797875391</v>
+        <v>0.0002070097858006946</v>
       </c>
       <c r="J101" t="n">
-        <v>2.112863031299252</v>
+        <v>0.0749049882704972</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
       <c r="L101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -4695,13 +4695,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D102" t="n">
-        <v>1294</v>
+        <v>1000</v>
       </c>
       <c r="E102" t="b">
         <v>1</v>
@@ -4711,25 +4711,25 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.16558, -0.3162 , -0.0927 ]), TrackedArray([1.     , 0.49232, 0.41241]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.44467, 0.975  , 0.44465]))</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>testModels/refined_db/15/m1512/m1512.off</t>
+          <t>testModels/refined_db/16/m1600/m1600.off</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0.1284216042194491</v>
+        <v>9.439483501531951e-05</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8844093190644509</v>
+        <v>0.16730878970505</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
       <c r="L102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4740,10 +4740,10 @@
         <v>16</v>
       </c>
       <c r="C103" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D103" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E103" t="b">
         <v>1</v>
@@ -4753,19 +4753,19 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.34439, -0.55852, -0.34407]), TrackedArray([0.3441 , 1.     , 0.34438]))</t>
+          <t>(TrackedArray([0.02515, 0.025  , 0.02547]), TrackedArray([0.55444, 0.975  , 0.55466]))</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1600/m1600.off</t>
+          <t>testModels/refined_db/16/m1601/m1601.off</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>5.555083706974991e-11</v>
+        <v>0.002578564223150819</v>
       </c>
       <c r="J103" t="n">
-        <v>0.7387317620472658</v>
+        <v>0.2660882782253305</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -4795,19 +4795,19 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.39736, -0.42226, -0.39674]), TrackedArray([0.39504, 1.     , 0.39552]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40504, 0.975  , 0.40504]))</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1601/m1601.off</t>
+          <t>testModels/refined_db/16/m1602/m1602.off</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0.001272838531599622</v>
+        <v>0.008580857115677729</v>
       </c>
       <c r="J104" t="n">
-        <v>0.8928738812942658</v>
+        <v>0.1372117698392</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>16</v>
       </c>
       <c r="C105" t="n">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="D105" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E105" t="b">
         <v>1</v>
@@ -4837,19 +4837,19 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -1.00154, -55.95204,  -1.00281]), TrackedArray([  1.     , -50.94878,   0.99873]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38436, 0.975  , 0.38436]))</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1602/m1602.off</t>
+          <t>testModels/refined_db/16/m1603/m1603.off</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>31713.12584531875</v>
+        <v>3.853955313552502e-05</v>
       </c>
       <c r="J105" t="n">
-        <v>20.04380462926672</v>
+        <v>0.12268194633695</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="n">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="D106" t="n">
         <v>1000</v>
@@ -4879,19 +4879,19 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.29956, -0.58328, -0.29897]), TrackedArray([0.29935, 1.     , 0.29994]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41408, 0.975  , 0.41408]))</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1603/m1603.off</t>
+          <t>testModels/refined_db/16/m1604/m1604.off</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>8.821362534576683e-05</v>
+        <v>1.274828048049146e-05</v>
       </c>
       <c r="J106" t="n">
-        <v>0.5679196817602624</v>
+        <v>0.14381334482895</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D107" t="n">
         <v>1000</v>
@@ -4921,19 +4921,19 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.3207 , -0.56479, -0.32868]), TrackedArray([0.32017, 1.     , 0.31219]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65833, 0.975  , 0.65833]))</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1604/m1604.off</t>
+          <t>testModels/refined_db/16/m1605/m1605.off</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>8.387209573154196e-06</v>
+        <v>0.0003784436554312623</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6426843909022848</v>
+        <v>0.3810551544445499</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -4950,10 +4950,10 @@
         <v>16</v>
       </c>
       <c r="C108" t="n">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="D108" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E108" t="b">
         <v>1</v>
@@ -4963,19 +4963,19 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.48603, -0.4582 , -0.50811]), TrackedArray([0.4861 , 1.     , 0.46402]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62958, 0.975  , 0.62256]))</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1605/m1605.off</t>
+          <t>testModels/refined_db/16/m1606/m1606.off</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0.1662974862166074</v>
+        <v>0.0001938189799029178</v>
       </c>
       <c r="J108" t="n">
-        <v>1.378064445523765</v>
+        <v>0.3432074538341999</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="D109" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E109" t="b">
         <v>1</v>
@@ -5005,19 +5005,19 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.49868, -0.46878, -0.46543]), TrackedArray([0.43606, 1.     , 0.45844]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.51879, 0.975  , 0.51879]))</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1606/m1606.off</t>
+          <t>testModels/refined_db/16/m1607/m1607.off</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.006617485714300628</v>
+        <v>0.001863367174068295</v>
       </c>
       <c r="J109" t="n">
-        <v>1.268406154537663</v>
+        <v>0.2316390123008</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
@@ -5047,19 +5047,19 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -1.01566, -39.14144,  -1.02452]), TrackedArray([  1.     , -35.26353,   0.99114]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.825, 0.975, 0.825]))</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1607/m1607.off</t>
+          <t>testModels/refined_db/16/m1608/m1608.off</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>18011.00689233719</v>
+        <v>0.0006723467433310803</v>
       </c>
       <c r="J110" t="n">
-        <v>15.75553388408365</v>
+        <v>0.6079999999999999</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -5089,19 +5089,19 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.76074, -0.80675, -0.76074]), TrackedArray([0.76074, 1.     , 0.76074]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.52637, 0.975  , 0.52637]))</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1608/m1608.off</t>
+          <t>testModels/refined_db/16/m1609/m1609.off</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1.78664283789381e-11</v>
+        <v>0.0005535211715929728</v>
       </c>
       <c r="J111" t="n">
-        <v>4.182391772902756</v>
+        <v>0.23880042525455</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -5118,10 +5118,10 @@
         <v>16</v>
       </c>
       <c r="C112" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D112" t="n">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="E112" t="b">
         <v>1</v>
@@ -5131,19 +5131,19 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.40637, -0.53998, -0.40637]), TrackedArray([0.40637, 1.     , 0.40637]))</t>
+          <t>(TrackedArray([0.02755, 0.025  , 0.02579]), TrackedArray([0.64483, 0.97377, 0.64485]))</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1609/m1609.off</t>
+          <t>testModels/refined_db/16/m1610/m1610.off</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3.729987138531526e-12</v>
+        <v>0.002347549363785614</v>
       </c>
       <c r="J112" t="n">
-        <v>1.017204519830082</v>
+        <v>0.3625587841525305</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
@@ -5160,10 +5160,10 @@
         <v>16</v>
       </c>
       <c r="C113" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D113" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -5173,19 +5173,19 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.49801, -0.53629, -0.50059]), TrackedArray([0.50011, 0.99802, 0.5004 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.51206, 0.51206]))</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1610/m1610.off</t>
+          <t>testModels/refined_db/16/m1611/m1611.off</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0.003122382270483629</v>
+        <v>0.01221719617312509</v>
       </c>
       <c r="J113" t="n">
-        <v>1.532940115968419</v>
+        <v>0.22536144437375</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E114" t="b">
         <v>1</v>
@@ -5215,19 +5215,19 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.61386, -0.67005, -0.67005]), TrackedArray([1.     , 0.67005, 0.67005]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42415, 0.975  , 0.42415]))</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1611/m1611.off</t>
+          <t>testModels/refined_db/16/m1612/m1612.off</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.0008055151610994139</v>
+        <v>0.0009737015829369376</v>
       </c>
       <c r="J114" t="n">
-        <v>4.69411018515475</v>
+        <v>0.1513558239525</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
@@ -5241,13 +5241,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C115" t="n">
         <v>2000</v>
       </c>
       <c r="D115" t="n">
-        <v>994</v>
+        <v>1082</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -5257,19 +5257,19 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -1.00018, -21.66532,  -1.00002]), TrackedArray([  0.99983, -16.90519,   1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.65212, 0.67346]))</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>testModels/refined_db/16/m1612/m1612.off</t>
+          <t>testModels/refined_db/17/m1700/m1700.off</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2477.107933684657</v>
+        <v>0.0002595797743515228</v>
       </c>
       <c r="J115" t="n">
-        <v>19.04078560914489</v>
+        <v>0.38632799271675</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         <v>17</v>
       </c>
       <c r="C116" t="n">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D116" t="n">
-        <v>1082</v>
+        <v>1000</v>
       </c>
       <c r="E116" t="b">
         <v>1</v>
@@ -5299,19 +5299,19 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.66695,  0.12521, -0.462  ]), TrackedArray([0.65823, 1.     , 0.44255]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.67155, 0.51296]))</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1700/m1700.off</t>
+          <t>testModels/refined_db/17/m1701/m1701.off</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0.000352687258781255</v>
+        <v>0.0003256482532381133</v>
       </c>
       <c r="J116" t="n">
-        <v>1.048592044636912</v>
+        <v>0.2997184795742999</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>17</v>
       </c>
       <c r="C117" t="n">
-        <v>1990</v>
+        <v>1924</v>
       </c>
       <c r="D117" t="n">
         <v>1000</v>
@@ -5341,19 +5341,19 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.00001, -1.10764, -0.51365]), TrackedArray([1.     , 0.25353, 0.51364]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.62052, 0.51775]))</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1701/m1701.off</t>
+          <t>testModels/refined_db/17/m1702/m1702.off</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0.4709405966564074</v>
+        <v>2.588757236525528e-05</v>
       </c>
       <c r="J117" t="n">
-        <v>2.796644208781574</v>
+        <v>0.2787690292414</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>17</v>
       </c>
       <c r="C118" t="n">
-        <v>1924</v>
+        <v>1964</v>
       </c>
       <c r="D118" t="n">
         <v>1000</v>
@@ -5383,19 +5383,19 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.     , -0.6143 , -0.50051]), TrackedArray([1.     , 0.63943, 0.53685]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.747  , 0.92806, 0.975  ]))</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1702/m1702.off</t>
+          <t>testModels/refined_db/17/m1703/m1703.off</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0.01990833193278979</v>
+        <v>0.0002290956153548778</v>
       </c>
       <c r="J118" t="n">
-        <v>2.601141352109059</v>
+        <v>0.6194081680999999</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
@@ -5412,10 +5412,10 @@
         <v>17</v>
       </c>
       <c r="C119" t="n">
-        <v>1964</v>
+        <v>2000</v>
       </c>
       <c r="D119" t="n">
-        <v>1000</v>
+        <v>1134</v>
       </c>
       <c r="E119" t="b">
         <v>1</v>
@@ -5425,25 +5425,25 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.64401, -0.76677, -0.94821]), TrackedArray([0.76853, 1.     , 0.91039]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84983, 0.975  , 0.72195]))</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1703/m1703.off</t>
+          <t>testModels/refined_db/17/m1704/m1704.off</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1.345629511023226e-10</v>
+        <v>0.001421575442965421</v>
       </c>
       <c r="J119" t="n">
-        <v>4.638380991628401</v>
+        <v>0.5461226671774999</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
       <c r="L119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5454,10 +5454,10 @@
         <v>17</v>
       </c>
       <c r="C120" t="n">
-        <v>2000</v>
+        <v>1976</v>
       </c>
       <c r="D120" t="n">
-        <v>1134</v>
+        <v>1000</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -5467,25 +5467,25 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.63463, -0.49588, -0.53324]), TrackedArray([0.66416, 1.     , 0.56419]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55562, 0.975  , 0.07764]))</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1704/m1704.off</t>
+          <t>testModels/refined_db/17/m1705/m1705.off</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0.03051963776296266</v>
+        <v>0.002820113843535704</v>
       </c>
       <c r="J120" t="n">
-        <v>2.132121965926196</v>
+        <v>0.02653413475437499</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
       <c r="L120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5496,7 +5496,7 @@
         <v>17</v>
       </c>
       <c r="C121" t="n">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="D121" t="n">
         <v>1000</v>
@@ -5509,19 +5509,19 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.55964, -1.00245, -0.01012]), TrackedArray([0.55883, 1.     , 0.10083]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5    , 0.975  , 0.05667]))</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1705/m1705.off</t>
+          <t>testModels/refined_db/17/m1706/m1706.off</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>3.45034931414389e-11</v>
+        <v>5.857766921831757e-05</v>
       </c>
       <c r="J121" t="n">
-        <v>0.2484958310541458</v>
+        <v>0.014289598375</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>17</v>
       </c>
       <c r="C122" t="n">
-        <v>1967</v>
+        <v>1982</v>
       </c>
       <c r="D122" t="n">
         <v>1000</v>
@@ -5551,19 +5551,19 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.00548,  0.01979,  0.98402]), TrackedArray([0.2343 , 0.49934, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.54525, 0.975  , 0.28195]))</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1706/m1706.off</t>
+          <t>testModels/refined_db/17/m1707/m1707.off</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>6998.859974428265</v>
+        <v>1.42993296264344e-05</v>
       </c>
       <c r="J122" t="n">
-        <v>0.00183801146697846</v>
+        <v>0.12699258673075</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>17</v>
       </c>
       <c r="C123" t="n">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="D123" t="n">
         <v>1000</v>
@@ -5593,19 +5593,19 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.08076,  0.29022,  0.91476]), TrackedArray([0.09184, 0.6054 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.56786, 0.975  , 0.05214]))</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1707/m1707.off</t>
+          <t>testModels/refined_db/17/m1708/m1708.off</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>849.6322966997764</v>
+        <v>0.0001095037987462303</v>
       </c>
       <c r="J123" t="n">
-        <v>0.004637265311898609</v>
+        <v>0.01399797760203499</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>17</v>
       </c>
       <c r="C124" t="n">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D124" t="n">
         <v>1000</v>
@@ -5635,19 +5635,19 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47909, -0.83907, -0.19601]), TrackedArray([ 0.5718 ,  1.     , -0.14346]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.03732, 0.975  , 0.52805]))</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1708/m1708.off</t>
+          <t>testModels/refined_db/17/m1709/m1709.off</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>15.76770583610739</v>
+        <v>0.000290587587511644</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1015516880946896</v>
+        <v>0.005889478087669998</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
@@ -5664,10 +5664,10 @@
         <v>17</v>
       </c>
       <c r="C125" t="n">
-        <v>1982</v>
+        <v>1946</v>
       </c>
       <c r="D125" t="n">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
@@ -5677,19 +5677,19 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.00904, 0.02574, 0.04215]), TrackedArray([0.02168, 1.     , 0.55804]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.54442, 0.975  , 0.12   ]))</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1709/m1709.off</t>
+          <t>testModels/refined_db/17/m1710/m1710.off</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0.03774846851668721</v>
+        <v>8.404519034926232e-06</v>
       </c>
       <c r="J125" t="n">
-        <v>0.006352363148023584</v>
+        <v>0.0468769388463</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -5706,10 +5706,10 @@
         <v>17</v>
       </c>
       <c r="C126" t="n">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="D126" t="n">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="E126" t="b">
         <v>1</v>
@@ -5719,19 +5719,19 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.5487 , -0.97625, -0.09871]), TrackedArray([0.53184, 1.     , 0.09891]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.32038, 0.975  , 0.10412]))</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1710/m1710.off</t>
+          <t>testModels/refined_db/17/m1711/m1711.off</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1.165481274281778e-10</v>
+        <v>0.001137275236758443</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4220007196009958</v>
+        <v>0.022203345375</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -5748,10 +5748,10 @@
         <v>17</v>
       </c>
       <c r="C127" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D127" t="n">
-        <v>974</v>
+        <v>990</v>
       </c>
       <c r="E127" t="b">
         <v>1</v>
@@ -5761,19 +5761,19 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.31801, -1.06701, -0.11127]), TrackedArray([0.32468, 1.     , 0.06089]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47673, 0.975  , 0.08917]))</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1711/m1711.off</t>
+          <t>testModels/refined_db/17/m1712/m1712.off</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>9.367622453876907e-11</v>
+        <v>0.003204769759372565</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2287047460641021</v>
+        <v>0.0275369728818</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
@@ -5787,13 +5787,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C128" t="n">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D128" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="E128" t="b">
         <v>1</v>
@@ -5803,19 +5803,19 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47629, -1.00425, -0.06666]), TrackedArray([0.47675, 1.     , 0.06872]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.8712 , 0.65191]))</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>testModels/refined_db/17/m1712/m1712.off</t>
+          <t>testModels/refined_db/18/m1800/m1800.off</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1.327807946036177e-07</v>
+        <v>0.0007225758261929412</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2585839864427651</v>
+        <v>0.5039622732186</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -5832,10 +5832,10 @@
         <v>18</v>
       </c>
       <c r="C129" t="n">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="D129" t="n">
-        <v>1000</v>
+        <v>1123</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -5845,25 +5845,25 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.8886 , -0.53383, -0.20118]), TrackedArray([0.83338, 1.     , 0.93516]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.78085, 0.83819]))</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1800/m1800.off</t>
+          <t>testModels/refined_db/18/m1801/m1801.off</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>3.140044639255474e-10</v>
+        <v>0.0003167345196984919</v>
       </c>
       <c r="J129" t="n">
-        <v>3.001352215659553</v>
+        <v>0.5839181688284999</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
       </c>
       <c r="L129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -5874,10 +5874,10 @@
         <v>18</v>
       </c>
       <c r="C130" t="n">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="D130" t="n">
-        <v>1123</v>
+        <v>1000</v>
       </c>
       <c r="E130" t="b">
         <v>1</v>
@@ -5887,25 +5887,25 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.81036, -1.77197, -0.60462]), TrackedArray([ 1.     , -0.33158,  0.94502]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.90526, 0.44575]))</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1801/m1801.off</t>
+          <t>testModels/refined_db/18/m1802/m1802.off</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0.8519915193896778</v>
+        <v>0.0004077507440233057</v>
       </c>
       <c r="J130" t="n">
-        <v>4.040886897764464</v>
+        <v>0.3518480536242</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
       </c>
       <c r="L130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5916,7 +5916,7 @@
         <v>18</v>
       </c>
       <c r="C131" t="n">
-        <v>1978</v>
+        <v>1869</v>
       </c>
       <c r="D131" t="n">
         <v>1000</v>
@@ -5929,19 +5929,19 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65772, -0.19127, -0.22731]), TrackedArray([0.62794, 1.     , 0.3421 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73553, 0.975  , 0.85395]))</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1802/m1802.off</t>
+          <t>testModels/refined_db/18/m1803/m1803.off</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0.1828500989661385</v>
+        <v>0.0007215191531999146</v>
       </c>
       <c r="J131" t="n">
-        <v>0.8720867421164759</v>
+        <v>0.5595389763159</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>18</v>
       </c>
       <c r="C132" t="n">
-        <v>1869</v>
+        <v>1978</v>
       </c>
       <c r="D132" t="n">
         <v>1000</v>
@@ -5971,19 +5971,19 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.91155, -7.40723, -4.82125]), TrackedArray([ 1.     , -4.85141, -2.5911 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70752, 0.975  , 0.48476]))</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1803/m1803.off</t>
+          <t>testModels/refined_db/18/m1804/m1804.off</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>284.3539077996795</v>
+        <v>7.215956106538072e-05</v>
       </c>
       <c r="J132" t="n">
-        <v>10.8955539776153</v>
+        <v>0.2981086693236</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -6000,10 +6000,10 @@
         <v>18</v>
       </c>
       <c r="C133" t="n">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="D133" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="E133" t="b">
         <v>1</v>
@@ -6013,25 +6013,25 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47854, -0.74431, -0.40827]), TrackedArray([0.77465, 1.     , 0.43591]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48994, 0.975  , 0.60072]))</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1804/m1804.off</t>
+          <t>testModels/refined_db/18/m1805/m1805.off</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0.01973001011205744</v>
+        <v>0.05585142169507501</v>
       </c>
       <c r="J133" t="n">
-        <v>1.845329499468252</v>
+        <v>0.25429138871805</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
       </c>
       <c r="L133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -6042,10 +6042,10 @@
         <v>18</v>
       </c>
       <c r="C134" t="n">
-        <v>1999</v>
+        <v>1904</v>
       </c>
       <c r="D134" t="n">
-        <v>1110</v>
+        <v>1000</v>
       </c>
       <c r="E134" t="b">
         <v>1</v>
@@ -6055,25 +6055,25 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.23259, -0.01892, -0.17723]), TrackedArray([0.26608, 1.     , 0.44026]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84519, 0.975  , 0.4957 ]))</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1805/m1805.off</t>
+          <t>testModels/refined_db/18/m1806/m1806.off</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0.07057429420942679</v>
+        <v>0.002827437226209654</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3137506741324627</v>
+        <v>0.3667566974668</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
       </c>
       <c r="L134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -6084,10 +6084,10 @@
         <v>18</v>
       </c>
       <c r="C135" t="n">
-        <v>1904</v>
+        <v>2000</v>
       </c>
       <c r="D135" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="E135" t="b">
         <v>1</v>
@@ -6097,19 +6097,19 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.59812, -0.82918, -0.34898]), TrackedArray([0.98112, 1.     , 0.55733]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02507]), TrackedArray([0.97499, 0.29545, 0.78001]))</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1806/m1806.off</t>
+          <t>testModels/refined_db/18/m1807/m1807.off</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>3.253759110133531</v>
+        <v>0.0002050879109151642</v>
       </c>
       <c r="J135" t="n">
-        <v>2.618049991033226</v>
+        <v>0.1939622290898825</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>2000</v>
       </c>
       <c r="D136" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E136" t="b">
         <v>1</v>
@@ -6139,19 +6139,19 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.21139, -0.2426 , -0.78227]), TrackedArray([0.99999, 0.38694, 0.97508]))</t>
+          <t>(TrackedArray([0.0253 , 0.025  , 0.02641]), TrackedArray([0.75965, 0.97467, 0.89351]))</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1807/m1807.off</t>
+          <t>testModels/refined_db/18/m1808/m1808.off</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0.0007917619868076598</v>
+        <v>0.0002804006306083219</v>
       </c>
       <c r="J136" t="n">
-        <v>2.44652941756977</v>
+        <v>0.6047076643583081</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -6168,10 +6168,10 @@
         <v>18</v>
       </c>
       <c r="C137" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D137" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E137" t="b">
         <v>1</v>
@@ -6181,19 +6181,19 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65977, -0.70769, -0.7038 ]), TrackedArray([0.66028, 0.99941, 0.85486]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.43987, 0.74236]))</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1808/m1808.off</t>
+          <t>testModels/refined_db/18/m1809/m1809.off</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0.0004703952873779004</v>
+        <v>6.62367552083392e-05</v>
       </c>
       <c r="J137" t="n">
-        <v>3.512360504971698</v>
+        <v>0.2827346647726125</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         <v>18</v>
       </c>
       <c r="C138" t="n">
-        <v>2000</v>
+        <v>1726</v>
       </c>
       <c r="D138" t="n">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="E138" t="b">
         <v>1</v>
@@ -6223,19 +6223,19 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99926, -0.28604, -0.54402]), TrackedArray([1.     , 0.58705, 0.96566]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.41852, 0.64447]))</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1809/m1809.off</t>
+          <t>testModels/refined_db/18/m1810/m1810.off</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>0.002589687772491334</v>
+        <v>0.003807553361538634</v>
       </c>
       <c r="J138" t="n">
-        <v>2.635214799805866</v>
+        <v>0.231584768836</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>18</v>
       </c>
       <c r="C139" t="n">
-        <v>1726</v>
+        <v>2452</v>
       </c>
       <c r="D139" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="E139" t="b">
         <v>1</v>
@@ -6265,22 +6265,22 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.7588 ,  0.37323, -0.53589]), TrackedArray([0.75428, 1.     , 0.45075]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81967, 0.975  , 0.76731]))</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1810/m1810.off</t>
+          <t>testModels/refined_db/18/m1811/m1811.off</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1.676267268938318</v>
+        <v>0.04134317872577265</v>
       </c>
       <c r="J139" t="n">
-        <v>0.9356723876207576</v>
+        <v>0.5604020983959999</v>
       </c>
       <c r="K139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="b">
         <v>0</v>
@@ -6294,10 +6294,10 @@
         <v>18</v>
       </c>
       <c r="C140" t="n">
-        <v>2452</v>
+        <v>1968</v>
       </c>
       <c r="D140" t="n">
-        <v>730</v>
+        <v>1000</v>
       </c>
       <c r="E140" t="b">
         <v>1</v>
@@ -6307,22 +6307,22 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99999, -2.35177, -2.55444]), TrackedArray([ 1.     ,  0.03914, -0.68622]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.51789, 0.975  , 0.23201]))</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1811/m1811.off</t>
+          <t>testModels/refined_db/18/m1812/m1812.off</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1.881775416429933</v>
+        <v>0.003457919933838735</v>
       </c>
       <c r="J140" t="n">
-        <v>8.93349735056135</v>
+        <v>0.09693337393699998</v>
       </c>
       <c r="K140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L140" t="b">
         <v>0</v>
@@ -6336,7 +6336,7 @@
         <v>18</v>
       </c>
       <c r="C141" t="n">
-        <v>1968</v>
+        <v>1926</v>
       </c>
       <c r="D141" t="n">
         <v>1000</v>
@@ -6349,19 +6349,19 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.36479, -1.31479,  0.7072 ]), TrackedArray([0.33234, 0.02887, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69061, 0.975  , 0.90844]))</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1812/m1812.off</t>
+          <t>testModels/refined_db/18/m1813/m1813.off</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>10.7414491866766</v>
+        <v>0.001776032701170532</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2742661825850731</v>
+        <v>0.55862034481525</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>18</v>
       </c>
       <c r="C142" t="n">
-        <v>1926</v>
+        <v>1756</v>
       </c>
       <c r="D142" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="E142" t="b">
         <v>1</v>
@@ -6391,19 +6391,19 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.20755, -0.08039,  0.44908]), TrackedArray([0.20752, 0.51204, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8151, 0.975 , 0.975 ]))</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1813/m1813.off</t>
+          <t>testModels/refined_db/18/m1814/m1814.off</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>2.481062892405505</v>
+        <v>0.0001896231235768128</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1354714538271364</v>
+        <v>0.7130584857292499</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
@@ -6417,13 +6417,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>1756</v>
+        <v>1999</v>
       </c>
       <c r="D143" t="n">
-        <v>944</v>
+        <v>1045</v>
       </c>
       <c r="E143" t="b">
         <v>1</v>
@@ -6433,19 +6433,19 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.34883, -0.73576, -0.84747]), TrackedArray([1.     , 0.88606, 0.77434]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.33925, 0.23597, 0.975  ]))</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>testModels/refined_db/18/m1814/m1814.off</t>
+          <t>testModels/refined_db/2/m200/m200.off</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0.04808067437264492</v>
+        <v>0.0002837317748171907</v>
       </c>
       <c r="J143" t="n">
-        <v>3.547783286870807</v>
+        <v>0.0629806609719</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
@@ -6465,7 +6465,7 @@
         <v>2000</v>
       </c>
       <c r="D144" t="n">
-        <v>1046</v>
+        <v>1001</v>
       </c>
       <c r="E144" t="b">
         <v>1</v>
@@ -6475,19 +6475,19 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21864, -0.17003, -0.08367]), TrackedArray([0.13982, 0.07062, 1.     ]))</t>
+          <t>(TrackedArray([0.02628, 0.02705, 0.02548]), TrackedArray([0.63678, 0.25394, 0.97375]))</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m200/m200.off</t>
+          <t>testModels/refined_db/2/m201/m201.off</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0.01724875603368832</v>
+        <v>0.000939762173212977</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09348135453546927</v>
+        <v>0.1313481068883787</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -6504,10 +6504,10 @@
         <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>2000</v>
+        <v>1932</v>
       </c>
       <c r="D145" t="n">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E145" t="b">
         <v>1</v>
@@ -6517,19 +6517,19 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.48541, -0.17342, -0.5191 ]), TrackedArray([0.49129, 0.18957, 0.998  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.29562, 0.975  , 0.22571]))</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m201/m201.off</t>
+          <t>testModels/refined_db/2/m202/m202.off</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0.003682337503360668</v>
+        <v>0.0006072481049821962</v>
       </c>
       <c r="J145" t="n">
-        <v>0.5378560159939945</v>
+        <v>0.0516014193972</v>
       </c>
       <c r="K145" t="b">
         <v>0</v>
@@ -6546,7 +6546,7 @@
         <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>1932</v>
+        <v>1984</v>
       </c>
       <c r="D146" t="n">
         <v>1000</v>
@@ -6559,19 +6559,19 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30679, -1.15395, -0.15139]), TrackedArray([0.30679, 1.     , 0.30369]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34261, 0.975  , 0.23433]))</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m202/m202.off</t>
+          <t>testModels/refined_db/2/m203/m203.off</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>8.374998515193879e-11</v>
+        <v>0.001653070593139881</v>
       </c>
       <c r="J146" t="n">
-        <v>0.601451463627709</v>
+        <v>0.06315912987</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
@@ -6588,10 +6588,10 @@
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>1984</v>
+        <v>2000</v>
       </c>
       <c r="D147" t="n">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="E147" t="b">
         <v>1</v>
@@ -6601,19 +6601,19 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.28851, -0.69602, -0.17461]), TrackedArray([0.27851, 1.     , 0.19909]))</t>
+          <t>(TrackedArray([0.025  , 0.02532, 0.025  ]), TrackedArray([0.34076, 0.975  , 0.35374]))</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m203/m203.off</t>
+          <t>testModels/refined_db/2/m204/m204.off</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>1.721689919095733e-11</v>
+        <v>0.00396861225089334</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3593812351092659</v>
+        <v>0.09857900194311661</v>
       </c>
       <c r="K147" t="b">
         <v>0</v>
@@ -6630,10 +6630,10 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>1997</v>
+        <v>1918</v>
       </c>
       <c r="D148" t="n">
-        <v>1027</v>
+        <v>1000</v>
       </c>
       <c r="E148" t="b">
         <v>1</v>
@@ -6643,19 +6643,19 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.34203, -1.0521 , -0.18666]), TrackedArray([0.3402 , 1.     , 0.52362]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38362, 0.975  , 0.23181]))</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m204/m204.off</t>
+          <t>testModels/refined_db/2/m205/m205.off</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>3.399039843690321e-05</v>
+        <v>2.670555781424664e-05</v>
       </c>
       <c r="J148" t="n">
-        <v>0.9944083190272276</v>
+        <v>0.070458809638</v>
       </c>
       <c r="K148" t="b">
         <v>0</v>
@@ -6672,10 +6672,10 @@
         <v>2</v>
       </c>
       <c r="C149" t="n">
-        <v>1918</v>
+        <v>1997</v>
       </c>
       <c r="D149" t="n">
-        <v>1000</v>
+        <v>1107</v>
       </c>
       <c r="E149" t="b">
         <v>1</v>
@@ -6685,25 +6685,25 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.42377, -1.25682, -0.21617]), TrackedArray([0.42816, 1.     , 0.27514]))</t>
+          <t>(TrackedArray([0.02513, 0.02568, 0.025  ]), TrackedArray([0.28338, 0.26072, 0.975  ]))</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m205/m205.off</t>
+          <t>testModels/refined_db/2/m206/m206.off</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>4.644144344941358e-11</v>
+        <v>0.0003548928812371215</v>
       </c>
       <c r="J149" t="n">
-        <v>0.9446186700973176</v>
+        <v>0.0576650118421395</v>
       </c>
       <c r="K149" t="b">
         <v>0</v>
       </c>
       <c r="L149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -6714,10 +6714,10 @@
         <v>2</v>
       </c>
       <c r="C150" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D150" t="n">
-        <v>1105</v>
+        <v>1150</v>
       </c>
       <c r="E150" t="b">
         <v>1</v>
@@ -6727,19 +6727,19 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65672, -0.72563, -3.54295]), TrackedArray([0.57825, 0.39835, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35405, 0.975  , 0.30667]))</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m206/m206.off</t>
+          <t>testModels/refined_db/2/m207/m207.off</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0.6882526872049451</v>
+        <v>5.349485371259765e-05</v>
       </c>
       <c r="J150" t="n">
-        <v>6.306022763586982</v>
+        <v>0.08805000679124998</v>
       </c>
       <c r="K150" t="b">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>2</v>
       </c>
       <c r="C151" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D151" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="E151" t="b">
         <v>1</v>
@@ -6769,25 +6769,25 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.86807, -3.51277, -0.34422]), TrackedArray([0.69502, 1.     , 0.99379]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.36873, 0.975  , 0.17902]))</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m207/m207.off</t>
+          <t>testModels/refined_db/2/m208/m208.off</t>
         </is>
       </c>
       <c r="I151" t="n">
-        <v>0.8017285966053207</v>
+        <v>0.0003140748820751251</v>
       </c>
       <c r="J151" t="n">
-        <v>9.438205770423384</v>
+        <v>0.0502958286896</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
       </c>
       <c r="L151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -6798,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="C152" t="n">
-        <v>1996</v>
+        <v>2462</v>
       </c>
       <c r="D152" t="n">
         <v>1000</v>
@@ -6811,19 +6811,19 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.42647, -1.36021, -0.16363]), TrackedArray([0.42751, 1.     , 0.21904]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38194, 0.975  , 0.31104]))</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m208/m208.off</t>
+          <t>testModels/refined_db/2/m209/m209.off</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>2.256794856545459e-11</v>
+        <v>0.01624755330297743</v>
       </c>
       <c r="J152" t="n">
-        <v>0.771277955453208</v>
+        <v>0.09699395964644997</v>
       </c>
       <c r="K152" t="b">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="C153" t="n">
-        <v>2462</v>
+        <v>1984</v>
       </c>
       <c r="D153" t="n">
         <v>1000</v>
@@ -6853,19 +6853,19 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.60283, -2.01072, -0.47397]), TrackedArray([0.52838, 1.     , 0.43253]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62253, 0.975  , 0.59893]))</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m209/m209.off</t>
+          <t>testModels/refined_db/2/m210/m210.off</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>1.213194838343404e-10</v>
+        <v>0.0008127520156074057</v>
       </c>
       <c r="J153" t="n">
-        <v>3.087356824273795</v>
+        <v>0.3257943964477499</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
@@ -6882,10 +6882,10 @@
         <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>1984</v>
+        <v>1999</v>
       </c>
       <c r="D154" t="n">
-        <v>1000</v>
+        <v>973</v>
       </c>
       <c r="E154" t="b">
         <v>1</v>
@@ -6895,19 +6895,19 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.67142, -1.2814 , -0.37376]), TrackedArray([0.75885, 0.99254, 1.     ]))</t>
+          <t>(TrackedArray([0.02597, 0.02534, 0.025  ]), TrackedArray([0.33997, 0.975  , 0.22678]))</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m210/m210.off</t>
+          <t>testModels/refined_db/2/m211/m211.off</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>1.713524876278013e-11</v>
+        <v>0.000148417752121326</v>
       </c>
       <c r="J154" t="n">
-        <v>4.467958419841209</v>
+        <v>0.06016784844962889</v>
       </c>
       <c r="K154" t="b">
         <v>0</v>
@@ -6924,10 +6924,10 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D155" t="n">
-        <v>973</v>
+        <v>1002</v>
       </c>
       <c r="E155" t="b">
         <v>1</v>
@@ -6937,19 +6937,19 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.36463, -1.20047, -0.22027]), TrackedArray([0.36294, 1.     , 0.24727]))</t>
+          <t>(TrackedArray([0.02525, 0.025  , 0.025  ]), TrackedArray([0.55587, 0.975  , 0.18318]))</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m211/m211.off</t>
+          <t>testModels/refined_db/2/m212/m212.off</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0.03701297429058532</v>
+        <v>0.000192326725852214</v>
       </c>
       <c r="J155" t="n">
-        <v>0.748527917579661</v>
+        <v>0.07973589433900749</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
@@ -6963,13 +6963,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>2000</v>
+        <v>1876</v>
       </c>
       <c r="D156" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E156" t="b">
         <v>1</v>
@@ -6979,19 +6979,19 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.58054, -1.10662, -0.17335]), TrackedArray([0.59612, 1.     , 0.17741]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.33993]), TrackedArray([0.6431 , 0.7627 , 0.93675]))</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>testModels/refined_db/2/m212/m212.off</t>
+          <t>testModels/refined_db/3/m300/m300.off</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>2.375901933814572e-05</v>
+        <v>0.0001202384744380356</v>
       </c>
       <c r="J156" t="n">
-        <v>0.8694474039717499</v>
+        <v>0.272133783058827</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
@@ -7008,10 +7008,10 @@
         <v>3</v>
       </c>
       <c r="C157" t="n">
-        <v>1876</v>
+        <v>1999</v>
       </c>
       <c r="D157" t="n">
-        <v>1000</v>
+        <v>1093</v>
       </c>
       <c r="E157" t="b">
         <v>1</v>
@@ -7021,19 +7021,19 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.46209, -0.08441, -1.30361]), TrackedArray([ 0.4465,  1.    , -0.4263]))</t>
+          <t>(TrackedArray([0.02525, 0.03264, 0.0261 ]), TrackedArray([0.75382, 0.97081, 0.63105]))</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m300/m300.off</t>
+          <t>testModels/refined_db/3/m301/m301.off</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>0.6225928340435811</v>
+        <v>0.001048168744597838</v>
       </c>
       <c r="J157" t="n">
-        <v>0.8644045670428804</v>
+        <v>0.4134992908987142</v>
       </c>
       <c r="K157" t="b">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>1999</v>
       </c>
       <c r="D158" t="n">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E158" t="b">
         <v>1</v>
@@ -7063,19 +7063,19 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.04177, -0.04693,  0.56357]), TrackedArray([0.48246, 0.62985, 0.9982 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.80541, 0.975  , 0.62967]))</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m301/m301.off</t>
+          <t>testModels/refined_db/3/m302/m302.off</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>3.901618425476664</v>
+        <v>0.0005407938724259463</v>
       </c>
       <c r="J158" t="n">
-        <v>0.15420087405965</v>
+        <v>0.4483006778439</v>
       </c>
       <c r="K158" t="b">
         <v>0</v>
@@ -7095,7 +7095,7 @@
         <v>2000</v>
       </c>
       <c r="D159" t="n">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="E159" t="b">
         <v>1</v>
@@ -7105,25 +7105,25 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51496, -0.28378, -0.6533 ]), TrackedArray([0.54143, 1.     , 0.16521]))</t>
+          <t>(TrackedArray([0.03142, 0.025  , 0.02883]), TrackedArray([0.65709, 0.93737, 0.82117]))</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m302/m302.off</t>
+          <t>testModels/refined_db/3/m303/m303.off</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0.1754788940877089</v>
+        <v>0.001854419643948343</v>
       </c>
       <c r="J159" t="n">
-        <v>1.110041271569327</v>
+        <v>0.4522998240886907</v>
       </c>
       <c r="K159" t="b">
         <v>0</v>
       </c>
       <c r="L159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -7134,10 +7134,10 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D160" t="n">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="E160" t="b">
         <v>1</v>
@@ -7147,19 +7147,19 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.29575,  0.08963, -0.42586]), TrackedArray([0.30322, 0.98437, 0.34246]))</t>
+          <t>(TrackedArray([0.02762, 0.02984, 0.025  ]), TrackedArray([0.84612, 0.975  , 0.69556]))</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m303/m303.off</t>
+          <t>testModels/refined_db/3/m304/m304.off</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0.08625002290585164</v>
+        <v>0.002030565915336429</v>
       </c>
       <c r="J160" t="n">
-        <v>0.4117621226408161</v>
+        <v>0.5187557308928008</v>
       </c>
       <c r="K160" t="b">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>2000</v>
       </c>
       <c r="D161" t="n">
-        <v>1104</v>
+        <v>1055</v>
       </c>
       <c r="E161" t="b">
         <v>1</v>
@@ -7189,25 +7189,25 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.35312,  0.20374, -0.58154]), TrackedArray([ 0.33517,  1.     , -0.01938]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.6181, 0.975 , 0.396 ]))</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m304/m304.off</t>
+          <t>testModels/refined_db/3/m305/m305.off</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>0.4871278899620482</v>
+        <v>1.530281713993768e-06</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3081002902285484</v>
+        <v>0.209037285782875</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
       </c>
       <c r="L161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -7221,7 +7221,7 @@
         <v>1999</v>
       </c>
       <c r="D162" t="n">
-        <v>1054</v>
+        <v>1118</v>
       </c>
       <c r="E162" t="b">
         <v>1</v>
@@ -7231,25 +7231,25 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.71158, -1.23527, -0.35808]), TrackedArray([0.68395, 1.     , 0.51485]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.71887, 0.975  , 0.78672]))</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m305/m305.off</t>
+          <t>testModels/refined_db/3/m306/m306.off</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0.06626918927347948</v>
+        <v>2.341670441681879e-05</v>
       </c>
       <c r="J162" t="n">
-        <v>2.722974042471983</v>
+        <v>0.5021063473894</v>
       </c>
       <c r="K162" t="b">
         <v>0</v>
       </c>
       <c r="L162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -7260,10 +7260,10 @@
         <v>3</v>
       </c>
       <c r="C163" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D163" t="n">
-        <v>1126</v>
+        <v>1079</v>
       </c>
       <c r="E163" t="b">
         <v>1</v>
@@ -7273,25 +7273,25 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.53135, -0.3976 , -1.07459]), TrackedArray([0.48649, 1.     , 0.03362]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.63945, 0.975  , 0.51401]))</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m306/m306.off</t>
+          <t>testModels/refined_db/3/m307/m307.off</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0.535442473407151</v>
+        <v>6.111145618118018e-05</v>
       </c>
       <c r="J163" t="n">
-        <v>1.576454628538385</v>
+        <v>0.2854492755504</v>
       </c>
       <c r="K163" t="b">
         <v>0</v>
       </c>
       <c r="L163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -7305,7 +7305,7 @@
         <v>2000</v>
       </c>
       <c r="D164" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E164" t="b">
         <v>1</v>
@@ -7315,19 +7315,19 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.57573, -0.79401, -0.30774]), TrackedArray([0.58462, 1.     , 0.61572]))</t>
+          <t>(TrackedArray([0.23115, 0.07805, 0.19339]), TrackedArray([0.75438, 0.70673, 0.5953 ]))</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m307/m307.off</t>
+          <t>testModels/refined_db/3/m308/m308.off</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0.1055200319391629</v>
+        <v>0.01052753312013204</v>
       </c>
       <c r="J164" t="n">
-        <v>1.922352699334119</v>
+        <v>0.1322045364234216</v>
       </c>
       <c r="K164" t="b">
         <v>0</v>
@@ -7344,10 +7344,10 @@
         <v>3</v>
       </c>
       <c r="C165" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D165" t="n">
-        <v>1078</v>
+        <v>1034</v>
       </c>
       <c r="E165" t="b">
         <v>1</v>
@@ -7357,19 +7357,19 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.00393,  0.2346 ,  0.2526 ]), TrackedArray([0.63309, 1.     , 0.74191]))</t>
+          <t>(TrackedArray([0.30229, 0.04558, 0.25926]), TrackedArray([0.6731 , 0.61515, 0.5093 ]))</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m308/m308.off</t>
+          <t>testModels/refined_db/3/m309/m309.off</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>4.878771826915503</v>
+        <v>0.008974052305715593</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2385725689695646</v>
+        <v>0.05281058128250497</v>
       </c>
       <c r="K165" t="b">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>2000</v>
       </c>
       <c r="D166" t="n">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -7399,19 +7399,19 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.20355, 0.34103, 0.44087]), TrackedArray([0.63256, 1.     , 0.73016]))</t>
+          <t>(TrackedArray([0.23425, 0.05685, 0.284  ]), TrackedArray([0.71682, 0.74959, 0.62391]))</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m309/m309.off</t>
+          <t>testModels/refined_db/3/m310/m310.off</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0.4298749370842283</v>
+        <v>0.0004095426204450699</v>
       </c>
       <c r="J166" t="n">
-        <v>0.08178172339102052</v>
+        <v>0.1136338104024872</v>
       </c>
       <c r="K166" t="b">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>2000</v>
       </c>
       <c r="D167" t="n">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="E167" t="b">
         <v>1</v>
@@ -7441,19 +7441,19 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.0674 ,  0.08201,  0.42294]), TrackedArray([0.57209, 1.     , 0.87338]))</t>
+          <t>(TrackedArray([0.08813, 0.10002, 0.50198]), TrackedArray([0.65888, 0.91122, 0.82095]))</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m310/m310.off</t>
+          <t>testModels/refined_db/3/m311/m311.off</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>0.3152090447098904</v>
+        <v>0.01308954885147542</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2644283750325815</v>
+        <v>0.1476800088861087</v>
       </c>
       <c r="K167" t="b">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D168" t="n">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E168" t="b">
         <v>1</v>
@@ -7483,19 +7483,19 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.1753 ,  0.02568,  0.50922]), TrackedArray([0.51023, 1.     , 0.89234]))</t>
+          <t>(TrackedArray([0.28297, 0.06398, 0.33871]), TrackedArray([0.81271, 0.77804, 0.69657]))</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m311/m311.off</t>
+          <t>testModels/refined_db/3/m312/m312.off</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1.561903785834051</v>
+        <v>0.007327154878724271</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2558908646578745</v>
+        <v>0.1353662284264502</v>
       </c>
       <c r="K168" t="b">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C169" t="n">
-        <v>1999</v>
+        <v>1864</v>
       </c>
       <c r="D169" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="E169" t="b">
         <v>1</v>
@@ -7525,19 +7525,19 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02679, 0.03164, 0.49691]), TrackedArray([0.74518, 1.     , 0.98221]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77845, 0.7886 , 0.975  ]))</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>testModels/refined_db/3/m312/m312.off</t>
+          <t>testModels/refined_db/4/m400/m400.off</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>0.7407995858768722</v>
+        <v>8.387901771784022e-05</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3376040868456802</v>
+        <v>0.5465683954868</v>
       </c>
       <c r="K169" t="b">
         <v>0</v>
@@ -7554,10 +7554,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="n">
-        <v>1864</v>
+        <v>2000</v>
       </c>
       <c r="D170" t="n">
-        <v>1000</v>
+        <v>1153</v>
       </c>
       <c r="E170" t="b">
         <v>1</v>
@@ -7567,25 +7567,25 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.67699, -0.3751 , -0.83475]), TrackedArray([0.67982, 1.     , 0.87601]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.20617, 0.975  ]))</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m400/m400.off</t>
+          <t>testModels/refined_db/4/m401/m401.off</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>4.095156494823547e-11</v>
+        <v>0.00688476899420628</v>
       </c>
       <c r="J170" t="n">
-        <v>3.191864370802235</v>
+        <v>0.1635050225</v>
       </c>
       <c r="K170" t="b">
         <v>0</v>
       </c>
       <c r="L170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -7596,10 +7596,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D171" t="n">
-        <v>1162</v>
+        <v>1097</v>
       </c>
       <c r="E171" t="b">
         <v>1</v>
@@ -7609,25 +7609,25 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.15498, -0.11832, -1.43645]), TrackedArray([1.     , 0.29264, 0.71853]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65003, 0.86934, 0.66553]))</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m401/m401.off</t>
+          <t>testModels/refined_db/4/m402/m402.off</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0.2900215045121107</v>
+        <v>3.907739824051586e-05</v>
       </c>
       <c r="J171" t="n">
-        <v>1.908495779957746</v>
+        <v>0.3380309797309754</v>
       </c>
       <c r="K171" t="b">
         <v>0</v>
       </c>
       <c r="L171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -7641,7 +7641,7 @@
         <v>2000</v>
       </c>
       <c r="D172" t="n">
-        <v>1099</v>
+        <v>1069</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
@@ -7651,19 +7651,19 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.43079, -0.3684 , -0.43979]), TrackedArray([0.46952, 0.96629, 0.48284]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.54083, 0.975  ]))</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m402/m402.off</t>
+          <t>testModels/refined_db/4/m403/m403.off</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>0.04578126090383135</v>
+        <v>1.309223256524143e-05</v>
       </c>
       <c r="J172" t="n">
-        <v>1.108658784164825</v>
+        <v>0.4655354468749999</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
@@ -7680,10 +7680,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>2000</v>
+        <v>2752</v>
       </c>
       <c r="D173" t="n">
-        <v>1075</v>
+        <v>1051</v>
       </c>
       <c r="E173" t="b">
         <v>1</v>
@@ -7693,19 +7693,19 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99975, -0.37823, -0.99973]), TrackedArray([0.99998, 0.70757, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.42795, 0.74551]))</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m403/m403.off</t>
+          <t>testModels/refined_db/4/m404/m404.off</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0.006905987555991612</v>
+        <v>5.21951864195198e-05</v>
       </c>
       <c r="J173" t="n">
-        <v>4.342061472673111</v>
+        <v>0.2758108135843</v>
       </c>
       <c r="K173" t="b">
         <v>0</v>
@@ -7722,10 +7722,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D174" t="n">
-        <v>737</v>
+        <v>1061</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -7735,22 +7735,22 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.6566 , -0.19371, -0.71209]), TrackedArray([1.     , 0.50895, 0.54432]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.85936, 0.94405]))</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m404/m404.off</t>
+          <t>testModels/refined_db/4/m405/m405.off</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0.0006474875130241528</v>
+        <v>0.005765611137574878</v>
       </c>
       <c r="J174" t="n">
-        <v>1.462481686333033</v>
+        <v>0.7284791810999249</v>
       </c>
       <c r="K174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L174" t="b">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         <v>1999</v>
       </c>
       <c r="D175" t="n">
-        <v>1076</v>
+        <v>1299</v>
       </c>
       <c r="E175" t="b">
         <v>1</v>
@@ -7777,25 +7777,25 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.89713, -0.60261, -0.84489]), TrackedArray([0.90637, 0.98045, 0.89885]))</t>
+          <t>(TrackedArray([0.02849, 0.025  , 0.0286 ]), TrackedArray([0.70029, 0.83082, 0.67491]))</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m405/m405.off</t>
+          <t>testModels/refined_db/4/m406/m406.off</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0.1280334417512415</v>
+        <v>0.005361999908066115</v>
       </c>
       <c r="J175" t="n">
-        <v>4.978450480428153</v>
+        <v>0.3498858068595418</v>
       </c>
       <c r="K175" t="b">
         <v>0</v>
       </c>
       <c r="L175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -7806,10 +7806,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="n">
-        <v>2000</v>
+        <v>1946</v>
       </c>
       <c r="D176" t="n">
-        <v>1300</v>
+        <v>920</v>
       </c>
       <c r="E176" t="b">
         <v>1</v>
@@ -7819,25 +7819,25 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47453, -0.33999, -0.45649]), TrackedArray([0.47306, 0.79664, 0.45514]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79938, 0.975  , 0.75603]))</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m406/m406.off</t>
+          <t>testModels/refined_db/4/m407/m407.off</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0.01783902365045297</v>
+        <v>0.00176998790828089</v>
       </c>
       <c r="J176" t="n">
-        <v>0.981875120541256</v>
+        <v>0.5377887483226499</v>
       </c>
       <c r="K176" t="b">
         <v>0</v>
       </c>
       <c r="L176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7848,10 +7848,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="n">
-        <v>1946</v>
+        <v>1999</v>
       </c>
       <c r="D177" t="n">
-        <v>920</v>
+        <v>1090</v>
       </c>
       <c r="E177" t="b">
         <v>1</v>
@@ -7861,19 +7861,19 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.80904, -0.98529, -0.69986]), TrackedArray([0.80924, 1.     , 0.82782]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64481, 0.59293, 0.975  ]))</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m407/m407.off</t>
+          <t>testModels/refined_db/4/m408/m408.off</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2.260493181545627</v>
+        <v>0.0007162348157667853</v>
       </c>
       <c r="J177" t="n">
-        <v>4.908067194578842</v>
+        <v>0.334412281809</v>
       </c>
       <c r="K177" t="b">
         <v>0</v>
@@ -7890,10 +7890,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="D178" t="n">
-        <v>1091</v>
+        <v>1507</v>
       </c>
       <c r="E178" t="b">
         <v>1</v>
@@ -7903,25 +7903,25 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.6902 , -0.26715, -1.12331]), TrackedArray([0.6927 , 1.     , 0.99629]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.22146, 0.70817]))</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m408/m408.off</t>
+          <t>testModels/refined_db/4/m409/m409.off</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0.1461981433223654</v>
+        <v>0.02738742607315515</v>
       </c>
       <c r="J178" t="n">
-        <v>3.714281171746529</v>
+        <v>0.12750341215795</v>
       </c>
       <c r="K178" t="b">
         <v>0</v>
       </c>
       <c r="L178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7932,10 +7932,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D179" t="n">
-        <v>1507</v>
+        <v>1472</v>
       </c>
       <c r="E179" t="b">
         <v>1</v>
@@ -7945,19 +7945,19 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.23534,  0.0624 , -0.67906]), TrackedArray([1.     , 0.52467, 0.92844]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.12811, 0.51158]))</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m409/m409.off</t>
+          <t>testModels/refined_db/4/m412/m412.off</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.1142457224324751</v>
+        <v>0.02426980825759749</v>
       </c>
       <c r="J179" t="n">
-        <v>1.661043406681563</v>
+        <v>0.04766319038249999</v>
       </c>
       <c r="K179" t="b">
         <v>0</v>
@@ -7971,13 +7971,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D180" t="n">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="E180" t="b">
         <v>1</v>
@@ -7987,25 +7987,25 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.574  ,  0.49974, -0.55746]), TrackedArray([0.56573, 1.     , 0.54714]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.95964, 0.89686, 0.975  ]))</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m410/m410.off</t>
+          <t>testModels/refined_db/5/m500/m500.off</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>1.699333082170065</v>
+        <v>0.0006964191987781477</v>
       </c>
       <c r="J180" t="n">
-        <v>0.6297927411252462</v>
+        <v>0.774133244696</v>
       </c>
       <c r="K180" t="b">
         <v>0</v>
       </c>
       <c r="L180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -8013,13 +8013,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
         <v>2000</v>
       </c>
       <c r="D181" t="n">
-        <v>1005</v>
+        <v>1072</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -8029,19 +8029,19 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.88534, -0.52991, -0.19089]), TrackedArray([1.     , 0.81676, 0.65353]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67754, 0.975  , 0.67754]))</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m411/m411.off</t>
+          <t>testModels/refined_db/5/m501/m501.off</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.1602092741636844</v>
+        <v>0.0001625845650226333</v>
       </c>
       <c r="J181" t="n">
-        <v>2.143911621930266</v>
+        <v>0.4045155493718</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D182" t="n">
-        <v>1471</v>
+        <v>1000</v>
       </c>
       <c r="E182" t="b">
         <v>1</v>
@@ -8071,25 +8071,25 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.09243, -0.0383 , -0.61826]), TrackedArray([1.     , 0.18881, 0.45347]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67501, 0.975  , 0.67501]))</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m412/m412.off</t>
+          <t>testModels/refined_db/5/m502/m502.off</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.005624612374215172</v>
+        <v>0.002764792734748884</v>
       </c>
       <c r="J182" t="n">
-        <v>0.5092926904113874</v>
+        <v>0.4013836450465499</v>
       </c>
       <c r="K182" t="b">
         <v>0</v>
       </c>
       <c r="L182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -8100,7 +8100,7 @@
         <v>5</v>
       </c>
       <c r="C183" t="n">
-        <v>1996</v>
+        <v>1952</v>
       </c>
       <c r="D183" t="n">
         <v>1000</v>
@@ -8113,19 +8113,19 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.69905, -0.6521 , -0.42108]), TrackedArray([0.69905, 0.6521 , 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8853, 0.975 , 0.5708]))</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m500/m500.off</t>
+          <t>testModels/refined_db/5/m503/m503.off</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1.210407657281184e-11</v>
+        <v>0.002016172263500733</v>
       </c>
       <c r="J183" t="n">
-        <v>2.591209518521179</v>
+        <v>0.44607162209075</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>2000</v>
       </c>
       <c r="D184" t="n">
-        <v>1072</v>
+        <v>1000</v>
       </c>
       <c r="E184" t="b">
         <v>1</v>
@@ -8155,19 +8155,19 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.60173, -0.75218, -0.60171]), TrackedArray([0.60181, 1.     , 0.60183]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.73697, 0.77026]))</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m501/m501.off</t>
+          <t>testModels/refined_db/5/m504/m504.off</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0.006775093890272819</v>
+        <v>2.155574185068136e-05</v>
       </c>
       <c r="J184" t="n">
-        <v>2.538034225117392</v>
+        <v>0.50407117646765</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -8184,10 +8184,10 @@
         <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D185" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="E185" t="b">
         <v>1</v>
@@ -8197,19 +8197,19 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.72906, -1.13089, -0.72901]), TrackedArray([0.72894, 1.     , 0.72898]))</t>
+          <t>(TrackedArray([0.02521, 0.02544, 0.025  ]), TrackedArray([0.97299, 0.65558, 0.92819]))</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m502/m502.off</t>
+          <t>testModels/refined_db/5/m505/m505.off</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>8.596429759685062e-12</v>
+        <v>0.00526397823374702</v>
       </c>
       <c r="J185" t="n">
-        <v>4.529752444887156</v>
+        <v>0.5394184393397173</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -8226,10 +8226,10 @@
         <v>5</v>
       </c>
       <c r="C186" t="n">
-        <v>1952</v>
+        <v>2000</v>
       </c>
       <c r="D186" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E186" t="b">
         <v>1</v>
@@ -8239,19 +8239,19 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99206, -1.19101, -0.54882]), TrackedArray([0.99207, 1.     , 0.70996]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.97449, 0.38986, 0.68268]))</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m503/m503.off</t>
+          <t>testModels/refined_db/5/m506/m506.off</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>2.917802581817423e-07</v>
+        <v>0.0003049739221834936</v>
       </c>
       <c r="J186" t="n">
-        <v>5.472228306058456</v>
+        <v>0.2278390717677797</v>
       </c>
       <c r="K186" t="b">
         <v>0</v>
@@ -8271,7 +8271,7 @@
         <v>2000</v>
       </c>
       <c r="D187" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="E187" t="b">
         <v>1</v>
@@ -8281,19 +8281,19 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.70225, -0.52398, -0.6677 ]), TrackedArray([1.     , 0.75175, 0.6677 ]))</t>
+          <t>(TrackedArray([0.025  , 0.02504, 0.025  ]), TrackedArray([0.975  , 0.69504, 0.67724]))</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m504/m504.off</t>
+          <t>testModels/refined_db/5/m507/m507.off</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.00110707261019021</v>
+        <v>0.0004915109394796224</v>
       </c>
       <c r="J187" t="n">
-        <v>2.899965125629815</v>
+        <v>0.415150557238935</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="D188" t="n">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
@@ -8323,19 +8323,19 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.83524, -0.61094, -0.95124]), TrackedArray([0.99611, 0.60666, 0.79395]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.80951, 0.62492]))</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m505/m505.off</t>
+          <t>testModels/refined_db/5/m508/m508.off</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0.7306839309366435</v>
+        <v>2.593299697940728e-05</v>
       </c>
       <c r="J188" t="n">
-        <v>3.891517333722106</v>
+        <v>0.4471125239474999</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -8352,10 +8352,10 @@
         <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D189" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -8365,19 +8365,19 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.5889 , -0.23957, -0.54998]), TrackedArray([0.99915, 0.37066, 0.55002]))</t>
+          <t>(TrackedArray([0.0254, 0.025 , 0.025 ]), TrackedArray([0.97303, 0.88927, 0.71394]))</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m506/m506.off</t>
+          <t>testModels/refined_db/5/m509/m509.off</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.002381121397001475</v>
+        <v>0.001541805271098911</v>
       </c>
       <c r="J189" t="n">
-        <v>1.06597593848667</v>
+        <v>0.5642497394150771</v>
       </c>
       <c r="K189" t="b">
         <v>0</v>
@@ -8394,10 +8394,10 @@
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D190" t="n">
-        <v>1003</v>
+        <v>1035</v>
       </c>
       <c r="E190" t="b">
         <v>1</v>
@@ -8407,19 +8407,19 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.65683, -0.36887, -0.46426]), TrackedArray([1.     , 0.79963, 0.67327]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.60961, 0.97479, 0.52201]))</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m507/m507.off</t>
+          <t>testModels/refined_db/5/m510/m510.off</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.4311561555292199</v>
+        <v>0.0004058991979104314</v>
       </c>
       <c r="J190" t="n">
-        <v>2.202268761646622</v>
+        <v>0.2759672917384885</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -8436,10 +8436,10 @@
         <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>1988</v>
+        <v>2202</v>
       </c>
       <c r="D191" t="n">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -8449,19 +8449,19 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.58747, -0.58237, -0.49945]), TrackedArray([1.     , 0.72856, 0.50304]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9522 , 0.975  , 0.92067]))</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m508/m508.off</t>
+          <t>testModels/refined_db/5/m511/m511.off</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>8.043663471507146e-11</v>
+        <v>0.02789926138668109</v>
       </c>
       <c r="J191" t="n">
-        <v>2.086244763303903</v>
+        <v>0.7889463070987</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -8478,10 +8478,10 @@
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D192" t="n">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E192" t="b">
         <v>1</v>
@@ -8491,19 +8491,19 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.63325, -0.69443, -0.59245]), TrackedArray([0.99662, 0.79206, 0.59249]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79759, 0.975  , 0.79759]))</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m509/m509.off</t>
+          <t>testModels/refined_db/5/m512/m512.off</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.01013740599142847</v>
+        <v>0.003047668860747743</v>
       </c>
       <c r="J192" t="n">
-        <v>2.870833329140929</v>
+        <v>0.56704613894055</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -8517,13 +8517,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D193" t="n">
-        <v>1029</v>
+        <v>1042</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -8533,19 +8533,19 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.21532,  0.29812, -0.18367]), TrackedArray([0.2166 , 0.99984, 0.18353]))</t>
+          <t>(TrackedArray([0.02693, 0.02586, 0.02617]), TrackedArray([0.48928, 0.76584, 0.97387]))</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m510/m510.off</t>
+          <t>testModels/refined_db/6/m600/m600.off</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1.049895353056091</v>
+        <v>0.002188264251238722</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1112940905844314</v>
+        <v>0.3242315189462048</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -8559,13 +8559,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>2202</v>
+        <v>1999</v>
       </c>
       <c r="D194" t="n">
-        <v>1000</v>
+        <v>1175</v>
       </c>
       <c r="E194" t="b">
         <v>1</v>
@@ -8575,25 +8575,25 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99159, -1.03563, -1.36968]), TrackedArray([0.99519, 1.     , 0.54954]))</t>
+          <t>(TrackedArray([0.02796, 0.02501, 0.02509]), TrackedArray([0.975  , 0.93453, 0.95622]))</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m511/m511.off</t>
+          <t>testModels/refined_db/6/m601/m601.off</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.384504280145336</v>
+        <v>0.001129485291517668</v>
       </c>
       <c r="J194" t="n">
-        <v>7.761954315734244</v>
+        <v>0.8020325620060286</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
       </c>
       <c r="L194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -8601,13 +8601,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="n">
         <v>2000</v>
       </c>
       <c r="D195" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E195" t="b">
         <v>1</v>
@@ -8617,19 +8617,19 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.59339, -0.45928, -0.59399]), TrackedArray([0.59338, 1.     , 0.59277]))</t>
+          <t>(TrackedArray([0.02509, 0.025  , 0.025  ]), TrackedArray([0.4276 , 0.975  , 0.59325]))</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m512/m512.off</t>
+          <t>testModels/refined_db/6/m602/m602.off</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.002485382643052797</v>
+        <v>0.0007723776362440639</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05525880697307</v>
+        <v>0.217290235051875</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -8646,10 +8646,10 @@
         <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D196" t="n">
-        <v>1046</v>
+        <v>1000</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -8659,19 +8659,19 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.45121, -1.60197, -0.85601]), TrackedArray([ 0.45319, -0.1545 ,  0.99779]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.58332, 0.84655, 0.975  ]))</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m600/m600.off</t>
+          <t>testModels/refined_db/6/m603/m603.off</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.5086277728078649</v>
+        <v>0.000745184319603115</v>
       </c>
       <c r="J196" t="n">
-        <v>2.426778357502755</v>
+        <v>0.4357544367391</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>1999</v>
       </c>
       <c r="D197" t="n">
-        <v>1179</v>
+        <v>1149</v>
       </c>
       <c r="E197" t="b">
         <v>1</v>
@@ -8701,19 +8701,19 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.46134, -0.77448, -0.51785]), TrackedArray([1.     , 0.62896, 0.91894]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69906, 0.975  , 0.15606]))</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m601/m601.off</t>
+          <t>testModels/refined_db/6/m604/m604.off</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.05428167833550838</v>
+        <v>0.02392622713249805</v>
       </c>
       <c r="J197" t="n">
-        <v>2.946725490004482</v>
+        <v>0.083922626992</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
@@ -8730,10 +8730,10 @@
         <v>6</v>
       </c>
       <c r="C198" t="n">
-        <v>2000</v>
+        <v>2238</v>
       </c>
       <c r="D198" t="n">
-        <v>1008</v>
+        <v>834</v>
       </c>
       <c r="E198" t="b">
         <v>1</v>
@@ -8743,22 +8743,22 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.40226, -0.99439, -0.90838]), TrackedArray([0.44275, 1.     , 0.28458]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.50208, 0.975  , 0.83687]))</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m602/m602.off</t>
+          <t>testModels/refined_db/6/m605/m605.off</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.0009686025404811339</v>
+        <v>0.002287657914562828</v>
       </c>
       <c r="J198" t="n">
-        <v>2.010479556344244</v>
+        <v>0.36795691912105</v>
       </c>
       <c r="K198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198" t="b">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>1996</v>
+        <v>1971</v>
       </c>
       <c r="D199" t="n">
         <v>1000</v>
@@ -8785,19 +8785,19 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.78902, -1.32202, -1.74622]), TrackedArray([0.78902, 1.     , 0.93885]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83864, 0.975  , 0.45899]))</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m603/m603.off</t>
+          <t>testModels/refined_db/6/m606/m606.off</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>9.880669561400956e-11</v>
+        <v>0.01730747197990135</v>
       </c>
       <c r="J199" t="n">
-        <v>9.838759142502457</v>
+        <v>0.3354520743954</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
@@ -8814,10 +8814,10 @@
         <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1999</v>
+        <v>1709</v>
       </c>
       <c r="D200" t="n">
-        <v>1149</v>
+        <v>901</v>
       </c>
       <c r="E200" t="b">
         <v>1</v>
@@ -8827,25 +8827,25 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.29179, -0.26076, -0.10887]), TrackedArray([0.60277, 1.     , 0.06505]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34539, 0.975  , 0.84361]))</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m604/m604.off</t>
+          <t>testModels/refined_db/6/m607/m607.off</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0.01777836443935735</v>
+        <v>1.595780916046108e-05</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1961588932306979</v>
+        <v>0.2491597883831999</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
       </c>
       <c r="L200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -8856,10 +8856,10 @@
         <v>6</v>
       </c>
       <c r="C201" t="n">
-        <v>2238</v>
+        <v>1916</v>
       </c>
       <c r="D201" t="n">
-        <v>834</v>
+        <v>1000</v>
       </c>
       <c r="E201" t="b">
         <v>1</v>
@@ -8869,22 +8869,22 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30416, -0.21153, -0.38734]), TrackedArray([0.30425, 1.     , 0.64803]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75998, 0.90819, 0.975  ]))</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m605/m605.off</t>
+          <t>testModels/refined_db/6/m608/m608.off</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0.0375036756961406</v>
+        <v>8.632235975886356e-05</v>
       </c>
       <c r="J201" t="n">
-        <v>0.7631758432393912</v>
+        <v>0.6166739930119999</v>
       </c>
       <c r="K201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L201" t="b">
         <v>0</v>
@@ -8898,10 +8898,10 @@
         <v>6</v>
       </c>
       <c r="C202" t="n">
-        <v>1971</v>
+        <v>2000</v>
       </c>
       <c r="D202" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -8911,19 +8911,19 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.48814,  0.06704, -0.04588]), TrackedArray([0.3109 , 1.     , 0.38032]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21256, 0.72068, 0.975  ]))</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m606/m606.off</t>
+          <t>testModels/refined_db/6/m609/m609.off</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.2651232658113843</v>
+        <v>0.0003560311298754342</v>
       </c>
       <c r="J202" t="n">
-        <v>0.317723822985137</v>
+        <v>0.1239595846008</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>6</v>
       </c>
       <c r="C203" t="n">
-        <v>1709</v>
+        <v>2000</v>
       </c>
       <c r="D203" t="n">
-        <v>901</v>
+        <v>1016</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
@@ -8953,19 +8953,19 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -1.36278, -17.001  , -13.40971]), TrackedArray([ 1.     , -9.995  , -7.37266]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.6368 , 0.55179]))</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m607/m607.off</t>
+          <t>testModels/refined_db/6/m610/m610.off</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>478.663758286441</v>
+        <v>1.331384143935641e-05</v>
       </c>
       <c r="J203" t="n">
-        <v>99.93491205239566</v>
+        <v>0.3061758177928125</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>1916</v>
+        <v>2026</v>
       </c>
       <c r="D204" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -8995,22 +8995,22 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.33473, -0.0664 , -0.00638]), TrackedArray([0.44387, 0.86921, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84401, 0.975  , 0.45893]))</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m608/m608.off</t>
+          <t>testModels/refined_db/6/m611/m611.off</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.2579527999669422</v>
+        <v>0.006340770550030407</v>
       </c>
       <c r="J204" t="n">
-        <v>0.7331165912022362</v>
+        <v>0.337626976131</v>
       </c>
       <c r="K204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L204" t="b">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>2000</v>
+        <v>2232</v>
       </c>
       <c r="D205" t="n">
-        <v>1020</v>
+        <v>948</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -9037,19 +9037,19 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.13027, -0.17447, -0.31215]), TrackedArray([0.1288 , 0.78641, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75993, 0.90811, 0.975  ]))</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m609/m609.off</t>
+          <t>testModels/refined_db/6/m612/m612.off</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>4.087464300305368e-11</v>
+        <v>0.0001209419976838267</v>
       </c>
       <c r="J205" t="n">
-        <v>0.326630932477089</v>
+        <v>0.6165689174602</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>2000</v>
+        <v>1904</v>
       </c>
       <c r="D206" t="n">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -9079,19 +9079,19 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.95956, -0.70677, -0.73536]), TrackedArray([1.     , 0.55518, 0.35125]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41837, 0.975  , 0.09773]))</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m610/m610.off</t>
+          <t>testModels/refined_db/7/m700/m700.off</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.0005728298399328012</v>
+        <v>0.001634965579034274</v>
       </c>
       <c r="J206" t="n">
-        <v>2.687042245399895</v>
+        <v>0.027180761887565</v>
       </c>
       <c r="K206" t="b">
         <v>0</v>
@@ -9105,13 +9105,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="n">
-        <v>2026</v>
+        <v>1900</v>
       </c>
       <c r="D207" t="n">
-        <v>778</v>
+        <v>960</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
@@ -9121,22 +9121,22 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.62894, -0.02679, -0.22393]), TrackedArray([0.25628, 1.     , 0.24508]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.04405, 0.30701, 0.975  ]))</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m611/m611.off</t>
+          <t>testModels/refined_db/7/m701/m701.off</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.02289583641710795</v>
+        <v>0.0005984744284004732</v>
       </c>
       <c r="J207" t="n">
-        <v>0.4262998983267843</v>
+        <v>0.005102765082699999</v>
       </c>
       <c r="K207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L207" t="b">
         <v>0</v>
@@ -9147,13 +9147,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>2232</v>
+        <v>2000</v>
       </c>
       <c r="D208" t="n">
-        <v>948</v>
+        <v>1005</v>
       </c>
       <c r="E208" t="b">
         <v>1</v>
@@ -9163,19 +9163,19 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51863, -0.24187, -0.59566]), TrackedArray([0.51486, 1.     , 0.74028]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.12358, 0.12358, 0.975  ]))</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m612/m612.off</t>
+          <t>testModels/refined_db/7/m702/m702.off</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1.580387692026526e-10</v>
+        <v>0.0002847790346095218</v>
       </c>
       <c r="J208" t="n">
-        <v>1.714627900821362</v>
+        <v>0.0092317409798</v>
       </c>
       <c r="K208" t="b">
         <v>0</v>
@@ -9192,7 +9192,7 @@
         <v>7</v>
       </c>
       <c r="C209" t="n">
-        <v>1904</v>
+        <v>1924</v>
       </c>
       <c r="D209" t="n">
         <v>1000</v>
@@ -9205,19 +9205,19 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.18936, -0.47811, -0.05904]), TrackedArray([0.42269, 1.     , 0.05413]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05076, 0.12084, 0.975  ]))</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m700/m700.off</t>
+          <t>testModels/refined_db/7/m703/m703.off</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.3177634340905783</v>
+        <v>0.0001905921691495498</v>
       </c>
       <c r="J209" t="n">
-        <v>0.102379233874372</v>
+        <v>0.002345430056895</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
@@ -9234,10 +9234,10 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>1900</v>
+        <v>1996</v>
       </c>
       <c r="D210" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -9247,19 +9247,19 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.01614, -0.23893, -0.60979]), TrackedArray([0.01614, 0.23894, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05493, 0.08613, 0.975  ]))</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m701/m701.off</t>
+          <t>testModels/refined_db/7/m704/m704.off</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>3.44940611404073e-05</v>
+        <v>9.025291300841998e-05</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02482803463429684</v>
+        <v>0.001738359126875</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>2000</v>
       </c>
       <c r="D211" t="n">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -9289,19 +9289,19 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.06699, -0.06698, -0.29122]), TrackedArray([0.06699, 0.06701, 1.     ]))</t>
+          <t>(TrackedArray([0.02655, 0.025  , 0.02525]), TrackedArray([0.46452, 0.975  , 0.09452]))</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m702/m702.off</t>
+          <t>testModels/refined_db/7/m705/m705.off</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.02386305395778754</v>
+        <v>0.0005383789458012969</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02318006865532599</v>
+        <v>0.02882194424788575</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>7</v>
       </c>
       <c r="C212" t="n">
-        <v>1924</v>
+        <v>1999</v>
       </c>
       <c r="D212" t="n">
-        <v>1000</v>
+        <v>802</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.02233, -0.08306, -0.64721]), TrackedArray([0.02234, 0.08312, 1.     ]))</t>
+          <t>(TrackedArray([0.025 , 0.025 , 0.0252]), TrackedArray([0.28441, 0.975  , 0.08598]))</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m703/m703.off</t>
+          <t>testModels/refined_db/7/m706/m706.off</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.0001728102349402254</v>
+        <v>0.000843582869486666</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01222638944573207</v>
+        <v>0.01497704798992</v>
       </c>
       <c r="K212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L212" t="b">
         <v>0</v>
@@ -9360,10 +9360,10 @@
         <v>7</v>
       </c>
       <c r="C213" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D213" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E213" t="b">
         <v>1</v>
@@ -9373,19 +9373,19 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.02352, -0.05355, -0.48449]), TrackedArray([0.02326, 0.04197, 1.     ]))</t>
+          <t>(TrackedArray([0.02506, 0.025  , 0.02503]), TrackedArray([0.26975, 0.975  , 0.06549]))</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m704/m704.off</t>
+          <t>testModels/refined_db/7/m707/m707.off</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>2.219062873168803e-10</v>
+        <v>0.06494472469930278</v>
       </c>
       <c r="J213" t="n">
-        <v>0.006632902013718371</v>
+        <v>0.009405908309349748</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -9405,7 +9405,7 @@
         <v>2000</v>
       </c>
       <c r="D214" t="n">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -9415,19 +9415,19 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.30081, -0.30266, -0.04715]), TrackedArray([0.29974, 1.     , 0.04784]))</t>
+          <t>(TrackedArray([0.02512, 0.025  , 0.025  ]), TrackedArray([0.44415, 0.975  , 0.06419]))</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m705/m705.off</t>
+          <t>testModels/refined_db/7/m708/m708.off</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.004058685088497006</v>
+        <v>0.004282833850689033</v>
       </c>
       <c r="J214" t="n">
-        <v>0.07431010178642333</v>
+        <v>0.01559969183422879</v>
       </c>
       <c r="K214" t="b">
         <v>0</v>
@@ -9444,10 +9444,10 @@
         <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="D215" t="n">
-        <v>790</v>
+        <v>1014</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -9457,22 +9457,22 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.02869,  0.63445,  0.1226 ]), TrackedArray([0.07113, 1.     , 0.14599]))</t>
+          <t>(TrackedArray([0.025  , 0.02539, 0.025  ]), TrackedArray([0.22979, 0.07604, 0.97442]))</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m706/m706.off</t>
+          <t>testModels/refined_db/7/m709/m709.off</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>27.38067620618214</v>
+        <v>0.0003573684656633618</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0008532967688061706</v>
+        <v>0.009848593029662593</v>
       </c>
       <c r="K215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="b">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>2000</v>
       </c>
       <c r="D216" t="n">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -9499,19 +9499,19 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.19398, -0.47153, -0.03178]), TrackedArray([0.18504, 1.     , 0.03089]))</t>
+          <t>(TrackedArray([0.0255 , 0.02814, 0.025  ]), TrackedArray([0.22092, 0.07791, 0.97344]))</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m707/m707.off</t>
+          <t>testModels/refined_db/7/m710/m710.off</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.1317511834751945</v>
+        <v>0.00977703969522959</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03495693406899619</v>
+        <v>0.009225152976660354</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -9528,10 +9528,10 @@
         <v>7</v>
       </c>
       <c r="C217" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D217" t="n">
-        <v>1032</v>
+        <v>1152</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -9541,25 +9541,25 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.70566, -2.20481, -0.06603]), TrackedArray([0.70791, 1.     , 0.06617]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22872, 0.0556 , 0.97108]))</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m708/m708.off</t>
+          <t>testModels/refined_db/7/m711/m711.off</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0.002754271380992243</v>
+        <v>1.872605474088358e-05</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5988970237003121</v>
+        <v>0.005898091483909225</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
       </c>
       <c r="L217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -9573,7 +9573,7 @@
         <v>2000</v>
       </c>
       <c r="D218" t="n">
-        <v>1014</v>
+        <v>1096</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -9583,19 +9583,19 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.42888, -0.10605, -2.97758]), TrackedArray([0.42857, 0.10603, 0.99756]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02511]), TrackedArray([0.97497, 0.0565 , 0.2089 ]))</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m709/m709.off</t>
+          <t>testModels/refined_db/7/m712/m712.off</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0.0110432965661174</v>
+        <v>0.0008682165576076732</v>
       </c>
       <c r="J218" t="n">
-        <v>0.72287106150672</v>
+        <v>0.005499642830204251</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
@@ -9609,13 +9609,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="n">
-        <v>2000</v>
+        <v>1958</v>
       </c>
       <c r="D219" t="n">
-        <v>1048</v>
+        <v>1000</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -9625,19 +9625,19 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.24537, -0.05448, -1.2822 ]), TrackedArray([0.22409, 0.06509, 0.99625]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72778, 0.975  , 0.72778]))</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m710/m710.off</t>
+          <t>testModels/refined_db/8/m800/m800.off</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.04269777408031687</v>
+        <v>0.00229425835594984</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1278979199170039</v>
+        <v>0.4692020714198</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -9651,13 +9651,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D220" t="n">
-        <v>1144</v>
+        <v>1054</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -9667,25 +9667,25 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.18064, -0.03433, -0.69697]), TrackedArray([0.18327, 0.02033, 0.993  ]))</t>
+          <t>(TrackedArray([0.02682, 0.02561, 0.025  ]), TrackedArray([0.46699, 0.975  , 0.54432]))</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m711/m711.off</t>
+          <t>testModels/refined_db/8/m801/m801.off</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0.04903689242919958</v>
+        <v>0.02356440389067259</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03361764255862969</v>
+        <v>0.2170203488597468</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
       </c>
       <c r="L220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -9693,13 +9693,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="n">
-        <v>1999</v>
+        <v>1850</v>
       </c>
       <c r="D221" t="n">
-        <v>1098</v>
+        <v>1000</v>
       </c>
       <c r="E221" t="b">
         <v>1</v>
@@ -9709,19 +9709,19 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(TrackedArray([-2.21052, -0.07375, -0.3138 ]), TrackedArray([0.99991, 0.0327 , 0.3073 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.68578, 0.975  , 0.69614]))</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m712/m712.off</t>
+          <t>testModels/refined_db/8/m802/m802.off</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0.02061575473070821</v>
+        <v>6.509696913035947e-05</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2122706695714186</v>
+        <v>0.4212982889336</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -9738,10 +9738,10 @@
         <v>8</v>
       </c>
       <c r="C222" t="n">
-        <v>1958</v>
+        <v>2000</v>
       </c>
       <c r="D222" t="n">
-        <v>1000</v>
+        <v>1058</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
@@ -9751,19 +9751,19 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.82235, -1.51821, -0.82076]), TrackedArray([0.99841, 0.94306, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5701 , 0.975  , 0.60681]))</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m800/m800.off</t>
+          <t>testModels/refined_db/8/m803/m803.off</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0.1913600095248651</v>
+        <v>0.0001037527882258007</v>
       </c>
       <c r="J222" t="n">
-        <v>8.159541358545257</v>
+        <v>0.30128957545635</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -9780,10 +9780,10 @@
         <v>8</v>
       </c>
       <c r="C223" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="D223" t="n">
-        <v>1054</v>
+        <v>1000</v>
       </c>
       <c r="E223" t="b">
         <v>1</v>
@@ -9793,19 +9793,19 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.51344, -1.14932, -0.4365 ]), TrackedArray([0.48306, 1.     , 0.73917]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70218, 0.975  , 0.66904]))</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m801/m801.off</t>
+          <t>testModels/refined_db/8/m804/m804.off</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0.004545025303810258</v>
+        <v>0.002552374671082288</v>
       </c>
       <c r="J223" t="n">
-        <v>2.518060108276003</v>
+        <v>0.4143275475168</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -9822,7 +9822,7 @@
         <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>1850</v>
+        <v>1992</v>
       </c>
       <c r="D224" t="n">
         <v>1000</v>
@@ -9835,19 +9835,19 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.07573,  0.73318, -0.05248]), TrackedArray([0.10986, 1.     , 0.13602]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72976, 0.975  , 0.72976]))</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m802/m802.off</t>
+          <t>testModels/refined_db/8/m805/m805.off</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>18.19130239583952</v>
+        <v>0.0003921532034501675</v>
       </c>
       <c r="J224" t="n">
-        <v>0.009334529872413696</v>
+        <v>0.4718550028118</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -9864,10 +9864,10 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>1999</v>
+        <v>1968</v>
       </c>
       <c r="D225" t="n">
-        <v>1057</v>
+        <v>1000</v>
       </c>
       <c r="E225" t="b">
         <v>1</v>
@@ -9877,19 +9877,19 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -0.92905, -24.80653,  -2.53319]), TrackedArray([  1.     , -21.4446 ,  -0.47788]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35829, 0.975  , 0.41154]))</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m803/m803.off</t>
+          <t>testModels/refined_db/8/m806/m806.off</t>
         </is>
       </c>
       <c r="I225" t="n">
-        <v>4090.909741394437</v>
+        <v>6.230126594257498e-05</v>
       </c>
       <c r="J225" t="n">
-        <v>13.32936622281365</v>
+        <v>0.12238963667975</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="n">
-        <v>1900</v>
+        <v>1976</v>
       </c>
       <c r="D226" t="n">
         <v>1000</v>
@@ -9919,19 +9919,19 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.5658 , -0.58749, -0.59096]), TrackedArray([0.5658 , 1.     , 0.48526]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.405  , 0.975  , 0.40384]))</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m804/m804.off</t>
+          <t>testModels/refined_db/8/m807/m807.off</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0.1656547343269143</v>
+        <v>0.001213741904721069</v>
       </c>
       <c r="J226" t="n">
-        <v>1.933328880902682</v>
+        <v>0.136760518</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>1992</v>
+        <v>1660</v>
       </c>
       <c r="D227" t="n">
         <v>1000</v>
@@ -9961,19 +9961,19 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.80895, -1.4037 , -0.6179 ]), TrackedArray([0.80895, 0.77718, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55085, 0.975  , 0.62458]))</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m805/m805.off</t>
+          <t>testModels/refined_db/8/m808/m808.off</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0.04346752808605561</v>
+        <v>0.0005334409098800224</v>
       </c>
       <c r="J227" t="n">
-        <v>5.70867209233236</v>
+        <v>0.29952589509265</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>8</v>
       </c>
       <c r="C228" t="n">
-        <v>1968</v>
+        <v>1940</v>
       </c>
       <c r="D228" t="n">
         <v>1000</v>
@@ -10003,19 +10003,19 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.38951, -1.22049, -0.49897]), TrackedArray([0.38951, 1.     , 0.40453]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.24254, 0.975  , 0.22572]))</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m806/m806.off</t>
+          <t>testModels/refined_db/8/m809/m809.off</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>6.076406690149934e-11</v>
+        <v>0.001741736583522547</v>
       </c>
       <c r="J228" t="n">
-        <v>1.562867420604986</v>
+        <v>0.04148136539820001</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>8</v>
       </c>
       <c r="C229" t="n">
-        <v>1976</v>
+        <v>1944</v>
       </c>
       <c r="D229" t="n">
         <v>1000</v>
@@ -10045,19 +10045,19 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.47804, -1.3902 , -0.30249]), TrackedArray([0.47804, 1.     , 0.65067]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38296, 0.975  , 0.3995 ]))</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m807/m807.off</t>
+          <t>testModels/refined_db/8/m810/m810.off</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>1.45563363444826e-10</v>
+        <v>0.0005863661447857373</v>
       </c>
       <c r="J229" t="n">
-        <v>2.17818182647275</v>
+        <v>0.1273507914384</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>1660</v>
+        <v>1920</v>
       </c>
       <c r="D230" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="E230" t="b">
         <v>1</v>
@@ -10087,19 +10087,19 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>(TrackedArray([ -0.93446, -76.77508, -10.87031]), TrackedArray([  1.     , -73.28029,  -8.66463]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.53825, 0.975  , 0.55673]))</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m808/m808.off</t>
+          <t>testModels/refined_db/8/m811/m811.off</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>176414.1173567425</v>
+        <v>0.0003918203221181705</v>
       </c>
       <c r="J230" t="n">
-        <v>14.9115873699726</v>
+        <v>0.2592673744301999</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -10116,10 +10116,10 @@
         <v>8</v>
       </c>
       <c r="C231" t="n">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="D231" t="n">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="E231" t="b">
         <v>1</v>
@@ -10129,19 +10129,19 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.19335, -0.69156, -0.10352]), TrackedArray([0.194  , 1.     , 0.25388]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46015, 0.975  , 0.47582]))</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m809/m809.off</t>
+          <t>testModels/refined_db/8/m812/m812.off</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>2.365760717600551e-10</v>
+        <v>9.637779485730415e-05</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2341789150856577</v>
+        <v>0.18636813187305</v>
       </c>
       <c r="K231" t="b">
         <v>0</v>
@@ -10155,10 +10155,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C232" t="n">
-        <v>1944</v>
+        <v>1772</v>
       </c>
       <c r="D232" t="n">
         <v>1000</v>
@@ -10171,19 +10171,19 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.25534, -0.97685, -0.39199]), TrackedArray([0.48953, 1.     , 0.3873 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61843, 0.38125]))</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m810/m810.off</t>
+          <t>testModels/refined_db/9/m900/m900.off</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>3.505643258862145e-11</v>
+        <v>0.0009292084722142014</v>
       </c>
       <c r="J232" t="n">
-        <v>1.147497139169389</v>
+        <v>0.2008387393843999</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C233" t="n">
-        <v>1920</v>
+        <v>1980</v>
       </c>
       <c r="D233" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -10213,19 +10213,19 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.9687 , -3.78354, -1.00716]), TrackedArray([ 0.9687 , -0.19752,  1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74465, 0.75526]))</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m811/m811.off</t>
+          <t>testModels/refined_db/9/m901/m901.off</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>2.018868685551215</v>
+        <v>0.0008655712038301684</v>
       </c>
       <c r="J233" t="n">
-        <v>13.94491878014592</v>
+        <v>0.4992543045531</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
@@ -10239,13 +10239,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C234" t="n">
-        <v>1920</v>
+        <v>1976</v>
       </c>
       <c r="D234" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="E234" t="b">
         <v>1</v>
@@ -10255,19 +10255,19 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.97083, -5.05867, -1.01158]), TrackedArray([ 0.97083, -0.81975,  1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.59618, 0.43685]))</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m812/m812.off</t>
+          <t>testModels/refined_db/9/m902/m902.off</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2.313690791817875</v>
+        <v>0.002001445678988587</v>
       </c>
       <c r="J234" t="n">
-        <v>16.55634145870142</v>
+        <v>0.2234783074855499</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>9</v>
       </c>
       <c r="C235" t="n">
-        <v>1772</v>
+        <v>1980</v>
       </c>
       <c r="D235" t="n">
         <v>1000</v>
@@ -10297,19 +10297,19 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.     , -1.22709, -0.39269]), TrackedArray([1.     , 0.02223, 0.35731]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.25027, 0.23617]))</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m900/m900.off</t>
+          <t>testModels/refined_db/9/m903/m903.off</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0.01899362106789846</v>
+        <v>0.00108864211424962</v>
       </c>
       <c r="J235" t="n">
-        <v>1.873987754502323</v>
+        <v>0.0451911105855</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="n">
-        <v>1980</v>
+        <v>1896</v>
       </c>
       <c r="D236" t="n">
         <v>1000</v>
@@ -10339,19 +10339,19 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99258, -1.19531, -0.76507]), TrackedArray([1.     , 0.31411, 0.76662]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40595, 0.975  , 0.40595]))</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m901/m901.off</t>
+          <t>testModels/refined_db/9/m904/m904.off</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>3.327119664535302e-11</v>
+        <v>9.153055386713679e-05</v>
       </c>
       <c r="J236" t="n">
-        <v>4.606776009449823</v>
+        <v>0.13786748118095</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
@@ -10368,10 +10368,10 @@
         <v>9</v>
       </c>
       <c r="C237" t="n">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="D237" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E237" t="b">
         <v>1</v>
@@ -10381,19 +10381,19 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.99643, -0.92563, -0.43237]), TrackedArray([1.     , 0.27471, 0.43313]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.84105, 0.975  ]))</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m902/m902.off</t>
+          <t>testModels/refined_db/9/m905/m905.off</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>1.059105177907915e-10</v>
+        <v>0.01783165915719444</v>
       </c>
       <c r="J237" t="n">
-        <v>2.074094058781482</v>
+        <v>0.7364851249999999</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10410,7 +10410,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="n">
-        <v>1980</v>
+        <v>1956</v>
       </c>
       <c r="D238" t="n">
         <v>1000</v>
@@ -10423,19 +10423,19 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>(TrackedArray([-1.43224, -0.48035, -0.27033]), TrackedArray([1.     , 0.0964 , 0.27031]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73251, 0.35051, 0.975  ]))</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m903/m903.off</t>
+          <t>testModels/refined_db/9/m906/m906.off</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>0.0542481373846425</v>
+        <v>9.369465416477644e-05</v>
       </c>
       <c r="J238" t="n">
-        <v>0.7584029355806988</v>
+        <v>0.2187877917004</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>9</v>
       </c>
       <c r="C239" t="n">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="D239" t="n">
         <v>1000</v>
@@ -10465,19 +10465,19 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.15001,  0.25184, -0.15001]), TrackedArray([0.15001, 1.     , 0.15001]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46091, 0.975  , 0.46112]))</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m904/m904.off</t>
+          <t>testModels/refined_db/9/m907/m907.off</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>0.4309492657862186</v>
+        <v>9.091806591361756e-08</v>
       </c>
       <c r="J239" t="n">
-        <v>0.06734035337764804</v>
+        <v>0.1806036165228</v>
       </c>
       <c r="K239" t="b">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         <v>9</v>
       </c>
       <c r="C240" t="n">
-        <v>1972</v>
+        <v>1772</v>
       </c>
       <c r="D240" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E240" t="b">
         <v>1</v>
@@ -10507,19 +10507,19 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.96214, -3.47615, -1.60663]), TrackedArray([ 1.     , -1.79067,  0.35551]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.38093, 0.5    ]))</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m905/m905.off</t>
+          <t>testModels/refined_db/9/m908/m908.off</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>1.969518218958351</v>
+        <v>0.0006813556252919533</v>
       </c>
       <c r="J240" t="n">
-        <v>6.489040393302722</v>
+        <v>0.1606127350113</v>
       </c>
       <c r="K240" t="b">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>1956</v>
+        <v>1974</v>
       </c>
       <c r="D241" t="n">
         <v>1000</v>
@@ -10549,19 +10549,19 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>(TrackedArray([-0.78271, -0.16833, -1.05421]), TrackedArray([0.74716, 0.53553, 1.     ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.47863, 0.5    ]))</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m906/m906.off</t>
+          <t>testModels/refined_db/9/m911/m911.off</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>2.993455522987102e-11</v>
+        <v>0.004597958658645679</v>
       </c>
       <c r="J241" t="n">
-        <v>2.212000573005579</v>
+        <v>0.20469828125</v>
       </c>
       <c r="K241" t="b">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>9</v>
       </c>
       <c r="C242" t="n">
-        <v>1898</v>
+        <v>1988</v>
       </c>
       <c r="D242" t="n">
         <v>1000</v>
@@ -10591,234 +10591,24 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>(TrackedArray([  -1.0107 ,  -14.66281, -163.45071]), TrackedArray([   1.     ,  -10.28083, -161.43907]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975, 0.5  , 0.5  ]))</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m907/m907.off</t>
+          <t>testModels/refined_db/9/m912/m912.off</t>
         </is>
       </c>
       <c r="I242" t="n">
-        <v>909719.5324682461</v>
+        <v>0.001119938230630489</v>
       </c>
       <c r="J242" t="n">
-        <v>17.72429332348336</v>
+        <v>0.21434375</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
       </c>
       <c r="L242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>9</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1772</v>
-      </c>
-      <c r="D243" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E243" t="b">
-        <v>1</v>
-      </c>
-      <c r="F243" t="b">
-        <v>0</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>(TrackedArray([-1.     , -0.73624, -0.51587]), TrackedArray([1.     , 0.01308, 0.48413]))</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>testModels/refined_db/9/m908/m908.off</t>
-        </is>
-      </c>
-      <c r="I243" t="n">
-        <v>0.02120182921822445</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1.498648108541488</v>
-      </c>
-      <c r="K243" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>9</v>
-      </c>
-      <c r="C244" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D244" t="n">
-        <v>1010</v>
-      </c>
-      <c r="E244" t="b">
-        <v>1</v>
-      </c>
-      <c r="F244" t="b">
-        <v>0</v>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>(TrackedArray([-0.71428, -0.78426, -1.     ]), TrackedArray([0.71429, 0.09479, 1.     ]))</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>testModels/refined_db/9/m909/m909.off</t>
-        </is>
-      </c>
-      <c r="I244" t="n">
-        <v>0.0009356444237630381</v>
-      </c>
-      <c r="J244" t="n">
-        <v>2.511573955087962</v>
-      </c>
-      <c r="K244" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>9</v>
-      </c>
-      <c r="C245" t="n">
-        <v>2432</v>
-      </c>
-      <c r="D245" t="n">
-        <v>992</v>
-      </c>
-      <c r="E245" t="b">
-        <v>1</v>
-      </c>
-      <c r="F245" t="b">
-        <v>0</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>(TrackedArray([-64.03313, -26.35003, -80.87516]), TrackedArray([-14.17259,   1.     , -42.19146]))</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>testModels/refined_db/9/m910/m910.off</t>
-        </is>
-      </c>
-      <c r="I245" t="n">
-        <v>0.008453275854059781</v>
-      </c>
-      <c r="J245" t="n">
-        <v>52752.46924900672</v>
-      </c>
-      <c r="K245" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>9</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1974</v>
-      </c>
-      <c r="D246" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E246" t="b">
-        <v>1</v>
-      </c>
-      <c r="F246" t="b">
-        <v>0</v>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>(TrackedArray([ 0.02527, -4.32668,  0.85567]), TrackedArray([ 0.31393, -4.18884,  1.     ]))</t>
-        </is>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>testModels/refined_db/9/m911/m911.off</t>
-        </is>
-      </c>
-      <c r="I246" t="n">
-        <v>2265.282202084351</v>
-      </c>
-      <c r="J246" t="n">
-        <v>0.005742380543431702</v>
-      </c>
-      <c r="K246" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>9</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1988</v>
-      </c>
-      <c r="D247" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E247" t="b">
-        <v>1</v>
-      </c>
-      <c r="F247" t="b">
-        <v>0</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>(TrackedArray([-1.   , -0.936, -0.5  ]), TrackedArray([1.   , 0.064, 0.5  ]))</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>testModels/refined_db/9/m912/m912.off</t>
-        </is>
-      </c>
-      <c r="I247" t="n">
-        <v>1.990667974677138e-11</v>
-      </c>
-      <c r="J247" t="n">
-        <v>2</v>
-      </c>
-      <c r="K247" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" t="b">
         <v>0</v>
       </c>
     </row>

--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L242"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7935,7 +7935,7 @@
         <v>2000</v>
       </c>
       <c r="D179" t="n">
-        <v>1472</v>
+        <v>1179</v>
       </c>
       <c r="E179" t="b">
         <v>1</v>
@@ -7945,19 +7945,19 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.12811, 0.51158]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.44198, 0.94572]))</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>testModels/refined_db/4/m412/m412.off</t>
+          <t>testModels/refined_db/4/m410/m410.off</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0.02426980825759749</v>
+        <v>0.4426165134704702</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04766319038249999</v>
+        <v>0.36472700513595</v>
       </c>
       <c r="K179" t="b">
         <v>0</v>
@@ -7971,13 +7971,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D180" t="n">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E180" t="b">
         <v>1</v>
@@ -7987,19 +7987,19 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.95964, 0.89686, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.70357, 0.45049]))</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m500/m500.off</t>
+          <t>testModels/refined_db/4/m411/m411.off</t>
         </is>
       </c>
       <c r="I180" t="n">
-        <v>0.0006964191987781477</v>
+        <v>0.356823088341781</v>
       </c>
       <c r="J180" t="n">
-        <v>0.774133244696</v>
+        <v>0.2742882714080499</v>
       </c>
       <c r="K180" t="b">
         <v>0</v>
@@ -8013,13 +8013,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="n">
         <v>2000</v>
       </c>
       <c r="D181" t="n">
-        <v>1072</v>
+        <v>1472</v>
       </c>
       <c r="E181" t="b">
         <v>1</v>
@@ -8029,25 +8029,25 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67754, 0.975  , 0.67754]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.12811, 0.51158]))</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m501/m501.off</t>
+          <t>testModels/refined_db/4/m412/m412.off</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>0.0001625845650226333</v>
+        <v>0.02426980825759749</v>
       </c>
       <c r="J181" t="n">
-        <v>0.4045155493718</v>
+        <v>0.04766319038249999</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
       </c>
       <c r="L181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -8071,19 +8071,19 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67501, 0.975  , 0.67501]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.95964, 0.89686, 0.975  ]))</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m502/m502.off</t>
+          <t>testModels/refined_db/5/m500/m500.off</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>0.002764792734748884</v>
+        <v>0.0006964191987781477</v>
       </c>
       <c r="J182" t="n">
-        <v>0.4013836450465499</v>
+        <v>0.774133244696</v>
       </c>
       <c r="K182" t="b">
         <v>0</v>
@@ -8100,10 +8100,10 @@
         <v>5</v>
       </c>
       <c r="C183" t="n">
-        <v>1952</v>
+        <v>2000</v>
       </c>
       <c r="D183" t="n">
-        <v>1000</v>
+        <v>1072</v>
       </c>
       <c r="E183" t="b">
         <v>1</v>
@@ -8113,19 +8113,19 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8853, 0.975 , 0.5708]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67754, 0.975  , 0.67754]))</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m503/m503.off</t>
+          <t>testModels/refined_db/5/m501/m501.off</t>
         </is>
       </c>
       <c r="I183" t="n">
-        <v>0.002016172263500733</v>
+        <v>0.0001625845650226333</v>
       </c>
       <c r="J183" t="n">
-        <v>0.44607162209075</v>
+        <v>0.4045155493718</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>5</v>
       </c>
       <c r="C184" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="D184" t="n">
         <v>1000</v>
@@ -8155,19 +8155,19 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.73697, 0.77026]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67501, 0.975  , 0.67501]))</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m504/m504.off</t>
+          <t>testModels/refined_db/5/m502/m502.off</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>2.155574185068136e-05</v>
+        <v>0.002764792734748884</v>
       </c>
       <c r="J184" t="n">
-        <v>0.50407117646765</v>
+        <v>0.4013836450465499</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -8184,10 +8184,10 @@
         <v>5</v>
       </c>
       <c r="C185" t="n">
-        <v>2000</v>
+        <v>1952</v>
       </c>
       <c r="D185" t="n">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E185" t="b">
         <v>1</v>
@@ -8197,19 +8197,19 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02521, 0.02544, 0.025  ]), TrackedArray([0.97299, 0.65558, 0.92819]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8853, 0.975 , 0.5708]))</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m505/m505.off</t>
+          <t>testModels/refined_db/5/m503/m503.off</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0.00526397823374702</v>
+        <v>0.002016172263500733</v>
       </c>
       <c r="J185" t="n">
-        <v>0.5394184393397173</v>
+        <v>0.44607162209075</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -8229,7 +8229,7 @@
         <v>2000</v>
       </c>
       <c r="D186" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E186" t="b">
         <v>1</v>
@@ -8239,19 +8239,19 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.97449, 0.38986, 0.68268]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.73697, 0.77026]))</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m506/m506.off</t>
+          <t>testModels/refined_db/5/m504/m504.off</t>
         </is>
       </c>
       <c r="I186" t="n">
-        <v>0.0003049739221834936</v>
+        <v>2.155574185068136e-05</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2278390717677797</v>
+        <v>0.50407117646765</v>
       </c>
       <c r="K186" t="b">
         <v>0</v>
@@ -8281,19 +8281,19 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02504, 0.025  ]), TrackedArray([0.975  , 0.69504, 0.67724]))</t>
+          <t>(TrackedArray([0.02521, 0.02544, 0.025  ]), TrackedArray([0.97299, 0.65558, 0.92819]))</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m507/m507.off</t>
+          <t>testModels/refined_db/5/m505/m505.off</t>
         </is>
       </c>
       <c r="I187" t="n">
-        <v>0.0004915109394796224</v>
+        <v>0.00526397823374702</v>
       </c>
       <c r="J187" t="n">
-        <v>0.415150557238935</v>
+        <v>0.5394184393397173</v>
       </c>
       <c r="K187" t="b">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>1988</v>
+        <v>2000</v>
       </c>
       <c r="D188" t="n">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="E188" t="b">
         <v>1</v>
@@ -8323,19 +8323,19 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.80951, 0.62492]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.97449, 0.38986, 0.68268]))</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m508/m508.off</t>
+          <t>testModels/refined_db/5/m506/m506.off</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2.593299697940728e-05</v>
+        <v>0.0003049739221834936</v>
       </c>
       <c r="J188" t="n">
-        <v>0.4471125239474999</v>
+        <v>0.2278390717677797</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -8352,10 +8352,10 @@
         <v>5</v>
       </c>
       <c r="C189" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D189" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E189" t="b">
         <v>1</v>
@@ -8365,19 +8365,19 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.0254, 0.025 , 0.025 ]), TrackedArray([0.97303, 0.88927, 0.71394]))</t>
+          <t>(TrackedArray([0.025  , 0.02504, 0.025  ]), TrackedArray([0.975  , 0.69504, 0.67724]))</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m509/m509.off</t>
+          <t>testModels/refined_db/5/m507/m507.off</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0.001541805271098911</v>
+        <v>0.0004915109394796224</v>
       </c>
       <c r="J189" t="n">
-        <v>0.5642497394150771</v>
+        <v>0.415150557238935</v>
       </c>
       <c r="K189" t="b">
         <v>0</v>
@@ -8394,10 +8394,10 @@
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="D190" t="n">
-        <v>1035</v>
+        <v>998</v>
       </c>
       <c r="E190" t="b">
         <v>1</v>
@@ -8407,19 +8407,19 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.60961, 0.97479, 0.52201]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.80951, 0.62492]))</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m510/m510.off</t>
+          <t>testModels/refined_db/5/m508/m508.off</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0.0004058991979104314</v>
+        <v>2.593299697940728e-05</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2759672917384885</v>
+        <v>0.4471125239474999</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -8436,10 +8436,10 @@
         <v>5</v>
       </c>
       <c r="C191" t="n">
-        <v>2202</v>
+        <v>1999</v>
       </c>
       <c r="D191" t="n">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E191" t="b">
         <v>1</v>
@@ -8449,19 +8449,19 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9522 , 0.975  , 0.92067]))</t>
+          <t>(TrackedArray([0.0254, 0.025 , 0.025 ]), TrackedArray([0.97303, 0.88927, 0.71394]))</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m511/m511.off</t>
+          <t>testModels/refined_db/5/m509/m509.off</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>0.02789926138668109</v>
+        <v>0.001541805271098911</v>
       </c>
       <c r="J191" t="n">
-        <v>0.7889463070987</v>
+        <v>0.5642497394150771</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -8478,10 +8478,10 @@
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D192" t="n">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="E192" t="b">
         <v>1</v>
@@ -8491,19 +8491,19 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79759, 0.975  , 0.79759]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.60961, 0.97479, 0.52201]))</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>testModels/refined_db/5/m512/m512.off</t>
+          <t>testModels/refined_db/5/m510/m510.off</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>0.003047668860747743</v>
+        <v>0.0004058991979104314</v>
       </c>
       <c r="J192" t="n">
-        <v>0.56704613894055</v>
+        <v>0.2759672917384885</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -8517,13 +8517,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="n">
-        <v>2000</v>
+        <v>2202</v>
       </c>
       <c r="D193" t="n">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="E193" t="b">
         <v>1</v>
@@ -8533,19 +8533,19 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02693, 0.02586, 0.02617]), TrackedArray([0.48928, 0.76584, 0.97387]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9522 , 0.975  , 0.92067]))</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m600/m600.off</t>
+          <t>testModels/refined_db/5/m511/m511.off</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>0.002188264251238722</v>
+        <v>0.02789926138668109</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3242315189462048</v>
+        <v>0.7889463070987</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -8559,13 +8559,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D194" t="n">
-        <v>1175</v>
+        <v>1000</v>
       </c>
       <c r="E194" t="b">
         <v>1</v>
@@ -8575,25 +8575,25 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02796, 0.02501, 0.02509]), TrackedArray([0.975  , 0.93453, 0.95622]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79759, 0.975  , 0.79759]))</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m601/m601.off</t>
+          <t>testModels/refined_db/5/m512/m512.off</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0.001129485291517668</v>
+        <v>0.003047668860747743</v>
       </c>
       <c r="J194" t="n">
-        <v>0.8020325620060286</v>
+        <v>0.56704613894055</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
       </c>
       <c r="L194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -8607,7 +8607,7 @@
         <v>2000</v>
       </c>
       <c r="D195" t="n">
-        <v>1008</v>
+        <v>1042</v>
       </c>
       <c r="E195" t="b">
         <v>1</v>
@@ -8617,19 +8617,19 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02509, 0.025  , 0.025  ]), TrackedArray([0.4276 , 0.975  , 0.59325]))</t>
+          <t>(TrackedArray([0.02693, 0.02586, 0.02617]), TrackedArray([0.48928, 0.76584, 0.97387]))</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m602/m602.off</t>
+          <t>testModels/refined_db/6/m600/m600.off</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0.0007723776362440639</v>
+        <v>0.002188264251238722</v>
       </c>
       <c r="J195" t="n">
-        <v>0.217290235051875</v>
+        <v>0.3242315189462048</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -8646,10 +8646,10 @@
         <v>6</v>
       </c>
       <c r="C196" t="n">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D196" t="n">
-        <v>1000</v>
+        <v>1175</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -8659,25 +8659,25 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.58332, 0.84655, 0.975  ]))</t>
+          <t>(TrackedArray([0.02796, 0.02501, 0.02509]), TrackedArray([0.975  , 0.93453, 0.95622]))</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m603/m603.off</t>
+          <t>testModels/refined_db/6/m601/m601.off</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0.000745184319603115</v>
+        <v>0.001129485291517668</v>
       </c>
       <c r="J196" t="n">
-        <v>0.4357544367391</v>
+        <v>0.8020325620060286</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
       </c>
       <c r="L196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -8688,10 +8688,10 @@
         <v>6</v>
       </c>
       <c r="C197" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D197" t="n">
-        <v>1149</v>
+        <v>1008</v>
       </c>
       <c r="E197" t="b">
         <v>1</v>
@@ -8701,25 +8701,25 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69906, 0.975  , 0.15606]))</t>
+          <t>(TrackedArray([0.02509, 0.025  , 0.025  ]), TrackedArray([0.4276 , 0.975  , 0.59325]))</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m604/m604.off</t>
+          <t>testModels/refined_db/6/m602/m602.off</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0.02392622713249805</v>
+        <v>0.0007723776362440639</v>
       </c>
       <c r="J197" t="n">
-        <v>0.083922626992</v>
+        <v>0.217290235051875</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
       </c>
       <c r="L197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -8730,10 +8730,10 @@
         <v>6</v>
       </c>
       <c r="C198" t="n">
-        <v>2238</v>
+        <v>1996</v>
       </c>
       <c r="D198" t="n">
-        <v>834</v>
+        <v>1000</v>
       </c>
       <c r="E198" t="b">
         <v>1</v>
@@ -8743,22 +8743,22 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.50208, 0.975  , 0.83687]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.58332, 0.84655, 0.975  ]))</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m605/m605.off</t>
+          <t>testModels/refined_db/6/m603/m603.off</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0.002287657914562828</v>
+        <v>0.000745184319603115</v>
       </c>
       <c r="J198" t="n">
-        <v>0.36795691912105</v>
+        <v>0.4357544367391</v>
       </c>
       <c r="K198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L198" t="b">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>1971</v>
+        <v>1999</v>
       </c>
       <c r="D199" t="n">
-        <v>1000</v>
+        <v>1149</v>
       </c>
       <c r="E199" t="b">
         <v>1</v>
@@ -8785,25 +8785,25 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83864, 0.975  , 0.45899]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69906, 0.975  , 0.15606]))</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m606/m606.off</t>
+          <t>testModels/refined_db/6/m604/m604.off</t>
         </is>
       </c>
       <c r="I199" t="n">
-        <v>0.01730747197990135</v>
+        <v>0.02392622713249805</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3354520743954</v>
+        <v>0.083922626992</v>
       </c>
       <c r="K199" t="b">
         <v>0</v>
       </c>
       <c r="L199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -8814,10 +8814,10 @@
         <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1709</v>
+        <v>2238</v>
       </c>
       <c r="D200" t="n">
-        <v>901</v>
+        <v>834</v>
       </c>
       <c r="E200" t="b">
         <v>1</v>
@@ -8827,22 +8827,22 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34539, 0.975  , 0.84361]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.50208, 0.975  , 0.83687]))</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m607/m607.off</t>
+          <t>testModels/refined_db/6/m605/m605.off</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1.595780916046108e-05</v>
+        <v>0.002287657914562828</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2491597883831999</v>
+        <v>0.36795691912105</v>
       </c>
       <c r="K200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="b">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>6</v>
       </c>
       <c r="C201" t="n">
-        <v>1916</v>
+        <v>1971</v>
       </c>
       <c r="D201" t="n">
         <v>1000</v>
@@ -8869,19 +8869,19 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75998, 0.90819, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83864, 0.975  , 0.45899]))</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m608/m608.off</t>
+          <t>testModels/refined_db/6/m606/m606.off</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>8.632235975886356e-05</v>
+        <v>0.01730747197990135</v>
       </c>
       <c r="J201" t="n">
-        <v>0.6166739930119999</v>
+        <v>0.3354520743954</v>
       </c>
       <c r="K201" t="b">
         <v>0</v>
@@ -8898,10 +8898,10 @@
         <v>6</v>
       </c>
       <c r="C202" t="n">
-        <v>2000</v>
+        <v>1709</v>
       </c>
       <c r="D202" t="n">
-        <v>1020</v>
+        <v>901</v>
       </c>
       <c r="E202" t="b">
         <v>1</v>
@@ -8911,19 +8911,19 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21256, 0.72068, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34539, 0.975  , 0.84361]))</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m609/m609.off</t>
+          <t>testModels/refined_db/6/m607/m607.off</t>
         </is>
       </c>
       <c r="I202" t="n">
-        <v>0.0003560311298754342</v>
+        <v>1.595780916046108e-05</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1239595846008</v>
+        <v>0.2491597883831999</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -8940,10 +8940,10 @@
         <v>6</v>
       </c>
       <c r="C203" t="n">
-        <v>2000</v>
+        <v>1916</v>
       </c>
       <c r="D203" t="n">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
@@ -8953,19 +8953,19 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.6368 , 0.55179]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75998, 0.90819, 0.975  ]))</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m610/m610.off</t>
+          <t>testModels/refined_db/6/m608/m608.off</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1.331384143935641e-05</v>
+        <v>8.632235975886356e-05</v>
       </c>
       <c r="J203" t="n">
-        <v>0.3061758177928125</v>
+        <v>0.6166739930119999</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -8982,10 +8982,10 @@
         <v>6</v>
       </c>
       <c r="C204" t="n">
-        <v>2026</v>
+        <v>2000</v>
       </c>
       <c r="D204" t="n">
-        <v>778</v>
+        <v>1020</v>
       </c>
       <c r="E204" t="b">
         <v>1</v>
@@ -8995,22 +8995,22 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84401, 0.975  , 0.45893]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21256, 0.72068, 0.975  ]))</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m611/m611.off</t>
+          <t>testModels/refined_db/6/m609/m609.off</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>0.006340770550030407</v>
+        <v>0.0003560311298754342</v>
       </c>
       <c r="J204" t="n">
-        <v>0.337626976131</v>
+        <v>0.1239595846008</v>
       </c>
       <c r="K204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="b">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>2232</v>
+        <v>2000</v>
       </c>
       <c r="D205" t="n">
-        <v>948</v>
+        <v>1016</v>
       </c>
       <c r="E205" t="b">
         <v>1</v>
@@ -9037,19 +9037,19 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75993, 0.90811, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.6368 , 0.55179]))</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>testModels/refined_db/6/m612/m612.off</t>
+          <t>testModels/refined_db/6/m610/m610.off</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0.0001209419976838267</v>
+        <v>1.331384143935641e-05</v>
       </c>
       <c r="J205" t="n">
-        <v>0.6165689174602</v>
+        <v>0.3061758177928125</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="n">
-        <v>1904</v>
+        <v>2026</v>
       </c>
       <c r="D206" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="E206" t="b">
         <v>1</v>
@@ -9079,22 +9079,22 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41837, 0.975  , 0.09773]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84401, 0.975  , 0.45893]))</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m700/m700.off</t>
+          <t>testModels/refined_db/6/m611/m611.off</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0.001634965579034274</v>
+        <v>0.006340770550030407</v>
       </c>
       <c r="J206" t="n">
-        <v>0.027180761887565</v>
+        <v>0.337626976131</v>
       </c>
       <c r="K206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L206" t="b">
         <v>0</v>
@@ -9105,13 +9105,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>1900</v>
+        <v>2232</v>
       </c>
       <c r="D207" t="n">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="E207" t="b">
         <v>1</v>
@@ -9121,19 +9121,19 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.04405, 0.30701, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75993, 0.90811, 0.975  ]))</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m701/m701.off</t>
+          <t>testModels/refined_db/6/m612/m612.off</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0.0005984744284004732</v>
+        <v>0.0001209419976838267</v>
       </c>
       <c r="J207" t="n">
-        <v>0.005102765082699999</v>
+        <v>0.6165689174602</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -9150,10 +9150,10 @@
         <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>2000</v>
+        <v>1904</v>
       </c>
       <c r="D208" t="n">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E208" t="b">
         <v>1</v>
@@ -9163,19 +9163,19 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.12358, 0.12358, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41837, 0.975  , 0.09773]))</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m702/m702.off</t>
+          <t>testModels/refined_db/7/m700/m700.off</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0.0002847790346095218</v>
+        <v>0.001634965579034274</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0092317409798</v>
+        <v>0.027180761887565</v>
       </c>
       <c r="K208" t="b">
         <v>0</v>
@@ -9192,10 +9192,10 @@
         <v>7</v>
       </c>
       <c r="C209" t="n">
-        <v>1924</v>
+        <v>1900</v>
       </c>
       <c r="D209" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="E209" t="b">
         <v>1</v>
@@ -9205,19 +9205,19 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05076, 0.12084, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.04405, 0.30701, 0.975  ]))</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m703/m703.off</t>
+          <t>testModels/refined_db/7/m701/m701.off</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0.0001905921691495498</v>
+        <v>0.0005984744284004732</v>
       </c>
       <c r="J209" t="n">
-        <v>0.002345430056895</v>
+        <v>0.005102765082699999</v>
       </c>
       <c r="K209" t="b">
         <v>0</v>
@@ -9234,10 +9234,10 @@
         <v>7</v>
       </c>
       <c r="C210" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="D210" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E210" t="b">
         <v>1</v>
@@ -9247,19 +9247,19 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05493, 0.08613, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.12358, 0.12358, 0.975  ]))</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m704/m704.off</t>
+          <t>testModels/refined_db/7/m702/m702.off</t>
         </is>
       </c>
       <c r="I210" t="n">
-        <v>9.025291300841998e-05</v>
+        <v>0.0002847790346095218</v>
       </c>
       <c r="J210" t="n">
-        <v>0.001738359126875</v>
+        <v>0.0092317409798</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>7</v>
       </c>
       <c r="C211" t="n">
-        <v>2000</v>
+        <v>1924</v>
       </c>
       <c r="D211" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="E211" t="b">
         <v>1</v>
@@ -9289,19 +9289,19 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02655, 0.025  , 0.02525]), TrackedArray([0.46452, 0.975  , 0.09452]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05076, 0.12084, 0.975  ]))</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m705/m705.off</t>
+          <t>testModels/refined_db/7/m703/m703.off</t>
         </is>
       </c>
       <c r="I211" t="n">
-        <v>0.0005383789458012969</v>
+        <v>0.0001905921691495498</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02882194424788575</v>
+        <v>0.002345430056895</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>7</v>
       </c>
       <c r="C212" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="D212" t="n">
-        <v>802</v>
+        <v>1000</v>
       </c>
       <c r="E212" t="b">
         <v>1</v>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025 , 0.025 , 0.0252]), TrackedArray([0.28441, 0.975  , 0.08598]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05493, 0.08613, 0.975  ]))</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m706/m706.off</t>
+          <t>testModels/refined_db/7/m704/m704.off</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0.000843582869486666</v>
+        <v>9.025291300841998e-05</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01497704798992</v>
+        <v>0.001738359126875</v>
       </c>
       <c r="K212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212" t="b">
         <v>0</v>
@@ -9360,10 +9360,10 @@
         <v>7</v>
       </c>
       <c r="C213" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D213" t="n">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="E213" t="b">
         <v>1</v>
@@ -9373,19 +9373,19 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02506, 0.025  , 0.02503]), TrackedArray([0.26975, 0.975  , 0.06549]))</t>
+          <t>(TrackedArray([0.02655, 0.025  , 0.02525]), TrackedArray([0.46452, 0.975  , 0.09452]))</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m707/m707.off</t>
+          <t>testModels/refined_db/7/m705/m705.off</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0.06494472469930278</v>
+        <v>0.0005383789458012969</v>
       </c>
       <c r="J213" t="n">
-        <v>0.009405908309349748</v>
+        <v>0.02882194424788575</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         <v>7</v>
       </c>
       <c r="C214" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D214" t="n">
-        <v>1032</v>
+        <v>802</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -9415,22 +9415,22 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02512, 0.025  , 0.025  ]), TrackedArray([0.44415, 0.975  , 0.06419]))</t>
+          <t>(TrackedArray([0.025 , 0.025 , 0.0252]), TrackedArray([0.28441, 0.975  , 0.08598]))</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m708/m708.off</t>
+          <t>testModels/refined_db/7/m706/m706.off</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>0.004282833850689033</v>
+        <v>0.000843582869486666</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01559969183422879</v>
+        <v>0.01497704798992</v>
       </c>
       <c r="K214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" t="b">
         <v>0</v>
@@ -9444,10 +9444,10 @@
         <v>7</v>
       </c>
       <c r="C215" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D215" t="n">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="E215" t="b">
         <v>1</v>
@@ -9457,19 +9457,19 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02539, 0.025  ]), TrackedArray([0.22979, 0.07604, 0.97442]))</t>
+          <t>(TrackedArray([0.02506, 0.025  , 0.02503]), TrackedArray([0.26975, 0.975  , 0.06549]))</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m709/m709.off</t>
+          <t>testModels/refined_db/7/m707/m707.off</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>0.0003573684656633618</v>
+        <v>0.06494472469930278</v>
       </c>
       <c r="J215" t="n">
-        <v>0.009848593029662593</v>
+        <v>0.009405908309349748</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>2000</v>
       </c>
       <c r="D216" t="n">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="E216" t="b">
         <v>1</v>
@@ -9499,19 +9499,19 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.0255 , 0.02814, 0.025  ]), TrackedArray([0.22092, 0.07791, 0.97344]))</t>
+          <t>(TrackedArray([0.02512, 0.025  , 0.025  ]), TrackedArray([0.44415, 0.975  , 0.06419]))</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m710/m710.off</t>
+          <t>testModels/refined_db/7/m708/m708.off</t>
         </is>
       </c>
       <c r="I216" t="n">
-        <v>0.00977703969522959</v>
+        <v>0.004282833850689033</v>
       </c>
       <c r="J216" t="n">
-        <v>0.009225152976660354</v>
+        <v>0.01559969183422879</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -9528,10 +9528,10 @@
         <v>7</v>
       </c>
       <c r="C217" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D217" t="n">
-        <v>1152</v>
+        <v>1014</v>
       </c>
       <c r="E217" t="b">
         <v>1</v>
@@ -9541,25 +9541,25 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22872, 0.0556 , 0.97108]))</t>
+          <t>(TrackedArray([0.025  , 0.02539, 0.025  ]), TrackedArray([0.22979, 0.07604, 0.97442]))</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m711/m711.off</t>
+          <t>testModels/refined_db/7/m709/m709.off</t>
         </is>
       </c>
       <c r="I217" t="n">
-        <v>1.872605474088358e-05</v>
+        <v>0.0003573684656633618</v>
       </c>
       <c r="J217" t="n">
-        <v>0.005898091483909225</v>
+        <v>0.009848593029662593</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
       </c>
       <c r="L217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -9573,7 +9573,7 @@
         <v>2000</v>
       </c>
       <c r="D218" t="n">
-        <v>1096</v>
+        <v>1048</v>
       </c>
       <c r="E218" t="b">
         <v>1</v>
@@ -9583,19 +9583,19 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02511]), TrackedArray([0.97497, 0.0565 , 0.2089 ]))</t>
+          <t>(TrackedArray([0.0255 , 0.02814, 0.025  ]), TrackedArray([0.22092, 0.07791, 0.97344]))</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>testModels/refined_db/7/m712/m712.off</t>
+          <t>testModels/refined_db/7/m710/m710.off</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0.0008682165576076732</v>
+        <v>0.00977703969522959</v>
       </c>
       <c r="J218" t="n">
-        <v>0.005499642830204251</v>
+        <v>0.009225152976660354</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
@@ -9609,13 +9609,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="n">
-        <v>1958</v>
+        <v>1999</v>
       </c>
       <c r="D219" t="n">
-        <v>1000</v>
+        <v>1152</v>
       </c>
       <c r="E219" t="b">
         <v>1</v>
@@ -9625,25 +9625,25 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72778, 0.975  , 0.72778]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22872, 0.0556 , 0.97108]))</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m800/m800.off</t>
+          <t>testModels/refined_db/7/m711/m711.off</t>
         </is>
       </c>
       <c r="I219" t="n">
-        <v>0.00229425835594984</v>
+        <v>1.872605474088358e-05</v>
       </c>
       <c r="J219" t="n">
-        <v>0.4692020714198</v>
+        <v>0.005898091483909225</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
       </c>
       <c r="L219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -9651,13 +9651,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="n">
         <v>2000</v>
       </c>
       <c r="D220" t="n">
-        <v>1054</v>
+        <v>1096</v>
       </c>
       <c r="E220" t="b">
         <v>1</v>
@@ -9667,19 +9667,19 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02682, 0.02561, 0.025  ]), TrackedArray([0.46699, 0.975  , 0.54432]))</t>
+          <t>(TrackedArray([0.025  , 0.025  , 0.02511]), TrackedArray([0.97497, 0.0565 , 0.2089 ]))</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m801/m801.off</t>
+          <t>testModels/refined_db/7/m712/m712.off</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>0.02356440389067259</v>
+        <v>0.0008682165576076732</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2170203488597468</v>
+        <v>0.005499642830204251</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -9696,7 +9696,7 @@
         <v>8</v>
       </c>
       <c r="C221" t="n">
-        <v>1850</v>
+        <v>1958</v>
       </c>
       <c r="D221" t="n">
         <v>1000</v>
@@ -9709,19 +9709,19 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.68578, 0.975  , 0.69614]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72778, 0.975  , 0.72778]))</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m802/m802.off</t>
+          <t>testModels/refined_db/8/m800/m800.off</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>6.509696913035947e-05</v>
+        <v>0.00229425835594984</v>
       </c>
       <c r="J221" t="n">
-        <v>0.4212982889336</v>
+        <v>0.4692020714198</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -9741,7 +9741,7 @@
         <v>2000</v>
       </c>
       <c r="D222" t="n">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E222" t="b">
         <v>1</v>
@@ -9751,19 +9751,19 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5701 , 0.975  , 0.60681]))</t>
+          <t>(TrackedArray([0.02682, 0.02561, 0.025  ]), TrackedArray([0.46699, 0.975  , 0.54432]))</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m803/m803.off</t>
+          <t>testModels/refined_db/8/m801/m801.off</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0.0001037527882258007</v>
+        <v>0.02356440389067259</v>
       </c>
       <c r="J222" t="n">
-        <v>0.30128957545635</v>
+        <v>0.2170203488597468</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -9780,7 +9780,7 @@
         <v>8</v>
       </c>
       <c r="C223" t="n">
-        <v>1900</v>
+        <v>1850</v>
       </c>
       <c r="D223" t="n">
         <v>1000</v>
@@ -9793,19 +9793,19 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70218, 0.975  , 0.66904]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.68578, 0.975  , 0.69614]))</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m804/m804.off</t>
+          <t>testModels/refined_db/8/m802/m802.off</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0.002552374671082288</v>
+        <v>6.509696913035947e-05</v>
       </c>
       <c r="J223" t="n">
-        <v>0.4143275475168</v>
+        <v>0.4212982889336</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -9822,10 +9822,10 @@
         <v>8</v>
       </c>
       <c r="C224" t="n">
-        <v>1992</v>
+        <v>2000</v>
       </c>
       <c r="D224" t="n">
-        <v>1000</v>
+        <v>1058</v>
       </c>
       <c r="E224" t="b">
         <v>1</v>
@@ -9835,19 +9835,19 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72976, 0.975  , 0.72976]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5701 , 0.975  , 0.60681]))</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m805/m805.off</t>
+          <t>testModels/refined_db/8/m803/m803.off</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0.0003921532034501675</v>
+        <v>0.0001037527882258007</v>
       </c>
       <c r="J224" t="n">
-        <v>0.4718550028118</v>
+        <v>0.30128957545635</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>1968</v>
+        <v>1900</v>
       </c>
       <c r="D225" t="n">
         <v>1000</v>
@@ -9877,19 +9877,19 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35829, 0.975  , 0.41154]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70218, 0.975  , 0.66904]))</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m806/m806.off</t>
+          <t>testModels/refined_db/8/m804/m804.off</t>
         </is>
       </c>
       <c r="I225" t="n">
-        <v>6.230126594257498e-05</v>
+        <v>0.002552374671082288</v>
       </c>
       <c r="J225" t="n">
-        <v>0.12238963667975</v>
+        <v>0.4143275475168</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -9906,7 +9906,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="n">
-        <v>1976</v>
+        <v>1992</v>
       </c>
       <c r="D226" t="n">
         <v>1000</v>
@@ -9919,19 +9919,19 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.405  , 0.975  , 0.40384]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72976, 0.975  , 0.72976]))</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m807/m807.off</t>
+          <t>testModels/refined_db/8/m805/m805.off</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>0.001213741904721069</v>
+        <v>0.0003921532034501675</v>
       </c>
       <c r="J226" t="n">
-        <v>0.136760518</v>
+        <v>0.4718550028118</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>1660</v>
+        <v>1968</v>
       </c>
       <c r="D227" t="n">
         <v>1000</v>
@@ -9961,19 +9961,19 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55085, 0.975  , 0.62458]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35829, 0.975  , 0.41154]))</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m808/m808.off</t>
+          <t>testModels/refined_db/8/m806/m806.off</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>0.0005334409098800224</v>
+        <v>6.230126594257498e-05</v>
       </c>
       <c r="J227" t="n">
-        <v>0.29952589509265</v>
+        <v>0.12238963667975</v>
       </c>
       <c r="K227" t="b">
         <v>0</v>
@@ -9990,7 +9990,7 @@
         <v>8</v>
       </c>
       <c r="C228" t="n">
-        <v>1940</v>
+        <v>1976</v>
       </c>
       <c r="D228" t="n">
         <v>1000</v>
@@ -10003,19 +10003,19 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.24254, 0.975  , 0.22572]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.405  , 0.975  , 0.40384]))</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m809/m809.off</t>
+          <t>testModels/refined_db/8/m807/m807.off</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>0.001741736583522547</v>
+        <v>0.001213741904721069</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04148136539820001</v>
+        <v>0.136760518</v>
       </c>
       <c r="K228" t="b">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>8</v>
       </c>
       <c r="C229" t="n">
-        <v>1944</v>
+        <v>1660</v>
       </c>
       <c r="D229" t="n">
         <v>1000</v>
@@ -10045,19 +10045,19 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38296, 0.975  , 0.3995 ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55085, 0.975  , 0.62458]))</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m810/m810.off</t>
+          <t>testModels/refined_db/8/m808/m808.off</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>0.0005863661447857373</v>
+        <v>0.0005334409098800224</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1273507914384</v>
+        <v>0.29952589509265</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
@@ -10074,10 +10074,10 @@
         <v>8</v>
       </c>
       <c r="C230" t="n">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="D230" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="E230" t="b">
         <v>1</v>
@@ -10087,19 +10087,19 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.53825, 0.975  , 0.55673]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.24254, 0.975  , 0.22572]))</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m811/m811.off</t>
+          <t>testModels/refined_db/8/m809/m809.off</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0.0003918203221181705</v>
+        <v>0.001741736583522547</v>
       </c>
       <c r="J230" t="n">
-        <v>0.2592673744301999</v>
+        <v>0.04148136539820001</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -10116,10 +10116,10 @@
         <v>8</v>
       </c>
       <c r="C231" t="n">
-        <v>1920</v>
+        <v>1944</v>
       </c>
       <c r="D231" t="n">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="E231" t="b">
         <v>1</v>
@@ -10129,19 +10129,19 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46015, 0.975  , 0.47582]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38296, 0.975  , 0.3995 ]))</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>testModels/refined_db/8/m812/m812.off</t>
+          <t>testModels/refined_db/8/m810/m810.off</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>9.637779485730415e-05</v>
+        <v>0.0005863661447857373</v>
       </c>
       <c r="J231" t="n">
-        <v>0.18636813187305</v>
+        <v>0.1273507914384</v>
       </c>
       <c r="K231" t="b">
         <v>0</v>
@@ -10155,13 +10155,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>1772</v>
+        <v>1920</v>
       </c>
       <c r="D232" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="E232" t="b">
         <v>1</v>
@@ -10171,19 +10171,19 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61843, 0.38125]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.53825, 0.975  , 0.55673]))</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m900/m900.off</t>
+          <t>testModels/refined_db/8/m811/m811.off</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0.0009292084722142014</v>
+        <v>0.0003918203221181705</v>
       </c>
       <c r="J232" t="n">
-        <v>0.2008387393843999</v>
+        <v>0.2592673744301999</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>1980</v>
+        <v>1920</v>
       </c>
       <c r="D233" t="n">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="E233" t="b">
         <v>1</v>
@@ -10213,19 +10213,19 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74465, 0.75526]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46015, 0.975  , 0.47582]))</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m901/m901.off</t>
+          <t>testModels/refined_db/8/m812/m812.off</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0.0008655712038301684</v>
+        <v>9.637779485730415e-05</v>
       </c>
       <c r="J233" t="n">
-        <v>0.4992543045531</v>
+        <v>0.18636813187305</v>
       </c>
       <c r="K233" t="b">
         <v>0</v>
@@ -10242,7 +10242,7 @@
         <v>9</v>
       </c>
       <c r="C234" t="n">
-        <v>1976</v>
+        <v>1772</v>
       </c>
       <c r="D234" t="n">
         <v>1000</v>
@@ -10255,19 +10255,19 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.59618, 0.43685]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61843, 0.38125]))</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m902/m902.off</t>
+          <t>testModels/refined_db/9/m900/m900.off</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0.002001445678988587</v>
+        <v>0.0009292084722142014</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2234783074855499</v>
+        <v>0.2008387393843999</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
@@ -10297,19 +10297,19 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.25027, 0.23617]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74465, 0.75526]))</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m903/m903.off</t>
+          <t>testModels/refined_db/9/m901/m901.off</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0.00108864211424962</v>
+        <v>0.0008655712038301684</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0451911105855</v>
+        <v>0.4992543045531</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>9</v>
       </c>
       <c r="C236" t="n">
-        <v>1896</v>
+        <v>1976</v>
       </c>
       <c r="D236" t="n">
         <v>1000</v>
@@ -10339,19 +10339,19 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40595, 0.975  , 0.40595]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.59618, 0.43685]))</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m904/m904.off</t>
+          <t>testModels/refined_db/9/m902/m902.off</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>9.153055386713679e-05</v>
+        <v>0.002001445678988587</v>
       </c>
       <c r="J236" t="n">
-        <v>0.13786748118095</v>
+        <v>0.2234783074855499</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
@@ -10368,10 +10368,10 @@
         <v>9</v>
       </c>
       <c r="C237" t="n">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="D237" t="n">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E237" t="b">
         <v>1</v>
@@ -10381,19 +10381,19 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.84105, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.25027, 0.23617]))</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m905/m905.off</t>
+          <t>testModels/refined_db/9/m903/m903.off</t>
         </is>
       </c>
       <c r="I237" t="n">
-        <v>0.01783165915719444</v>
+        <v>0.00108864211424962</v>
       </c>
       <c r="J237" t="n">
-        <v>0.7364851249999999</v>
+        <v>0.0451911105855</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -10410,7 +10410,7 @@
         <v>9</v>
       </c>
       <c r="C238" t="n">
-        <v>1956</v>
+        <v>1896</v>
       </c>
       <c r="D238" t="n">
         <v>1000</v>
@@ -10423,19 +10423,19 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73251, 0.35051, 0.975  ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40595, 0.975  , 0.40595]))</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m906/m906.off</t>
+          <t>testModels/refined_db/9/m904/m904.off</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>9.369465416477644e-05</v>
+        <v>9.153055386713679e-05</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2187877917004</v>
+        <v>0.13786748118095</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -10452,10 +10452,10 @@
         <v>9</v>
       </c>
       <c r="C239" t="n">
-        <v>1898</v>
+        <v>1972</v>
       </c>
       <c r="D239" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E239" t="b">
         <v>1</v>
@@ -10465,19 +10465,19 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46091, 0.975  , 0.46112]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.84105, 0.975  ]))</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m907/m907.off</t>
+          <t>testModels/refined_db/9/m905/m905.off</t>
         </is>
       </c>
       <c r="I239" t="n">
-        <v>9.091806591361756e-08</v>
+        <v>0.01783165915719444</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1806036165228</v>
+        <v>0.7364851249999999</v>
       </c>
       <c r="K239" t="b">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>9</v>
       </c>
       <c r="C240" t="n">
-        <v>1772</v>
+        <v>1956</v>
       </c>
       <c r="D240" t="n">
         <v>1000</v>
@@ -10507,19 +10507,19 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.38093, 0.5    ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73251, 0.35051, 0.975  ]))</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m908/m908.off</t>
+          <t>testModels/refined_db/9/m906/m906.off</t>
         </is>
       </c>
       <c r="I240" t="n">
-        <v>0.0006813556252919533</v>
+        <v>9.369465416477644e-05</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1606127350113</v>
+        <v>0.2187877917004</v>
       </c>
       <c r="K240" t="b">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>1974</v>
+        <v>1898</v>
       </c>
       <c r="D241" t="n">
         <v>1000</v>
@@ -10549,19 +10549,19 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.47863, 0.5    ]))</t>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46091, 0.975  , 0.46112]))</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>testModels/refined_db/9/m911/m911.off</t>
+          <t>testModels/refined_db/9/m907/m907.off</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0.004597958658645679</v>
+        <v>9.091806591361756e-08</v>
       </c>
       <c r="J241" t="n">
-        <v>0.20469828125</v>
+        <v>0.1806036165228</v>
       </c>
       <c r="K241" t="b">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>9</v>
       </c>
       <c r="C242" t="n">
-        <v>1988</v>
+        <v>1772</v>
       </c>
       <c r="D242" t="n">
         <v>1000</v>
@@ -10591,24 +10591,150 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.38093, 0.5    ]))</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>testModels/refined_db/9/m908/m908.off</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0.0006813556252919533</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.1606127350113</v>
+      </c>
+      <c r="K242" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>9</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>(TrackedArray([0.025  , 0.02623, 0.025  ]), TrackedArray([0.70357, 0.44378, 0.975  ]))</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>testModels/refined_db/9/m909/m909.off</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0.1286547542692651</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.2691700682120299</v>
+      </c>
+      <c r="K243" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+      <c r="F244" t="b">
+        <v>0</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.47863, 0.5    ]))</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>testModels/refined_db/9/m911/m911.off</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0.004597958658645679</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.20469828125</v>
+      </c>
+      <c r="K244" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>9</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
+      <c r="F245" t="b">
+        <v>0</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
           <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975, 0.5  , 0.5  ]))</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>testModels/refined_db/9/m912/m912.off</t>
         </is>
       </c>
-      <c r="I242" t="n">
+      <c r="I245" t="n">
         <v>0.001119938230630489</v>
       </c>
-      <c r="J242" t="n">
+      <c r="J245" t="n">
         <v>0.21434375</v>
       </c>
-      <c r="K242" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" t="b">
+      <c r="K245" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" t="b">
         <v>0</v>
       </c>
     </row>

--- a/features/refined.xlsx
+++ b/features/refined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,25 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>axis-aligned_bounding_box_distance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>barycentre_distance</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>subsampled_outlier</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>supersampled_outlier</t>
         </is>
@@ -511,7 +516,8 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64255, 0.54754, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64255 0.54754 0.975  ]]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -520,15 +526,18 @@
         </is>
       </c>
       <c r="I2" t="n">
+        <v>1.247764346373946</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.001128588651243942</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.30655993840855</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,7 +562,8 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42485, 0.38484, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42485 0.38484 0.975  ]]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -562,15 +572,18 @@
         </is>
       </c>
       <c r="I3" t="n">
+        <v>1.091729107906352</v>
+      </c>
+      <c r="J3" t="n">
         <v>9.551801129323896e-05</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.13669153135125</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
       <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,7 +608,8 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02781, 0.0288 , 0.0277 ]), TrackedArray([0.61425, 0.51177, 0.97144]))</t>
+          <t>[[0.02781 0.0288  0.0277 ]
+ [0.61425 0.51177 0.97144]]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -604,15 +618,18 @@
         </is>
       </c>
       <c r="I4" t="n">
+        <v>1.211531176028079</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.002091011267871346</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.2672931772209104</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
       <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -637,7 +654,8 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93141, 0.55633, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.93141 0.55633 0.975  ]]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -646,15 +664,18 @@
         </is>
       </c>
       <c r="I5" t="n">
+        <v>1.416469389383336</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.0002181919278635218</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.4575223871524</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
       <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -679,7 +700,8 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02533, 0.025  , 0.02531]), TrackedArray([0.55636, 0.97479, 0.3308 ]))</t>
+          <t>[[0.02533 0.025   0.02531]
+ [0.55636 0.97479 0.3308 ]]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -688,15 +710,18 @@
         </is>
       </c>
       <c r="I6" t="n">
+        <v>1.130233294427858</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.04229128673937838</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.1540810293435106</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
       <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -721,7 +746,8 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.04506, 0.02511]), TrackedArray([0.60958, 0.4506 , 0.87396]))</t>
+          <t>[[0.025   0.04506 0.02511]
+ [0.60958 0.4506  0.87396]]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -730,15 +756,18 @@
         </is>
       </c>
       <c r="I7" t="n">
+        <v>1.107583677465264</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.0007080805752065518</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.2012358677761338</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
       <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -763,7 +792,8 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02894, 0.06471, 0.02719]), TrackedArray([0.66421, 0.69995, 0.97097]))</t>
+          <t>[[0.02894 0.06471 0.02719]
+ [0.66421 0.69995 0.97097]]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -772,15 +802,18 @@
         </is>
       </c>
       <c r="I8" t="n">
+        <v>1.302999596164663</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.0003528625996153999</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.380858577350275</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
       <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -805,7 +838,8 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.57083, 0.57745, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.57083 0.57745 0.975  ]]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -814,15 +848,18 @@
         </is>
       </c>
       <c r="I9" t="n">
+        <v>1.227043079666317</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.001663017598728905</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.2864681436477</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
       <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -847,7 +884,8 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47849, 0.975  , 0.83422]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.47849 0.975   0.83422]]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -856,15 +894,18 @@
         </is>
       </c>
       <c r="I10" t="n">
+        <v>1.32777728494089</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.0001695031711757727</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.3486246117801</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
       <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -889,7 +930,8 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83044, 0.975  , 0.48259]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83044 0.975   0.48259]]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -898,15 +940,18 @@
         </is>
       </c>
       <c r="I11" t="n">
+        <v>1.326882396022345</v>
+      </c>
+      <c r="J11" t="n">
         <v>4.048062000433003e-05</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.35013334705725</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
       <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -931,7 +976,8 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55803, 0.45847, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55803 0.45847 0.975  ]]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -940,15 +986,18 @@
         </is>
       </c>
       <c r="I12" t="n">
+        <v>1.172398149487622</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.0005935419250623253</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0.21949979381205</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
       <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -973,7 +1022,8 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40879, 0.68516, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.40879 0.68516 0.975  ]]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -982,15 +1032,18 @@
         </is>
       </c>
       <c r="I13" t="n">
+        <v>1.218852574791964</v>
+      </c>
+      <c r="J13" t="n">
         <v>6.616314852405375e-07</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.2406917928752999</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
       <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1068,8 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.401  , 0.45062, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.401   0.45062 0.975  ]]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1024,15 +1078,18 @@
         </is>
       </c>
       <c r="I14" t="n">
+        <v>1.106811067727912</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.919625205564521e-05</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.1520326298799</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
       <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1057,7 +1114,8 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02507, 0.025  ]), TrackedArray([0.24728, 0.7261 , 0.97443]))</t>
+          <t>[[0.025   0.02507 0.025  ]
+ [0.24728 0.7261  0.97443]]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1066,15 +1124,18 @@
         </is>
       </c>
       <c r="I15" t="n">
+        <v>1.200947164103769</v>
+      </c>
+      <c r="J15" t="n">
         <v>5.49901721593121e-06</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>0.1479469358830862</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
-      </c>
       <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1099,7 +1160,8 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.78159, 0.28228]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.78159 0.28228]]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1108,15 +1170,18 @@
         </is>
       </c>
       <c r="I16" t="n">
+        <v>1.241420934077157</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.001100139451614678</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>0.1849215228111</v>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
       <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1141,7 +1206,8 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26955, 0.975  , 0.94648]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26955 0.975   0.94648]]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1150,15 +1216,18 @@
         </is>
       </c>
       <c r="I17" t="n">
+        <v>1.345894655967546</v>
+      </c>
+      <c r="J17" t="n">
         <v>2.79074049695288e-05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.21408164502945</v>
       </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
       <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1183,7 +1252,8 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21348, 0.65884, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.21348 0.65884 0.975  ]]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1192,15 +1262,18 @@
         </is>
       </c>
       <c r="I18" t="n">
+        <v>1.157487734708234</v>
+      </c>
+      <c r="J18" t="n">
         <v>7.07455410108259e-05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.11349285504</v>
       </c>
-      <c r="K18" t="b">
-        <v>0</v>
-      </c>
       <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1225,7 +1298,8 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26388, 0.88683, 0.97445]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26388 0.88683 0.97445]]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,15 +1308,18 @@
         </is>
       </c>
       <c r="I19" t="n">
+        <v>1.304328049240034</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.0003709931970644116</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.1954658192099429</v>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
-      </c>
       <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +1344,8 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02561, 0.02522, 0.025  ]), TrackedArray([0.97352, 0.90537, 0.28045]))</t>
+          <t>[[0.02561 0.02522 0.025  ]
+ [0.97352 0.90537 0.28045]]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1276,15 +1354,18 @@
         </is>
       </c>
       <c r="I20" t="n">
+        <v>1.318505840861603</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.002521077624268249</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>0.2131232253340034</v>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
       <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1309,7 +1390,8 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83322, 0.975  , 0.46559]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83322 0.975   0.46559]]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1318,15 +1400,18 @@
         </is>
       </c>
       <c r="I21" t="n">
+        <v>1.322815845100519</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.0002203437221922108</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0.3382912707369999</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
       <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1351,7 +1436,8 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47055, 0.7194 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.47055 0.7194  0.975  ]]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1360,15 +1446,18 @@
         </is>
       </c>
       <c r="I22" t="n">
+        <v>1.258254653756941</v>
+      </c>
+      <c r="J22" t="n">
         <v>8.178039550525055e-05</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.2939200007275</v>
       </c>
-      <c r="K22" t="b">
-        <v>0</v>
-      </c>
       <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1393,7 +1482,8 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41453, 0.67808, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.41453 0.67808 0.975  ]]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1402,15 +1492,18 @@
         </is>
       </c>
       <c r="I23" t="n">
+        <v>1.216860383331629</v>
+      </c>
+      <c r="J23" t="n">
         <v>8.415818058625767e-05</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0.24167553026045</v>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
-      </c>
       <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1435,7 +1528,8 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02795, 0.02623, 0.0257 ]), TrackedArray([0.93527, 0.97373, 0.65476]))</t>
+          <t>[[0.02795 0.02623 0.0257 ]
+ [0.93527 0.97373 0.65476]]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1444,15 +1538,18 @@
         </is>
       </c>
       <c r="I24" t="n">
+        <v>1.454884478254086</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.000111238886642469</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0.540789022467916</v>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
       <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1477,7 +1574,8 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02771, 0.025  , 0.02563]), TrackedArray([0.87762, 0.97323, 0.80699]))</t>
+          <t>[[0.02771 0.025   0.02563]
+ [0.87762 0.97323 0.80699]]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1486,15 +1584,18 @@
         </is>
       </c>
       <c r="I25" t="n">
+        <v>1.493986277394026</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.02001593797725536</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.6296980511265607</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
       <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1519,7 +1620,8 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66253, 0.975  , 0.625  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.66253 0.975   0.625  ]]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1528,15 +1630,18 @@
         </is>
       </c>
       <c r="I26" t="n">
+        <v>1.29187832289113</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.0008356273920594058</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.36339438</v>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
-      </c>
       <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1561,7 +1666,8 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.76804, 0.97246]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.76804 0.97246]]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1570,15 +1676,18 @@
         </is>
       </c>
       <c r="I27" t="n">
+        <v>1.533717126726112</v>
+      </c>
+      <c r="J27" t="n">
         <v>9.253109802878766e-05</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.6687993559893</v>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
-      </c>
       <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1603,7 +1712,8 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.04312, 0.025  , 0.02653]), TrackedArray([0.93314, 0.96441, 0.91737]))</t>
+          <t>[[0.04312 0.025   0.02653]
+ [0.93314 0.96441 0.91737]]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1612,15 +1722,18 @@
         </is>
       </c>
       <c r="I28" t="n">
+        <v>1.571056937246229</v>
+      </c>
+      <c r="J28" t="n">
         <v>6.471914523257583e-05</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.7448243204458793</v>
       </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
       <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1645,7 +1758,8 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74481, 0.8821 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.74481 0.8821 ]]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1654,15 +1768,18 @@
         </is>
       </c>
       <c r="I29" t="n">
+        <v>1.468075992815767</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.01562737112004103</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0.58610156302355</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
       <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1687,7 +1804,8 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.4855 , 0.975  , 0.49079]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.4855  0.975   0.49079]]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1696,15 +1814,18 @@
         </is>
       </c>
       <c r="I30" t="n">
+        <v>1.153913704410343</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.0009607159863721767</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.20376973537075</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
-      </c>
       <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1729,7 +1850,8 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.57974, 0.91903]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.57974 0.91903]]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1738,15 +1860,18 @@
         </is>
       </c>
       <c r="I31" t="n">
+        <v>1.417577701364197</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.0003745461207631591</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.4711576637420999</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
-      </c>
       <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1896,8 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75817, 0.95678, 0.74077]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75817 0.95678 0.74077]]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1780,15 +1906,18 @@
         </is>
       </c>
       <c r="I32" t="n">
+        <v>1.384951279233136</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.0005321389830738203</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>0.4889848948191648</v>
       </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
       <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1813,7 +1942,8 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.92355, 0.80832, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.92355 0.80832 0.975  ]]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1822,15 +1952,18 @@
         </is>
       </c>
       <c r="I33" t="n">
+        <v>1.524298349465747</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.008013361516485885</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.6686612839449999</v>
       </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
       <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1855,7 +1988,8 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02731]), TrackedArray([0.63316, 0.975  , 0.641  ]))</t>
+          <t>[[0.025   0.025   0.02731]
+ [0.63316 0.975   0.641  ]]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1864,15 +1998,18 @@
         </is>
       </c>
       <c r="I34" t="n">
+        <v>1.284122979159878</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.0001519574892347567</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0.3545595691624799</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
-      </c>
       <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1897,7 +2034,8 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.69178, 0.80365]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.69178 0.80365]]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1906,15 +2044,18 @@
         </is>
       </c>
       <c r="I35" t="n">
+        <v>1.397641926378856</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.001140764396477985</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>0.4932343272991999</v>
       </c>
-      <c r="K35" t="b">
-        <v>0</v>
-      </c>
       <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1939,7 +2080,8 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.87074, 0.975  , 0.85713]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.87074 0.975   0.85713]]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1948,15 +2090,18 @@
         </is>
       </c>
       <c r="I36" t="n">
+        <v>1.519939676648386</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.001168129703428432</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>0.66857728021875</v>
       </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
       <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1981,7 +2126,8 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.58112, 0.94357]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.58112 0.94357]]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1990,15 +2136,18 @@
         </is>
       </c>
       <c r="I37" t="n">
+        <v>1.433712606667389</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.006149865382329968</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>0.4852904050862999</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
       <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2023,7 +2172,8 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.23916, 0.975  , 0.20102]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.23916 0.975   0.20102]]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2032,15 +2182,18 @@
         </is>
       </c>
       <c r="I38" t="n">
+        <v>0.9896192890829281</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.001001596712580294</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0.0358110831519</v>
       </c>
-      <c r="K38" t="b">
-        <v>0</v>
-      </c>
       <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2218,8 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22878, 0.975  , 0.0543 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.22878 0.975   0.0543 ]]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2074,15 +2228,18 @@
         </is>
       </c>
       <c r="I39" t="n">
+        <v>0.9720523942896545</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.0003998407125325295</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>0.00567314313805</v>
       </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
       <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2107,7 +2264,8 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.20107, 0.975  , 0.05667]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.20107 0.975   0.05667]]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2116,15 +2274,18 @@
         </is>
       </c>
       <c r="I40" t="n">
+        <v>0.9666966432365637</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.003661211396463227</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>0.005296771457279999</v>
       </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
       <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2149,7 +2310,8 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.19853, 0.975  , 0.07148]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.19853 0.975   0.07148]]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2158,15 +2320,18 @@
         </is>
       </c>
       <c r="I41" t="n">
+        <v>0.9668362906719834</v>
+      </c>
+      <c r="J41" t="n">
         <v>6.546524668632805e-05</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>0.007662401278960001</v>
       </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
       <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2191,7 +2356,8 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.27899, 0.975  , 0.07379]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.27899 0.975   0.07379]]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2200,15 +2366,18 @@
         </is>
       </c>
       <c r="I42" t="n">
+        <v>0.9845779591674039</v>
+      </c>
+      <c r="J42" t="n">
         <v>4.673943217403463e-05</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>0.01177359342705</v>
       </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
       <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2233,7 +2402,8 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.28098, 0.09757]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.28098 0.09757]]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2242,15 +2412,18 @@
         </is>
       </c>
       <c r="I43" t="n">
+        <v>0.9865568195988511</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.006906446655506672</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>0.0176481641208</v>
       </c>
-      <c r="K43" t="b">
-        <v>0</v>
-      </c>
       <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2275,7 +2448,8 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29605, 0.08238]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.29605 0.08238]]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2284,15 +2458,18 @@
         </is>
       </c>
       <c r="I44" t="n">
+        <v>0.9895766878171949</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.00111596716660883</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>0.014774983832475</v>
       </c>
-      <c r="K44" t="b">
-        <v>0</v>
-      </c>
       <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2317,7 +2494,8 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.30425, 0.10107]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.30425 0.10107]]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2326,15 +2504,18 @@
         </is>
       </c>
       <c r="I45" t="n">
+        <v>0.9931090745698581</v>
+      </c>
+      <c r="J45" t="n">
         <v>1.520767617234729e-05</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>0.0201794797352</v>
       </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
       <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2359,7 +2540,8 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.53273, 0.09992]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.53273 0.09992]]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2368,15 +2550,18 @@
         </is>
       </c>
       <c r="I46" t="n">
+        <v>1.079768628234109</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.001279145112808925</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>0.036135303359298</v>
       </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2401,7 +2586,8 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5864 , 0.975  , 0.15718]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5864  0.975   0.15718]]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2410,15 +2596,18 @@
         </is>
       </c>
       <c r="I47" t="n">
+        <v>1.111369087225752</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.0001468203784335353</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>0.07049502607000001</v>
       </c>
-      <c r="K47" t="b">
-        <v>0</v>
-      </c>
       <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2443,7 +2632,8 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.14673, 0.975  , 0.39283]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.14673 0.975   0.39283]]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2452,15 +2642,18 @@
         </is>
       </c>
       <c r="I48" t="n">
+        <v>1.025972733435933</v>
+      </c>
+      <c r="J48" t="n">
         <v>9.88377534007533e-05</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>0.04253667849274999</v>
       </c>
-      <c r="K48" t="b">
-        <v>0</v>
-      </c>
       <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +2678,8 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.45527, 0.975  , 0.1609 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.45527 0.975   0.1609 ]]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2494,15 +2688,18 @@
         </is>
       </c>
       <c r="I49" t="n">
+        <v>1.051715190547802</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.0001456425971987212</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>0.0555498363525</v>
       </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
       <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2527,7 +2724,8 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.43172, 0.975  , 0.11844]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.43172 0.975   0.11844]]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2536,15 +2734,18 @@
         </is>
       </c>
       <c r="I50" t="n">
+        <v>1.037619817247628</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.001143572819615011</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>0.03610291686859999</v>
       </c>
-      <c r="K50" t="b">
-        <v>0</v>
-      </c>
       <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2569,7 +2770,8 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48372, 0.30041, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.48372 0.30041 0.975  ]]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2578,15 +2780,18 @@
         </is>
       </c>
       <c r="I51" t="n">
+        <v>1.090310127790254</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.0007692329172279734</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>0.12001996886445</v>
       </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
       <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2611,7 +2816,8 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.03083]), TrackedArray([0.975  , 0.67776, 0.3218 ]))</t>
+          <t>[[0.025   0.025   0.03083]
+ [0.975   0.67776 0.3218 ]]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2620,15 +2826,18 @@
         </is>
       </c>
       <c r="I52" t="n">
+        <v>1.188805780503207</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.003409543674008612</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>0.18043581049101</v>
       </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
       <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2653,7 +2862,8 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.56605, 0.23369, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.56605 0.23369 0.975  ]]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2662,15 +2872,18 @@
         </is>
       </c>
       <c r="I53" t="n">
+        <v>1.113010345470787</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.0003426011658734738</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>0.1072671295525</v>
       </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
       <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2695,7 +2908,8 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.49208, 0.975  , 0.27881]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.49208 0.975   0.27881]]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2704,15 +2918,18 @@
         </is>
       </c>
       <c r="I54" t="n">
+        <v>1.088614120992834</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.0001001373457971476</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>0.11261987743</v>
       </c>
-      <c r="K54" t="b">
-        <v>0</v>
-      </c>
       <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2737,7 +2954,8 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.66672, 0.33328, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.66672 0.33328 0.975  ]]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2746,15 +2964,18 @@
         </is>
       </c>
       <c r="I55" t="n">
+        <v>1.187157298157241</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.003864133223075146</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>0.1879373359802</v>
       </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
       <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2779,7 +3000,8 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.77429, 0.21695]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.77429 0.21695]]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2788,15 +3010,18 @@
         </is>
       </c>
       <c r="I56" t="n">
+        <v>1.225066446983591</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.0005786718425570698</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>0.1366358164875</v>
       </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
       <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2821,7 +3046,8 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83682, 0.2553 , 0.85985]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83682 0.2553  0.85985]]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2830,15 +3056,18 @@
         </is>
       </c>
       <c r="I57" t="n">
+        <v>1.187037960655429</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.002062400932598807</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>0.1560866223667202</v>
       </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
       <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2863,7 +3092,8 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.14863, 0.38288]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.14863 0.38288]]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2872,15 +3102,18 @@
         </is>
       </c>
       <c r="I58" t="n">
+        <v>1.022673126677826</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.0001626198961189347</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>0.04203211683450001</v>
       </c>
-      <c r="K58" t="b">
-        <v>0</v>
-      </c>
       <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2905,7 +3138,8 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.7186 , 0.21885, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.7186  0.21885 0.975  ]]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2914,15 +3148,18 @@
         </is>
       </c>
       <c r="I59" t="n">
+        <v>1.192121316693901</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.004521048326894825</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>0.12773090537</v>
       </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
       <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2947,7 +3184,8 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.93665, 0.27519, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.93665 0.27519 0.975  ]]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2956,15 +3194,18 @@
         </is>
       </c>
       <c r="I60" t="n">
+        <v>1.340223398204941</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.0001100594012178347</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>0.216677963555</v>
       </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
       <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2989,7 +3230,8 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67786, 0.22598, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.67786 0.22598 0.975  ]]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2998,15 +3240,18 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>1.170092787015201</v>
+      </c>
+      <c r="J61" t="n">
         <v>7.147201971254674e-05</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>0.124648111575</v>
       </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
       <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3276,8 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9181 , 0.31777, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.9181  0.31777 0.975  ]]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3040,15 +3286,18 @@
         </is>
       </c>
       <c r="I62" t="n">
+        <v>1.33635370999934</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.0009817496765913618</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>0.2484029286024999</v>
       </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
       <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3073,7 +3322,8 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.61683, 0.3182 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.61683 0.3182  0.975  ]]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3082,15 +3332,18 @@
         </is>
       </c>
       <c r="I63" t="n">
+        <v>1.157037115007552</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.003526694728257714</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>0.1648514127853999</v>
       </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
       <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3115,7 +3368,8 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72352, 0.17378, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.72352 0.17378 0.975  ]]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3124,15 +3378,18 @@
         </is>
       </c>
       <c r="I64" t="n">
+        <v>1.188512175002848</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.0005597091282378019</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>0.09872842770584998</v>
       </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
       <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3157,7 +3414,8 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64902, 0.13676, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64902 0.13676 0.975  ]]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3166,15 +3424,18 @@
         </is>
       </c>
       <c r="I65" t="n">
+        <v>1.142099984950967</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.001175331032504855</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>0.066256415535</v>
       </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
       <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3199,7 +3460,8 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21188, 0.28975, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.21188 0.28975 0.975  ]]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3208,15 +3470,18 @@
         </is>
       </c>
       <c r="I66" t="n">
+        <v>1.003753298246636</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.01892621760267958</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>0.0470046237255</v>
       </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
       <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3241,7 +3506,8 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.33293, 0.70357]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.33293 0.70357]]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3250,15 +3516,18 @@
         </is>
       </c>
       <c r="I67" t="n">
+        <v>1.207384372731816</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.0008220057171188623</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>0.1985021710586999</v>
       </c>
-      <c r="K67" t="b">
-        <v>0</v>
-      </c>
       <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3552,8 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.26651, 0.37327, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.26651 0.37327 0.975  ]]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3292,15 +3562,18 @@
         </is>
       </c>
       <c r="I68" t="n">
+        <v>1.040248930533937</v>
+      </c>
+      <c r="J68" t="n">
         <v>1.150663247492724e-05</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>0.07990405931970002</v>
       </c>
-      <c r="K68" t="b">
-        <v>0</v>
-      </c>
       <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3325,7 +3598,8 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02501, 0.025  , 0.025  ]), TrackedArray([0.975  , 0.2711 , 0.16668]))</t>
+          <t>[[0.02501 0.025   0.025  ]
+ [0.975   0.2711  0.16668]]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3334,15 +3608,18 @@
         </is>
       </c>
       <c r="I69" t="n">
+        <v>0.9915250094365258</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.0001257143179090445</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>0.03312430885913717</v>
       </c>
-      <c r="K69" t="b">
-        <v>0</v>
-      </c>
       <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3367,7 +3644,8 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02577, 0.02544, 0.02918]), TrackedArray([0.75119, 0.31084, 0.97343]))</t>
+          <t>[[0.02577 0.02544 0.02918]
+ [0.75119 0.31084 0.97343]]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3376,15 +3654,18 @@
         </is>
       </c>
       <c r="I70" t="n">
+        <v>1.224461234213619</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.0002646830280281575</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>0.1954899865206184</v>
       </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
       <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3409,7 +3690,8 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02689, 0.025  ]), TrackedArray([0.75396, 0.33694, 0.93553]))</t>
+          <t>[[0.025   0.02689 0.025  ]
+ [0.75396 0.33694 0.93553]]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3418,15 +3700,18 @@
         </is>
       </c>
       <c r="I71" t="n">
+        <v>1.206888219755144</v>
+      </c>
+      <c r="J71" t="n">
         <v>0.009338225776793019</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>0.2057923453636968</v>
       </c>
-      <c r="K71" t="b">
-        <v>0</v>
-      </c>
       <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3451,7 +3736,8 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.0257, 0.025 , 0.025 ]), TrackedArray([0.91534, 0.25119, 0.975  ]))</t>
+          <t>[[0.0257  0.025   0.025  ]
+ [0.91534 0.25119 0.975  ]]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3460,15 +3746,18 @@
         </is>
       </c>
       <c r="I72" t="n">
+        <v>1.321026368617765</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.006622230756970738</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>0.19116580091301</v>
       </c>
-      <c r="K72" t="b">
-        <v>0</v>
-      </c>
       <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3493,7 +3782,8 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02513]), TrackedArray([0.975  , 0.26251, 0.65235]))</t>
+          <t>[[0.025   0.025   0.02513]
+ [0.975   0.26251 0.65235]]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3502,15 +3792,18 @@
         </is>
       </c>
       <c r="I73" t="n">
+        <v>1.162894599665438</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.007984692804028779</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>0.14152593758984</v>
       </c>
-      <c r="K73" t="b">
-        <v>0</v>
-      </c>
       <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3535,7 +3828,8 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77452, 0.29927, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.77452 0.29927 0.975  ]]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3544,15 +3838,18 @@
         </is>
       </c>
       <c r="I74" t="n">
+        <v>1.24076761051375</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.006794646433714417</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>0.1952923078799999</v>
       </c>
-      <c r="K74" t="b">
-        <v>0</v>
-      </c>
       <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +3874,8 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.85188, 0.20723, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.85188 0.20723 0.975  ]]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3586,15 +3884,18 @@
         </is>
       </c>
       <c r="I75" t="n">
+        <v>1.272570883503548</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.0001760522075167385</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>0.1431480521615</v>
       </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
       <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3619,7 +3920,8 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.31124, 0.83969]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.31124 0.83969]]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3628,15 +3930,18 @@
         </is>
       </c>
       <c r="I76" t="n">
+        <v>1.283806548857342</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.0002925651252501293</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>0.2215414359629999</v>
       </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
       <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3661,7 +3966,8 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02506]), TrackedArray([0.6301 , 0.975  , 0.38365]))</t>
+          <t>[[0.025   0.025   0.02506]
+ [0.6301  0.975   0.38365]]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3670,15 +3976,18 @@
         </is>
       </c>
       <c r="I77" t="n">
+        <v>1.182048266816301</v>
+      </c>
+      <c r="J77" t="n">
         <v>8.059414583901581e-05</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>0.20613540484372</v>
       </c>
-      <c r="K77" t="b">
-        <v>0</v>
-      </c>
       <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3703,7 +4012,8 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.03131, 0.025  , 0.025  ]), TrackedArray([0.76555, 0.975  , 0.85058]))</t>
+          <t>[[0.03131 0.025   0.025  ]
+ [0.76555 0.975   0.85058]]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3712,15 +4022,18 @@
         </is>
       </c>
       <c r="I78" t="n">
+        <v>1.45711721119202</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.004712587196871368</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>0.5758650878099</v>
       </c>
-      <c r="K78" t="b">
-        <v>0</v>
-      </c>
       <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3745,7 +4058,8 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.80858, 0.975  , 0.81168]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.80858 0.975   0.81168]]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3754,15 +4068,18 @@
         </is>
       </c>
       <c r="I79" t="n">
+        <v>1.461287598956824</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.01780033779611463</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>0.5856046431026</v>
       </c>
-      <c r="K79" t="b">
-        <v>0</v>
-      </c>
       <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +4104,8 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61235, 0.85747]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.61235 0.85747]]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3796,15 +4114,18 @@
         </is>
       </c>
       <c r="I80" t="n">
+        <v>1.39301410057185</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.01452029923554244</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>0.4645027603037999</v>
       </c>
-      <c r="K80" t="b">
-        <v>0</v>
-      </c>
       <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +4150,8 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02743, 0.02575, 0.025  ]), TrackedArray([0.61293, 0.43973, 0.975  ]))</t>
+          <t>[[0.02743 0.02575 0.025  ]
+ [0.61293 0.43973 0.975  ]]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3838,15 +4160,18 @@
         </is>
       </c>
       <c r="I81" t="n">
+        <v>1.19024471085878</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.0006154185925107334</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>0.2302622381513685</v>
       </c>
-      <c r="K81" t="b">
-        <v>0</v>
-      </c>
       <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3871,7 +4196,8 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81075, 0.975  , 0.81075]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.81075 0.975   0.81075]]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3880,15 +4206,18 @@
         </is>
       </c>
       <c r="I82" t="n">
+        <v>1.461951233970887</v>
+      </c>
+      <c r="J82" t="n">
         <v>0.0003563967258500715</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>0.5865306699874999</v>
       </c>
-      <c r="K82" t="b">
-        <v>0</v>
-      </c>
       <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3913,7 +4242,8 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02649]), TrackedArray([0.81469, 0.975  , 0.25037]))</t>
+          <t>[[0.025   0.025   0.02649]
+ [0.81469 0.975   0.25037]]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3922,15 +4252,18 @@
         </is>
       </c>
       <c r="I83" t="n">
+        <v>1.25548307869959</v>
+      </c>
+      <c r="J83" t="n">
         <v>0.0002413983401218225</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>0.1679525695085</v>
       </c>
-      <c r="K83" t="b">
-        <v>0</v>
-      </c>
       <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3955,7 +4288,8 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83165, 0.35093, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83165 0.35093 0.975  ]]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3964,15 +4298,18 @@
         </is>
       </c>
       <c r="I84" t="n">
+        <v>1.28818178928364</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.0001116295244720499</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>0.24976478682495</v>
       </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
       <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3997,7 +4334,8 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.23856, 0.83462]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.23856 0.83462]]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4006,15 +4344,18 @@
         </is>
       </c>
       <c r="I85" t="n">
+        <v>1.266331911754576</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.007056182230732914</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>0.1642592688858</v>
       </c>
-      <c r="K85" t="b">
-        <v>0</v>
-      </c>
       <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4039,7 +4380,8 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.13148, 0.0261 , 0.02524]), TrackedArray([0.975  , 0.7382 , 0.23681]))</t>
+          <t>[[0.13148 0.0261  0.02524]
+ [0.975   0.7382  0.23681]]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4048,15 +4390,18 @@
         </is>
       </c>
       <c r="I86" t="n">
+        <v>1.123995996086765</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.0007134162460313905</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>0.127087700274078</v>
       </c>
-      <c r="K86" t="b">
-        <v>0</v>
-      </c>
       <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4081,7 +4426,8 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.29427, 0.39209]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.29427 0.39209]]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4090,15 +4436,18 @@
         </is>
       </c>
       <c r="I87" t="n">
+        <v>1.053452762170663</v>
+      </c>
+      <c r="J87" t="n">
         <v>2.193328297266475e-05</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>0.0939039850931</v>
       </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
       <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4123,7 +4472,8 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02644]), TrackedArray([0.97458, 0.2786 , 0.34559]))</t>
+          <t>[[0.025   0.025   0.02644]
+ [0.97458 0.2786  0.34559]]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4132,15 +4482,18 @@
         </is>
       </c>
       <c r="I88" t="n">
+        <v>1.03337912579818</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.000117486890281362</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>0.07685519992278263</v>
       </c>
-      <c r="K88" t="b">
-        <v>0</v>
-      </c>
       <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4165,7 +4518,8 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42768, 0.38091, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42768 0.38091 0.975  ]]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4174,15 +4528,18 @@
         </is>
       </c>
       <c r="I89" t="n">
+        <v>1.091476554304764</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.0001362474221328726</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>0.1361507547867</v>
       </c>
-      <c r="K89" t="b">
-        <v>0</v>
-      </c>
       <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4207,7 +4564,8 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02704, 0.02554, 0.025  ]), TrackedArray([0.53206, 0.42827, 0.97489]))</t>
+          <t>[[0.02704 0.02554 0.025  ]
+ [0.53206 0.42827 0.97489]]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4216,15 +4574,18 @@
         </is>
       </c>
       <c r="I90" t="n">
+        <v>1.148706732257407</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.0001388210274738878</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>0.1931969934807433</v>
       </c>
-      <c r="K90" t="b">
-        <v>0</v>
-      </c>
       <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4249,7 +4610,8 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.97409, 0.20525, 0.50484]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.97409 0.20525 0.50484]]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4258,15 +4620,18 @@
         </is>
       </c>
       <c r="I91" t="n">
+        <v>1.078653354655036</v>
+      </c>
+      <c r="J91" t="n">
         <v>4.437537130614373e-05</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>0.08208480723102471</v>
       </c>
-      <c r="K91" t="b">
-        <v>0</v>
-      </c>
       <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4291,7 +4656,8 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.06408, 0.02517, 0.025  ]), TrackedArray([0.975  , 0.21629, 0.20197]))</t>
+          <t>[[0.06408 0.02517 0.025  ]
+ [0.975   0.21629 0.20197]]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4300,15 +4666,18 @@
         </is>
       </c>
       <c r="I92" t="n">
+        <v>0.9474287630117185</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.0002090430137725759</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>0.03081156795887543</v>
       </c>
-      <c r="K92" t="b">
-        <v>0</v>
-      </c>
       <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4333,7 +4702,8 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.45047, 0.21271, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.45047 0.21271 0.975  ]]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4342,15 +4712,18 @@
         </is>
       </c>
       <c r="I93" t="n">
+        <v>1.057712489538154</v>
+      </c>
+      <c r="J93" t="n">
         <v>0.000763061452643511</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>0.0758695732669</v>
       </c>
-      <c r="K93" t="b">
-        <v>0</v>
-      </c>
       <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4375,7 +4748,8 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02538, 0.02584, 0.025  ]), TrackedArray([0.39093, 0.21041, 0.975  ]))</t>
+          <t>[[0.02538 0.02584 0.025  ]
+ [0.39093 0.21041 0.975  ]]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4384,15 +4758,18 @@
         </is>
       </c>
       <c r="I94" t="n">
+        <v>1.03449899679252</v>
+      </c>
+      <c r="J94" t="n">
         <v>0.002736953561726457</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>0.064095136089028</v>
       </c>
-      <c r="K94" t="b">
-        <v>0</v>
-      </c>
       <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4417,7 +4794,8 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5629 , 0.975  , 0.27664]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5629  0.975   0.27664]]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4426,15 +4804,18 @@
         </is>
       </c>
       <c r="I95" t="n">
+        <v>1.120340915805988</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.002602700666877749</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>0.1285923313505</v>
       </c>
-      <c r="K95" t="b">
-        <v>0</v>
-      </c>
       <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4459,7 +4840,8 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02616, 0.025  ]), TrackedArray([0.43774, 0.21308, 0.975  ]))</t>
+          <t>[[0.025   0.02616 0.025  ]
+ [0.43774 0.21308 0.975  ]]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4468,15 +4850,18 @@
         </is>
       </c>
       <c r="I96" t="n">
+        <v>1.052517509900097</v>
+      </c>
+      <c r="J96" t="n">
         <v>4.777849663171949e-05</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>0.07329229889968937</v>
       </c>
-      <c r="K96" t="b">
-        <v>0</v>
-      </c>
       <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4501,7 +4886,8 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02599, 0.025  , 0.02535]), TrackedArray([0.90104, 0.21188, 0.41958]))</t>
+          <t>[[0.02599 0.025   0.02535]
+ [0.90104 0.21188 0.41958]]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4510,15 +4896,18 @@
         </is>
       </c>
       <c r="I97" t="n">
+        <v>0.9777847488488842</v>
+      </c>
+      <c r="J97" t="n">
         <v>0.005582416191257463</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>0.06446981091001285</v>
       </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
       <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4543,7 +4932,8 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02627, 0.02759]), TrackedArray([0.55257, 0.38334, 0.97432]))</t>
+          <t>[[0.025   0.02627 0.02759]
+ [0.55257 0.38334 0.97432]]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4552,15 +4942,18 @@
         </is>
       </c>
       <c r="I98" t="n">
+        <v>1.141104739053937</v>
+      </c>
+      <c r="J98" t="n">
         <v>0.0008170746412675125</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>0.1783419466244083</v>
       </c>
-      <c r="K98" t="b">
-        <v>0</v>
-      </c>
       <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4585,7 +4978,8 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02542, 0.025  ]), TrackedArray([0.48804, 0.24521, 0.975  ]))</t>
+          <t>[[0.025   0.02542 0.025  ]
+ [0.48804 0.24521 0.975  ]]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4594,15 +4988,18 @@
         </is>
       </c>
       <c r="I99" t="n">
+        <v>1.079448937592582</v>
+      </c>
+      <c r="J99" t="n">
         <v>0.0001981177273161981</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>0.09668217581076249</v>
       </c>
-      <c r="K99" t="b">
-        <v>0</v>
-      </c>
       <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4627,7 +5024,8 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02542, 0.02793]), TrackedArray([0.58091, 0.25091, 0.975  ]))</t>
+          <t>[[0.025   0.02542 0.02793]
+ [0.58091 0.25091 0.975  ]]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4636,15 +5034,18 @@
         </is>
       </c>
       <c r="I100" t="n">
+        <v>1.121080964982358</v>
+      </c>
+      <c r="J100" t="n">
         <v>0.002206205841515308</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>0.1187194640253922</v>
       </c>
-      <c r="K100" t="b">
-        <v>0</v>
-      </c>
       <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4669,7 +5070,8 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02566, 0.02506, 0.08616]), TrackedArray([0.975  , 0.37951, 0.30876]))</t>
+          <t>[[0.02566 0.02506 0.08616]
+ [0.975   0.37951 0.30876]]</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4678,15 +5080,18 @@
         </is>
       </c>
       <c r="I101" t="n">
+        <v>1.037511703533634</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.0002070097858006946</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>0.0749049882704972</v>
       </c>
-      <c r="K101" t="b">
-        <v>0</v>
-      </c>
       <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4711,7 +5116,8 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.44467, 0.975  , 0.44465]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.44467 0.975   0.44465]]</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4720,15 +5126,18 @@
         </is>
       </c>
       <c r="I102" t="n">
+        <v>1.120146879405554</v>
+      </c>
+      <c r="J102" t="n">
         <v>9.439483501531951e-05</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>0.16730878970505</v>
       </c>
-      <c r="K102" t="b">
-        <v>0</v>
-      </c>
       <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4753,7 +5162,8 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02515, 0.025  , 0.02547]), TrackedArray([0.55444, 0.975  , 0.55466]))</t>
+          <t>[[0.02515 0.025   0.02547]
+ [0.55444 0.975   0.55466]]</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4762,15 +5172,18 @@
         </is>
       </c>
       <c r="I103" t="n">
+        <v>1.209415502753121</v>
+      </c>
+      <c r="J103" t="n">
         <v>0.002578564223150819</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>0.2660882782253305</v>
       </c>
-      <c r="K103" t="b">
-        <v>0</v>
-      </c>
       <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4795,7 +5208,8 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40504, 0.975  , 0.40504]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.40504 0.975   0.40504]]</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4804,15 +5218,18 @@
         </is>
       </c>
       <c r="I104" t="n">
+        <v>1.091497541853393</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.008580857115677729</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>0.1372117698392</v>
       </c>
-      <c r="K104" t="b">
-        <v>0</v>
-      </c>
       <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4837,7 +5254,8 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38436, 0.975  , 0.38436]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38436 0.975   0.38436]]</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4846,15 +5264,18 @@
         </is>
       </c>
       <c r="I105" t="n">
+        <v>1.077393977039968</v>
+      </c>
+      <c r="J105" t="n">
         <v>3.853955313552502e-05</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>0.12268194633695</v>
       </c>
-      <c r="K105" t="b">
-        <v>0</v>
-      </c>
       <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4879,7 +5300,8 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41408, 0.975  , 0.41408]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.41408 0.975   0.41408]]</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4888,15 +5310,18 @@
         </is>
       </c>
       <c r="I106" t="n">
+        <v>1.097845588633483</v>
+      </c>
+      <c r="J106" t="n">
         <v>1.274828048049146e-05</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>0.14381334482895</v>
       </c>
-      <c r="K106" t="b">
-        <v>0</v>
-      </c>
       <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4921,7 +5346,8 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65833, 0.975  , 0.65833]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.65833 0.975   0.65833]]</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4930,15 +5356,18 @@
         </is>
       </c>
       <c r="I107" t="n">
+        <v>1.305649791398138</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.0003784436554312623</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>0.3810551544445499</v>
       </c>
-      <c r="K107" t="b">
-        <v>0</v>
-      </c>
       <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4963,7 +5392,8 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62958, 0.975  , 0.62256]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.62958 0.975   0.62256]]</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4972,15 +5402,18 @@
         </is>
       </c>
       <c r="I108" t="n">
+        <v>1.274790711723693</v>
+      </c>
+      <c r="J108" t="n">
         <v>0.0001938189799029178</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>0.3432074538341999</v>
       </c>
-      <c r="K108" t="b">
-        <v>0</v>
-      </c>
       <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5005,7 +5438,8 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.51879, 0.975  , 0.51879]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.51879 0.975   0.51879]]</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5014,15 +5448,18 @@
         </is>
       </c>
       <c r="I109" t="n">
+        <v>1.179050922788325</v>
+      </c>
+      <c r="J109" t="n">
         <v>0.001863367174068295</v>
       </c>
-      <c r="J109" t="n">
+      <c r="K109" t="n">
         <v>0.2316390123008</v>
       </c>
-      <c r="K109" t="b">
-        <v>0</v>
-      </c>
       <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5047,7 +5484,8 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.825, 0.975, 0.825]))</t>
+          <t>[[0.025 0.025 0.025]
+ [0.825 0.975 0.825]]</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5056,15 +5494,18 @@
         </is>
       </c>
       <c r="I110" t="n">
+        <v>1.477328670269416</v>
+      </c>
+      <c r="J110" t="n">
         <v>0.0006723467433310803</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>0.6079999999999999</v>
       </c>
-      <c r="K110" t="b">
-        <v>0</v>
-      </c>
       <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5530,8 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.52637, 0.975  , 0.52637]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.52637 0.975   0.52637]]</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5098,15 +5540,18 @@
         </is>
       </c>
       <c r="I111" t="n">
+        <v>1.185427238331396</v>
+      </c>
+      <c r="J111" t="n">
         <v>0.0005535211715929728</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>0.23880042525455</v>
       </c>
-      <c r="K111" t="b">
-        <v>0</v>
-      </c>
       <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5131,7 +5576,8 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02755, 0.025  , 0.02579]), TrackedArray([0.64483, 0.97377, 0.64485]))</t>
+          <t>[[0.02755 0.025   0.02579]
+ [0.64483 0.97377 0.64485]]</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5140,15 +5586,18 @@
         </is>
       </c>
       <c r="I112" t="n">
+        <v>1.290132820909043</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.002347549363785614</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>0.3625587841525305</v>
       </c>
-      <c r="K112" t="b">
-        <v>0</v>
-      </c>
       <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5173,7 +5622,8 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.51206, 0.51206]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.51206 0.51206]]</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5182,15 +5632,18 @@
         </is>
       </c>
       <c r="I113" t="n">
+        <v>1.173433059893064</v>
+      </c>
+      <c r="J113" t="n">
         <v>0.01221719617312509</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>0.22536144437375</v>
       </c>
-      <c r="K113" t="b">
-        <v>0</v>
-      </c>
       <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5215,7 +5668,8 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.42415, 0.975  , 0.42415]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.42415 0.975   0.42415]]</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5224,15 +5678,18 @@
         </is>
       </c>
       <c r="I114" t="n">
+        <v>1.105053772406121</v>
+      </c>
+      <c r="J114" t="n">
         <v>0.0009737015829369376</v>
       </c>
-      <c r="J114" t="n">
+      <c r="K114" t="n">
         <v>0.1513558239525</v>
       </c>
-      <c r="K114" t="b">
-        <v>0</v>
-      </c>
       <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5257,7 +5714,8 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.65212, 0.67346]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.65212 0.67346]]</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5266,15 +5724,18 @@
         </is>
       </c>
       <c r="I115" t="n">
+        <v>1.310067610527793</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.0002595797743515228</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>0.38632799271675</v>
       </c>
-      <c r="K115" t="b">
-        <v>0</v>
-      </c>
       <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5299,7 +5760,8 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.67155, 0.51296]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.67155 0.51296]]</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5308,15 +5770,18 @@
         </is>
       </c>
       <c r="I116" t="n">
+        <v>1.248454249236631</v>
+      </c>
+      <c r="J116" t="n">
         <v>0.0003256482532381133</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>0.2997184795742999</v>
       </c>
-      <c r="K116" t="b">
-        <v>0</v>
-      </c>
       <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5341,7 +5806,8 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.62052, 0.51775]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.62052 0.51775]]</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5350,15 +5816,18 @@
         </is>
       </c>
       <c r="I117" t="n">
+        <v>1.224722447332456</v>
+      </c>
+      <c r="J117" t="n">
         <v>2.588757236525528e-05</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>0.2787690292414</v>
       </c>
-      <c r="K117" t="b">
-        <v>0</v>
-      </c>
       <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5383,7 +5852,8 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.747  , 0.92806, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.747   0.92806 0.975  ]]</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5392,15 +5862,18 @@
         </is>
       </c>
       <c r="I118" t="n">
+        <v>1.496428934991903</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.0002290956153548778</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>0.6194081680999999</v>
       </c>
-      <c r="K118" t="b">
-        <v>0</v>
-      </c>
       <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5425,7 +5898,8 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84983, 0.975  , 0.72195]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84983 0.975   0.72195]]</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5434,15 +5908,18 @@
         </is>
       </c>
       <c r="I119" t="n">
+        <v>1.438257793672956</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.001421575442965421</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>0.5461226671774999</v>
       </c>
-      <c r="K119" t="b">
-        <v>0</v>
-      </c>
       <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5467,7 +5944,8 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55562, 0.975  , 0.07764]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55562 0.975   0.07764]]</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5476,15 +5954,18 @@
         </is>
       </c>
       <c r="I120" t="n">
+        <v>1.089417952181462</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.002820113843535704</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>0.02653413475437499</v>
       </c>
-      <c r="K120" t="b">
-        <v>0</v>
-      </c>
       <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5509,7 +5990,8 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5    , 0.975  , 0.05667]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5     0.975   0.05667]]</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5518,15 +6000,18 @@
         </is>
       </c>
       <c r="I121" t="n">
+        <v>1.06260424424566</v>
+      </c>
+      <c r="J121" t="n">
         <v>5.857766921831757e-05</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>0.014289598375</v>
       </c>
-      <c r="K121" t="b">
-        <v>0</v>
-      </c>
       <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5551,7 +6036,8 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.54525, 0.975  , 0.28195]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.54525 0.975   0.28195]]</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5560,15 +6046,18 @@
         </is>
       </c>
       <c r="I122" t="n">
+        <v>1.113186380187074</v>
+      </c>
+      <c r="J122" t="n">
         <v>1.42993296264344e-05</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>0.12699258673075</v>
       </c>
-      <c r="K122" t="b">
-        <v>0</v>
-      </c>
       <c r="L122" t="b">
+        <v>0</v>
+      </c>
+      <c r="M122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5593,7 +6082,8 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.56786, 0.975  , 0.05214]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.56786 0.975   0.05214]]</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5602,15 +6092,18 @@
         </is>
       </c>
       <c r="I123" t="n">
+        <v>1.094500095691823</v>
+      </c>
+      <c r="J123" t="n">
         <v>0.0001095037987462303</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>0.01399797760203499</v>
       </c>
-      <c r="K123" t="b">
-        <v>0</v>
-      </c>
       <c r="L123" t="b">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5635,7 +6128,8 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.03732, 0.975  , 0.52805]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.03732 0.975   0.52805]]</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5644,15 +6138,18 @@
         </is>
       </c>
       <c r="I124" t="n">
+        <v>1.075038678492751</v>
+      </c>
+      <c r="J124" t="n">
         <v>0.000290587587511644</v>
       </c>
-      <c r="J124" t="n">
+      <c r="K124" t="n">
         <v>0.005889478087669998</v>
       </c>
-      <c r="K124" t="b">
-        <v>0</v>
-      </c>
       <c r="L124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5677,7 +6174,8 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.54442, 0.975  , 0.12   ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.54442 0.975   0.12   ]]</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5686,15 +6184,18 @@
         </is>
       </c>
       <c r="I125" t="n">
+        <v>1.086887700240002</v>
+      </c>
+      <c r="J125" t="n">
         <v>8.404519034926232e-06</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>0.0468769388463</v>
       </c>
-      <c r="K125" t="b">
-        <v>0</v>
-      </c>
       <c r="L125" t="b">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5719,7 +6220,8 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.32038, 0.975  , 0.10412]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.32038 0.975   0.10412]]</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5728,15 +6230,18 @@
         </is>
       </c>
       <c r="I126" t="n">
+        <v>0.9980030611300749</v>
+      </c>
+      <c r="J126" t="n">
         <v>0.001137275236758443</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>0.022203345375</v>
       </c>
-      <c r="K126" t="b">
-        <v>0</v>
-      </c>
       <c r="L126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5761,7 +6266,8 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.47673, 0.975  , 0.08917]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.47673 0.975   0.08917]]</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5770,15 +6276,18 @@
         </is>
       </c>
       <c r="I127" t="n">
+        <v>1.053887661808885</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.003204769759372565</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>0.0275369728818</v>
       </c>
-      <c r="K127" t="b">
-        <v>0</v>
-      </c>
       <c r="L127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5803,7 +6312,8 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.8712 , 0.65191]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.8712  0.65191]]</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5812,15 +6322,18 @@
         </is>
       </c>
       <c r="I128" t="n">
+        <v>1.41829552211096</v>
+      </c>
+      <c r="J128" t="n">
         <v>0.0007225758261929412</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>0.5039622732186</v>
       </c>
-      <c r="K128" t="b">
-        <v>0</v>
-      </c>
       <c r="L128" t="b">
+        <v>0</v>
+      </c>
+      <c r="M128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5845,7 +6358,8 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.78085, 0.83819]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.78085 0.83819]]</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5854,15 +6368,18 @@
         </is>
       </c>
       <c r="I129" t="n">
+        <v>1.461194118391188</v>
+      </c>
+      <c r="J129" t="n">
         <v>0.0003167345196984919</v>
       </c>
-      <c r="J129" t="n">
+      <c r="K129" t="n">
         <v>0.5839181688284999</v>
       </c>
-      <c r="K129" t="b">
-        <v>0</v>
-      </c>
       <c r="L129" t="b">
+        <v>0</v>
+      </c>
+      <c r="M129" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5887,7 +6404,8 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.90526, 0.44575]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.90526 0.44575]]</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5896,15 +6414,18 @@
         </is>
       </c>
       <c r="I130" t="n">
+        <v>1.361756683682147</v>
+      </c>
+      <c r="J130" t="n">
         <v>0.0004077507440233057</v>
       </c>
-      <c r="J130" t="n">
+      <c r="K130" t="n">
         <v>0.3518480536242</v>
       </c>
-      <c r="K130" t="b">
-        <v>0</v>
-      </c>
       <c r="L130" t="b">
+        <v>0</v>
+      </c>
+      <c r="M130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5929,7 +6450,8 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73553, 0.975  , 0.85395]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.73553 0.975   0.85395]]</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5938,15 +6460,18 @@
         </is>
       </c>
       <c r="I131" t="n">
+        <v>1.447238862622546</v>
+      </c>
+      <c r="J131" t="n">
         <v>0.0007215191531999146</v>
       </c>
-      <c r="J131" t="n">
+      <c r="K131" t="n">
         <v>0.5595389763159</v>
       </c>
-      <c r="K131" t="b">
-        <v>0</v>
-      </c>
       <c r="L131" t="b">
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5971,7 +6496,8 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70752, 0.975  , 0.48476]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.70752 0.975   0.48476]]</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5980,15 +6506,18 @@
         </is>
       </c>
       <c r="I132" t="n">
+        <v>1.256869168696567</v>
+      </c>
+      <c r="J132" t="n">
         <v>7.215956106538072e-05</v>
       </c>
-      <c r="J132" t="n">
+      <c r="K132" t="n">
         <v>0.2981086693236</v>
       </c>
-      <c r="K132" t="b">
-        <v>0</v>
-      </c>
       <c r="L132" t="b">
+        <v>0</v>
+      </c>
+      <c r="M132" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6013,7 +6542,8 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.48994, 0.975  , 0.60072]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.48994 0.975   0.60072]]</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6022,15 +6552,18 @@
         </is>
       </c>
       <c r="I133" t="n">
+        <v>1.204210506332676</v>
+      </c>
+      <c r="J133" t="n">
         <v>0.05585142169507501</v>
       </c>
-      <c r="J133" t="n">
+      <c r="K133" t="n">
         <v>0.25429138871805</v>
       </c>
-      <c r="K133" t="b">
-        <v>0</v>
-      </c>
       <c r="L133" t="b">
+        <v>0</v>
+      </c>
+      <c r="M133" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6055,7 +6588,8 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84519, 0.975  , 0.4957 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84519 0.975   0.4957 ]]</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6064,15 +6598,18 @@
         </is>
       </c>
       <c r="I134" t="n">
+        <v>1.340434526613292</v>
+      </c>
+      <c r="J134" t="n">
         <v>0.002827437226209654</v>
       </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
         <v>0.3667566974668</v>
       </c>
-      <c r="K134" t="b">
-        <v>0</v>
-      </c>
       <c r="L134" t="b">
+        <v>0</v>
+      </c>
+      <c r="M134" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6097,7 +6634,8 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02507]), TrackedArray([0.97499, 0.29545, 0.78001]))</t>
+          <t>[[0.025   0.025   0.02507]
+ [0.97499 0.29545 0.78001]]</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6106,15 +6644,18 @@
         </is>
       </c>
       <c r="I135" t="n">
+        <v>1.24320547715792</v>
+      </c>
+      <c r="J135" t="n">
         <v>0.0002050879109151642</v>
       </c>
-      <c r="J135" t="n">
+      <c r="K135" t="n">
         <v>0.1939622290898825</v>
       </c>
-      <c r="K135" t="b">
-        <v>0</v>
-      </c>
       <c r="L135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6139,7 +6680,8 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.0253 , 0.025  , 0.02641]), TrackedArray([0.75965, 0.97467, 0.89351]))</t>
+          <t>[[0.0253  0.025   0.02641]
+ [0.75965 0.97467 0.89351]]</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6148,15 +6690,18 @@
         </is>
       </c>
       <c r="I136" t="n">
+        <v>1.480879211133201</v>
+      </c>
+      <c r="J136" t="n">
         <v>0.0002804006306083219</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>0.6047076643583081</v>
       </c>
-      <c r="K136" t="b">
-        <v>0</v>
-      </c>
       <c r="L136" t="b">
+        <v>0</v>
+      </c>
+      <c r="M136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6181,7 +6726,8 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.43987, 0.74236]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.43987 0.74236]]</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6190,15 +6736,18 @@
         </is>
       </c>
       <c r="I137" t="n">
+        <v>1.260646785218628</v>
+      </c>
+      <c r="J137" t="n">
         <v>6.62367552083392e-05</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
         <v>0.2827346647726125</v>
       </c>
-      <c r="K137" t="b">
-        <v>0</v>
-      </c>
       <c r="L137" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6223,7 +6772,8 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.41852, 0.64447]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.41852 0.64447]]</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6232,15 +6782,18 @@
         </is>
       </c>
       <c r="I138" t="n">
+        <v>1.200458176014891</v>
+      </c>
+      <c r="J138" t="n">
         <v>0.003807553361538634</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>0.231584768836</v>
       </c>
-      <c r="K138" t="b">
-        <v>0</v>
-      </c>
       <c r="L138" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6265,7 +6818,8 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.81967, 0.975  , 0.76731]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.81967 0.975   0.76731]]</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -6274,15 +6828,18 @@
         </is>
       </c>
       <c r="I139" t="n">
+        <v>1.443965078112694</v>
+      </c>
+      <c r="J139" t="n">
         <v>0.04134317872577265</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>0.5604020983959999</v>
       </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
       <c r="L139" t="b">
+        <v>1</v>
+      </c>
+      <c r="M139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6307,7 +6864,8 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.51789, 0.975  , 0.23201]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.51789 0.975   0.23201]]</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -6316,15 +6874,18 @@
         </is>
       </c>
       <c r="I140" t="n">
+        <v>1.090089605626987</v>
+      </c>
+      <c r="J140" t="n">
         <v>0.003457919933838735</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>0.09693337393699998</v>
       </c>
-      <c r="K140" t="b">
-        <v>0</v>
-      </c>
       <c r="L140" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6349,7 +6910,8 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69061, 0.975  , 0.90844]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.69061 0.975   0.90844]]</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6358,15 +6920,18 @@
         </is>
       </c>
       <c r="I141" t="n">
+        <v>1.458079038579871</v>
+      </c>
+      <c r="J141" t="n">
         <v>0.001776032701170532</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>0.55862034481525</v>
       </c>
-      <c r="K141" t="b">
-        <v>0</v>
-      </c>
       <c r="L141" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6391,7 +6956,8 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8151, 0.975 , 0.975 ]))</t>
+          <t>[[0.025  0.025  0.025 ]
+ [0.8151 0.975  0.975 ]]</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6400,15 +6966,18 @@
         </is>
       </c>
       <c r="I142" t="n">
+        <v>1.558603352054011</v>
+      </c>
+      <c r="J142" t="n">
         <v>0.0001896231235768128</v>
       </c>
-      <c r="J142" t="n">
+      <c r="K142" t="n">
         <v>0.7130584857292499</v>
       </c>
-      <c r="K142" t="b">
-        <v>0</v>
-      </c>
       <c r="L142" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6433,7 +7002,8 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.33925, 0.23597, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.33925 0.23597 0.975  ]]</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6442,15 +7012,18 @@
         </is>
       </c>
       <c r="I143" t="n">
+        <v>1.022623014685764</v>
+      </c>
+      <c r="J143" t="n">
         <v>0.0002837317748171907</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>0.0629806609719</v>
       </c>
-      <c r="K143" t="b">
-        <v>0</v>
-      </c>
       <c r="L143" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6475,7 +7048,8 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02628, 0.02705, 0.02548]), TrackedArray([0.63678, 0.25394, 0.97375]))</t>
+          <t>[[0.02628 0.02705 0.02548]
+ [0.63678 0.25394 0.97375]]</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6484,15 +7058,18 @@
         </is>
       </c>
       <c r="I144" t="n">
+        <v>1.150391508743971</v>
+      </c>
+      <c r="J144" t="n">
         <v>0.000939762173212977</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>0.1313481068883787</v>
       </c>
-      <c r="K144" t="b">
-        <v>0</v>
-      </c>
       <c r="L144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6517,7 +7094,8 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.29562, 0.975  , 0.22571]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.29562 0.975   0.22571]]</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6526,15 +7104,18 @@
         </is>
       </c>
       <c r="I145" t="n">
+        <v>1.00797922353241</v>
+      </c>
+      <c r="J145" t="n">
         <v>0.0006072481049821962</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>0.0516014193972</v>
       </c>
-      <c r="K145" t="b">
-        <v>0</v>
-      </c>
       <c r="L145" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6559,7 +7140,8 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34261, 0.975  , 0.23433]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.34261 0.975   0.23433]]</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6568,15 +7150,18 @@
         </is>
       </c>
       <c r="I146" t="n">
+        <v>1.023323896568921</v>
+      </c>
+      <c r="J146" t="n">
         <v>0.001653070593139881</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>0.06315912987</v>
       </c>
-      <c r="K146" t="b">
-        <v>0</v>
-      </c>
       <c r="L146" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6601,7 +7186,8 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02532, 0.025  ]), TrackedArray([0.34076, 0.975  , 0.35374]))</t>
+          <t>[[0.025   0.02532 0.025  ]
+ [0.34076 0.975   0.35374]]</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6610,15 +7196,18 @@
         </is>
       </c>
       <c r="I147" t="n">
+        <v>1.053407132144305</v>
+      </c>
+      <c r="J147" t="n">
         <v>0.00396861225089334</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>0.09857900194311661</v>
       </c>
-      <c r="K147" t="b">
-        <v>0</v>
-      </c>
       <c r="L147" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6643,7 +7232,8 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38362, 0.975  , 0.23181]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38362 0.975   0.23181]]</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6652,15 +7242,18 @@
         </is>
       </c>
       <c r="I148" t="n">
+        <v>1.036280791909702</v>
+      </c>
+      <c r="J148" t="n">
         <v>2.670555781424664e-05</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>0.070458809638</v>
       </c>
-      <c r="K148" t="b">
-        <v>0</v>
-      </c>
       <c r="L148" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6685,7 +7278,8 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02513, 0.02568, 0.025  ]), TrackedArray([0.28338, 0.26072, 0.975  ]))</t>
+          <t>[[0.02513 0.02568 0.025  ]
+ [0.28338 0.26072 0.975  ]]</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6694,15 +7288,18 @@
         </is>
       </c>
       <c r="I149" t="n">
+        <v>1.012145591729887</v>
+      </c>
+      <c r="J149" t="n">
         <v>0.0003548928812371215</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>0.0576650118421395</v>
       </c>
-      <c r="K149" t="b">
-        <v>0</v>
-      </c>
       <c r="L149" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6727,7 +7324,8 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35405, 0.975  , 0.30667]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.35405 0.975   0.30667]]</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6736,15 +7334,18 @@
         </is>
       </c>
       <c r="I150" t="n">
+        <v>1.044085023672043</v>
+      </c>
+      <c r="J150" t="n">
         <v>5.349485371259765e-05</v>
       </c>
-      <c r="J150" t="n">
+      <c r="K150" t="n">
         <v>0.08805000679124998</v>
       </c>
-      <c r="K150" t="b">
-        <v>0</v>
-      </c>
       <c r="L150" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6769,7 +7370,8 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.36873, 0.975  , 0.17902]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.36873 0.975   0.17902]]</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6778,15 +7380,18 @@
         </is>
       </c>
       <c r="I151" t="n">
+        <v>1.021946711135175</v>
+      </c>
+      <c r="J151" t="n">
         <v>0.0003140748820751251</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>0.0502958286896</v>
       </c>
-      <c r="K151" t="b">
-        <v>0</v>
-      </c>
       <c r="L151" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6811,7 +7416,8 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38194, 0.975  , 0.31104]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38194 0.975   0.31104]]</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6820,15 +7426,18 @@
         </is>
       </c>
       <c r="I152" t="n">
+        <v>1.05438392941945</v>
+      </c>
+      <c r="J152" t="n">
         <v>0.01624755330297743</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>0.09699395964644997</v>
       </c>
-      <c r="K152" t="b">
-        <v>0</v>
-      </c>
       <c r="L152" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6853,7 +7462,8 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.62253, 0.975  , 0.59893]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.62253 0.975   0.59893]]</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6862,15 +7472,18 @@
         </is>
       </c>
       <c r="I153" t="n">
+        <v>1.260531743969187</v>
+      </c>
+      <c r="J153" t="n">
         <v>0.0008127520156074057</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>0.3257943964477499</v>
       </c>
-      <c r="K153" t="b">
-        <v>0</v>
-      </c>
       <c r="L153" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6895,7 +7508,8 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02597, 0.02534, 0.025  ]), TrackedArray([0.33997, 0.975  , 0.22678]))</t>
+          <t>[[0.02597 0.02534 0.025  ]
+ [0.33997 0.975   0.22678]]</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6904,15 +7518,18 @@
         </is>
       </c>
       <c r="I154" t="n">
+        <v>1.020372006457896</v>
+      </c>
+      <c r="J154" t="n">
         <v>0.000148417752121326</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>0.06016784844962889</v>
       </c>
-      <c r="K154" t="b">
-        <v>0</v>
-      </c>
       <c r="L154" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6937,7 +7554,8 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02525, 0.025  , 0.025  ]), TrackedArray([0.55587, 0.975  , 0.18318]))</t>
+          <t>[[0.02525 0.025   0.025  ]
+ [0.55587 0.975   0.18318]]</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6946,15 +7564,18 @@
         </is>
       </c>
       <c r="I155" t="n">
+        <v>1.099582577966477</v>
+      </c>
+      <c r="J155" t="n">
         <v>0.000192326725852214</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>0.07973589433900749</v>
       </c>
-      <c r="K155" t="b">
-        <v>0</v>
-      </c>
       <c r="L155" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6979,7 +7600,8 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.33993]), TrackedArray([0.6431 , 0.7627 , 0.93675]))</t>
+          <t>[[0.025   0.025   0.33993]
+ [0.6431  0.7627  0.93675]]</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6988,15 +7610,18 @@
         </is>
       </c>
       <c r="I156" t="n">
+        <v>1.132450674582783</v>
+      </c>
+      <c r="J156" t="n">
         <v>0.0001202384744380356</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>0.272133783058827</v>
       </c>
-      <c r="K156" t="b">
-        <v>0</v>
-      </c>
       <c r="L156" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7021,7 +7646,8 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02525, 0.03264, 0.0261 ]), TrackedArray([0.75382, 0.97081, 0.63105]))</t>
+          <t>[[0.02525 0.03264 0.0261 ]
+ [0.75382 0.97081 0.63105]]</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7030,15 +7656,18 @@
         </is>
       </c>
       <c r="I157" t="n">
+        <v>1.333023005307115</v>
+      </c>
+      <c r="J157" t="n">
         <v>0.001048168744597838</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>0.4134992908987142</v>
       </c>
-      <c r="K157" t="b">
-        <v>0</v>
-      </c>
       <c r="L157" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7063,7 +7692,8 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.80541, 0.975  , 0.62967]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.80541 0.975   0.62967]]</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7072,15 +7702,18 @@
         </is>
       </c>
       <c r="I158" t="n">
+        <v>1.370100396629751</v>
+      </c>
+      <c r="J158" t="n">
         <v>0.0005407938724259463</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>0.4483006778439</v>
       </c>
-      <c r="K158" t="b">
-        <v>0</v>
-      </c>
       <c r="L158" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7105,7 +7738,8 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.03142, 0.025  , 0.02883]), TrackedArray([0.65709, 0.93737, 0.82117]))</t>
+          <t>[[0.03142 0.025   0.02883]
+ [0.65709 0.93737 0.82117]]</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7114,15 +7748,18 @@
         </is>
       </c>
       <c r="I159" t="n">
+        <v>1.360765266042642</v>
+      </c>
+      <c r="J159" t="n">
         <v>0.001854419643948343</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>0.4522998240886907</v>
       </c>
-      <c r="K159" t="b">
-        <v>0</v>
-      </c>
       <c r="L159" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7147,7 +7784,8 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02762, 0.02984, 0.025  ]), TrackedArray([0.84612, 0.975  , 0.69556]))</t>
+          <t>[[0.02762 0.02984 0.025  ]
+ [0.84612 0.975   0.69556]]</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7156,15 +7794,18 @@
         </is>
       </c>
       <c r="I160" t="n">
+        <v>1.418775736254477</v>
+      </c>
+      <c r="J160" t="n">
         <v>0.002030565915336429</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>0.5187557308928008</v>
       </c>
-      <c r="K160" t="b">
-        <v>0</v>
-      </c>
       <c r="L160" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7189,7 +7830,8 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.6181, 0.975 , 0.396 ]))</t>
+          <t>[[0.025  0.025  0.025 ]
+ [0.6181 0.975  0.396 ]]</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7198,15 +7840,18 @@
         </is>
       </c>
       <c r="I161" t="n">
+        <v>1.179792078933932</v>
+      </c>
+      <c r="J161" t="n">
         <v>1.530281713993768e-06</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>0.209037285782875</v>
       </c>
-      <c r="K161" t="b">
-        <v>0</v>
-      </c>
       <c r="L161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7231,7 +7876,8 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.71887, 0.975  , 0.78672]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.71887 0.975   0.78672]]</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7240,15 +7886,18 @@
         </is>
       </c>
       <c r="I162" t="n">
+        <v>1.401488648273685</v>
+      </c>
+      <c r="J162" t="n">
         <v>2.341670441681879e-05</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>0.5021063473894</v>
       </c>
-      <c r="K162" t="b">
-        <v>0</v>
-      </c>
       <c r="L162" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7273,7 +7922,8 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.63945, 0.975  , 0.51401]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.63945 0.975   0.51401]]</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -7282,15 +7932,18 @@
         </is>
       </c>
       <c r="I163" t="n">
+        <v>1.232551233085262</v>
+      </c>
+      <c r="J163" t="n">
         <v>6.111145618118018e-05</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>0.2854492755504</v>
       </c>
-      <c r="K163" t="b">
-        <v>0</v>
-      </c>
       <c r="L163" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7315,7 +7968,8 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.23115, 0.07805, 0.19339]), TrackedArray([0.75438, 0.70673, 0.5953 ]))</t>
+          <t>[[0.23115 0.07805 0.19339]
+ [0.75438 0.70673 0.5953 ]]</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -7324,15 +7978,18 @@
         </is>
       </c>
       <c r="I164" t="n">
+        <v>0.9113371447232029</v>
+      </c>
+      <c r="J164" t="n">
         <v>0.01052753312013204</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>0.1322045364234216</v>
       </c>
-      <c r="K164" t="b">
-        <v>0</v>
-      </c>
       <c r="L164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7357,7 +8014,8 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.30229, 0.04558, 0.25926]), TrackedArray([0.6731 , 0.61515, 0.5093 ]))</t>
+          <t>[[0.30229 0.04558 0.25926]
+ [0.6731  0.61515 0.5093 ]]</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -7366,15 +8024,18 @@
         </is>
       </c>
       <c r="I165" t="n">
+        <v>0.7241823698966234</v>
+      </c>
+      <c r="J165" t="n">
         <v>0.008974052305715593</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>0.05281058128250497</v>
       </c>
-      <c r="K165" t="b">
-        <v>0</v>
-      </c>
       <c r="L165" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7399,7 +8060,8 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.23425, 0.05685, 0.284  ]), TrackedArray([0.71682, 0.74959, 0.62391]))</t>
+          <t>[[0.23425 0.05685 0.284  ]
+ [0.71682 0.74959 0.62391]]</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7408,15 +8070,18 @@
         </is>
       </c>
       <c r="I166" t="n">
+        <v>0.9101165666852571</v>
+      </c>
+      <c r="J166" t="n">
         <v>0.0004095426204450699</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>0.1136338104024872</v>
       </c>
-      <c r="K166" t="b">
-        <v>0</v>
-      </c>
       <c r="L166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7441,7 +8106,8 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.08813, 0.10002, 0.50198]), TrackedArray([0.65888, 0.91122, 0.82095]))</t>
+          <t>[[0.08813 0.10002 0.50198]
+ [0.65888 0.91122 0.82095]]</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7450,15 +8116,18 @@
         </is>
       </c>
       <c r="I167" t="n">
+        <v>1.041890427934963</v>
+      </c>
+      <c r="J167" t="n">
         <v>0.01308954885147542</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>0.1476800088861087</v>
       </c>
-      <c r="K167" t="b">
-        <v>0</v>
-      </c>
       <c r="L167" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7483,7 +8152,8 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.28297, 0.06398, 0.33871]), TrackedArray([0.81271, 0.77804, 0.69657]))</t>
+          <t>[[0.28297 0.06398 0.33871]
+ [0.81271 0.77804 0.69657]]</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7492,15 +8162,18 @@
         </is>
       </c>
       <c r="I168" t="n">
+        <v>0.958421073282949</v>
+      </c>
+      <c r="J168" t="n">
         <v>0.007327154878724271</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>0.1353662284264502</v>
       </c>
-      <c r="K168" t="b">
-        <v>0</v>
-      </c>
       <c r="L168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7525,7 +8198,8 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.77845, 0.7886 , 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.77845 0.7886  0.975  ]]</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7534,15 +8208,18 @@
         </is>
       </c>
       <c r="I169" t="n">
+        <v>1.43292478180573</v>
+      </c>
+      <c r="J169" t="n">
         <v>8.387901771784022e-05</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>0.5465683954868</v>
       </c>
-      <c r="K169" t="b">
-        <v>0</v>
-      </c>
       <c r="L169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7567,7 +8244,8 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.20617, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.20617 0.975  ]]</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7576,15 +8254,18 @@
         </is>
       </c>
       <c r="I170" t="n">
+        <v>1.355663013643509</v>
+      </c>
+      <c r="J170" t="n">
         <v>0.00688476899420628</v>
       </c>
-      <c r="J170" t="n">
+      <c r="K170" t="n">
         <v>0.1635050225</v>
       </c>
-      <c r="K170" t="b">
-        <v>0</v>
-      </c>
       <c r="L170" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7609,7 +8290,8 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.65003, 0.86934, 0.66553]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.65003 0.86934 0.66553]]</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7618,15 +8300,18 @@
         </is>
       </c>
       <c r="I171" t="n">
+        <v>1.23038616634642</v>
+      </c>
+      <c r="J171" t="n">
         <v>3.907739824051586e-05</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>0.3380309797309754</v>
       </c>
-      <c r="K171" t="b">
-        <v>0</v>
-      </c>
       <c r="L171" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7651,7 +8336,8 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.54083, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.54083 0.975  ]]</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7660,15 +8346,18 @@
         </is>
       </c>
       <c r="I172" t="n">
+        <v>1.439124490558952</v>
+      </c>
+      <c r="J172" t="n">
         <v>1.309223256524143e-05</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>0.4655354468749999</v>
       </c>
-      <c r="K172" t="b">
-        <v>0</v>
-      </c>
       <c r="L172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7693,7 +8382,8 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.42795, 0.74551]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.42795 0.74551]]</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7702,15 +8392,18 @@
         </is>
       </c>
       <c r="I173" t="n">
+        <v>1.258569343594941</v>
+      </c>
+      <c r="J173" t="n">
         <v>5.21951864195198e-05</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>0.2758108135843</v>
       </c>
-      <c r="K173" t="b">
-        <v>0</v>
-      </c>
       <c r="L173" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7735,7 +8428,8 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.85936, 0.94405]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.85936 0.94405]]</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7744,15 +8438,18 @@
         </is>
       </c>
       <c r="I174" t="n">
+        <v>1.563109563360563</v>
+      </c>
+      <c r="J174" t="n">
         <v>0.005765611137574878</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>0.7284791810999249</v>
       </c>
-      <c r="K174" t="b">
-        <v>0</v>
-      </c>
       <c r="L174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7777,7 +8474,8 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02849, 0.025  , 0.0286 ]), TrackedArray([0.70029, 0.83082, 0.67491]))</t>
+          <t>[[0.02849 0.025   0.0286 ]
+ [0.70029 0.83082 0.67491]]</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7786,15 +8484,18 @@
         </is>
       </c>
       <c r="I175" t="n">
+        <v>1.232231902228153</v>
+      </c>
+      <c r="J175" t="n">
         <v>0.005361999908066115</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>0.3498858068595418</v>
       </c>
-      <c r="K175" t="b">
-        <v>0</v>
-      </c>
       <c r="L175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7819,7 +8520,8 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79938, 0.975  , 0.75603]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.79938 0.975   0.75603]]</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7828,15 +8530,18 @@
         </is>
       </c>
       <c r="I176" t="n">
+        <v>1.427083181839797</v>
+      </c>
+      <c r="J176" t="n">
         <v>0.00176998790828089</v>
       </c>
-      <c r="J176" t="n">
+      <c r="K176" t="n">
         <v>0.5377887483226499</v>
       </c>
-      <c r="K176" t="b">
-        <v>0</v>
-      </c>
       <c r="L176" t="b">
+        <v>0</v>
+      </c>
+      <c r="M176" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7861,7 +8566,8 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.64481, 0.59293, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.64481 0.59293 0.975  ]]</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7870,15 +8576,18 @@
         </is>
       </c>
       <c r="I177" t="n">
+        <v>1.268549202659873</v>
+      </c>
+      <c r="J177" t="n">
         <v>0.0007162348157667853</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>0.334412281809</v>
       </c>
-      <c r="K177" t="b">
-        <v>0</v>
-      </c>
       <c r="L177" t="b">
+        <v>0</v>
+      </c>
+      <c r="M177" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7903,7 +8612,8 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.22146, 0.70817]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.22146 0.70817]]</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7912,15 +8622,18 @@
         </is>
       </c>
       <c r="I178" t="n">
+        <v>1.186516203335631</v>
+      </c>
+      <c r="J178" t="n">
         <v>0.02738742607315515</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>0.12750341215795</v>
       </c>
-      <c r="K178" t="b">
-        <v>0</v>
-      </c>
       <c r="L178" t="b">
+        <v>0</v>
+      </c>
+      <c r="M178" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7945,7 +8658,8 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.44198, 0.94572]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.44198 0.94572]]</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7954,15 +8668,18 @@
         </is>
       </c>
       <c r="I179" t="n">
+        <v>1.387119430403165</v>
+      </c>
+      <c r="J179" t="n">
         <v>0.4426165134704702</v>
       </c>
-      <c r="J179" t="n">
+      <c r="K179" t="n">
         <v>0.36472700513595</v>
       </c>
-      <c r="K179" t="b">
-        <v>0</v>
-      </c>
       <c r="L179" t="b">
+        <v>0</v>
+      </c>
+      <c r="M179" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7987,7 +8704,8 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.70357, 0.45049]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.70357 0.45049]]</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7996,15 +8714,18 @@
         </is>
       </c>
       <c r="I180" t="n">
+        <v>1.242577760609774</v>
+      </c>
+      <c r="J180" t="n">
         <v>0.356823088341781</v>
       </c>
-      <c r="J180" t="n">
+      <c r="K180" t="n">
         <v>0.2742882714080499</v>
       </c>
-      <c r="K180" t="b">
-        <v>0</v>
-      </c>
       <c r="L180" t="b">
+        <v>0</v>
+      </c>
+      <c r="M180" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8029,7 +8750,8 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.12811, 0.51158]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.12811 0.51158]]</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -8038,15 +8760,18 @@
         </is>
       </c>
       <c r="I181" t="n">
+        <v>1.072332333898871</v>
+      </c>
+      <c r="J181" t="n">
         <v>0.02426980825759749</v>
       </c>
-      <c r="J181" t="n">
+      <c r="K181" t="n">
         <v>0.04766319038249999</v>
       </c>
-      <c r="K181" t="b">
-        <v>0</v>
-      </c>
       <c r="L181" t="b">
+        <v>0</v>
+      </c>
+      <c r="M181" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8071,7 +8796,8 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.95964, 0.89686, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.95964 0.89686 0.975  ]]</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8080,15 +8806,18 @@
         </is>
       </c>
       <c r="I182" t="n">
+        <v>1.592543649839464</v>
+      </c>
+      <c r="J182" t="n">
         <v>0.0006964191987781477</v>
       </c>
-      <c r="J182" t="n">
+      <c r="K182" t="n">
         <v>0.774133244696</v>
       </c>
-      <c r="K182" t="b">
-        <v>0</v>
-      </c>
       <c r="L182" t="b">
+        <v>0</v>
+      </c>
+      <c r="M182" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8113,7 +8842,8 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67754, 0.975  , 0.67754]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.67754 0.975   0.67754]]</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -8122,15 +8852,18 @@
         </is>
       </c>
       <c r="I183" t="n">
+        <v>1.324428813824284</v>
+      </c>
+      <c r="J183" t="n">
         <v>0.0001625845650226333</v>
       </c>
-      <c r="J183" t="n">
+      <c r="K183" t="n">
         <v>0.4045155493718</v>
       </c>
-      <c r="K183" t="b">
-        <v>0</v>
-      </c>
       <c r="L183" t="b">
+        <v>0</v>
+      </c>
+      <c r="M183" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8155,7 +8888,8 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.67501, 0.975  , 0.67501]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.67501 0.975   0.67501]]</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -8164,15 +8898,18 @@
         </is>
       </c>
       <c r="I184" t="n">
+        <v>1.321937290531589</v>
+      </c>
+      <c r="J184" t="n">
         <v>0.002764792734748884</v>
       </c>
-      <c r="J184" t="n">
+      <c r="K184" t="n">
         <v>0.4013836450465499</v>
       </c>
-      <c r="K184" t="b">
-        <v>0</v>
-      </c>
       <c r="L184" t="b">
+        <v>0</v>
+      </c>
+      <c r="M184" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8197,7 +8934,8 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.8853, 0.975 , 0.5708]))</t>
+          <t>[[0.025  0.025  0.025 ]
+ [0.8853 0.975  0.5708]]</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -8206,15 +8944,18 @@
         </is>
       </c>
       <c r="I185" t="n">
+        <v>1.393023127530193</v>
+      </c>
+      <c r="J185" t="n">
         <v>0.002016172263500733</v>
       </c>
-      <c r="J185" t="n">
+      <c r="K185" t="n">
         <v>0.44607162209075</v>
       </c>
-      <c r="K185" t="b">
-        <v>0</v>
-      </c>
       <c r="L185" t="b">
+        <v>0</v>
+      </c>
+      <c r="M185" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8239,7 +8980,8 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.73697, 0.77026]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.73697 0.77026]]</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -8248,15 +8990,18 @@
         </is>
       </c>
       <c r="I186" t="n">
+        <v>1.401717149502709</v>
+      </c>
+      <c r="J186" t="n">
         <v>2.155574185068136e-05</v>
       </c>
-      <c r="J186" t="n">
+      <c r="K186" t="n">
         <v>0.50407117646765</v>
       </c>
-      <c r="K186" t="b">
-        <v>0</v>
-      </c>
       <c r="L186" t="b">
+        <v>0</v>
+      </c>
+      <c r="M186" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8281,7 +9026,8 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02521, 0.02544, 0.025  ]), TrackedArray([0.97299, 0.65558, 0.92819]))</t>
+          <t>[[0.02521 0.02544 0.025  ]
+ [0.97299 0.65558 0.92819]]</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -8290,15 +9036,18 @@
         </is>
       </c>
       <c r="I187" t="n">
+        <v>1.452969295531331</v>
+      </c>
+      <c r="J187" t="n">
         <v>0.00526397823374702</v>
       </c>
-      <c r="J187" t="n">
+      <c r="K187" t="n">
         <v>0.5394184393397173</v>
       </c>
-      <c r="K187" t="b">
-        <v>0</v>
-      </c>
       <c r="L187" t="b">
+        <v>0</v>
+      </c>
+      <c r="M187" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8323,7 +9072,8 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.97449, 0.38986, 0.68268]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.97449 0.38986 0.68268]]</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -8332,15 +9082,18 @@
         </is>
       </c>
       <c r="I188" t="n">
+        <v>1.211280159364979</v>
+      </c>
+      <c r="J188" t="n">
         <v>0.0003049739221834936</v>
       </c>
-      <c r="J188" t="n">
+      <c r="K188" t="n">
         <v>0.2278390717677797</v>
       </c>
-      <c r="K188" t="b">
-        <v>0</v>
-      </c>
       <c r="L188" t="b">
+        <v>0</v>
+      </c>
+      <c r="M188" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8365,7 +9118,8 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02504, 0.025  ]), TrackedArray([0.975  , 0.69504, 0.67724]))</t>
+          <t>[[0.025   0.02504 0.025  ]
+ [0.975   0.69504 0.67724]]</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -8374,15 +9128,18 @@
         </is>
       </c>
       <c r="I189" t="n">
+        <v>1.332972862109912</v>
+      </c>
+      <c r="J189" t="n">
         <v>0.0004915109394796224</v>
       </c>
-      <c r="J189" t="n">
+      <c r="K189" t="n">
         <v>0.415150557238935</v>
       </c>
-      <c r="K189" t="b">
-        <v>0</v>
-      </c>
       <c r="L189" t="b">
+        <v>0</v>
+      </c>
+      <c r="M189" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8407,7 +9164,8 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.80951, 0.62492]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.80951 0.62492]]</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -8416,15 +9174,18 @@
         </is>
       </c>
       <c r="I190" t="n">
+        <v>1.370350199642777</v>
+      </c>
+      <c r="J190" t="n">
         <v>2.593299697940728e-05</v>
       </c>
-      <c r="J190" t="n">
+      <c r="K190" t="n">
         <v>0.4471125239474999</v>
       </c>
-      <c r="K190" t="b">
-        <v>0</v>
-      </c>
       <c r="L190" t="b">
+        <v>0</v>
+      </c>
+      <c r="M190" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8449,7 +9210,8 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.0254, 0.025 , 0.025 ]), TrackedArray([0.97303, 0.88927, 0.71394]))</t>
+          <t>[[0.0254  0.025   0.025  ]
+ [0.97303 0.88927 0.71394]]</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8458,15 +9220,18 @@
         </is>
       </c>
       <c r="I191" t="n">
+        <v>1.455887628705265</v>
+      </c>
+      <c r="J191" t="n">
         <v>0.001541805271098911</v>
       </c>
-      <c r="J191" t="n">
+      <c r="K191" t="n">
         <v>0.5642497394150771</v>
       </c>
-      <c r="K191" t="b">
-        <v>0</v>
-      </c>
       <c r="L191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8491,7 +9256,8 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.60961, 0.97479, 0.52201]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.60961 0.97479 0.52201]]</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8500,15 +9266,18 @@
         </is>
       </c>
       <c r="I192" t="n">
+        <v>1.221017099646438</v>
+      </c>
+      <c r="J192" t="n">
         <v>0.0004058991979104314</v>
       </c>
-      <c r="J192" t="n">
+      <c r="K192" t="n">
         <v>0.2759672917384885</v>
       </c>
-      <c r="K192" t="b">
-        <v>0</v>
-      </c>
       <c r="L192" t="b">
+        <v>0</v>
+      </c>
+      <c r="M192" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8533,7 +9302,8 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.9522 , 0.975  , 0.92067]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.9522  0.975   0.92067]]</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8542,15 +9312,18 @@
         </is>
       </c>
       <c r="I193" t="n">
+        <v>1.601384923037869</v>
+      </c>
+      <c r="J193" t="n">
         <v>0.02789926138668109</v>
       </c>
-      <c r="J193" t="n">
+      <c r="K193" t="n">
         <v>0.7889463070987</v>
       </c>
-      <c r="K193" t="b">
-        <v>0</v>
-      </c>
       <c r="L193" t="b">
+        <v>0</v>
+      </c>
+      <c r="M193" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8575,7 +9348,8 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.79759, 0.975  , 0.79759]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.79759 0.975   0.79759]]</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8584,15 +9358,18 @@
         </is>
       </c>
       <c r="I194" t="n">
+        <v>1.447854048285945</v>
+      </c>
+      <c r="J194" t="n">
         <v>0.003047668860747743</v>
       </c>
-      <c r="J194" t="n">
+      <c r="K194" t="n">
         <v>0.56704613894055</v>
       </c>
-      <c r="K194" t="b">
-        <v>0</v>
-      </c>
       <c r="L194" t="b">
+        <v>0</v>
+      </c>
+      <c r="M194" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8617,7 +9394,8 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02693, 0.02586, 0.02617]), TrackedArray([0.48928, 0.76584, 0.97387]))</t>
+          <t>[[0.02693 0.02586 0.02617]
+ [0.48928 0.76584 0.97387]]</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8626,15 +9404,18 @@
         </is>
       </c>
       <c r="I195" t="n">
+        <v>1.288202519032243</v>
+      </c>
+      <c r="J195" t="n">
         <v>0.002188264251238722</v>
       </c>
-      <c r="J195" t="n">
+      <c r="K195" t="n">
         <v>0.3242315189462048</v>
       </c>
-      <c r="K195" t="b">
-        <v>0</v>
-      </c>
       <c r="L195" t="b">
+        <v>0</v>
+      </c>
+      <c r="M195" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8659,7 +9440,8 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02796, 0.02501, 0.02509]), TrackedArray([0.975  , 0.93453, 0.95622]))</t>
+          <t>[[0.02796 0.02501 0.02509]
+ [0.975   0.93453 0.95622]]</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8668,15 +9450,18 @@
         </is>
       </c>
       <c r="I196" t="n">
+        <v>1.609695305018285</v>
+      </c>
+      <c r="J196" t="n">
         <v>0.001129485291517668</v>
       </c>
-      <c r="J196" t="n">
+      <c r="K196" t="n">
         <v>0.8020325620060286</v>
       </c>
-      <c r="K196" t="b">
-        <v>0</v>
-      </c>
       <c r="L196" t="b">
+        <v>0</v>
+      </c>
+      <c r="M196" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8701,7 +9486,8 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02509, 0.025  , 0.025  ]), TrackedArray([0.4276 , 0.975  , 0.59325]))</t>
+          <t>[[0.02509 0.025   0.025  ]
+ [0.4276  0.975   0.59325]]</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8710,15 +9496,18 @@
         </is>
       </c>
       <c r="I197" t="n">
+        <v>1.17788909701177</v>
+      </c>
+      <c r="J197" t="n">
         <v>0.0007723776362440639</v>
       </c>
-      <c r="J197" t="n">
+      <c r="K197" t="n">
         <v>0.217290235051875</v>
       </c>
-      <c r="K197" t="b">
-        <v>0</v>
-      </c>
       <c r="L197" t="b">
+        <v>0</v>
+      </c>
+      <c r="M197" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8743,7 +9532,8 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.58332, 0.84655, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.58332 0.84655 0.975  ]]</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8752,15 +9542,18 @@
         </is>
       </c>
       <c r="I198" t="n">
+        <v>1.374469430393052</v>
+      </c>
+      <c r="J198" t="n">
         <v>0.000745184319603115</v>
       </c>
-      <c r="J198" t="n">
+      <c r="K198" t="n">
         <v>0.4357544367391</v>
       </c>
-      <c r="K198" t="b">
-        <v>0</v>
-      </c>
       <c r="L198" t="b">
+        <v>0</v>
+      </c>
+      <c r="M198" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8785,7 +9578,8 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.69906, 0.975  , 0.15606]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.69906 0.975   0.15606]]</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8794,15 +9588,18 @@
         </is>
       </c>
       <c r="I199" t="n">
+        <v>1.172191349027965</v>
+      </c>
+      <c r="J199" t="n">
         <v>0.02392622713249805</v>
       </c>
-      <c r="J199" t="n">
+      <c r="K199" t="n">
         <v>0.083922626992</v>
       </c>
-      <c r="K199" t="b">
-        <v>0</v>
-      </c>
       <c r="L199" t="b">
+        <v>0</v>
+      </c>
+      <c r="M199" t="b">
         <v>1</v>
       </c>
     </row>
@@ -8827,7 +9624,8 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.50208, 0.975  , 0.83687]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.50208 0.975   0.83687]]</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8836,15 +9634,18 @@
         </is>
       </c>
       <c r="I200" t="n">
+        <v>1.337621205580264</v>
+      </c>
+      <c r="J200" t="n">
         <v>0.002287657914562828</v>
       </c>
-      <c r="J200" t="n">
+      <c r="K200" t="n">
         <v>0.36795691912105</v>
       </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
       <c r="L200" t="b">
+        <v>1</v>
+      </c>
+      <c r="M200" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8869,7 +9670,8 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.83864, 0.975  , 0.45899]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.83864 0.975   0.45899]]</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8878,15 +9680,18 @@
         </is>
       </c>
       <c r="I201" t="n">
+        <v>1.323951757680392</v>
+      </c>
+      <c r="J201" t="n">
         <v>0.01730747197990135</v>
       </c>
-      <c r="J201" t="n">
+      <c r="K201" t="n">
         <v>0.3354520743954</v>
       </c>
-      <c r="K201" t="b">
-        <v>0</v>
-      </c>
       <c r="L201" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8911,7 +9716,8 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.34539, 0.975  , 0.84361]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.34539 0.975   0.84361]]</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8920,15 +9726,18 @@
         </is>
       </c>
       <c r="I202" t="n">
+        <v>1.294323791440148</v>
+      </c>
+      <c r="J202" t="n">
         <v>1.595780916046108e-05</v>
       </c>
-      <c r="J202" t="n">
+      <c r="K202" t="n">
         <v>0.2491597883831999</v>
       </c>
-      <c r="K202" t="b">
-        <v>0</v>
-      </c>
       <c r="L202" t="b">
+        <v>0</v>
+      </c>
+      <c r="M202" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8953,7 +9762,8 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75998, 0.90819, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75998 0.90819 0.975  ]]</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8962,15 +9772,18 @@
         </is>
       </c>
       <c r="I203" t="n">
+        <v>1.49088096652818</v>
+      </c>
+      <c r="J203" t="n">
         <v>8.632235975886356e-05</v>
       </c>
-      <c r="J203" t="n">
+      <c r="K203" t="n">
         <v>0.6166739930119999</v>
       </c>
-      <c r="K203" t="b">
-        <v>0</v>
-      </c>
       <c r="L203" t="b">
+        <v>0</v>
+      </c>
+      <c r="M203" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8995,7 +9808,8 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.21256, 0.72068, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.21256 0.72068 0.975  ]]</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -9004,15 +9818,18 @@
         </is>
       </c>
       <c r="I204" t="n">
+        <v>1.192327702887088</v>
+      </c>
+      <c r="J204" t="n">
         <v>0.0003560311298754342</v>
       </c>
-      <c r="J204" t="n">
+      <c r="K204" t="n">
         <v>0.1239595846008</v>
       </c>
-      <c r="K204" t="b">
-        <v>0</v>
-      </c>
       <c r="L204" t="b">
+        <v>0</v>
+      </c>
+      <c r="M204" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9037,7 +9854,8 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.6368 , 0.55179]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.6368  0.55179]]</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -9046,15 +9864,18 @@
         </is>
       </c>
       <c r="I205" t="n">
+        <v>1.246718299802526</v>
+      </c>
+      <c r="J205" t="n">
         <v>1.331384143935641e-05</v>
       </c>
-      <c r="J205" t="n">
+      <c r="K205" t="n">
         <v>0.3061758177928125</v>
       </c>
-      <c r="K205" t="b">
-        <v>0</v>
-      </c>
       <c r="L205" t="b">
+        <v>0</v>
+      </c>
+      <c r="M205" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9079,7 +9900,8 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.84401, 0.975  , 0.45893]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.84401 0.975   0.45893]]</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -9088,15 +9910,18 @@
         </is>
       </c>
       <c r="I206" t="n">
+        <v>1.327246228417696</v>
+      </c>
+      <c r="J206" t="n">
         <v>0.006340770550030407</v>
       </c>
-      <c r="J206" t="n">
+      <c r="K206" t="n">
         <v>0.337626976131</v>
       </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
       <c r="L206" t="b">
+        <v>1</v>
+      </c>
+      <c r="M206" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9121,7 +9946,8 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.75993, 0.90811, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.75993 0.90811 0.975  ]]</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -9130,15 +9956,18 @@
         </is>
       </c>
       <c r="I207" t="n">
+        <v>1.490804291311572</v>
+      </c>
+      <c r="J207" t="n">
         <v>0.0001209419976838267</v>
       </c>
-      <c r="J207" t="n">
+      <c r="K207" t="n">
         <v>0.6165689174602</v>
       </c>
-      <c r="K207" t="b">
-        <v>0</v>
-      </c>
       <c r="L207" t="b">
+        <v>0</v>
+      </c>
+      <c r="M207" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9163,7 +9992,8 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.41837, 0.975  , 0.09773]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.41837 0.975   0.09773]]</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -9172,15 +10002,18 @@
         </is>
       </c>
       <c r="I208" t="n">
+        <v>1.030791411856293</v>
+      </c>
+      <c r="J208" t="n">
         <v>0.001634965579034274</v>
       </c>
-      <c r="J208" t="n">
+      <c r="K208" t="n">
         <v>0.027180761887565</v>
       </c>
-      <c r="K208" t="b">
-        <v>0</v>
-      </c>
       <c r="L208" t="b">
+        <v>0</v>
+      </c>
+      <c r="M208" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9205,7 +10038,8 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.04405, 0.30701, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.04405 0.30701 0.975  ]]</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -9214,15 +10048,18 @@
         </is>
       </c>
       <c r="I209" t="n">
+        <v>0.991157108167802</v>
+      </c>
+      <c r="J209" t="n">
         <v>0.0005984744284004732</v>
       </c>
-      <c r="J209" t="n">
+      <c r="K209" t="n">
         <v>0.005102765082699999</v>
       </c>
-      <c r="K209" t="b">
-        <v>0</v>
-      </c>
       <c r="L209" t="b">
+        <v>0</v>
+      </c>
+      <c r="M209" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9247,7 +10084,8 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.12358, 0.12358, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.12358 0.12358 0.975  ]]</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -9256,15 +10094,18 @@
         </is>
       </c>
       <c r="I210" t="n">
+        <v>0.9601745904615473</v>
+      </c>
+      <c r="J210" t="n">
         <v>0.0002847790346095218</v>
       </c>
-      <c r="J210" t="n">
+      <c r="K210" t="n">
         <v>0.0092317409798</v>
       </c>
-      <c r="K210" t="b">
-        <v>0</v>
-      </c>
       <c r="L210" t="b">
+        <v>0</v>
+      </c>
+      <c r="M210" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9289,7 +10130,8 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05076, 0.12084, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.05076 0.12084 0.975  ]]</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -9298,15 +10140,18 @@
         </is>
       </c>
       <c r="I211" t="n">
+        <v>0.9551696603394655</v>
+      </c>
+      <c r="J211" t="n">
         <v>0.0001905921691495498</v>
       </c>
-      <c r="J211" t="n">
+      <c r="K211" t="n">
         <v>0.002345430056895</v>
       </c>
-      <c r="K211" t="b">
-        <v>0</v>
-      </c>
       <c r="L211" t="b">
+        <v>0</v>
+      </c>
+      <c r="M211" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9331,7 +10176,8 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.05493, 0.08613, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.05493 0.08613 0.975  ]]</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -9340,15 +10186,18 @@
         </is>
       </c>
       <c r="I212" t="n">
+        <v>0.952435129277186</v>
+      </c>
+      <c r="J212" t="n">
         <v>9.025291300841998e-05</v>
       </c>
-      <c r="J212" t="n">
+      <c r="K212" t="n">
         <v>0.001738359126875</v>
       </c>
-      <c r="K212" t="b">
-        <v>0</v>
-      </c>
       <c r="L212" t="b">
+        <v>0</v>
+      </c>
+      <c r="M212" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9373,7 +10222,8 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02655, 0.025  , 0.02525]), TrackedArray([0.46452, 0.975  , 0.09452]))</t>
+          <t>[[0.02655 0.025   0.02525]
+ [0.46452 0.975   0.09452]]</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -9382,15 +10232,18 @@
         </is>
       </c>
       <c r="I213" t="n">
+        <v>1.048386406297964</v>
+      </c>
+      <c r="J213" t="n">
         <v>0.0005383789458012969</v>
       </c>
-      <c r="J213" t="n">
+      <c r="K213" t="n">
         <v>0.02882194424788575</v>
       </c>
-      <c r="K213" t="b">
-        <v>0</v>
-      </c>
       <c r="L213" t="b">
+        <v>0</v>
+      </c>
+      <c r="M213" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9415,7 +10268,8 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025 , 0.025 , 0.0252]), TrackedArray([0.28441, 0.975  , 0.08598]))</t>
+          <t>[[0.025   0.025   0.0252 ]
+ [0.28441 0.975   0.08598]]</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -9424,15 +10278,18 @@
         </is>
       </c>
       <c r="I214" t="n">
+        <v>0.9866539483778697</v>
+      </c>
+      <c r="J214" t="n">
         <v>0.000843582869486666</v>
       </c>
-      <c r="J214" t="n">
+      <c r="K214" t="n">
         <v>0.01497704798992</v>
       </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
       <c r="L214" t="b">
+        <v>1</v>
+      </c>
+      <c r="M214" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9457,7 +10314,8 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02506, 0.025  , 0.02503]), TrackedArray([0.26975, 0.975  , 0.06549]))</t>
+          <t>[[0.02506 0.025   0.02503]
+ [0.26975 0.975   0.06549]]</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -9466,15 +10324,18 @@
         </is>
       </c>
       <c r="I215" t="n">
+        <v>0.9818408100340464</v>
+      </c>
+      <c r="J215" t="n">
         <v>0.06494472469930278</v>
       </c>
-      <c r="J215" t="n">
+      <c r="K215" t="n">
         <v>0.009405908309349748</v>
       </c>
-      <c r="K215" t="b">
-        <v>0</v>
-      </c>
       <c r="L215" t="b">
+        <v>0</v>
+      </c>
+      <c r="M215" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9499,7 +10360,8 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02512, 0.025  , 0.025  ]), TrackedArray([0.44415, 0.975  , 0.06419]))</t>
+          <t>[[0.02512 0.025   0.025  ]
+ [0.44415 0.975   0.06419]]</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9508,15 +10370,18 @@
         </is>
       </c>
       <c r="I216" t="n">
+        <v>1.039045937266184</v>
+      </c>
+      <c r="J216" t="n">
         <v>0.004282833850689033</v>
       </c>
-      <c r="J216" t="n">
+      <c r="K216" t="n">
         <v>0.01559969183422879</v>
       </c>
-      <c r="K216" t="b">
-        <v>0</v>
-      </c>
       <c r="L216" t="b">
+        <v>0</v>
+      </c>
+      <c r="M216" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9541,7 +10406,8 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02539, 0.025  ]), TrackedArray([0.22979, 0.07604, 0.97442]))</t>
+          <t>[[0.025   0.02539 0.025  ]
+ [0.22979 0.07604 0.97442]]</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9550,15 +10416,18 @@
         </is>
       </c>
       <c r="I217" t="n">
+        <v>0.9725726937987579</v>
+      </c>
+      <c r="J217" t="n">
         <v>0.0003573684656633618</v>
       </c>
-      <c r="J217" t="n">
+      <c r="K217" t="n">
         <v>0.009848593029662593</v>
       </c>
-      <c r="K217" t="b">
-        <v>0</v>
-      </c>
       <c r="L217" t="b">
+        <v>0</v>
+      </c>
+      <c r="M217" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9583,7 +10452,8 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.0255 , 0.02814, 0.025  ]), TrackedArray([0.22092, 0.07791, 0.97344]))</t>
+          <t>[[0.0255  0.02814 0.025  ]
+ [0.22092 0.07791 0.97344]]</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9592,15 +10462,18 @@
         </is>
       </c>
       <c r="I218" t="n">
+        <v>0.969639384478288</v>
+      </c>
+      <c r="J218" t="n">
         <v>0.00977703969522959</v>
       </c>
-      <c r="J218" t="n">
+      <c r="K218" t="n">
         <v>0.009225152976660354</v>
       </c>
-      <c r="K218" t="b">
-        <v>0</v>
-      </c>
       <c r="L218" t="b">
+        <v>0</v>
+      </c>
+      <c r="M218" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9625,7 +10498,8 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.22872, 0.0556 , 0.97108]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.22872 0.0556  0.97108]]</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9634,15 +10508,18 @@
         </is>
       </c>
       <c r="I219" t="n">
+        <v>0.9682521412563531</v>
+      </c>
+      <c r="J219" t="n">
         <v>1.872605474088358e-05</v>
       </c>
-      <c r="J219" t="n">
+      <c r="K219" t="n">
         <v>0.005898091483909225</v>
       </c>
-      <c r="K219" t="b">
-        <v>0</v>
-      </c>
       <c r="L219" t="b">
+        <v>0</v>
+      </c>
+      <c r="M219" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9667,7 +10544,8 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.025  , 0.02511]), TrackedArray([0.97497, 0.0565 , 0.2089 ]))</t>
+          <t>[[0.025   0.025   0.02511]
+ [0.97497 0.0565  0.2089 ]]</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9676,15 +10554,18 @@
         </is>
       </c>
       <c r="I220" t="n">
+        <v>0.9680998750473476</v>
+      </c>
+      <c r="J220" t="n">
         <v>0.0008682165576076732</v>
       </c>
-      <c r="J220" t="n">
+      <c r="K220" t="n">
         <v>0.005499642830204251</v>
       </c>
-      <c r="K220" t="b">
-        <v>0</v>
-      </c>
       <c r="L220" t="b">
+        <v>0</v>
+      </c>
+      <c r="M220" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9709,7 +10590,8 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72778, 0.975  , 0.72778]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.72778 0.975   0.72778]]</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9718,15 +10600,18 @@
         </is>
       </c>
       <c r="I221" t="n">
+        <v>1.374879570932669</v>
+      </c>
+      <c r="J221" t="n">
         <v>0.00229425835594984</v>
       </c>
-      <c r="J221" t="n">
+      <c r="K221" t="n">
         <v>0.4692020714198</v>
       </c>
-      <c r="K221" t="b">
-        <v>0</v>
-      </c>
       <c r="L221" t="b">
+        <v>0</v>
+      </c>
+      <c r="M221" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9751,7 +10636,8 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.02682, 0.02561, 0.025  ]), TrackedArray([0.46699, 0.975  , 0.54432]))</t>
+          <t>[[0.02682 0.02561 0.025  ]
+ [0.46699 0.975   0.54432]]</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9760,15 +10646,18 @@
         </is>
       </c>
       <c r="I222" t="n">
+        <v>1.168239913937958</v>
+      </c>
+      <c r="J222" t="n">
         <v>0.02356440389067259</v>
       </c>
-      <c r="J222" t="n">
+      <c r="K222" t="n">
         <v>0.2170203488597468</v>
       </c>
-      <c r="K222" t="b">
-        <v>0</v>
-      </c>
       <c r="L222" t="b">
+        <v>0</v>
+      </c>
+      <c r="M222" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9793,7 +10682,8 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.68578, 0.975  , 0.69614]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.68578 0.975   0.69614]]</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9802,15 +10692,18 @@
         </is>
       </c>
       <c r="I223" t="n">
+        <v>1.337741057611674</v>
+      </c>
+      <c r="J223" t="n">
         <v>6.509696913035947e-05</v>
       </c>
-      <c r="J223" t="n">
+      <c r="K223" t="n">
         <v>0.4212982889336</v>
       </c>
-      <c r="K223" t="b">
-        <v>0</v>
-      </c>
       <c r="L223" t="b">
+        <v>0</v>
+      </c>
+      <c r="M223" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9835,7 +10728,8 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.5701 , 0.975  , 0.60681]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.5701  0.975   0.60681]]</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9844,15 +10738,18 @@
         </is>
       </c>
       <c r="I224" t="n">
+        <v>1.240218255118832</v>
+      </c>
+      <c r="J224" t="n">
         <v>0.0001037527882258007</v>
       </c>
-      <c r="J224" t="n">
+      <c r="K224" t="n">
         <v>0.30128957545635</v>
       </c>
-      <c r="K224" t="b">
-        <v>0</v>
-      </c>
       <c r="L224" t="b">
+        <v>0</v>
+      </c>
+      <c r="M224" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9877,7 +10774,8 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.70218, 0.975  , 0.66904]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.70218 0.975   0.66904]]</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9886,15 +10784,18 @@
         </is>
       </c>
       <c r="I225" t="n">
+        <v>1.332616591348389</v>
+      </c>
+      <c r="J225" t="n">
         <v>0.002552374671082288</v>
       </c>
-      <c r="J225" t="n">
+      <c r="K225" t="n">
         <v>0.4143275475168</v>
       </c>
-      <c r="K225" t="b">
-        <v>0</v>
-      </c>
       <c r="L225" t="b">
+        <v>0</v>
+      </c>
+      <c r="M225" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9919,7 +10820,8 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.72976, 0.975  , 0.72976]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.72976 0.975   0.72976]]</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9928,15 +10830,18 @@
         </is>
       </c>
       <c r="I226" t="n">
+        <v>1.376909202993429</v>
+      </c>
+      <c r="J226" t="n">
         <v>0.0003921532034501675</v>
       </c>
-      <c r="J226" t="n">
+      <c r="K226" t="n">
         <v>0.4718550028118</v>
       </c>
-      <c r="K226" t="b">
-        <v>0</v>
-      </c>
       <c r="L226" t="b">
+        <v>0</v>
+      </c>
+      <c r="M226" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9961,7 +10866,8 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.35829, 0.975  , 0.41154]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.35829 0.975   0.41154]]</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9970,15 +10876,18 @@
         </is>
       </c>
       <c r="I227" t="n">
+        <v>1.078424125539669</v>
+      </c>
+      <c r="J227" t="n">
         <v>6.230126594257498e-05</v>
       </c>
-      <c r="J227" t="n">
+      <c r="K227" t="n">
         <v>0.12238963667975</v>
       </c>
-      <c r="K227" t="b">
-        <v>0</v>
-      </c>
       <c r="L227" t="b">
+        <v>0</v>
+      </c>
+      <c r="M227" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10003,7 +10912,8 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.405  , 0.975  , 0.40384]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.405   0.975   0.40384]]</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -10012,15 +10922,18 @@
         </is>
       </c>
       <c r="I228" t="n">
+        <v>1.091062890141535</v>
+      </c>
+      <c r="J228" t="n">
         <v>0.001213741904721069</v>
       </c>
-      <c r="J228" t="n">
+      <c r="K228" t="n">
         <v>0.136760518</v>
       </c>
-      <c r="K228" t="b">
-        <v>0</v>
-      </c>
       <c r="L228" t="b">
+        <v>0</v>
+      </c>
+      <c r="M228" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10045,7 +10958,8 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.55085, 0.975  , 0.62458]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.55085 0.975   0.62458]]</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -10054,15 +10968,18 @@
         </is>
       </c>
       <c r="I229" t="n">
+        <v>1.240369442887884</v>
+      </c>
+      <c r="J229" t="n">
         <v>0.0005334409098800224</v>
       </c>
-      <c r="J229" t="n">
+      <c r="K229" t="n">
         <v>0.29952589509265</v>
       </c>
-      <c r="K229" t="b">
-        <v>0</v>
-      </c>
       <c r="L229" t="b">
+        <v>0</v>
+      </c>
+      <c r="M229" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10087,7 +11004,8 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.24254, 0.975  , 0.22572]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.24254 0.975   0.22572]]</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -10096,15 +11014,18 @@
         </is>
       </c>
       <c r="I230" t="n">
+        <v>0.9950438368675021</v>
+      </c>
+      <c r="J230" t="n">
         <v>0.001741736583522547</v>
       </c>
-      <c r="J230" t="n">
+      <c r="K230" t="n">
         <v>0.04148136539820001</v>
       </c>
-      <c r="K230" t="b">
-        <v>0</v>
-      </c>
       <c r="L230" t="b">
+        <v>0</v>
+      </c>
+      <c r="M230" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10129,7 +11050,8 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.38296, 0.975  , 0.3995 ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.38296 0.975   0.3995 ]]</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -10138,15 +11060,18 @@
         </is>
       </c>
       <c r="I231" t="n">
+        <v>1.082072302512637</v>
+      </c>
+      <c r="J231" t="n">
         <v>0.0005863661447857373</v>
       </c>
-      <c r="J231" t="n">
+      <c r="K231" t="n">
         <v>0.1273507914384</v>
       </c>
-      <c r="K231" t="b">
-        <v>0</v>
-      </c>
       <c r="L231" t="b">
+        <v>0</v>
+      </c>
+      <c r="M231" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10171,7 +11096,8 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.53825, 0.975  , 0.55673]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.53825 0.975   0.55673]]</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -10180,15 +11106,18 @@
         </is>
       </c>
       <c r="I232" t="n">
+        <v>1.203606081237961</v>
+      </c>
+      <c r="J232" t="n">
         <v>0.0003918203221181705</v>
       </c>
-      <c r="J232" t="n">
+      <c r="K232" t="n">
         <v>0.2592673744301999</v>
       </c>
-      <c r="K232" t="b">
-        <v>0</v>
-      </c>
       <c r="L232" t="b">
+        <v>0</v>
+      </c>
+      <c r="M232" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10213,7 +11142,8 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46015, 0.975  , 0.47582]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.46015 0.975   0.47582]]</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -10222,15 +11152,18 @@
         </is>
       </c>
       <c r="I233" t="n">
+        <v>1.138024389342337</v>
+      </c>
+      <c r="J233" t="n">
         <v>9.637779485730415e-05</v>
       </c>
-      <c r="J233" t="n">
+      <c r="K233" t="n">
         <v>0.18636813187305</v>
       </c>
-      <c r="K233" t="b">
-        <v>0</v>
-      </c>
       <c r="L233" t="b">
+        <v>0</v>
+      </c>
+      <c r="M233" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10255,7 +11188,8 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.61843, 0.38125]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.61843 0.38125]]</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -10264,15 +11198,18 @@
         </is>
       </c>
       <c r="I234" t="n">
+        <v>1.175402018451559</v>
+      </c>
+      <c r="J234" t="n">
         <v>0.0009292084722142014</v>
       </c>
-      <c r="J234" t="n">
+      <c r="K234" t="n">
         <v>0.2008387393843999</v>
       </c>
-      <c r="K234" t="b">
-        <v>0</v>
-      </c>
       <c r="L234" t="b">
+        <v>0</v>
+      </c>
+      <c r="M234" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10297,7 +11234,8 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.74465, 0.75526]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.74465 0.75526]]</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -10306,15 +11244,18 @@
         </is>
       </c>
       <c r="I235" t="n">
+        <v>1.397739036617708</v>
+      </c>
+      <c r="J235" t="n">
         <v>0.0008655712038301684</v>
       </c>
-      <c r="J235" t="n">
+      <c r="K235" t="n">
         <v>0.4992543045531</v>
       </c>
-      <c r="K235" t="b">
-        <v>0</v>
-      </c>
       <c r="L235" t="b">
+        <v>0</v>
+      </c>
+      <c r="M235" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10339,7 +11280,8 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.59618, 0.43685]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.59618 0.43685]]</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -10348,15 +11290,18 @@
         </is>
       </c>
       <c r="I236" t="n">
+        <v>1.182525827862546</v>
+      </c>
+      <c r="J236" t="n">
         <v>0.002001445678988587</v>
       </c>
-      <c r="J236" t="n">
+      <c r="K236" t="n">
         <v>0.2234783074855499</v>
       </c>
-      <c r="K236" t="b">
-        <v>0</v>
-      </c>
       <c r="L236" t="b">
+        <v>0</v>
+      </c>
+      <c r="M236" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10381,7 +11326,8 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.25027, 0.23617]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.25027 0.23617]]</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -10390,15 +11336,18 @@
         </is>
       </c>
       <c r="I237" t="n">
+        <v>0.9989184525220264</v>
+      </c>
+      <c r="J237" t="n">
         <v>0.00108864211424962</v>
       </c>
-      <c r="J237" t="n">
+      <c r="K237" t="n">
         <v>0.0451911105855</v>
       </c>
-      <c r="K237" t="b">
-        <v>0</v>
-      </c>
       <c r="L237" t="b">
+        <v>0</v>
+      </c>
+      <c r="M237" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10423,7 +11372,8 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.40595, 0.975  , 0.40595]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.40595 0.975   0.40595]]</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -10432,15 +11382,18 @@
         </is>
       </c>
       <c r="I238" t="n">
+        <v>1.092129721599957</v>
+      </c>
+      <c r="J238" t="n">
         <v>9.153055386713679e-05</v>
       </c>
-      <c r="J238" t="n">
+      <c r="K238" t="n">
         <v>0.13786748118095</v>
       </c>
-      <c r="K238" t="b">
-        <v>0</v>
-      </c>
       <c r="L238" t="b">
+        <v>0</v>
+      </c>
+      <c r="M238" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10465,7 +11418,8 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.84105, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.84105 0.975  ]]</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -10474,15 +11428,18 @@
         </is>
       </c>
       <c r="I239" t="n">
+        <v>1.571921627340244</v>
+      </c>
+      <c r="J239" t="n">
         <v>0.01783165915719444</v>
       </c>
-      <c r="J239" t="n">
+      <c r="K239" t="n">
         <v>0.7364851249999999</v>
       </c>
-      <c r="K239" t="b">
-        <v>0</v>
-      </c>
       <c r="L239" t="b">
+        <v>0</v>
+      </c>
+      <c r="M239" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10507,7 +11464,8 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.73251, 0.35051, 0.975  ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.73251 0.35051 0.975  ]]</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -10516,15 +11474,18 @@
         </is>
       </c>
       <c r="I240" t="n">
+        <v>1.2284260829472</v>
+      </c>
+      <c r="J240" t="n">
         <v>9.369465416477644e-05</v>
       </c>
-      <c r="J240" t="n">
+      <c r="K240" t="n">
         <v>0.2187877917004</v>
       </c>
-      <c r="K240" t="b">
-        <v>0</v>
-      </c>
       <c r="L240" t="b">
+        <v>0</v>
+      </c>
+      <c r="M240" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10549,7 +11510,8 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.46091, 0.975  , 0.46112]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.46091 0.975   0.46112]]</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -10558,15 +11520,18 @@
         </is>
       </c>
       <c r="I241" t="n">
+        <v>1.132571490393432</v>
+      </c>
+      <c r="J241" t="n">
         <v>9.091806591361756e-08</v>
       </c>
-      <c r="J241" t="n">
+      <c r="K241" t="n">
         <v>0.1806036165228</v>
       </c>
-      <c r="K241" t="b">
-        <v>0</v>
-      </c>
       <c r="L241" t="b">
+        <v>0</v>
+      </c>
+      <c r="M241" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10591,7 +11556,8 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.38093, 0.5    ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.38093 0.5    ]]</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10600,15 +11566,18 @@
         </is>
       </c>
       <c r="I242" t="n">
+        <v>1.120183435573389</v>
+      </c>
+      <c r="J242" t="n">
         <v>0.0006813556252919533</v>
       </c>
-      <c r="J242" t="n">
+      <c r="K242" t="n">
         <v>0.1606127350113</v>
       </c>
-      <c r="K242" t="b">
-        <v>0</v>
-      </c>
       <c r="L242" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10633,7 +11602,8 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025  , 0.02623, 0.025  ]), TrackedArray([0.70357, 0.44378, 0.975  ]))</t>
+          <t>[[0.025   0.02623 0.025  ]
+ [0.70357 0.44378 0.975  ]]</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10642,15 +11612,18 @@
         </is>
       </c>
       <c r="I243" t="n">
+        <v>1.239881487675883</v>
+      </c>
+      <c r="J243" t="n">
         <v>0.1286547542692651</v>
       </c>
-      <c r="J243" t="n">
+      <c r="K243" t="n">
         <v>0.2691700682120299</v>
       </c>
-      <c r="K243" t="b">
-        <v>0</v>
-      </c>
       <c r="L243" t="b">
+        <v>0</v>
+      </c>
+      <c r="M243" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10675,7 +11648,8 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975  , 0.47863, 0.5    ]))</t>
+          <t>[[0.025   0.025   0.025  ]
+ [0.975   0.47863 0.5    ]]</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -10684,15 +11658,18 @@
         </is>
       </c>
       <c r="I244" t="n">
+        <v>1.154946163518023</v>
+      </c>
+      <c r="J244" t="n">
         <v>0.004597958658645679</v>
       </c>
-      <c r="J244" t="n">
+      <c r="K244" t="n">
         <v>0.20469828125</v>
       </c>
-      <c r="K244" t="b">
-        <v>0</v>
-      </c>
       <c r="L244" t="b">
+        <v>0</v>
+      </c>
+      <c r="M244" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10717,7 +11694,8 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>(TrackedArray([0.025, 0.025, 0.025]), TrackedArray([0.975, 0.5  , 0.5  ]))</t>
+          <t>[[0.025 0.025 0.025]
+ [0.975 0.5   0.5  ]]</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -10726,15 +11704,18 @@
         </is>
       </c>
       <c r="I245" t="n">
+        <v>1.16350762782201</v>
+      </c>
+      <c r="J245" t="n">
         <v>0.001119938230630489</v>
       </c>
-      <c r="J245" t="n">
+      <c r="K245" t="n">
         <v>0.21434375</v>
       </c>
-      <c r="K245" t="b">
-        <v>0</v>
-      </c>
       <c r="L245" t="b">
+        <v>0</v>
+      </c>
+      <c r="M245" t="b">
         <v>0</v>
       </c>
     </row>
